--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3495" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4053FEAC-DDA2-44DC-837D-C1EC97296B8A}"/>
+  <xr:revisionPtr revIDLastSave="3904" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC07046-FAAB-4AB1-ABD3-6A4DD26136F9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="30" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="31" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -39,16 +39,26 @@
     <sheet name="A3-6" sheetId="34" r:id="rId29"/>
     <sheet name="A3-7" sheetId="12" r:id="rId30"/>
     <sheet name="A3-8" sheetId="13" r:id="rId31"/>
-    <sheet name="B3-1" sheetId="27" r:id="rId32"/>
-    <sheet name="B3-2" sheetId="28" r:id="rId33"/>
-    <sheet name="B3-3" sheetId="29" r:id="rId34"/>
-    <sheet name="B3-4" sheetId="30" r:id="rId35"/>
-    <sheet name="B3-5" sheetId="35" r:id="rId36"/>
-    <sheet name="B3-6" sheetId="31" r:id="rId37"/>
-    <sheet name="B3-7" sheetId="32" r:id="rId38"/>
-    <sheet name="B3-8" sheetId="33" r:id="rId39"/>
-    <sheet name="Q4-12" sheetId="9" r:id="rId40"/>
-    <sheet name="Q4-13" sheetId="10" r:id="rId41"/>
+    <sheet name="A3-8-2" sheetId="55" r:id="rId32"/>
+    <sheet name="B3-1" sheetId="27" r:id="rId33"/>
+    <sheet name="B3-2" sheetId="28" r:id="rId34"/>
+    <sheet name="B3-3" sheetId="29" r:id="rId35"/>
+    <sheet name="B3-4" sheetId="30" r:id="rId36"/>
+    <sheet name="B3-5" sheetId="35" r:id="rId37"/>
+    <sheet name="B3-6" sheetId="31" r:id="rId38"/>
+    <sheet name="B3-7" sheetId="32" r:id="rId39"/>
+    <sheet name="B3-8" sheetId="33" r:id="rId40"/>
+    <sheet name="Q4-12" sheetId="9" r:id="rId41"/>
+    <sheet name="Q4-13" sheetId="10" r:id="rId42"/>
+    <sheet name="A4-1" sheetId="46" r:id="rId43"/>
+    <sheet name="A4-2" sheetId="47" r:id="rId44"/>
+    <sheet name="A4-3" sheetId="48" r:id="rId45"/>
+    <sheet name="A4-4" sheetId="49" r:id="rId46"/>
+    <sheet name="A4-5" sheetId="50" r:id="rId47"/>
+    <sheet name="A4-6" sheetId="51" r:id="rId48"/>
+    <sheet name="A4-7" sheetId="54" r:id="rId49"/>
+    <sheet name="A4-8" sheetId="52" r:id="rId50"/>
+    <sheet name="A4-9" sheetId="53" r:id="rId51"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="239">
   <si>
     <t>見docx檔</t>
   </si>
@@ -508,16 +518,19 @@
     <t>應付水電費</t>
   </si>
   <si>
+    <t>A3-8</t>
+  </si>
+  <si>
+    <t>如上</t>
+  </si>
+  <si>
+    <t>張氏洗車行</t>
+  </si>
+  <si>
     <t>應收洗車費用</t>
   </si>
   <si>
-    <t>A3-8</t>
-  </si>
-  <si>
-    <t>如上</t>
-  </si>
-  <si>
-    <t>張氏洗車行</t>
+    <t>約當現金(本票)</t>
   </si>
   <si>
     <t>國隆顧問社</t>
@@ -665,15 +678,136 @@
   </si>
   <si>
     <t>租金收入</t>
+  </si>
+  <si>
+    <t>?表示數值未知</t>
+  </si>
+  <si>
+    <t>正泰商行</t>
+  </si>
+  <si>
+    <t>科目餘額</t>
+  </si>
+  <si>
+    <t>空格代表沒有數值</t>
+  </si>
+  <si>
+    <t>調整前</t>
+  </si>
+  <si>
+    <t>調整後</t>
+  </si>
+  <si>
+    <t>應收收入</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>預付租金</t>
+  </si>
+  <si>
+    <t>累積折舊</t>
+  </si>
+  <si>
+    <t>業務收入</t>
+  </si>
+  <si>
+    <t>折舊</t>
+  </si>
+  <si>
+    <t>調整分錄</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>遞延項目的期末調整</t>
+  </si>
+  <si>
+    <t>事項</t>
+  </si>
+  <si>
+    <t>基礎</t>
+  </si>
+  <si>
+    <t>參考</t>
+  </si>
+  <si>
+    <t>權責基礎</t>
+  </si>
+  <si>
+    <t>課本CH4-4</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>每種情況所用的基礎會不同</t>
+  </si>
+  <si>
+    <t>預收租金收入</t>
+  </si>
+  <si>
+    <t>聯合基礎</t>
+  </si>
+  <si>
+    <t>預付租金費用</t>
+  </si>
+  <si>
+    <t>預收票據(本票)</t>
+  </si>
+  <si>
+    <t>年利率</t>
+  </si>
+  <si>
+    <t>一個月的利息</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>已知</t>
+  </si>
+  <si>
+    <t>同時出租</t>
+  </si>
+  <si>
+    <t>出租半年</t>
+  </si>
+  <si>
+    <t>預收租金</t>
+  </si>
+  <si>
+    <t>年底時調整分錄的試算表如右</t>
+  </si>
+  <si>
+    <t>試問</t>
+  </si>
+  <si>
+    <t>何時起租</t>
+  </si>
+  <si>
+    <t>每月租金多少</t>
+  </si>
+  <si>
+    <t>2020/10/1預付一年保費9600元</t>
+  </si>
+  <si>
+    <t>現金基礎</t>
+  </si>
+  <si>
+    <t>預收租金費用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -884,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -932,6 +1066,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5960,10 +6095,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38838F7F-57D8-489C-B8D0-EF36DCB6C7EF}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6307,33 +6442,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="37">
-        <v>50000</v>
-      </c>
-      <c r="B37" s="38">
-        <v>7</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="39"/>
-      <c r="C38" s="10">
-        <v>40000</v>
-      </c>
-      <c r="D38" s="10">
-        <v>8</v>
-      </c>
-    </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6343,7 +6454,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6354,7 +6465,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="40"/>
       <c r="B45" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="38"/>
     </row>
@@ -6440,73 +6551,77 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B55" s="10">
-        <f>SUM(A37)-SUM(C38)</f>
+        <f>SUM('A3-8-2'!A15)-SUM('A3-8-2'!C16)</f>
         <v>10000</v>
       </c>
       <c r="C55" s="39"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="41"/>
+      <c r="C56" s="39"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B57" s="10">
         <f>SUM(F7,F9)-SUM(H8)</f>
         <v>20500</v>
       </c>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="41" t="s">
+      <c r="C57" s="39"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C58" s="39">
         <f>SUM(F12)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="41" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B59" s="10">
         <f>SUM(F18)</f>
         <v>10000</v>
       </c>
-      <c r="C58" s="39"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="41" t="s">
+      <c r="C59" s="39"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B60" s="10">
         <f>SUM(F15)-SUM(H15)</f>
         <v>6000</v>
       </c>
-      <c r="C59" s="39"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="46" t="s">
+      <c r="C60" s="39"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="45">
+      <c r="B61" s="12"/>
+      <c r="C61" s="45">
         <f>SUM(H21,H22,H23)</f>
         <v>178000</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="46" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="12">
-        <f>SUM(B49,B55,B56,B59)</f>
-        <v>904500</v>
-      </c>
-      <c r="C61" s="45">
-        <f>SUM(C50,C51,C53,C52,C54,C57,C60)</f>
+      <c r="B62" s="12">
+        <f>SUM(B49,B55,B57,B59,B60)</f>
+        <v>914500</v>
+      </c>
+      <c r="C62" s="45">
+        <f>SUM(C50,C51,C53,C52,C54,C58,C61)</f>
         <v>3054500</v>
       </c>
     </row>
@@ -6516,6 +6631,690 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537CB3F-1D04-4383-B494-1461432D2105}">
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="B4" s="38">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="10">
+        <v>400000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10">
+        <v>48000</v>
+      </c>
+      <c r="B7" s="39">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10">
+        <v>40000</v>
+      </c>
+      <c r="B8" s="39">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="10">
+        <v>360000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>500000</v>
+      </c>
+      <c r="B10" s="39">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10">
+        <v>80000</v>
+      </c>
+      <c r="B11" s="39">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="37">
+        <v>50000</v>
+      </c>
+      <c r="B15" s="38">
+        <v>7</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="10">
+        <v>40000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37">
+        <v>1600000</v>
+      </c>
+      <c r="D19" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10">
+        <v>360000</v>
+      </c>
+      <c r="B20" s="39">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="37">
+        <v>5000</v>
+      </c>
+      <c r="D23" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10">
+        <v>4500</v>
+      </c>
+      <c r="B24" s="39">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="10">
+        <v>500000</v>
+      </c>
+      <c r="D31" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10">
+        <v>54000</v>
+      </c>
+      <c r="B32" s="39">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10">
+        <v>60000</v>
+      </c>
+      <c r="D32" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37">
+        <v>80000</v>
+      </c>
+      <c r="D36" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B37" s="39">
+        <v>15</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="37">
+        <v>48000</v>
+      </c>
+      <c r="D40" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="10">
+        <v>50000</v>
+      </c>
+      <c r="D41" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="10"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="10">
+        <v>80000</v>
+      </c>
+      <c r="D42" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="37">
+        <v>30000</v>
+      </c>
+      <c r="B45" s="38">
+        <v>5</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="37">
+        <v>60000</v>
+      </c>
+      <c r="B48" s="38">
+        <v>11</v>
+      </c>
+      <c r="C48" s="37">
+        <v>54000</v>
+      </c>
+      <c r="D48" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="37">
+        <v>10000</v>
+      </c>
+      <c r="B51" s="38">
+        <v>13</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="37">
+        <v>2000000</v>
+      </c>
+      <c r="B54" s="38">
+        <v>2</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="37">
+        <v>20000</v>
+      </c>
+      <c r="B57" s="38">
+        <v>11</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="38"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="41"/>
+      <c r="B72" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="39"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="41"/>
+      <c r="B73" s="8">
+        <v>44105</v>
+      </c>
+      <c r="C73" s="39"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="10">
+        <f>SUM(A4,A7,A8,A10,A11)-SUM(C5,C6,C9,C12)</f>
+        <v>868000</v>
+      </c>
+      <c r="C75" s="39"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="10">
+        <f>SUM(A15)-SUM(C16)</f>
+        <v>10000</v>
+      </c>
+      <c r="C76" s="39"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="39">
+        <f>SUM(C19)-SUM(A20)</f>
+        <v>1240000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="39">
+        <f>SUM(C23)-SUM(A24)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="39">
+        <f>SUM(C27)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="39">
+        <f>SUM(C30:C33)-SUM(A32)</f>
+        <v>1526000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="39">
+        <f>SUM(C36)-SUM(A37)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="39">
+        <f>SUM(C40:C42)</f>
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="10">
+        <f>SUM(A45)</f>
+        <v>30000</v>
+      </c>
+      <c r="C83" s="39"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="10">
+        <f>SUM(A48)-SUM(C48)</f>
+        <v>6000</v>
+      </c>
+      <c r="C84" s="39"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="10">
+        <f>SUM(A51)</f>
+        <v>10000</v>
+      </c>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="10">
+        <f>SUM(A54)</f>
+        <v>2000000</v>
+      </c>
+      <c r="C86" s="39"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="10">
+        <f>SUM(A57)</f>
+        <v>20000</v>
+      </c>
+      <c r="C87" s="39"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="43">
+        <f>SUM(B75:B86)</f>
+        <v>2924000</v>
+      </c>
+      <c r="C88" s="44">
+        <f>SUM(C75:C86)</f>
+        <v>3024500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3704C3B4-98AF-40C2-8567-E8714CB36161}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
@@ -6556,7 +7355,7 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -6626,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>112</v>
@@ -6705,10 +7504,10 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P9" s="17">
         <v>120000</v>
@@ -6740,7 +7539,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="O10" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P10" s="17">
         <v>8000</v>
@@ -6798,10 +7597,10 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" s="17">
         <v>10000</v>
@@ -6862,7 +7661,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="8">
@@ -6875,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="28">
@@ -6906,7 +7705,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P17" s="1">
         <f>SUM(I10:I11)-SUM(L11)</f>
@@ -6916,7 +7715,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="O18" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="31">
@@ -6926,7 +7725,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6983,7 +7782,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -7024,7 +7823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D292554-D65B-49EA-837F-8FE09B451AED}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
@@ -7065,7 +7864,7 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -7195,7 +7994,7 @@
         <v>8</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="17">
         <v>600000</v>
@@ -7215,10 +8014,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="17"/>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P9" s="17">
         <v>12000</v>
@@ -7257,7 +8056,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P10" s="17">
         <v>4000</v>
@@ -7306,7 +8105,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
         <v>125</v>
@@ -7364,7 +8163,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P15" s="17">
         <f>SUM(I10,I11)-SUM(L10)</f>
@@ -7374,7 +8173,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="8">
@@ -7413,7 +8212,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7473,12 +8272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F3FB0B-A352-4295-8177-68B7EE3A5AEF}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7510,11 +8309,11 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -7585,7 +8384,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>112</v>
@@ -7665,7 +8464,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>96</v>
@@ -7701,7 +8500,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="O10" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="17">
         <v>80000</v>
@@ -7741,7 +8540,7 @@
         <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>86</v>
@@ -7777,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="28">
@@ -7789,7 +8588,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="17"/>
       <c r="O15" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="28">
@@ -7804,7 +8603,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="17"/>
       <c r="O16" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P16" s="17">
         <v>120000</v>
@@ -7827,7 +8626,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="17"/>
       <c r="O17" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="28">
@@ -7836,10 +8635,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="H18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="28">
@@ -7849,7 +8648,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="2"/>
@@ -7864,7 +8663,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P19" s="30"/>
       <c r="Q19" s="31">
@@ -7921,7 +8720,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -7981,7 +8780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419330E7-C1D5-4FBC-91E1-1F9ECB102290}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -8004,10 +8803,10 @@
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8053,7 +8852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BFC5C1-0EE4-40C5-84CA-B0BCD470285B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -8089,10 +8888,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8321,7 +9120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E935DE6F-1A58-45D8-957D-49FD2F62A327}">
   <dimension ref="A1:N43"/>
   <sheetViews>
@@ -8349,13 +9148,13 @@
         <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8363,7 +9162,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8371,13 +9170,13 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8401,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -8417,7 +9216,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -8430,13 +9229,13 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -8460,7 +9259,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -8475,7 +9274,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8488,13 +9287,13 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -8518,7 +9317,7 @@
         <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -8534,7 +9333,7 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8553,7 +9352,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -8579,7 +9378,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="F16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8607,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8661,7 +9460,7 @@
     <row r="29" spans="1:9">
       <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C29" s="4"/>
     </row>
@@ -8721,7 +9520,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" s="17">
         <v>2000</v>
@@ -8730,7 +9529,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B37" s="17">
         <v>5000</v>
@@ -8739,7 +9538,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38" s="17">
         <v>10000</v>
@@ -8757,7 +9556,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40" s="17">
         <v>3000</v>
@@ -8766,7 +9565,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B41" s="17">
         <v>7000</v>
@@ -8800,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFA88D-4C7C-4324-946D-0EC2582679B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8814,296 +9613,6 @@
       <c r="A1" t="s">
         <v>139</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59407729-49A8-434D-B2D2-C748A6C4CDB5}">
-  <dimension ref="A2:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="27">
-        <v>800</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25">
-        <v>800</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="27">
-        <v>800</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="27"/>
-      <c r="B9" s="25">
-        <v>1500</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="27">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="27">
-        <v>1500</v>
-      </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="27"/>
-      <c r="B13" s="25">
-        <v>20000</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="27">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25">
-        <v>20000</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="27">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="17">
-        <v>4</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="27"/>
-      <c r="B17" s="25">
-        <v>300000</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="27">
-        <v>300000</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25">
-        <v>300000</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="27">
-        <v>300000</v>
-      </c>
-      <c r="K17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9844,6 +10353,296 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59407729-49A8-434D-B2D2-C748A6C4CDB5}">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="27">
+        <v>800</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="25">
+        <v>800</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="27">
+        <v>800</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="27">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="27">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25">
+        <v>20000</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25">
+        <v>20000</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="27">
+        <v>20000</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="27">
+        <v>300000</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="25">
+        <v>300000</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="27">
+        <v>300000</v>
+      </c>
+      <c r="K17" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BAE391-BD9F-46B1-B70A-778937C14955}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9858,15 +10657,15 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="9">
         <v>2000</v>
@@ -9874,7 +10673,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" s="9">
         <v>2000</v>
@@ -9887,7 +10686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A08C39-327B-46C9-BCEE-7EA1F3151546}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -9902,10 +10701,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9916,13 +10715,976 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" s="9">
         <v>2000</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB7A733-4595-4CAA-80D7-448F3C49A65F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A63C76-62F1-437A-B462-158C99480C2D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDE1CE6-EAF2-44E1-89F6-6082C649E6F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8841BD86-F628-4CA7-A97A-1D5C0B2772D8}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17">
+        <v>9000</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="17">
+        <v>36000</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
+        <v>36000</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="17">
+        <v>27000</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="17">
+        <v>90000</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
+        <v>90000</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17">
+        <v>120000</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17">
+        <v>54000</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17">
+        <v>120000</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17">
+        <v>39000</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17">
+        <v>60000</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17">
+        <v>87000</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="17">
+        <v>6000</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="17">
+        <v>228000</v>
+      </c>
+      <c r="C20" s="17">
+        <v>228000</v>
+      </c>
+      <c r="D20" s="17">
+        <v>261000</v>
+      </c>
+      <c r="E20" s="17">
+        <v>261000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F545D506-4AC4-41FC-8FD6-088673D87DB3}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="27.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="17"/>
+    <col min="13" max="13" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44075</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="17">
+        <f>9600*3/12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="17">
+        <f>9600*3/12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44120</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="17">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="F8" s="8"/>
+      <c r="G8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="17">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="17">
+        <f>84000*1.5/12</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" s="8"/>
+      <c r="G10" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="17">
+        <f>84000*1.5/12</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44105</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="F12" s="8"/>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="F13" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="17">
+        <f>30000*2/3</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="F14" s="8"/>
+      <c r="G14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="17">
+        <f>30000*2/3</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="17">
+        <v>4</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="8"/>
+      <c r="G16" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17" s="17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="8">
+        <v>44166</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="17">
+        <v>30000</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="17">
+        <f>H17*L17*1/12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="F18" s="8"/>
+      <c r="G18" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="F19" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="17">
+        <f>N17</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="G20" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="17">
+        <f>H19</f>
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45578E30-F9D3-4F76-9382-6BC559B79C90}">
+  <dimension ref="C1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA320B09-287A-4CD9-9777-E580613DDBFE}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="17">
+        <v>44105</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="17">
+        <v>44196</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="17">
+        <v>44105</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="17">
+        <v>44196</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="17">
+        <f>9600*1/12*2</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="C19" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="17">
+        <f>9600*1/12*2</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="17">
+        <v>44105</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="17">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="17">
+        <v>44196</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="17">
+        <f>9600*(1-2/12)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="17">
+        <f>9600*(1-2/12)</f>
+        <v>8000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10176,6 +11938,30 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3817003-26A3-49E2-B631-63A6797FD5C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B847A57-CA1A-48C4-B41F-C97C5546CA9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3904" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC07046-FAAB-4AB1-ABD3-6A4DD26136F9}"/>
+  <xr:revisionPtr revIDLastSave="3960" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A85F79-B7DB-428C-AD2A-FFA6BAD52B6F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="31" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="44" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -38,27 +38,26 @@
     <sheet name="A3-5" sheetId="11" r:id="rId28"/>
     <sheet name="A3-6" sheetId="34" r:id="rId29"/>
     <sheet name="A3-7" sheetId="12" r:id="rId30"/>
-    <sheet name="A3-8" sheetId="13" r:id="rId31"/>
-    <sheet name="A3-8-2" sheetId="55" r:id="rId32"/>
-    <sheet name="B3-1" sheetId="27" r:id="rId33"/>
-    <sheet name="B3-2" sheetId="28" r:id="rId34"/>
-    <sheet name="B3-3" sheetId="29" r:id="rId35"/>
-    <sheet name="B3-4" sheetId="30" r:id="rId36"/>
-    <sheet name="B3-5" sheetId="35" r:id="rId37"/>
-    <sheet name="B3-6" sheetId="31" r:id="rId38"/>
-    <sheet name="B3-7" sheetId="32" r:id="rId39"/>
-    <sheet name="B3-8" sheetId="33" r:id="rId40"/>
-    <sheet name="Q4-12" sheetId="9" r:id="rId41"/>
-    <sheet name="Q4-13" sheetId="10" r:id="rId42"/>
-    <sheet name="A4-1" sheetId="46" r:id="rId43"/>
-    <sheet name="A4-2" sheetId="47" r:id="rId44"/>
-    <sheet name="A4-3" sheetId="48" r:id="rId45"/>
-    <sheet name="A4-4" sheetId="49" r:id="rId46"/>
-    <sheet name="A4-5" sheetId="50" r:id="rId47"/>
-    <sheet name="A4-6" sheetId="51" r:id="rId48"/>
-    <sheet name="A4-7" sheetId="54" r:id="rId49"/>
-    <sheet name="A4-8" sheetId="52" r:id="rId50"/>
-    <sheet name="A4-9" sheetId="53" r:id="rId51"/>
+    <sheet name="A3-8" sheetId="55" r:id="rId31"/>
+    <sheet name="B3-1" sheetId="27" r:id="rId32"/>
+    <sheet name="B3-2" sheetId="28" r:id="rId33"/>
+    <sheet name="B3-3" sheetId="29" r:id="rId34"/>
+    <sheet name="B3-4" sheetId="30" r:id="rId35"/>
+    <sheet name="B3-5" sheetId="35" r:id="rId36"/>
+    <sheet name="B3-6" sheetId="31" r:id="rId37"/>
+    <sheet name="B3-7" sheetId="32" r:id="rId38"/>
+    <sheet name="B3-8" sheetId="33" r:id="rId39"/>
+    <sheet name="Q4-12" sheetId="9" r:id="rId40"/>
+    <sheet name="Q4-13" sheetId="10" r:id="rId41"/>
+    <sheet name="A4-1" sheetId="46" r:id="rId42"/>
+    <sheet name="A4-2" sheetId="47" r:id="rId43"/>
+    <sheet name="A4-3" sheetId="48" r:id="rId44"/>
+    <sheet name="A4-4" sheetId="49" r:id="rId45"/>
+    <sheet name="A4-5" sheetId="50" r:id="rId46"/>
+    <sheet name="A4-6" sheetId="51" r:id="rId47"/>
+    <sheet name="A4-7" sheetId="54" r:id="rId48"/>
+    <sheet name="A4-8" sheetId="52" r:id="rId49"/>
+    <sheet name="A4-9" sheetId="53" r:id="rId50"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="239">
   <si>
     <t>見docx檔</t>
   </si>
@@ -509,15 +508,21 @@
     <t>A2-5</t>
   </si>
   <si>
+    <t>應收洗車費用</t>
+  </si>
+  <si>
+    <t>應付水電費</t>
+  </si>
+  <si>
+    <t>約當現金(本票)</t>
+  </si>
+  <si>
+    <t>洗車收入</t>
+  </si>
+  <si>
     <t>洗車設備費</t>
   </si>
   <si>
-    <t>洗車收入</t>
-  </si>
-  <si>
-    <t>應付水電費</t>
-  </si>
-  <si>
     <t>A3-8</t>
   </si>
   <si>
@@ -525,12 +530,6 @@
   </si>
   <si>
     <t>張氏洗車行</t>
-  </si>
-  <si>
-    <t>應收洗車費用</t>
-  </si>
-  <si>
-    <t>約當現金(本票)</t>
   </si>
   <si>
     <t>國隆顧問社</t>
@@ -1018,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1064,8 +1063,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6094,548 +6091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38838F7F-57D8-489C-B8D0-EF36DCB6C7EF}">
-  <dimension ref="A1:I62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="B4" s="38">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="F4" s="37">
-        <v>2000000</v>
-      </c>
-      <c r="G4" s="38">
-        <v>2</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="39"/>
-      <c r="C5" s="10">
-        <v>400000</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="39"/>
-      <c r="C6" s="10">
-        <v>30000</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10">
-        <v>48000</v>
-      </c>
-      <c r="B7" s="39">
-        <v>6</v>
-      </c>
-      <c r="F7" s="37">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="38">
-        <v>3</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10">
-        <v>40000</v>
-      </c>
-      <c r="B8" s="39">
-        <v>8</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="10">
-        <v>4500</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="39"/>
-      <c r="C9" s="10">
-        <v>360000</v>
-      </c>
-      <c r="D9" s="10">
-        <v>9</v>
-      </c>
-      <c r="F9" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G9" s="39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B10" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10">
-        <v>80000</v>
-      </c>
-      <c r="B11" s="39">
-        <v>14</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="39"/>
-      <c r="C12" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="10">
-        <v>15</v>
-      </c>
-      <c r="F12" s="37">
-        <v>30000</v>
-      </c>
-      <c r="G12" s="38">
-        <v>5</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="D15" s="37">
-        <v>1</v>
-      </c>
-      <c r="F15" s="37">
-        <v>60000</v>
-      </c>
-      <c r="G15" s="38">
-        <v>11</v>
-      </c>
-      <c r="H15" s="37">
-        <v>54000</v>
-      </c>
-      <c r="I15" s="37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="39"/>
-      <c r="C16" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D16" s="10">
-        <v>10</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10">
-        <v>54000</v>
-      </c>
-      <c r="B17" s="39">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10">
-        <v>60000</v>
-      </c>
-      <c r="D17" s="10">
-        <v>11</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="39"/>
-      <c r="C18" s="10">
-        <v>20000</v>
-      </c>
-      <c r="D18" s="10">
-        <v>11</v>
-      </c>
-      <c r="F18" s="37">
-        <v>10000</v>
-      </c>
-      <c r="G18" s="38">
-        <v>13</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37">
-        <v>80000</v>
-      </c>
-      <c r="D21" s="37">
-        <v>14</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37">
-        <v>48000</v>
-      </c>
-      <c r="I21" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10">
-        <v>10000</v>
-      </c>
-      <c r="B22" s="39">
-        <v>15</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="10">
-        <v>50000</v>
-      </c>
-      <c r="I22" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="G23" s="39"/>
-      <c r="H23" s="10">
-        <v>80000</v>
-      </c>
-      <c r="I23" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="37">
-        <v>1600000</v>
-      </c>
-      <c r="D26" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10">
-        <v>360000</v>
-      </c>
-      <c r="B27" s="39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="37">
-        <v>5000</v>
-      </c>
-      <c r="D30" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10">
-        <v>4500</v>
-      </c>
-      <c r="B31" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="37">
-        <v>10000</v>
-      </c>
-      <c r="D34" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="40"/>
-      <c r="B45" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="38"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="39"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="8">
-        <v>44105</v>
-      </c>
-      <c r="C47" s="39"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="10">
-        <f>SUM(A4,A8,A7,A10,A11)-SUM(C5,C6,C9,C12)</f>
-        <v>868000</v>
-      </c>
-      <c r="C49" s="39"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="39">
-        <f>SUM(C15,C16,C17,C18)-SUM(A17)</f>
-        <v>1526000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="39">
-        <f>SUM(C21)-SUM(A22)</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="39">
-        <f>SUM(C26)-SUM(A27)</f>
-        <v>1240000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="39">
-        <f>SUM(C30)-SUM(A31)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="39">
-        <f>SUM(C34)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="10">
-        <f>SUM('A3-8-2'!A15)-SUM('A3-8-2'!C16)</f>
-        <v>10000</v>
-      </c>
-      <c r="C55" s="39"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="41"/>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="10">
-        <f>SUM(F7,F9)-SUM(H8)</f>
-        <v>20500</v>
-      </c>
-      <c r="C57" s="39"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="39">
-        <f>SUM(F12)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="10">
-        <f>SUM(F18)</f>
-        <v>10000</v>
-      </c>
-      <c r="C59" s="39"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="10">
-        <f>SUM(F15)-SUM(H15)</f>
-        <v>6000</v>
-      </c>
-      <c r="C60" s="39"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="45">
-        <f>SUM(H21,H22,H23)</f>
-        <v>178000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" s="12">
-        <f>SUM(B49,B55,B57,B59,B60)</f>
-        <v>914500</v>
-      </c>
-      <c r="C62" s="45">
-        <f>SUM(C50,C51,C53,C52,C54,C58,C61)</f>
-        <v>3054500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537CB3F-1D04-4383-B494-1461432D2105}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6759,7 +6219,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6821,7 +6281,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -6855,7 +6315,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -6938,14 +6398,14 @@
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="37">
+      <c r="A36" s="37">
         <v>80000</v>
       </c>
-      <c r="D36" s="37">
+      <c r="B36" s="38">
         <v>14</v>
       </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10">
@@ -6959,7 +6419,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -7067,7 +6527,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -7103,7 +6563,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -7117,7 +6577,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -7137,7 +6597,7 @@
     <row r="71" spans="1:3">
       <c r="A71" s="40"/>
       <c r="B71" s="37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C71" s="38"/>
     </row>
@@ -7178,7 +6638,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B76" s="10">
         <f>SUM(A15)-SUM(C16)</f>
@@ -7198,7 +6658,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="39">
@@ -7208,7 +6668,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="39">
@@ -7230,15 +6690,15 @@
       <c r="A81" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="39">
-        <f>SUM(C36)-SUM(A37)</f>
-        <v>70000</v>
-      </c>
+      <c r="B81" s="10">
+        <f>SUM(A36:A37)</f>
+        <v>90000</v>
+      </c>
+      <c r="C81" s="39"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="39">
@@ -7278,7 +6738,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B86" s="10">
         <f>SUM(A54)</f>
@@ -7302,11 +6762,11 @@
       </c>
       <c r="B88" s="43">
         <f>SUM(B75:B86)</f>
-        <v>2924000</v>
+        <v>3014000</v>
       </c>
       <c r="C88" s="44">
         <f>SUM(C75:C86)</f>
-        <v>3024500</v>
+        <v>2954500</v>
       </c>
     </row>
   </sheetData>
@@ -7314,7 +6774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3704C3B4-98AF-40C2-8567-E8714CB36161}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
@@ -7823,7 +7283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D292554-D65B-49EA-837F-8FE09B451AED}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
@@ -8272,7 +7732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F3FB0B-A352-4295-8177-68B7EE3A5AEF}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
@@ -8780,7 +8240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419330E7-C1D5-4FBC-91E1-1F9ECB102290}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -8852,7 +8312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BFC5C1-0EE4-40C5-84CA-B0BCD470285B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -9120,7 +8580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E935DE6F-1A58-45D8-957D-49FD2F62A327}">
   <dimension ref="A1:N43"/>
   <sheetViews>
@@ -9599,7 +9059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFA88D-4C7C-4324-946D-0EC2582679B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9613,6 +9073,296 @@
       <c r="A1" t="s">
         <v>139</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59407729-49A8-434D-B2D2-C748A6C4CDB5}">
+  <dimension ref="A2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="27">
+        <v>800</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="25">
+        <v>800</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="27">
+        <v>800</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="27">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="27">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25">
+        <v>20000</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25">
+        <v>20000</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="27">
+        <v>20000</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25">
+        <v>300000</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="27">
+        <v>300000</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="25">
+        <v>300000</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="27">
+        <v>300000</v>
+      </c>
+      <c r="K17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10353,296 +10103,6 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59407729-49A8-434D-B2D2-C748A6C4CDB5}">
-  <dimension ref="A2:K17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="27">
-        <v>800</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25">
-        <v>800</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="27">
-        <v>800</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="27"/>
-      <c r="B9" s="25">
-        <v>1500</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="27">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="27">
-        <v>1500</v>
-      </c>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="27"/>
-      <c r="B13" s="25">
-        <v>20000</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="27">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25">
-        <v>20000</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="27">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="17">
-        <v>4</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="27"/>
-      <c r="B17" s="25">
-        <v>300000</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="27">
-        <v>300000</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25">
-        <v>300000</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="27">
-        <v>300000</v>
-      </c>
-      <c r="K17" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BAE391-BD9F-46B1-B70A-778937C14955}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10686,7 +10146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A08C39-327B-46C9-BCEE-7EA1F3151546}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10728,7 +10188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB7A733-4595-4CAA-80D7-448F3C49A65F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10740,7 +10200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A63C76-62F1-437A-B462-158C99480C2D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10752,7 +10212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDE1CE6-EAF2-44E1-89F6-6082C649E6F2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10764,12 +10224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8841BD86-F628-4CA7-A97A-1D5C0B2772D8}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11047,7 +10507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F545D506-4AC4-41FC-8FD6-088673D87DB3}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -11275,7 +10735,7 @@
     <row r="16" spans="1:9">
       <c r="F16" s="8"/>
       <c r="G16" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="17">
         <v>2000</v>
@@ -11300,7 +10760,7 @@
       <c r="K17" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="45">
         <v>0.12</v>
       </c>
       <c r="M17" s="17" t="s">
@@ -11346,9 +10806,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45578E30-F9D3-4F76-9382-6BC559B79C90}">
-  <dimension ref="C1:H11"/>
+  <dimension ref="C1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -11357,27 +10817,34 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
+    <row r="1" spans="3:14">
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="3:8">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14">
       <c r="C2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:14">
       <c r="C3" t="s">
         <v>229</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
       <c r="C4" t="s">
         <v>230</v>
       </c>
@@ -11389,8 +10856,19 @@
         <v>12800</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="3:8">
+      <c r="J4" s="7">
+        <v>44136</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="3:14">
       <c r="C5" t="s">
         <v>232</v>
       </c>
@@ -11400,16 +10878,40 @@
       <c r="H5">
         <v>12800</v>
       </c>
-    </row>
-    <row r="7" spans="3:8">
+      <c r="L5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="J6" s="8">
+        <v>44196</v>
+      </c>
+      <c r="K6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
       <c r="C7" t="s">
         <v>233</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="3:8">
+      <c r="L7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
       <c r="C8" t="s">
         <v>234</v>
       </c>
@@ -11422,7 +10924,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:14">
       <c r="C9" t="s">
         <v>235</v>
       </c>
@@ -11432,10 +10934,49 @@
       <c r="H9">
         <v>6400</v>
       </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" t="s">
-        <v>5</v>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="J10" s="7">
+        <v>44501</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="L11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="J12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="K12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="L13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N13">
+        <v>6400</v>
       </c>
     </row>
   </sheetData>
@@ -11443,7 +10984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA320B09-287A-4CD9-9777-E580613DDBFE}">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -11687,6 +11228,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3817003-26A3-49E2-B631-63A6797FD5C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11943,18 +11496,6 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3817003-26A3-49E2-B631-63A6797FD5C0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B847A57-CA1A-48C4-B41F-C97C5546CA9D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3960" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A85F79-B7DB-428C-AD2A-FFA6BAD52B6F}"/>
+  <xr:revisionPtr revIDLastSave="4215" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771E2362-DEFD-417F-9B38-5FA6872436DB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="44" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="52" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -57,7 +57,25 @@
     <sheet name="A4-6" sheetId="51" r:id="rId47"/>
     <sheet name="A4-7" sheetId="54" r:id="rId48"/>
     <sheet name="A4-8" sheetId="52" r:id="rId49"/>
-    <sheet name="A4-9" sheetId="53" r:id="rId50"/>
+    <sheet name="B4-1" sheetId="53" r:id="rId50"/>
+    <sheet name="B4-2" sheetId="56" r:id="rId51"/>
+    <sheet name="B4-3" sheetId="57" r:id="rId52"/>
+    <sheet name="B4-4" sheetId="58" r:id="rId53"/>
+    <sheet name="B4-5" sheetId="59" r:id="rId54"/>
+    <sheet name="工作表5" sheetId="60" r:id="rId55"/>
+    <sheet name="工作表6" sheetId="61" r:id="rId56"/>
+    <sheet name="工作表7" sheetId="62" r:id="rId57"/>
+    <sheet name="工作表8" sheetId="63" r:id="rId58"/>
+    <sheet name="工作表9" sheetId="64" r:id="rId59"/>
+    <sheet name="工作表10" sheetId="65" r:id="rId60"/>
+    <sheet name="工作表11" sheetId="66" r:id="rId61"/>
+    <sheet name="工作表12" sheetId="67" r:id="rId62"/>
+    <sheet name="工作表13" sheetId="68" r:id="rId63"/>
+    <sheet name="工作表14" sheetId="69" r:id="rId64"/>
+    <sheet name="工作表15" sheetId="70" r:id="rId65"/>
+    <sheet name="工作表16" sheetId="71" r:id="rId66"/>
+    <sheet name="工作表17" sheetId="72" r:id="rId67"/>
+    <sheet name="工作表18" sheetId="73" r:id="rId68"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -80,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="261">
   <si>
     <t>見docx檔</t>
   </si>
@@ -514,24 +532,24 @@
     <t>應付水電費</t>
   </si>
   <si>
+    <t>洗車收入</t>
+  </si>
+  <si>
+    <t>洗車設備費</t>
+  </si>
+  <si>
+    <t>A3-8</t>
+  </si>
+  <si>
+    <t>如上</t>
+  </si>
+  <si>
+    <t>張氏洗車行</t>
+  </si>
+  <si>
     <t>約當現金(本票)</t>
   </si>
   <si>
-    <t>洗車收入</t>
-  </si>
-  <si>
-    <t>洗車設備費</t>
-  </si>
-  <si>
-    <t>A3-8</t>
-  </si>
-  <si>
-    <t>如上</t>
-  </si>
-  <si>
-    <t>張氏洗車行</t>
-  </si>
-  <si>
     <t>國隆顧問社</t>
   </si>
   <si>
@@ -797,18 +815,85 @@
   </si>
   <si>
     <t>預收租金費用</t>
+  </si>
+  <si>
+    <t>過程</t>
+  </si>
+  <si>
+    <t>日記簿</t>
+  </si>
+  <si>
+    <t>參考資料</t>
+  </si>
+  <si>
+    <t>課本CH4-6的調整實例</t>
+  </si>
+  <si>
+    <t>20年</t>
+  </si>
+  <si>
+    <t>第三頁</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>類頁</t>
+  </si>
+  <si>
+    <t>借方金額</t>
+  </si>
+  <si>
+    <t>貸方金額</t>
+  </si>
+  <si>
+    <t>呆帳</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>預計10000</t>
+  </si>
+  <si>
+    <t>發現4000未用完</t>
+  </si>
+  <si>
+    <t>15000已過期</t>
+  </si>
+  <si>
+    <t>情況</t>
+  </si>
+  <si>
+    <t>一年三十萬租金</t>
+  </si>
+  <si>
+    <t>預收一年租金</t>
+  </si>
+  <si>
+    <t>採歷年制</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -828,6 +913,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1017,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1064,6 +1156,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6092,10 +6187,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537CB3F-1D04-4383-B494-1461432D2105}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6199,185 +6294,167 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="B11" s="39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="10">
+      <c r="A12" s="10">
+        <v>80000</v>
+      </c>
+      <c r="B12" s="39">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="10">
         <v>10000</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="37">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="37">
         <v>50000</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B16" s="38">
         <v>7</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="10">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="10">
         <v>40000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="37">
         <v>1600000</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D20" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10">
+    <row r="21" spans="1:4">
+      <c r="A21" s="10">
         <v>360000</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B21" s="39">
         <v>9</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37">
+      <c r="A23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="37">
         <v>5000</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D24" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="10">
+    <row r="25" spans="1:4">
+      <c r="A25" s="10">
         <v>4500</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B25" s="39">
         <v>4</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="37">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="37">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37">
         <v>1000000</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D31" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="10">
+    <row r="32" spans="1:4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="10">
         <v>500000</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="10">
+    <row r="33" spans="1:4">
+      <c r="A33" s="10">
         <v>54000</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B33" s="39">
         <v>12</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <v>60000</v>
-      </c>
-      <c r="D32" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="10">
-        <v>20000</v>
       </c>
       <c r="D33" s="10">
         <v>11</v>
@@ -6385,388 +6462,390 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37">
+      <c r="A36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="37">
         <v>80000</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B37" s="38">
         <v>14</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="10">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10">
         <v>10000</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B38" s="39">
         <v>15</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="10"/>
+      <c r="A39" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B39" s="39">
+        <v>13</v>
+      </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="37">
+    <row r="41" spans="1:4">
+      <c r="A41" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37">
         <v>48000</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D42" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="10">
+    <row r="43" spans="1:4">
+      <c r="A43" s="10"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="10">
         <v>50000</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D43" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="10">
+    <row r="44" spans="1:4">
+      <c r="A44" s="10"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="10">
         <v>80000</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D44" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="37">
-        <v>30000</v>
-      </c>
-      <c r="B45" s="38">
-        <v>5</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="37">
+        <v>30000</v>
+      </c>
+      <c r="B47" s="38">
+        <v>5</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="37">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="37">
         <v>60000</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B50" s="38">
         <v>11</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C50" s="37">
         <v>54000</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D50" s="37">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="37">
-        <v>10000</v>
-      </c>
-      <c r="B51" s="38">
-        <v>13</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="37">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="37">
         <v>2000000</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B56" s="38">
         <v>2</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="10" t="s">
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="37">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="37">
         <v>20000</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B59" s="38">
         <v>11</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="10"/>
+      <c r="A69" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="38"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="39"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="8">
+      <c r="A73" s="40"/>
+      <c r="B73" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="38"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="41"/>
+      <c r="B74" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="41"/>
+      <c r="B75" s="8">
         <v>44105</v>
       </c>
-      <c r="C73" s="39"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="42" t="s">
+      <c r="C75" s="39"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B76" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C76" s="44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="41" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="10">
-        <f>SUM(A4,A7,A8,A10,A11)-SUM(C5,C6,C9,C12)</f>
-        <v>868000</v>
-      </c>
-      <c r="C75" s="39"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+      <c r="B77" s="10">
+        <f>SUM(A4,A7,A8,A10,A11,A12)-SUM(C5,C6,C9,C13)</f>
+        <v>878000</v>
+      </c>
+      <c r="C77" s="39"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="10">
-        <f>SUM(A15)-SUM(C16)</f>
+      <c r="B78" s="10">
+        <f>SUM(A16)-SUM(C17)</f>
         <v>10000</v>
       </c>
-      <c r="C76" s="39"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
+      <c r="C78" s="39"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="39">
-        <f>SUM(C19)-SUM(A20)</f>
-        <v>1240000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="39">
-        <f>SUM(C23)-SUM(A24)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="41" t="s">
-        <v>144</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="39">
-        <f>SUM(C27)</f>
-        <v>10000</v>
+        <f>SUM(C20)-SUM(A21)</f>
+        <v>1240000</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="41" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="39">
-        <f>SUM(C30:C33)-SUM(A32)</f>
-        <v>1526000</v>
+        <f>SUM(C24)-SUM(A25)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="10">
-        <f>SUM(A36:A37)</f>
-        <v>90000</v>
-      </c>
-      <c r="C81" s="39"/>
+        <v>149</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="39">
+        <f>SUM(C28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="41" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="39">
-        <f>SUM(C40:C42)</f>
-        <v>178000</v>
+        <f>SUM(C31:C34)-SUM(A33)</f>
+        <v>1526000</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="41" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B83" s="10">
-        <f>SUM(A45)</f>
-        <v>30000</v>
+        <f>SUM(A37:A38)</f>
+        <v>90000</v>
       </c>
       <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="10">
-        <f>SUM(A48)-SUM(C48)</f>
-        <v>6000</v>
-      </c>
-      <c r="C84" s="39"/>
+        <v>144</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="39">
+        <f>SUM(C42:C44)</f>
+        <v>178000</v>
+      </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="41" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B85" s="10">
-        <f>SUM(A51)</f>
-        <v>10000</v>
+        <f>SUM(A47)</f>
+        <v>30000</v>
       </c>
       <c r="C85" s="39"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="41" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B86" s="10">
-        <f>SUM(A54)</f>
-        <v>2000000</v>
+        <f>SUM(A50)-SUM(C50)</f>
+        <v>6000</v>
       </c>
       <c r="C86" s="39"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="10">
+        <f>SUM(A53)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="39"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="10">
+        <f>SUM(A56)</f>
+        <v>2000000</v>
+      </c>
+      <c r="C88" s="39"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="10">
-        <f>SUM(A57)</f>
+      <c r="B89" s="10">
+        <f>SUM(A59)</f>
         <v>20000</v>
       </c>
-      <c r="C87" s="39"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="42" t="s">
+      <c r="C89" s="39"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="B88" s="43">
-        <f>SUM(B75:B86)</f>
+      <c r="B90" s="43">
+        <f>SUM(B77:B88)</f>
         <v>3014000</v>
       </c>
-      <c r="C88" s="44">
-        <f>SUM(C75:C86)</f>
-        <v>2954500</v>
+      <c r="C90" s="44">
+        <f>SUM(C77:C88)</f>
+        <v>2944500</v>
       </c>
     </row>
   </sheetData>
@@ -10511,7 +10590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F545D506-4AC4-41FC-8FD6-088673D87DB3}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -11507,6 +11586,507 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40547440-AE15-4A4C-96D3-7A0DC91A70D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C653A2E-F4A7-4946-A997-A1BE1FFEE193}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414358C7-CFB8-4EFB-9FBA-4A3F6211D42A}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="D5" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" s="15">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" s="14"/>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" s="14"/>
+      <c r="G8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" s="14"/>
+      <c r="G9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" s="14"/>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10">
+        <v>60000</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>60000</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="14"/>
+      <c r="G11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="29"/>
+      <c r="E12" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
+        <v>4</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="48">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3150301-0E85-4950-9B88-4C992AE14743}">
+  <dimension ref="C1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="C2" s="8">
+        <v>44075</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44075</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="25">
+        <v>300000</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
+        <v>300000</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44075</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="17">
+        <v>300000</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="I6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="G7" s="8">
+        <v>44196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="17">
+        <f>J5*3/12</f>
+        <v>75000</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="I8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <f>J7</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44075</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="17">
+        <v>300000</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="I10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="G11" s="8">
+        <v>44196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="17">
+        <f>J9*(1-3/12)</f>
+        <v>225000</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="I12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
+        <f>J11</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A609B6A1-5A49-4B3D-A73B-1A9BBD6C6DC8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAE52D1-BD8E-47D5-9A08-A4F600811DBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2B10E-C36E-4EC8-810B-3C552A1963F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBF52BD-8CFF-465E-B429-83A9988E08F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA0944-A5C9-4803-A411-4CA47F3FA890}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720ADFC6-629A-48C6-85FA-561D7749E299}">
   <dimension ref="A1:V6"/>
@@ -11771,6 +12351,114 @@
       <c r="A6" s="22"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9306C04C-74DC-4D06-A762-1F2EA3D79E7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106409F0-B275-43B3-8FB3-CED181550762}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1251F-2DEA-4D8B-B6C4-93FEE7CE4C4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F340848-6CEB-41E6-B25C-51C581ED9FFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1204C-E6B9-4847-8D0D-ABC818AD98E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35AD1AA-8E33-4D20-A6C4-8F727731DFD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C81083-A4E6-4AA2-966B-0E20DA8087EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC0246-4849-4C29-AF56-26E0AEC16E34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4215" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771E2362-DEFD-417F-9B38-5FA6872436DB}"/>
+  <xr:revisionPtr revIDLastSave="5465" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAFCD709-6A69-4EF5-8B14-43C02729EE11}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="52" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="30" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -31,9 +31,9 @@
     <sheet name="B2-3" sheetId="5" r:id="rId21"/>
     <sheet name="B2-4" sheetId="6" r:id="rId22"/>
     <sheet name="B2-5" sheetId="7" r:id="rId23"/>
-    <sheet name="A3-1" sheetId="8" r:id="rId24"/>
-    <sheet name="A3-2" sheetId="23" r:id="rId25"/>
-    <sheet name="A3-3" sheetId="25" r:id="rId26"/>
+    <sheet name="A3-1" sheetId="75" r:id="rId24"/>
+    <sheet name="A3-2" sheetId="76" r:id="rId25"/>
+    <sheet name="A3-3" sheetId="77" r:id="rId26"/>
     <sheet name="A3-4" sheetId="26" r:id="rId27"/>
     <sheet name="A3-5" sheetId="11" r:id="rId28"/>
     <sheet name="A3-6" sheetId="34" r:id="rId29"/>
@@ -62,20 +62,20 @@
     <sheet name="B4-3" sheetId="57" r:id="rId52"/>
     <sheet name="B4-4" sheetId="58" r:id="rId53"/>
     <sheet name="B4-5" sheetId="59" r:id="rId54"/>
-    <sheet name="工作表5" sheetId="60" r:id="rId55"/>
-    <sheet name="工作表6" sheetId="61" r:id="rId56"/>
-    <sheet name="工作表7" sheetId="62" r:id="rId57"/>
-    <sheet name="工作表8" sheetId="63" r:id="rId58"/>
-    <sheet name="工作表9" sheetId="64" r:id="rId59"/>
-    <sheet name="工作表10" sheetId="65" r:id="rId60"/>
-    <sheet name="工作表11" sheetId="66" r:id="rId61"/>
-    <sheet name="工作表12" sheetId="67" r:id="rId62"/>
-    <sheet name="工作表13" sheetId="68" r:id="rId63"/>
-    <sheet name="工作表14" sheetId="69" r:id="rId64"/>
-    <sheet name="工作表15" sheetId="70" r:id="rId65"/>
-    <sheet name="工作表16" sheetId="71" r:id="rId66"/>
-    <sheet name="工作表17" sheetId="72" r:id="rId67"/>
-    <sheet name="工作表18" sheetId="73" r:id="rId68"/>
+    <sheet name="B4-6" sheetId="60" r:id="rId55"/>
+    <sheet name="B4-7" sheetId="61" r:id="rId56"/>
+    <sheet name="B4-8" sheetId="74" r:id="rId57"/>
+    <sheet name="B4-9" sheetId="63" r:id="rId58"/>
+    <sheet name="A5-1" sheetId="64" r:id="rId59"/>
+    <sheet name="A5-2" sheetId="65" r:id="rId60"/>
+    <sheet name="A5-3" sheetId="66" r:id="rId61"/>
+    <sheet name="A5-4" sheetId="67" r:id="rId62"/>
+    <sheet name="A5-5" sheetId="68" r:id="rId63"/>
+    <sheet name="B5-1" sheetId="69" r:id="rId64"/>
+    <sheet name="B5-2" sheetId="70" r:id="rId65"/>
+    <sheet name="B5-3" sheetId="71" r:id="rId66"/>
+    <sheet name="B5-4" sheetId="72" r:id="rId67"/>
+    <sheet name="B5-5" sheetId="73" r:id="rId68"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="290">
   <si>
     <t>見docx檔</t>
   </si>
@@ -424,6 +424,27 @@
     <t>T字形</t>
   </si>
   <si>
+    <t>應收傭金</t>
+  </si>
+  <si>
+    <t>預付保險金</t>
+  </si>
+  <si>
+    <t>預付租金</t>
+  </si>
+  <si>
+    <t>應付設備款</t>
+  </si>
+  <si>
+    <t>傭金收入</t>
+  </si>
+  <si>
+    <t>文具用品費用</t>
+  </si>
+  <si>
+    <t>辦公費用</t>
+  </si>
+  <si>
     <t>試算表</t>
   </si>
   <si>
@@ -433,9 +454,6 @@
     <t>2021/2/31</t>
   </si>
   <si>
-    <t>應付設備款</t>
-  </si>
-  <si>
     <t>會計項目</t>
   </si>
   <si>
@@ -445,55 +463,139 @@
     <t>貸方餘額</t>
   </si>
   <si>
-    <t>應收傭金</t>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>應收運費</t>
+  </si>
+  <si>
+    <t>預付保險費</t>
+  </si>
+  <si>
+    <t>應付票據(本票)</t>
+  </si>
+  <si>
+    <t>應付文具用品費用</t>
+  </si>
+  <si>
+    <t>運費收入</t>
+  </si>
+  <si>
+    <t>運輸設備費用</t>
+  </si>
+  <si>
+    <t>文具用品</t>
+  </si>
+  <si>
+    <t>中興行</t>
   </si>
   <si>
     <t>保險費</t>
   </si>
   <si>
-    <t>文具用品</t>
-  </si>
-  <si>
-    <t>辦公費用</t>
-  </si>
-  <si>
-    <t>傭金收入</t>
-  </si>
-  <si>
-    <t>中興行</t>
-  </si>
-  <si>
-    <t>應付票據(本票)</t>
-  </si>
-  <si>
-    <t>運輸設備費用</t>
-  </si>
-  <si>
-    <t>應付文具用品費用</t>
-  </si>
-  <si>
-    <t>應收運費</t>
-  </si>
-  <si>
-    <t>運費收入</t>
+    <t>應收洗衣收入</t>
+  </si>
+  <si>
+    <t>應付物料</t>
+  </si>
+  <si>
+    <t>洗衣收入</t>
+  </si>
+  <si>
+    <t>洗衣設備</t>
+  </si>
+  <si>
+    <t>物料</t>
   </si>
   <si>
     <t>金欣洗衣店</t>
   </si>
   <si>
-    <t>應付物料</t>
-  </si>
-  <si>
-    <t>洗衣設備</t>
-  </si>
-  <si>
-    <t>物料</t>
-  </si>
-  <si>
-    <t>應收洗衣收入</t>
-  </si>
-  <si>
-    <t>洗衣收入</t>
+    <t>餘額式分類表</t>
+  </si>
+  <si>
+    <t>第1頁</t>
+  </si>
+  <si>
+    <t>20年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>日頁</t>
+  </si>
+  <si>
+    <t>借方金額</t>
+  </si>
+  <si>
+    <t>貸方金額</t>
+  </si>
+  <si>
+    <t>借貸</t>
+  </si>
+  <si>
+    <t>餘額</t>
+  </si>
+  <si>
+    <t>借</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>第11頁</t>
+  </si>
+  <si>
+    <t>第21頁</t>
+  </si>
+  <si>
+    <t>第25頁</t>
+  </si>
+  <si>
+    <t>機器設備</t>
+  </si>
+  <si>
+    <t>第27頁</t>
+  </si>
+  <si>
+    <t>應付物料費</t>
+  </si>
+  <si>
+    <t>第31頁</t>
+  </si>
+  <si>
+    <t>貸</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>第37頁</t>
+  </si>
+  <si>
+    <t>第41頁</t>
+  </si>
+  <si>
+    <t>第51頁</t>
+  </si>
+  <si>
+    <t>第53頁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 日記簿</t>
+  </si>
+  <si>
+    <t>類頁</t>
+  </si>
+  <si>
+    <t>借分金額</t>
   </si>
   <si>
     <t>錯誤試算表</t>
@@ -505,9 +607,6 @@
     <t>台東商店</t>
   </si>
   <si>
-    <t>合計</t>
-  </si>
-  <si>
     <t>1th</t>
   </si>
   <si>
@@ -547,9 +646,6 @@
     <t>張氏洗車行</t>
   </si>
   <si>
-    <t>約當現金(本票)</t>
-  </si>
-  <si>
     <t>國隆顧問社</t>
   </si>
   <si>
@@ -562,9 +658,6 @@
     <t>辦公設備費用</t>
   </si>
   <si>
-    <t>文具用品費用</t>
-  </si>
-  <si>
     <t>顧問費收入</t>
   </si>
   <si>
@@ -688,9 +781,6 @@
     <t>應付薪資</t>
   </si>
   <si>
-    <t>預付保險費</t>
-  </si>
-  <si>
     <t>上年底</t>
   </si>
   <si>
@@ -721,9 +811,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>預付租金</t>
-  </si>
-  <si>
     <t>累積折舊</t>
   </si>
   <si>
@@ -826,42 +913,18 @@
     <t>參考資料</t>
   </si>
   <si>
+    <t>呆帳</t>
+  </si>
+  <si>
     <t>課本CH4-6的調整實例</t>
   </si>
   <si>
-    <t>20年</t>
-  </si>
-  <si>
     <t>第三頁</t>
   </si>
   <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
     <t>科目</t>
   </si>
   <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>類頁</t>
-  </si>
-  <si>
-    <t>借方金額</t>
-  </si>
-  <si>
-    <t>貸方金額</t>
-  </si>
-  <si>
-    <t>呆帳</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
     <t>預計10000</t>
   </si>
   <si>
@@ -881,6 +944,30 @@
   </si>
   <si>
     <t>採歷年制</t>
+  </si>
+  <si>
+    <t>設備費用</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>估計殘值</t>
+  </si>
+  <si>
+    <t>租約期間</t>
+  </si>
+  <si>
+    <t>1年</t>
+  </si>
+  <si>
+    <t>殘餘</t>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>出租一年</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1036,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1105,11 +1192,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1158,7 +1297,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4314,16 +4462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C4696-D8BF-4DC1-B1DC-D6979F885572}">
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEA2CC9-4AF5-4CAB-B119-89CFB3F25E6D}">
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
@@ -4337,29 +4485,18 @@
       <c r="A1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="7">
         <v>44228</v>
       </c>
       <c r="B4" s="2">
-        <f>L4</f>
+        <f>E25</f>
         <v>400000</v>
       </c>
       <c r="C4" s="4">
@@ -4368,23 +4505,6 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7">
-        <v>44228</v>
-      </c>
-      <c r="L4" s="2">
-        <v>400000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:30">
       <c r="C5" s="5"/>
@@ -4397,11 +4517,6 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="5"/>
       <c r="V5" s="8"/>
       <c r="W5" s="1"/>
       <c r="AC5" s="8"/>
@@ -4418,50 +4533,18 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="C7" s="5"/>
       <c r="D7" s="8">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="E7" s="1">
         <v>14000</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7">
-        <v>44229</v>
-      </c>
-      <c r="L7" s="2">
-        <v>160000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>3</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="25">
-        <f>SUM(B4,B8)-SUM(E5,E6,E7,E9,E10)</f>
-        <v>157400</v>
-      </c>
-      <c r="Q7" s="27"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="8">
@@ -4473,13 +4556,6 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="17">
-        <v>20000</v>
-      </c>
-      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:30">
       <c r="C9" s="5"/>
@@ -4492,16 +4568,6 @@
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="17">
-        <v>3600</v>
-      </c>
-      <c r="Q9" s="28"/>
     </row>
     <row r="10" spans="1:30">
       <c r="C10" s="5"/>
@@ -4514,113 +4580,36 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="H10" s="7">
-        <v>44250</v>
-      </c>
-      <c r="I10" s="2">
-        <v>130000</v>
-      </c>
-      <c r="J10" s="4">
-        <v>7</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="O10" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="17">
-        <v>140000</v>
-      </c>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="O11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P11" s="17">
-        <v>160000</v>
-      </c>
-      <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="17">
-        <v>180000</v>
-      </c>
-      <c r="Q12" s="28"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="7">
-        <v>44228</v>
+        <v>44250</v>
       </c>
       <c r="B13" s="2">
-        <v>20000</v>
+        <v>130000</v>
       </c>
       <c r="C13" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="7">
-        <v>44250</v>
-      </c>
-      <c r="L13" s="2">
-        <v>130000</v>
-      </c>
-      <c r="M13" s="3">
-        <v>7</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="17">
-        <v>120000</v>
-      </c>
-      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="J14" s="5"/>
-      <c r="K14" s="8">
-        <v>44241</v>
-      </c>
-      <c r="L14" s="1">
-        <v>95000</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="28">
-        <v>160000</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P15" s="17">
-        <v>130000</v>
-      </c>
-      <c r="Q15" s="28"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="7">
@@ -4635,99 +4624,332 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="O16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="28">
-        <f>SUM(L13,L14)</f>
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="O17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B19" s="2">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="C19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7">
+        <v>44229</v>
+      </c>
+      <c r="E22" s="2">
+        <v>160000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7">
+        <v>44228</v>
+      </c>
+      <c r="E25" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7">
+        <v>44241</v>
+      </c>
+      <c r="E28" s="2">
+        <v>95000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="D29" s="26">
+        <v>44250</v>
+      </c>
+      <c r="E29" s="1">
+        <v>130000</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7">
+        <v>44228</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7">
+        <v>44231</v>
+      </c>
+      <c r="B38" s="2">
+        <v>140000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7">
+        <v>44229</v>
+      </c>
+      <c r="B41" s="2">
+        <v>160000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7">
+        <v>44255</v>
+      </c>
+      <c r="B44" s="2">
+        <v>180000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14"/>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="7">
-        <v>44229</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="B55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="25">
+        <f>SUM(B4,B8)-SUM(E5:E7,E9:E10)</f>
+        <v>157400</v>
+      </c>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="17">
+        <f>SUM(B13)</f>
+        <v>130000</v>
+      </c>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="17">
+        <v>3600</v>
+      </c>
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="17">
+        <v>120000</v>
+      </c>
+      <c r="C59" s="28"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="28">
+        <f>SUM(E22)</f>
         <v>160000</v>
       </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="28">
+        <f>SUM(E25)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="28">
+        <f>SUM(E28,E29)</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="17">
+        <f>SUM(B32)</f>
+        <v>20000</v>
+      </c>
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="17">
+        <v>14000</v>
+      </c>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="17">
+        <f>SUM(B41)</f>
+        <v>160000</v>
+      </c>
+      <c r="C65" s="28"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="7">
-        <v>44255</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="B66" s="17">
+        <f>SUM(B44)</f>
         <v>180000</v>
       </c>
-      <c r="C25" s="4">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="7">
-        <v>44228</v>
-      </c>
-      <c r="B28" s="2">
-        <v>120000</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="30">
+        <f>SUM(B56:B66)</f>
+        <v>785000</v>
+      </c>
+      <c r="C67" s="31">
+        <f>SUM(C56:C66)</f>
+        <v>785000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4735,50 +4957,535 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403C02A-1AFF-44C5-9A07-2E24C6E26143}">
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A8A9E8-92ED-4923-8BEA-56107FEB761A}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
+        <v>44105</v>
+      </c>
+      <c r="B4" s="25">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="17"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8">
+        <v>44106</v>
+      </c>
+      <c r="E5" s="17">
+        <v>80000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="17"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8">
+        <v>44106</v>
+      </c>
+      <c r="E6" s="17">
+        <v>18000</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>44119</v>
+      </c>
+      <c r="B7" s="17">
+        <v>50000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8">
+        <v>44125</v>
+      </c>
+      <c r="E8" s="17">
+        <v>4000</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="17"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8">
+        <v>44134</v>
+      </c>
+      <c r="E9" s="17">
+        <v>6000</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="17"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8">
+        <v>44135</v>
+      </c>
+      <c r="E10" s="17">
+        <v>70000</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
+        <v>44121</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
+        <v>44106</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7">
+        <v>44106</v>
+      </c>
+      <c r="E19" s="2">
+        <v>320000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7">
+        <v>44112</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7">
+        <v>44105</v>
+      </c>
+      <c r="E25" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7">
+        <v>44119</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="8">
+        <v>44121</v>
+      </c>
+      <c r="E29" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7">
+        <v>44106</v>
+      </c>
+      <c r="B32" s="2">
+        <v>400000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
+        <v>44112</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7">
+        <v>44125</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>7</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7">
+        <v>44134</v>
+      </c>
+      <c r="B41" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7">
+        <v>44135</v>
+      </c>
+      <c r="B44" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>9</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="15"/>
+      <c r="B48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="14"/>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="26"/>
+      <c r="B50" s="8">
+        <v>44135</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="25">
+        <v>72000</v>
+      </c>
+      <c r="C52" s="27"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="17">
+        <v>400000</v>
+      </c>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="17">
+        <v>18000</v>
+      </c>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="17">
+        <v>3000</v>
+      </c>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="17">
+        <v>4000</v>
+      </c>
+      <c r="C56" s="28"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="17">
+        <v>6000</v>
+      </c>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="17">
+        <v>70000</v>
+      </c>
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="28">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="28">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="17">
+        <v>100000</v>
+      </c>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="30">
+        <f>SUM(B52:B63)</f>
+        <v>673000</v>
+      </c>
+      <c r="C64" s="31">
+        <f>SUM(C52:C63)</f>
+        <v>673000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514199C1-36D3-48CF-906F-21B3A7126401}">
+  <dimension ref="A1:H179"/>
+  <sheetViews>
+    <sheetView topLeftCell="B143" workbookViewId="0">
+      <selection activeCell="N153" sqref="N153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="7">
         <v>44105</v>
       </c>
@@ -4791,477 +5498,8 @@
       <c r="D4" s="3"/>
       <c r="E4" s="25"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7">
-        <v>44105</v>
-      </c>
-      <c r="L4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="B5" s="17"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8">
-        <v>44106</v>
-      </c>
-      <c r="E5" s="17">
-        <v>80000</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="8">
-        <v>44135</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="1"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="B6" s="17"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8">
-        <v>44106</v>
-      </c>
-      <c r="E6" s="17">
-        <v>18000</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="8">
-        <v>44119</v>
-      </c>
-      <c r="B7" s="17">
-        <v>50000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="17"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7">
-        <v>44106</v>
-      </c>
-      <c r="L7" s="2">
-        <v>320000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="25">
-        <f>SUM(B4,B7)-SUM(E5,E6,E8,E9,E10)</f>
-        <v>70000</v>
-      </c>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8">
-        <v>44125</v>
-      </c>
-      <c r="E8" s="17">
-        <v>4000</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="17">
-        <v>400000</v>
-      </c>
-      <c r="Q8" s="28"/>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="B9" s="17"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8">
-        <v>44134</v>
-      </c>
-      <c r="E9" s="17">
-        <v>8000</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="17">
-        <v>18000</v>
-      </c>
-      <c r="Q9" s="28"/>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="B10" s="17"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8">
-        <v>44135</v>
-      </c>
-      <c r="E10" s="17">
-        <v>70000</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7">
-        <v>44112</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="17">
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="O11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="17">
-        <v>4000</v>
-      </c>
-      <c r="Q11" s="28"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" s="17">
-        <v>6000</v>
-      </c>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="7">
-        <v>44106</v>
-      </c>
-      <c r="B13" s="2">
-        <v>400000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="7">
-        <v>44121</v>
-      </c>
-      <c r="I13" s="2">
-        <v>100000</v>
-      </c>
-      <c r="J13" s="4">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="O13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="17">
-        <v>70000</v>
-      </c>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="O14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="28">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="28">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="7">
-        <v>44106</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18000</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="7">
-        <v>44119</v>
-      </c>
-      <c r="L16" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M16" s="3">
-        <v>5</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="J17" s="5"/>
-      <c r="K17" s="8">
-        <v>44121</v>
-      </c>
-      <c r="L17" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="17">
-        <v>100000</v>
-      </c>
-      <c r="Q17" s="28"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31">
-        <f>SUM(L16,L17)</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="7">
-        <v>44112</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="7">
-        <v>44125</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="7">
-        <v>44134</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6000</v>
-      </c>
-      <c r="C25" s="4">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="7">
-        <v>44135</v>
-      </c>
-      <c r="B28" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C28" s="4">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB47ED-E208-4B24-9D4F-72293E27268B}">
-  <dimension ref="A1:AD27"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="7">
-        <v>44105</v>
-      </c>
-      <c r="B4" s="25">
-        <v>200000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7">
-        <v>44105</v>
-      </c>
-      <c r="L4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:30">
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="17"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8">
@@ -5273,17 +5511,8 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="8">
-        <v>44135</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="1"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30">
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="17"/>
       <c r="C6" s="5"/>
       <c r="D6" s="8">
@@ -5295,20 +5524,8 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="17"/>
       <c r="C7" s="5"/>
@@ -5321,34 +5538,8 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="H7" s="7">
-        <v>44115</v>
-      </c>
-      <c r="I7" s="25">
-        <v>3000</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="7">
-        <v>44111</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="25">
-        <f>SUM(B4,B8,B9,B12)-SUM(E5,E6,E7,E10,E11)</f>
-        <v>115600</v>
-      </c>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:30">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>44119</v>
       </c>
@@ -5360,15 +5551,8 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
-      <c r="O8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="17">
-        <v>30000</v>
-      </c>
-      <c r="Q8" s="28"/>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>44120</v>
       </c>
@@ -5380,15 +5564,8 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="17"/>
-      <c r="O9" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" s="17">
-        <v>90000</v>
-      </c>
-      <c r="Q9" s="28"/>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" s="17"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8">
@@ -5400,21 +5577,8 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="O10" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" s="17">
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="28"/>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:6">
       <c r="D11" s="26">
         <v>44123</v>
       </c>
@@ -5424,15 +5588,8 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="17">
-        <v>400</v>
-      </c>
-      <c r="Q11" s="28"/>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>44135</v>
       </c>
@@ -5443,199 +5600,1736 @@
         <v>10</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="H12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="14" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <v>44119</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44120</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>44135</v>
+      </c>
+      <c r="B16" s="17">
+        <v>12000</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
+        <v>44115</v>
+      </c>
+      <c r="B19" s="25">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44111</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7">
+        <v>44105</v>
+      </c>
+      <c r="E22" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7">
+        <v>44119</v>
+      </c>
+      <c r="E25" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="5"/>
+      <c r="D26" s="8">
+        <v>44135</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
+        <v>44105</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7">
+        <v>44109</v>
+      </c>
+      <c r="B32" s="2">
+        <v>90000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
+        <v>44111</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7">
+        <v>44125</v>
+      </c>
+      <c r="B38" s="2">
+        <v>400</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="17">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7">
+        <v>44122</v>
+      </c>
+      <c r="B41" s="2">
         <v>17000</v>
       </c>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="H13" s="7">
-        <v>44119</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="C41" s="4">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="15"/>
+      <c r="B45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14"/>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="26"/>
+      <c r="B47" s="8">
+        <v>44135</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="25">
+        <v>115600</v>
+      </c>
+      <c r="C49" s="27"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="17">
+        <v>30000</v>
+      </c>
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="17">
+        <v>90000</v>
+      </c>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="17">
+        <v>3000</v>
+      </c>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="17">
+        <v>400</v>
+      </c>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="17">
+        <v>17000</v>
+      </c>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="28">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="17">
+        <v>14000</v>
+      </c>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="30">
+        <f>SUM(B49:B58)</f>
+        <v>270000</v>
+      </c>
+      <c r="C59" s="31">
+        <f>SUM(C49:C58)</f>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="15"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="50"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F93" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G93" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="15">
+        <v>10</v>
+      </c>
+      <c r="B94" s="15">
+        <v>1</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15">
+        <v>1</v>
+      </c>
+      <c r="E94" s="49">
+        <v>200000</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H94" s="52">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48">
+        <v>30000</v>
+      </c>
+      <c r="G95" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H95" s="53">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14">
+        <v>5</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48">
+        <v>90000</v>
+      </c>
+      <c r="G96" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H96" s="53">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="14">
+        <v>11</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48">
+        <v>3000</v>
+      </c>
+      <c r="G97" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H97" s="53">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14">
+        <v>15</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E98" s="48">
+        <v>20000</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H98" s="53">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14">
+        <v>16</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" s="48">
+        <v>8000</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H99" s="53">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14">
+        <v>18</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48">
+        <v>17000</v>
+      </c>
+      <c r="G100" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H100" s="53">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14">
+        <v>21</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48">
+        <v>400</v>
+      </c>
+      <c r="G101" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H101" s="53">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14">
+        <v>31</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" s="48">
+        <v>28000</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H102" s="54">
+        <v>115600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="15"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="50"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F106" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G106" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H106" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="15">
+        <v>10</v>
+      </c>
+      <c r="B107" s="15">
+        <v>15</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15">
+        <v>1</v>
+      </c>
+      <c r="E107" s="49">
         <v>10000</v>
       </c>
-      <c r="J13" s="4">
-        <v>6</v>
-      </c>
-      <c r="K13" s="7">
-        <v>44120</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="F107" s="49"/>
+      <c r="G107" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107" s="52">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14">
+        <v>16</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48">
         <v>8000</v>
       </c>
-      <c r="M13" s="3">
+      <c r="G108" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" s="53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29">
+        <v>31</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="55">
+        <v>12000</v>
+      </c>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H109" s="54">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="15"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="50"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G113" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="16">
+        <v>10</v>
+      </c>
+      <c r="B114" s="16">
+        <v>1</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16">
+        <v>1</v>
+      </c>
+      <c r="E114" s="57">
+        <v>30000</v>
+      </c>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H114" s="56">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="15"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="50"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F118" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G118" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H118" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="16">
+        <v>10</v>
+      </c>
+      <c r="B119" s="16">
         <v>7</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="C119" s="16"/>
+      <c r="D119" s="16">
+        <v>1</v>
+      </c>
+      <c r="E119" s="57">
+        <v>3000</v>
+      </c>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H119" s="56">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="15"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="50"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F123" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G123" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H123" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="16">
+        <v>10</v>
+      </c>
+      <c r="B124" s="16">
+        <v>5</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16">
+        <v>1</v>
+      </c>
+      <c r="E124" s="57">
+        <v>90000</v>
+      </c>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" s="56">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="15"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="50"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F128" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G128" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H128" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="15">
+        <v>10</v>
+      </c>
+      <c r="B129" s="15">
+        <v>7</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15">
+        <v>1</v>
+      </c>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49">
+        <v>3000</v>
+      </c>
+      <c r="G129" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H129" s="52">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="29"/>
+      <c r="B130" s="29">
+        <v>11</v>
+      </c>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29">
+        <v>1</v>
+      </c>
+      <c r="E130" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H130" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="15"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="28">
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="50"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F134" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G134" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H134" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="16">
+        <v>10</v>
+      </c>
+      <c r="B135" s="16">
+        <v>1</v>
+      </c>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16">
+        <v>1</v>
+      </c>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57">
         <v>200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8">
-        <v>44135</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="G135" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="H135" s="56">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="15"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="50"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F139" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G139" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H139" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="15">
+        <v>10</v>
+      </c>
+      <c r="B140" s="15">
+        <v>15</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15">
+        <v>1</v>
+      </c>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49">
+        <v>30000</v>
+      </c>
+      <c r="G140" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H140" s="52">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29">
+        <v>31</v>
+      </c>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29">
+        <v>1</v>
+      </c>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55">
+        <v>40000</v>
+      </c>
+      <c r="G141" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H141" s="54">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="15"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="50"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
+        <v>142</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F145" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H145" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="16">
+        <v>10</v>
+      </c>
+      <c r="B146" s="16">
+        <v>18</v>
+      </c>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16">
+        <v>1</v>
+      </c>
+      <c r="E146" s="57">
+        <v>17000</v>
+      </c>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H146" s="56">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="15"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="50"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" t="s">
+        <v>142</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F150" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G150" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H150" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="16">
+        <v>10</v>
+      </c>
+      <c r="B151" s="16">
+        <v>21</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16">
+        <v>1</v>
+      </c>
+      <c r="E151" s="57">
+        <v>400</v>
+      </c>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H151" s="56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" t="s">
+        <v>142</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="15">
+        <v>10</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="15">
+        <v>1</v>
+      </c>
+      <c r="F158" s="49">
+        <v>200000</v>
+      </c>
+      <c r="G158" s="27"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="14">
+        <v>37</v>
+      </c>
+      <c r="F159" s="48"/>
+      <c r="G159" s="28">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="14"/>
+      <c r="B160" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E160" s="14">
+        <v>21</v>
+      </c>
+      <c r="F160" s="48">
+        <v>30000</v>
+      </c>
+      <c r="G160" s="28"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="14">
+        <v>1</v>
+      </c>
+      <c r="F161" s="48"/>
+      <c r="G161" s="28">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="14"/>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="14">
+        <v>27</v>
+      </c>
+      <c r="F162" s="48">
+        <v>90000</v>
+      </c>
+      <c r="G162" s="28"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" s="14">
+        <v>1</v>
+      </c>
+      <c r="F163" s="14"/>
+      <c r="G163" s="28">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="14"/>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E164" s="14">
+        <v>25</v>
+      </c>
+      <c r="F164" s="48">
+        <v>3000</v>
+      </c>
+      <c r="G164" s="28"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" t="s">
+        <v>155</v>
+      </c>
+      <c r="E165" s="14">
+        <v>1</v>
+      </c>
+      <c r="F165" s="48"/>
+      <c r="G165" s="28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="14"/>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E166" s="14">
+        <v>31</v>
+      </c>
+      <c r="F166" s="48">
+        <v>3000</v>
+      </c>
+      <c r="G166" s="28"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="14">
+        <v>1</v>
+      </c>
+      <c r="F167" s="48"/>
+      <c r="G167" s="28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="14"/>
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="14">
+        <v>1</v>
+      </c>
+      <c r="F168" s="48">
+        <v>20000</v>
+      </c>
+      <c r="G168" s="28"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="14"/>
+      <c r="C169" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E169" s="14">
+        <v>11</v>
+      </c>
+      <c r="F169" s="48">
+        <v>10000</v>
+      </c>
+      <c r="G169" s="28"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="14">
+        <v>41</v>
+      </c>
+      <c r="F170" s="48"/>
+      <c r="G170" s="28">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="14"/>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="14">
+        <v>1</v>
+      </c>
+      <c r="F171" s="48">
+        <v>8000</v>
+      </c>
+      <c r="G171" s="28"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" t="s">
+        <v>131</v>
+      </c>
+      <c r="E172" s="14">
+        <v>11</v>
+      </c>
+      <c r="F172" s="48"/>
+      <c r="G172" s="28">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="14"/>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E173" s="14">
+        <v>51</v>
+      </c>
+      <c r="F173" s="48">
+        <v>17000</v>
+      </c>
+      <c r="G173" s="28"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="14">
+        <v>1</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="G174" s="28">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="14"/>
+      <c r="B175">
+        <v>21</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="14">
+        <v>53</v>
+      </c>
+      <c r="F175" s="48">
+        <v>400</v>
+      </c>
+      <c r="G175" s="28"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="14">
+        <v>1</v>
+      </c>
+      <c r="F176" s="48"/>
+      <c r="G176" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="14"/>
+      <c r="B177">
+        <v>31</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="14">
+        <v>1</v>
+      </c>
+      <c r="F177" s="48">
+        <v>28000</v>
+      </c>
+      <c r="G177" s="28"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="14"/>
+      <c r="C178" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E178" s="14">
+        <v>11</v>
+      </c>
+      <c r="F178" s="48">
         <v>12000</v>
       </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="O14" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="7">
-        <v>44105</v>
-      </c>
-      <c r="B15" s="2">
-        <v>30000</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="O15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15">
-        <v>14000</v>
-      </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="H16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31">
-        <f>SUM(L17,L18)</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="7">
-        <v>44119</v>
-      </c>
-      <c r="L17" s="2">
-        <v>30000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>6</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="7">
-        <v>44109</v>
-      </c>
-      <c r="B18" s="2">
-        <v>90000</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="8">
-        <v>44135</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="G178" s="28"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="29"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" s="29">
+        <v>41</v>
+      </c>
+      <c r="F179" s="55"/>
+      <c r="G179" s="31">
         <v>40000</v>
       </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="7">
-        <v>44111</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="7">
-        <v>44125</v>
-      </c>
-      <c r="B24" s="2">
-        <v>400</v>
-      </c>
-      <c r="C24" s="4">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="7">
-        <v>44122</v>
-      </c>
-      <c r="B27" s="2">
-        <v>17000</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5647,7 +7341,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5670,26 +7364,26 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5702,22 +7396,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5855,7 +7549,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B15" s="17">
         <v>289200</v>
@@ -5864,7 +7558,7 @@
         <v>260000</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F15" s="17">
         <f>SUM(F7:F14)</f>
@@ -5892,7 +7586,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5913,7 +7607,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -5921,7 +7615,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5943,7 +7637,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -5959,13 +7653,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D3580-53B4-4475-845E-941FFF514011}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6066,7 +7762,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6187,20 +7883,22 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537CB3F-1D04-4383-B494-1461432D2105}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6293,22 +7991,14 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10">
-        <v>10000</v>
-      </c>
-      <c r="B11" s="39">
-        <v>13</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10">
-        <v>80000</v>
-      </c>
-      <c r="B12" s="39">
-        <v>14</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
@@ -6324,7 +8014,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6386,7 +8076,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -6396,27 +8086,45 @@
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D24" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10">
-        <v>4500</v>
-      </c>
-      <c r="B25" s="39">
-        <v>4</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
+      <c r="A26" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10">
+        <v>4500</v>
+      </c>
+      <c r="B28" s="39">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
@@ -6486,20 +8194,20 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="37">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="B37" s="38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10">
-        <v>10000</v>
+        <v>80000</v>
       </c>
       <c r="B38" s="39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -6509,14 +8217,14 @@
         <v>10000</v>
       </c>
       <c r="B39" s="39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6576,7 +8284,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:12">
       <c r="A49" s="10" t="s">
         <v>95</v>
       </c>
@@ -6584,7 +8292,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:12">
       <c r="A50" s="37">
         <v>60000</v>
       </c>
@@ -6597,255 +8305,236 @@
       <c r="D50" s="37">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="L50" s="17"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="37">
+        <v>2000000</v>
+      </c>
+      <c r="B53" s="38">
+        <v>2</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="10" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:12">
       <c r="A56" s="37">
-        <v>2000000</v>
+        <v>5000</v>
       </c>
       <c r="B56" s="38">
-        <v>2</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="37">
+        <v>3</v>
+      </c>
+      <c r="C56" s="37">
+        <v>4500</v>
+      </c>
+      <c r="D56" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="17">
         <v>20000</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B57" s="5">
         <v>11</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="40"/>
+      <c r="B64" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="38"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="41"/>
+      <c r="B65" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="39"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="41"/>
+      <c r="B66" s="8">
+        <v>44105</v>
+      </c>
+      <c r="C66" s="39"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="A68" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="10">
+        <v>788000</v>
+      </c>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="B69" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="39">
+        <v>1240000</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="10"/>
+      <c r="A71" s="41" t="s">
+        <v>176</v>
+      </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="39">
+        <v>500</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
-        <v>108</v>
+      <c r="A72" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="C72" s="39">
+        <v>1058000</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="38"/>
+      <c r="A73" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="10">
+        <f>SUM(A37:A39)</f>
+        <v>100000</v>
+      </c>
+      <c r="C73" s="39"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="39"/>
+      <c r="A74" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="39">
+        <f>SUM(C42:C44)</f>
+        <v>178000</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="8">
-        <v>44105</v>
+      <c r="A75" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="10">
+        <f>SUM(A47)</f>
+        <v>30000</v>
       </c>
       <c r="C75" s="39"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>114</v>
-      </c>
+      <c r="A76" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="10">
+        <f>SUM(A50)-SUM(C50)</f>
+        <v>6000</v>
+      </c>
+      <c r="C76" s="39"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="41" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="B77" s="10">
-        <f>SUM(A4,A7,A8,A10,A11,A12)-SUM(C5,C6,C9,C13)</f>
-        <v>878000</v>
+        <f>SUM(A53)</f>
+        <v>2000000</v>
       </c>
       <c r="C77" s="39"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="10" t="s">
-        <v>142</v>
+      <c r="A78" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="B78" s="10">
-        <f>SUM(A16)-SUM(C17)</f>
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="C78" s="39"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="39">
-        <f>SUM(C20)-SUM(A21)</f>
-        <v>1240000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="39">
-        <f>SUM(C24)-SUM(A25)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="39">
-        <f>SUM(C28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="39">
-        <f>SUM(C31:C34)-SUM(A33)</f>
-        <v>1526000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="10">
-        <f>SUM(A37:A38)</f>
-        <v>90000</v>
-      </c>
-      <c r="C83" s="39"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="39">
-        <f>SUM(C42:C44)</f>
-        <v>178000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="10">
-        <f>SUM(A47)</f>
-        <v>30000</v>
-      </c>
-      <c r="C85" s="39"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="10">
-        <f>SUM(A50)-SUM(C50)</f>
-        <v>6000</v>
-      </c>
-      <c r="C86" s="39"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="10">
-        <f>SUM(A53)</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="39"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" s="10">
-        <f>SUM(A56)</f>
-        <v>2000000</v>
-      </c>
-      <c r="C88" s="39"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" s="10">
-        <f>SUM(A59)</f>
-        <v>20000</v>
-      </c>
-      <c r="C89" s="39"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="43">
-        <f>SUM(B77:B88)</f>
-        <v>3014000</v>
-      </c>
-      <c r="C90" s="44">
-        <f>SUM(C77:C88)</f>
-        <v>2944500</v>
+      <c r="A79" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="43">
+        <f>SUM(B68:B78)</f>
+        <v>2954500</v>
+      </c>
+      <c r="C79" s="44">
+        <f>SUM(C68:C78)</f>
+        <v>2476500</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +8571,7 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -6894,7 +8583,7 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="3" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -6925,7 +8614,7 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -6964,16 +8653,16 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -7043,10 +8732,10 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="P9" s="17">
         <v>120000</v>
@@ -7078,7 +8767,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="O10" s="14" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="P10" s="17">
         <v>8000</v>
@@ -7136,10 +8825,10 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="P13" s="17">
         <v>10000</v>
@@ -7200,7 +8889,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="8">
@@ -7213,7 +8902,7 @@
         <v>9</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="28">
@@ -7244,7 +8933,7 @@
         <v>10</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="P17" s="1">
         <f>SUM(I10:I11)-SUM(L11)</f>
@@ -7254,7 +8943,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="O18" s="29" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="31">
@@ -7264,7 +8953,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -7321,7 +9010,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -7391,7 +9080,7 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -7403,7 +9092,7 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -7434,7 +9123,7 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -7474,16 +9163,16 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -7533,7 +9222,7 @@
         <v>8</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="P8" s="17">
         <v>600000</v>
@@ -7553,10 +9242,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="17"/>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="P9" s="17">
         <v>12000</v>
@@ -7595,7 +9284,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="P10" s="17">
         <v>4000</v>
@@ -7644,10 +9333,10 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>38</v>
@@ -7683,7 +9372,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="28">
@@ -7702,7 +9391,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="P15" s="17">
         <f>SUM(I10,I11)-SUM(L10)</f>
@@ -7712,7 +9401,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="8">
@@ -7725,7 +9414,7 @@
         <v>11</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="34">
@@ -7751,7 +9440,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7840,7 +9529,7 @@
         <v>107</v>
       </c>
       <c r="O1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -7848,11 +9537,11 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="3" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -7883,7 +9572,7 @@
       </c>
       <c r="O4" s="14"/>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
@@ -7923,16 +9612,16 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -8003,7 +9692,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>96</v>
@@ -8039,7 +9728,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="O10" s="14" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="P10" s="17">
         <v>80000</v>
@@ -8079,7 +9768,7 @@
         <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>86</v>
@@ -8115,7 +9804,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="28">
@@ -8127,7 +9816,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="17"/>
       <c r="O15" s="14" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="28">
@@ -8142,7 +9831,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="17"/>
       <c r="O16" s="14" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="P16" s="17">
         <v>120000</v>
@@ -8165,7 +9854,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="17"/>
       <c r="O17" s="14" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="28">
@@ -8174,10 +9863,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="H18" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="28">
@@ -8187,7 +9876,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="2"/>
@@ -8202,7 +9891,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="P19" s="30"/>
       <c r="Q19" s="31">
@@ -8259,7 +9948,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -8342,10 +10031,10 @@
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8419,26 +10108,26 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8451,22 +10140,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8632,7 +10321,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B17" s="17">
         <f>SUM(B7,B8,B9,B13,B14,B15,B16)</f>
@@ -8643,7 +10332,7 @@
         <v>140000</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F17" s="17">
         <f>SUM(F7,F8,F9,F13,F14,F15,F16)</f>
@@ -8687,13 +10376,13 @@
         <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8701,7 +10390,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8709,13 +10398,13 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -8739,7 +10428,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -8755,7 +10444,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -8768,13 +10457,13 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -8798,7 +10487,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -8813,7 +10502,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -8826,13 +10515,13 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -8856,7 +10545,7 @@
         <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -8872,7 +10561,7 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8891,7 +10580,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -8917,7 +10606,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="F16" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8945,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8993,20 +10682,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="14"/>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -9022,10 +10711,10 @@
         <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9059,7 +10748,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B36" s="17">
         <v>2000</v>
@@ -9068,7 +10757,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B37" s="17">
         <v>5000</v>
@@ -9077,7 +10766,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="14" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B38" s="17">
         <v>10000</v>
@@ -9095,7 +10784,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="B40" s="17">
         <v>3000</v>
@@ -9104,7 +10793,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B41" s="17">
         <v>7000</v>
@@ -9122,7 +10811,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="16" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B43" s="35">
         <f>SUM(B33,B35,B36,B37,B38,B39,B40,B41,B42)</f>
@@ -9150,7 +10839,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -9180,10 +10869,10 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9198,7 +10887,7 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -9278,7 +10967,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -9348,7 +11037,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -10196,15 +11885,15 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="B2" s="9">
         <v>2000</v>
@@ -10212,7 +11901,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G2" s="9">
         <v>2000</v>
@@ -10240,10 +11929,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10254,7 +11943,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G2" s="9">
         <v>2000</v>
@@ -10269,12 +11958,419 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB7A733-4595-4CAA-80D7-448F3C49A65F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="7">
+        <v>44228</v>
+      </c>
+      <c r="B4" s="2">
+        <f>L4</f>
+        <v>400000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7">
+        <v>44228</v>
+      </c>
+      <c r="L4" s="2">
+        <v>400000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="C5" s="5"/>
+      <c r="D5" s="8">
+        <v>44228</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="1"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="C6" s="5"/>
+      <c r="D6" s="8">
+        <v>44228</v>
+      </c>
+      <c r="E6" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="C7" s="5"/>
+      <c r="D7" s="8">
+        <v>44229</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7">
+        <v>44229</v>
+      </c>
+      <c r="L7" s="2">
+        <v>160000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="25">
+        <f>SUM(B4,B8)-SUM(E5,E6,E7,E9,E10)</f>
+        <v>157400</v>
+      </c>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="8">
+        <v>44241</v>
+      </c>
+      <c r="B8" s="1">
+        <v>95000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="17">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="C9" s="5"/>
+      <c r="D9" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="17">
+        <v>3600</v>
+      </c>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="C10" s="5"/>
+      <c r="D10" s="8">
+        <v>44255</v>
+      </c>
+      <c r="E10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44250</v>
+      </c>
+      <c r="I10" s="2">
+        <v>130000</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="17">
+        <v>140000</v>
+      </c>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="O11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="17">
+        <v>160000</v>
+      </c>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="17">
+        <v>180000</v>
+      </c>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="7">
+        <v>44228</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7">
+        <v>44250</v>
+      </c>
+      <c r="L13" s="2">
+        <v>130000</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="17">
+        <v>120000</v>
+      </c>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="J14" s="5"/>
+      <c r="K14" s="8">
+        <v>44241</v>
+      </c>
+      <c r="L14" s="1">
+        <v>95000</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="28">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="17">
+        <v>130000</v>
+      </c>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="7">
+        <v>44228</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="O16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="28">
+        <f>SUM(L13,L14)</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="O17" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="7">
+        <v>44229</v>
+      </c>
+      <c r="B19" s="2">
+        <v>140000</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="7">
+        <v>44229</v>
+      </c>
+      <c r="B22" s="2">
+        <v>160000</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="7">
+        <v>44255</v>
+      </c>
+      <c r="B25" s="2">
+        <v>180000</v>
+      </c>
+      <c r="C25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="7">
+        <v>44228</v>
+      </c>
+      <c r="B28" s="2">
+        <v>120000</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10322,37 +12418,37 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B2" s="8">
         <v>44196</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10400,10 +12496,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17">
@@ -10413,7 +12509,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B9" s="17">
         <v>27000</v>
@@ -10439,7 +12535,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17">
@@ -10469,7 +12565,7 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17">
@@ -10491,7 +12587,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17">
@@ -10530,10 +12626,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
@@ -10556,7 +12652,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B20" s="17">
         <v>228000</v>
@@ -10578,7 +12674,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10609,7 +12705,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -10617,13 +12713,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="17" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>22</v>
@@ -10640,19 +12736,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="17" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F3" s="8">
         <v>44075</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="H3" s="17">
         <v>9600</v>
@@ -10660,7 +12756,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="17" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="17" t="s">
@@ -10675,7 +12771,7 @@
         <v>44196</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H5" s="17">
         <f>9600*3/12</f>
@@ -10684,11 +12780,11 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="17" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="17" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="I6" s="17">
         <f>9600*3/12</f>
@@ -10697,19 +12793,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D7" s="17">
         <v>2</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F7" s="8">
         <v>44120</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="H7" s="17">
         <v>84000</v>
@@ -10729,7 +12825,7 @@
         <v>44196</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="H9" s="17">
         <f>84000*1.5/12</f>
@@ -10739,7 +12835,7 @@
     <row r="10" spans="1:9">
       <c r="F10" s="8"/>
       <c r="G10" s="17" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="I10" s="17">
         <f>84000*1.5/12</f>
@@ -10751,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="F11" s="8">
         <v>44105</v>
@@ -10777,7 +12873,7 @@
         <v>44196</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="H13" s="17">
         <f>30000*2/3</f>
@@ -10799,7 +12895,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F15" s="8">
         <v>44196</v>
@@ -10814,7 +12910,7 @@
     <row r="16" spans="1:9">
       <c r="F16" s="8"/>
       <c r="G16" s="17" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I16" s="17">
         <v>2000</v>
@@ -10825,25 +12921,25 @@
         <v>5</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F17" s="8">
         <v>44166</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="H17" s="17">
         <v>30000</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L17" s="45">
         <v>0.12</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="N17" s="17">
         <f>H17*L17*1/12</f>
@@ -10853,7 +12949,7 @@
     <row r="18" spans="4:14">
       <c r="F18" s="8"/>
       <c r="G18" s="17" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I18" s="17">
         <v>30000</v>
@@ -10873,7 +12969,7 @@
     </row>
     <row r="20" spans="4:14">
       <c r="G20" s="17" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="I20" s="17">
         <f>H19</f>
@@ -10890,7 +12986,7 @@
   <dimension ref="C1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10909,12 +13005,12 @@
     </row>
     <row r="2" spans="3:14">
       <c r="C2" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="3:14">
       <c r="C3" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -10925,10 +13021,10 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3">
@@ -10949,16 +13045,16 @@
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="H5">
         <v>12800</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="N5">
         <v>6400</v>
@@ -10969,7 +13065,7 @@
         <v>44196</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6">
@@ -10978,13 +13074,13 @@
     </row>
     <row r="7" spans="3:14">
       <c r="C7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="N7">
         <v>12800</v>
@@ -10992,10 +13088,10 @@
     </row>
     <row r="8" spans="3:14">
       <c r="C8" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3">
@@ -11005,10 +13101,10 @@
     </row>
     <row r="9" spans="3:14">
       <c r="C9" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="H9">
         <v>6400</v>
@@ -11032,7 +13128,7 @@
     </row>
     <row r="11" spans="3:14">
       <c r="L11" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="N11">
         <v>12800</v>
@@ -11043,7 +13139,7 @@
         <v>44196</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12">
@@ -11052,7 +13148,7 @@
     </row>
     <row r="13" spans="3:14">
       <c r="L13" s="5" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="N13">
         <v>6400</v>
@@ -11087,17 +13183,17 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>22</v>
@@ -11125,7 +13221,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="C7" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E7" s="17">
         <v>9600</v>
@@ -11158,7 +13254,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="C11" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E11" s="17">
         <v>0</v>
@@ -11166,7 +13262,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>22</v>
@@ -11194,7 +13290,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="17" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="E15" s="17">
         <v>9600</v>
@@ -11219,7 +13315,7 @@
         <v>44196</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="D18" s="17">
         <f>9600*1/12*2</f>
@@ -11228,7 +13324,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="C19" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E19" s="17">
         <f>9600*1/12*2</f>
@@ -11237,7 +13333,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>22</v>
@@ -11265,7 +13361,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E23" s="17">
         <v>9600</v>
@@ -11290,7 +13386,7 @@
         <v>44196</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D26" s="17">
         <f>9600*(1-2/12)</f>
@@ -11299,7 +13395,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="C27" s="17" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="E27" s="17">
         <f>9600*(1-2/12)</f>
@@ -11612,10 +13708,10 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414358C7-CFB8-4EFB-9FBA-4A3F6211D42A}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11624,24 +13720,26 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="D1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="D2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -11650,45 +13748,69 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" t="s">
+        <v>271</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>273</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4">
+        <v>31</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="D5" s="15" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="D6" s="15">
         <v>12</v>
       </c>
@@ -11696,57 +13818,93 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4">
+      <c r="J6" s="25"/>
+      <c r="K6" s="27">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6" t="s">
+        <v>113</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="D7" s="14"/>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="17"/>
+      <c r="K7" s="28"/>
+      <c r="N7" s="4">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4">
+        <v>31</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="25">
+        <v>10000</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <v>2</v>
+      </c>
+      <c r="W7" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="D8" s="14"/>
       <c r="G8" t="s">
-        <v>254</v>
-      </c>
-      <c r="J8">
+        <v>275</v>
+      </c>
+      <c r="J8" s="17">
         <v>10000</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="D9" s="14"/>
       <c r="G9" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="5">
+        <v>276</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="28">
         <v>4000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="D10" s="14"/>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="G10">
         <v>60000</v>
@@ -11754,24 +13912,47 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="17">
         <v>60000</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="28"/>
+      <c r="N10" s="4">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4">
+        <v>31</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="27">
+        <v>60000</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
+        <v>2</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="D11" s="14"/>
       <c r="G11" t="s">
-        <v>256</v>
-      </c>
-      <c r="K11" s="5">
+        <v>277</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="28">
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:23">
       <c r="D12" s="29"/>
       <c r="E12" s="11" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
@@ -11781,8 +13962,35 @@
       <c r="I12" s="11">
         <v>4</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="48">
+      <c r="J12" s="30"/>
+      <c r="K12" s="31">
+        <v>10000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="W12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="N13" s="4">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4">
+        <v>31</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
         <v>10000</v>
       </c>
     </row>
@@ -11822,10 +14030,10 @@
         <v>44075</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -11842,19 +14050,19 @@
     </row>
     <row r="3" spans="3:12">
       <c r="C3" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G3" s="7">
         <v>44075</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="25">
@@ -11864,10 +14072,10 @@
     </row>
     <row r="4" spans="3:12">
       <c r="C4" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17">
@@ -11877,13 +14085,13 @@
     </row>
     <row r="5" spans="3:12">
       <c r="C5" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G5" s="8">
         <v>44075</v>
@@ -11899,7 +14107,7 @@
     </row>
     <row r="6" spans="3:12">
       <c r="I6" s="5" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17">
@@ -11911,7 +14119,7 @@
         <v>44196</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="17">
@@ -11922,7 +14130,7 @@
     </row>
     <row r="8" spans="3:12">
       <c r="I8" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17">
@@ -11935,7 +14143,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G9" s="8">
         <v>44075</v>
@@ -11951,7 +14159,7 @@
     </row>
     <row r="10" spans="3:12">
       <c r="I10" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17">
@@ -11963,7 +14171,7 @@
         <v>44196</v>
       </c>
       <c r="H11" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="17">
@@ -11974,7 +14182,7 @@
     </row>
     <row r="12" spans="3:12">
       <c r="I12" s="5" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17">
@@ -12041,36 +14249,803 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAE52D1-BD8E-47D5-9A08-A4F600811DBB}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9">
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44013</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="17">
+        <v>840000</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="E5" s="8">
+        <v>44196</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="17">
+        <f>H3*(1-6/24)</f>
+        <v>630000</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="G6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17">
+        <f>H5</f>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44075</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="17">
+        <v>240000</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="E9" s="8">
+        <v>44196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="17">
+        <f>H7*3/12</f>
+        <v>60000</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17">
+        <f>H9</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43831</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="17">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="E13" s="8">
+        <v>44196</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="17">
+        <f>3600*(1-1/2)</f>
+        <v>1800</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
+        <f>H13</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="8">
+        <v>43952</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="8">
+        <v>44196</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="17">
+        <f>H15*8/12</f>
+        <v>800</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
+        <f>H17</f>
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2B10E-C36E-4EC8-810B-3C552A1963F1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC301209-5F3A-4E1B-8375-E90445D5D86B}">
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="N3" t="s">
+        <v>282</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <v>5</v>
+      </c>
+      <c r="R4" s="27">
+        <v>100000</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="D5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="17"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="25">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="N6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="W6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="D7" s="14"/>
+      <c r="G7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="28">
+        <v>10000</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="25">
+        <v>1200</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1200</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="D9" s="14"/>
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="28">
+        <f>J8</f>
+        <v>1200</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="W9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="D10" s="14">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="17">
+        <v>5000</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="N10" s="4">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="27">
+        <v>5000</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="D11" s="14"/>
+      <c r="G11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1400</v>
+      </c>
+      <c r="J11" s="17">
+        <v>3600</v>
+      </c>
+      <c r="K11" s="28">
+        <v>1400</v>
+      </c>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="D12" s="14">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" s="17">
+        <v>12000</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17">
+        <v>12000</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="D13" s="29"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31">
+        <v>12000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>260</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="T13" s="5"/>
+      <c r="W13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="N14" s="4">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="27">
+        <v>12000</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBF52BD-8CFF-465E-B429-83A9988E08F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="K4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L4" s="7">
+        <v>44075</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3">
+        <v>144000</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>48000</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P5">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="L6" s="8">
+        <v>44196</v>
+      </c>
+      <c r="M6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="K11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="K12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" s="7">
+        <v>44075</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3">
+        <v>144000</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="N13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="L14" s="8">
+        <v>44196</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="N15" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P15">
+        <v>96000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12407,7 +15382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11210" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1583DA-8004-4409-A148-40E11F10DB6E}"/>
+  <xr:revisionPtr revIDLastSave="11252" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1CD1D8-BA9C-4B22-9564-99135CCC588D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1482,7 +1482,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1499,6 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -25699,8 +25699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1367CA6A-2818-4B44-993F-B1CF369E3B1B}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="AC12" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -26045,7 +26045,7 @@
       <c r="AM8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AN8" s="78" t="s">
+      <c r="AN8" s="77" t="s">
         <v>19</v>
       </c>
       <c r="AO8" s="4" t="s">
@@ -26141,11 +26141,11 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AE9" s="80" t="s">
+      <c r="AE9" s="79" t="s">
         <v>29</v>
       </c>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="75">
+      <c r="AG9" s="74">
         <v>115600</v>
       </c>
       <c r="AH9" s="4"/>
@@ -26153,28 +26153,28 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="76">
+      <c r="AM9" s="75">
         <f>IF($AU9&gt;0,$AU9,"")</f>
         <v>115600</v>
       </c>
-      <c r="AN9" s="77" t="str">
+      <c r="AN9" s="76" t="str">
         <f>IF($AU9&lt;0,-$AU9,"")</f>
         <v/>
       </c>
-      <c r="AO9" s="76" t="str">
-        <f>IF(OR($AD1=4,$AD1=5),$AM9,"")</f>
+      <c r="AO9" s="75" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AM9,"")</f>
         <v/>
       </c>
-      <c r="AP9" s="77" t="str">
-        <f>IF(OR($AD1=4,$AD1=5),$AN9,"")</f>
+      <c r="AP9" s="86" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AN9,"")</f>
         <v/>
       </c>
       <c r="AQ9" s="55">
-        <f>IF($AT9-$AV9&lt;&gt;0,$AT9-$AV9,"")</f>
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AT9-$AV9&lt;&gt;0,$AT9-$AV9,""),"")</f>
         <v>115600</v>
       </c>
       <c r="AR9" s="71" t="str">
-        <f>IF($AW9-$AX9&lt;&gt;0,$AW9-$AX9,"")</f>
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AW9-$AX9&lt;&gt;0,$AW9-$AX9,""),"")</f>
         <v/>
       </c>
       <c r="AS9" s="55"/>
@@ -26273,7 +26273,7 @@
       <c r="AD10">
         <v>1</v>
       </c>
-      <c r="AE10" s="81" t="s">
+      <c r="AE10" s="80" t="s">
         <v>119</v>
       </c>
       <c r="AF10" s="5"/>
@@ -26291,24 +26291,24 @@
         <f t="shared" ref="AM10:AM27" si="0">IF($AU10&gt;0,$AU10,"")</f>
         <v>20000</v>
       </c>
-      <c r="AN10" s="71" t="str">
+      <c r="AN10" s="86" t="str">
         <f t="shared" ref="AN10:AN27" si="1">IF($AU10&lt;0,-$AU10,"")</f>
         <v/>
       </c>
-      <c r="AO10" s="55" t="str">
-        <f t="shared" ref="AO10:AO27" si="2">IF(OR($AD2=4,$AD2=5),$AM10,"")</f>
+      <c r="AO10" s="86" t="str">
+        <f t="shared" ref="AO10:AO29" si="2">IF(OR($AD10=4,$AD10=5),$AM10,"")</f>
         <v/>
       </c>
-      <c r="AP10" s="71" t="str">
-        <f t="shared" ref="AP10:AP27" si="3">IF(OR($AD2=4,$AD2=5),$AN10,"")</f>
+      <c r="AP10" s="86" t="str">
+        <f t="shared" ref="AP10:AP29" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
         <v/>
       </c>
       <c r="AQ10" s="55">
-        <f t="shared" ref="AQ10:AQ27" si="4">IF($AT10-$AV10&lt;&gt;0,$AT10-$AV10,"")</f>
+        <f t="shared" ref="AQ10:AQ27" si="4">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AT10-$AV10&lt;&gt;0,$AT10-$AV10,""),"")</f>
         <v>20000</v>
       </c>
       <c r="AR10" s="71" t="str">
-        <f t="shared" ref="AR10:AR29" si="5">IF($AW10-$AX10&lt;&gt;0,$AW10-$AX10,"")</f>
+        <f t="shared" ref="AR10:AR27" si="5">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AW10-$AX10&lt;&gt;0,$AW10-$AX10,""),"")</f>
         <v/>
       </c>
       <c r="AS10" s="55"/>
@@ -26395,7 +26395,7 @@
       <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AE11" s="81" t="s">
+      <c r="AE11" s="80" t="s">
         <v>147</v>
       </c>
       <c r="AF11" s="5"/>
@@ -26408,15 +26408,15 @@
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="AN11" s="71" t="str">
+      <c r="AN11" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="55" t="str">
+      <c r="AO11" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP11" s="71" t="str">
+      <c r="AP11" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -26525,7 +26525,7 @@
       <c r="AD12">
         <v>2</v>
       </c>
-      <c r="AE12" s="82" t="s">
+      <c r="AE12" s="81" t="s">
         <v>145</v>
       </c>
       <c r="AF12" s="5"/>
@@ -26538,15 +26538,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN12" s="71" t="str">
+      <c r="AN12" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="55" t="str">
+      <c r="AO12" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP12" s="71" t="str">
+      <c r="AP12" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -26644,7 +26644,7 @@
       <c r="AD13">
         <v>3</v>
       </c>
-      <c r="AE13" s="83" t="s">
+      <c r="AE13" s="82" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="5"/>
@@ -26656,15 +26656,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN13" s="71">
+      <c r="AN13" s="86">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="AO13" s="55" t="str">
+      <c r="AO13" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP13" s="71" t="str">
+      <c r="AP13" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -26773,7 +26773,7 @@
       <c r="AD14">
         <v>4</v>
       </c>
-      <c r="AE14" s="84" t="s">
+      <c r="AE14" s="83" t="s">
         <v>148</v>
       </c>
       <c r="AF14" s="5"/>
@@ -26785,25 +26785,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN14" s="71">
+      <c r="AN14" s="86">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="AO14" s="55" t="str">
+      <c r="AO14" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP14" s="71" t="str">
+      <c r="AP14" s="86">
         <f t="shared" si="3"/>
-        <v/>
+        <v>70000</v>
       </c>
       <c r="AQ14" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR14" s="71">
+      <c r="AR14" s="71" t="str">
         <f t="shared" si="5"/>
-        <v>70000</v>
+        <v/>
       </c>
       <c r="AS14" s="55"/>
       <c r="AT14">
@@ -26824,7 +26824,7 @@
       </c>
       <c r="AX14">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AY14" s="46"/>
       <c r="AZ14" s="5">
@@ -26889,7 +26889,7 @@
       <c r="AD15">
         <v>5</v>
       </c>
-      <c r="AE15" s="85" t="s">
+      <c r="AE15" s="84" t="s">
         <v>143</v>
       </c>
       <c r="AF15" s="5"/>
@@ -26902,21 +26902,21 @@
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="AN15" s="71" t="str">
+      <c r="AN15" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="55" t="str">
+      <c r="AO15" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AP15" s="71" t="str">
+        <v>90000</v>
+      </c>
+      <c r="AP15" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ15" s="55">
+      <c r="AQ15" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>90000</v>
+        <v/>
       </c>
       <c r="AR15" s="71" t="str">
         <f t="shared" si="5"/>
@@ -26933,7 +26933,7 @@
       </c>
       <c r="AV15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AW15">
         <f t="shared" si="9"/>
@@ -27019,7 +27019,7 @@
       <c r="AD16">
         <v>5</v>
       </c>
-      <c r="AE16" s="85" t="s">
+      <c r="AE16" s="84" t="s">
         <v>144</v>
       </c>
       <c r="AF16" s="5"/>
@@ -27037,21 +27037,21 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="AN16" s="71" t="str">
+      <c r="AN16" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="55" t="str">
+      <c r="AO16" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AP16" s="71" t="str">
+        <v>1200</v>
+      </c>
+      <c r="AP16" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ16" s="55">
+      <c r="AQ16" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v/>
       </c>
       <c r="AR16" s="71" t="str">
         <f t="shared" si="5"/>
@@ -27068,7 +27068,7 @@
       </c>
       <c r="AV16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="AW16">
         <f t="shared" si="9"/>
@@ -27125,7 +27125,7 @@
       <c r="AD17">
         <v>5</v>
       </c>
-      <c r="AE17" s="85" t="s">
+      <c r="AE17" s="84" t="s">
         <v>86</v>
       </c>
       <c r="AF17" s="5"/>
@@ -27144,21 +27144,21 @@
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
-      <c r="AN17" s="71" t="str">
+      <c r="AN17" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="55" t="str">
+      <c r="AO17" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AP17" s="71" t="str">
+        <v>97000</v>
+      </c>
+      <c r="AP17" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ17" s="55">
+      <c r="AQ17" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>97000</v>
+        <v/>
       </c>
       <c r="AR17" s="71" t="str">
         <f t="shared" si="5"/>
@@ -27175,7 +27175,7 @@
       </c>
       <c r="AV17">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97000</v>
       </c>
       <c r="AW17">
         <f t="shared" si="9"/>
@@ -27238,7 +27238,7 @@
       <c r="AD18">
         <v>5</v>
       </c>
-      <c r="AE18" s="85" t="s">
+      <c r="AE18" s="84" t="s">
         <v>101</v>
       </c>
       <c r="AF18" s="5"/>
@@ -27251,21 +27251,21 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="AN18" s="71" t="str">
+      <c r="AN18" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="55" t="str">
+      <c r="AO18" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AP18" s="71" t="str">
+        <v>400</v>
+      </c>
+      <c r="AP18" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ18" s="55">
+      <c r="AQ18" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v/>
       </c>
       <c r="AR18" s="71" t="str">
         <f t="shared" si="5"/>
@@ -27282,7 +27282,7 @@
       </c>
       <c r="AV18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AW18">
         <f t="shared" si="9"/>
@@ -27348,7 +27348,7 @@
         <f>SUM(AG9:AG18)</f>
         <v>270000</v>
       </c>
-      <c r="AH19" s="79">
+      <c r="AH19" s="78">
         <f>SUM(AH9:AH18)</f>
         <v>270000</v>
       </c>
@@ -27357,15 +27357,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN19" s="71" t="str">
+      <c r="AN19" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="55" t="str">
+      <c r="AO19" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP19" s="71" t="str">
+      <c r="AP19" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27458,7 +27458,7 @@
       <c r="AD20">
         <v>5</v>
       </c>
-      <c r="AE20" s="85" t="s">
+      <c r="AE20" s="84" t="s">
         <v>236</v>
       </c>
       <c r="AF20" s="5"/>
@@ -27474,21 +27474,21 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AN20" s="71" t="str">
+      <c r="AN20" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="55" t="str">
+      <c r="AO20" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AP20" s="71" t="str">
+        <v>1000</v>
+      </c>
+      <c r="AP20" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ20" s="55">
+      <c r="AQ20" s="55" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AR20" s="71" t="str">
         <f t="shared" si="5"/>
@@ -27505,7 +27505,7 @@
       </c>
       <c r="AV20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AW20">
         <f t="shared" si="9"/>
@@ -27602,15 +27602,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN21" s="71" t="str">
+      <c r="AN21" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="55" t="str">
+      <c r="AO21" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP21" s="71" t="str">
+      <c r="AP21" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27689,7 +27689,7 @@
       <c r="AD22">
         <v>5</v>
       </c>
-      <c r="AE22" s="85" t="s">
+      <c r="AE22" s="84" t="s">
         <v>243</v>
       </c>
       <c r="AF22" s="5"/>
@@ -27705,15 +27705,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="71">
+      <c r="AN22" s="86">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="55" t="str">
-        <f>IF(OR($AD14=4,$AD14=5),$AM22,"")</f>
+      <c r="AO22" s="86" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="71">
+      <c r="AP22" s="86">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
@@ -27799,7 +27799,7 @@
       <c r="AD23">
         <v>5</v>
       </c>
-      <c r="AE23" s="85" t="s">
+      <c r="AE23" s="84" t="s">
         <v>104</v>
       </c>
       <c r="AF23" s="5"/>
@@ -27815,15 +27815,15 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AN23" s="71" t="str">
+      <c r="AN23" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="55">
+      <c r="AO23" s="86">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="AP23" s="71" t="str">
+      <c r="AP23" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27907,7 +27907,7 @@
       <c r="AD24">
         <v>5</v>
       </c>
-      <c r="AE24" s="85" t="s">
+      <c r="AE24" s="84" t="s">
         <v>84</v>
       </c>
       <c r="AF24" s="5"/>
@@ -27923,15 +27923,15 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AN24" s="71" t="str">
+      <c r="AN24" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="55">
+      <c r="AO24" s="86">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="AP24" s="71" t="str">
+      <c r="AP24" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -28039,7 +28039,7 @@
       <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AE25" s="85" t="s">
+      <c r="AE25" s="84" t="s">
         <v>244</v>
       </c>
       <c r="AF25" s="5"/>
@@ -28055,15 +28055,15 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="AN25" s="71" t="str">
+      <c r="AN25" s="86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO25" s="55">
+      <c r="AO25" s="86">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="AP25" s="71" t="str">
+      <c r="AP25" s="86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -28185,25 +28185,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN26" s="71">
+      <c r="AN26" s="86">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="AO26" s="55" t="str">
+      <c r="AO26" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP26" s="71">
+      <c r="AP26" s="86" t="str">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v/>
       </c>
       <c r="AQ26" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR26" s="71" t="str">
+      <c r="AR26" s="71">
         <f t="shared" si="5"/>
-        <v/>
+        <v>80000</v>
       </c>
       <c r="AS26" s="55"/>
       <c r="AT26">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="AX26">
         <f t="shared" si="10"/>
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="45">
         <v>10</v>
@@ -28303,7 +28303,7 @@
       <c r="AD27">
         <v>2</v>
       </c>
-      <c r="AE27" s="82" t="s">
+      <c r="AE27" s="81" t="s">
         <v>242</v>
       </c>
       <c r="AF27" s="5"/>
@@ -28323,11 +28323,11 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="AO27" s="67" t="str">
+      <c r="AO27" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP27" s="72" t="str">
+      <c r="AP27" s="71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -28433,7 +28433,7 @@
         <f>SUM(AK$9:AK$27)</f>
         <v>102800</v>
       </c>
-      <c r="AL28" s="74"/>
+      <c r="AL28" s="73"/>
       <c r="AM28" s="65">
         <f>SUM(AM$9:AM$27)</f>
         <v>361000</v>
@@ -28442,13 +28442,13 @@
         <f>SUM(AN$9:AN$27)</f>
         <v>361000</v>
       </c>
-      <c r="AO28" s="55">
+      <c r="AO28" s="75">
         <f>SUM(AO$9:AO$27)</f>
-        <v>21800</v>
-      </c>
-      <c r="AP28" s="71">
+        <v>211400</v>
+      </c>
+      <c r="AP28" s="75">
         <f>SUM(AP$9:AP$27)</f>
-        <v>81000</v>
+        <v>71000</v>
       </c>
       <c r="AR28" s="5"/>
       <c r="AS28" s="55"/>
@@ -28458,7 +28458,7 @@
       </c>
       <c r="AV28">
         <f t="shared" si="8"/>
-        <v>21800</v>
+        <v>211400</v>
       </c>
       <c r="AW28">
         <f t="shared" si="9"/>
@@ -28466,7 +28466,7 @@
       </c>
       <c r="AX28">
         <f t="shared" si="10"/>
-        <v>81000</v>
+        <v>71000</v>
       </c>
       <c r="AY28" s="59"/>
       <c r="AZ28" s="48">
@@ -28516,21 +28516,21 @@
       <c r="AH29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="67" t="str">
+      <c r="AO29" s="75">
         <f>IF(OR($AO$28="",$AP$28=""),"",IF($AO$28-$AP$28&gt;0,$AO$28-$AP$28,""))</f>
+        <v>140400</v>
+      </c>
+      <c r="AP29" s="76" t="str">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
         <v/>
       </c>
-      <c r="AP29" s="72">
-        <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
-        <v>59200</v>
-      </c>
-      <c r="AQ29" s="67">
+      <c r="AQ29" s="67" t="str">
         <f>IF($AP$29&lt;&gt;"",$AP$29,"")</f>
-        <v>59200</v>
-      </c>
-      <c r="AR29" s="86" t="str">
+        <v/>
+      </c>
+      <c r="AR29" s="85">
         <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
-        <v/>
+        <v>140400</v>
       </c>
       <c r="AS29" s="55"/>
       <c r="AT29">
@@ -28539,7 +28539,7 @@
       </c>
       <c r="AV29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="AW29">
         <f t="shared" si="9"/>
@@ -28547,7 +28547,7 @@
       </c>
       <c r="AX29">
         <f t="shared" si="10"/>
-        <v>59200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:58">
@@ -28610,25 +28610,25 @@
       <c r="AN30" s="48"/>
       <c r="AO30" s="68">
         <f>IF($AO28="",0,$AO28)-IF($AO29="",0,$AO29)</f>
-        <v>21800</v>
+        <v>71000</v>
       </c>
       <c r="AP30" s="68">
         <f>IF($AP28="",0,$AP28)-IF($AP29="",0,$AP29)</f>
-        <v>21800</v>
+        <v>71000</v>
       </c>
       <c r="AQ30" s="68">
         <f>SUM(AQ$9:AQ$29)</f>
-        <v>398400</v>
-      </c>
-      <c r="AR30" s="73">
+        <v>149600</v>
+      </c>
+      <c r="AR30" s="72">
         <f>SUM(AR$9:AR$29)</f>
-        <v>280000</v>
+        <v>430400</v>
       </c>
       <c r="AS30" s="71"/>
       <c r="AT30" s="5"/>
       <c r="AV30">
         <f t="shared" si="8"/>
-        <v>21800</v>
+        <v>71000</v>
       </c>
       <c r="AW30">
         <f t="shared" si="9"/>
@@ -28636,7 +28636,7 @@
       </c>
       <c r="AX30">
         <f t="shared" si="10"/>
-        <v>21800</v>
+        <v>71000</v>
       </c>
       <c r="AY30" s="15" t="s">
         <v>145</v>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11252" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1CD1D8-BA9C-4B22-9564-99135CCC588D}"/>
+  <xr:revisionPtr revIDLastSave="11286" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA0D03D-D5FA-4ADB-AE30-A8C1BA84334C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="318">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1050,6 +1050,9 @@
     <t>金欣洗衣店</t>
   </si>
   <si>
+    <t>調整</t>
+  </si>
+  <si>
     <t>單位</t>
   </si>
   <si>
@@ -1057,6 +1060,9 @@
   </si>
   <si>
     <t>元</t>
+  </si>
+  <si>
+    <t>將空字串轉換為零</t>
   </si>
   <si>
     <t>調整後試算表</t>
@@ -1409,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1498,7 +1504,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -25699,8 +25704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1367CA6A-2818-4B44-993F-B1CF369E3B1B}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC12" workbookViewId="0">
-      <selection activeCell="AP30" sqref="AP30"/>
+    <sheetView tabSelected="1" topLeftCell="R62" workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -25717,10 +25722,11 @@
     <col min="38" max="39" width="14" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="11.75" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8.875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="11.75" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -25770,6 +25776,9 @@
       </c>
       <c r="AC5" t="s">
         <v>306</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>308</v>
       </c>
       <c r="AY5" s="15" t="s">
         <v>29</v>
@@ -25802,13 +25811,16 @@
         <v>44135</v>
       </c>
       <c r="AP6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AQ6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AR6" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>312</v>
       </c>
       <c r="AY6" s="15" t="s">
         <v>131</v>
@@ -25907,28 +25919,28 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN7" s="4"/>
       <c r="AO7" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AR7" s="4"/>
       <c r="AT7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AY7" s="45" t="s">
         <v>132</v>
@@ -26034,13 +26046,13 @@
         <v>17</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>17</v>
@@ -26165,7 +26177,7 @@
         <f>IF(OR($AD9=4,$AD9=5),$AM9,"")</f>
         <v/>
       </c>
-      <c r="AP9" s="86" t="str">
+      <c r="AP9" s="55" t="str">
         <f>IF(OR($AD9=4,$AD9=5),$AN9,"")</f>
         <v/>
       </c>
@@ -26291,15 +26303,15 @@
         <f t="shared" ref="AM10:AM27" si="0">IF($AU10&gt;0,$AU10,"")</f>
         <v>20000</v>
       </c>
-      <c r="AN10" s="86" t="str">
+      <c r="AN10" s="55" t="str">
         <f t="shared" ref="AN10:AN27" si="1">IF($AU10&lt;0,-$AU10,"")</f>
         <v/>
       </c>
-      <c r="AO10" s="86" t="str">
+      <c r="AO10" s="55" t="str">
         <f t="shared" ref="AO10:AO29" si="2">IF(OR($AD10=4,$AD10=5),$AM10,"")</f>
         <v/>
       </c>
-      <c r="AP10" s="86" t="str">
+      <c r="AP10" s="55" t="str">
         <f t="shared" ref="AP10:AP29" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
         <v/>
       </c>
@@ -26408,15 +26420,15 @@
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="AN11" s="86" t="str">
+      <c r="AN11" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="86" t="str">
+      <c r="AO11" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP11" s="86" t="str">
+      <c r="AP11" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -26538,15 +26550,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN12" s="86" t="str">
+      <c r="AN12" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="86" t="str">
+      <c r="AO12" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP12" s="86" t="str">
+      <c r="AP12" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -26656,15 +26668,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN13" s="86">
+      <c r="AN13" s="55">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="AO13" s="86" t="str">
+      <c r="AO13" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP13" s="86" t="str">
+      <c r="AP13" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -26785,15 +26797,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN14" s="86">
+      <c r="AN14" s="55">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="AO14" s="86" t="str">
+      <c r="AO14" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP14" s="86">
+      <c r="AP14" s="55">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
@@ -26902,15 +26914,15 @@
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="AN15" s="86" t="str">
+      <c r="AN15" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="86">
+      <c r="AO15" s="55">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="AP15" s="86" t="str">
+      <c r="AP15" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27037,15 +27049,15 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="AN16" s="86" t="str">
+      <c r="AN16" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="86">
+      <c r="AO16" s="55">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="AP16" s="86" t="str">
+      <c r="AP16" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27144,15 +27156,15 @@
         <f t="shared" si="0"/>
         <v>97000</v>
       </c>
-      <c r="AN17" s="86" t="str">
+      <c r="AN17" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="86">
+      <c r="AO17" s="55">
         <f t="shared" si="2"/>
         <v>97000</v>
       </c>
-      <c r="AP17" s="86" t="str">
+      <c r="AP17" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27251,15 +27263,15 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="AN18" s="86" t="str">
+      <c r="AN18" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="86">
+      <c r="AO18" s="55">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="AP18" s="86" t="str">
+      <c r="AP18" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27357,15 +27369,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN19" s="86" t="str">
+      <c r="AN19" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="86" t="str">
+      <c r="AO19" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP19" s="86" t="str">
+      <c r="AP19" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27474,15 +27486,15 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AN20" s="86" t="str">
+      <c r="AN20" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="86">
+      <c r="AO20" s="55">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="AP20" s="86" t="str">
+      <c r="AP20" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27602,15 +27614,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN21" s="86" t="str">
+      <c r="AN21" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="86" t="str">
+      <c r="AO21" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP21" s="86" t="str">
+      <c r="AP21" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27705,15 +27717,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="86">
+      <c r="AN22" s="55">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="86" t="str">
+      <c r="AO22" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="86">
+      <c r="AP22" s="55">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
@@ -27815,15 +27827,15 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AN23" s="86" t="str">
+      <c r="AN23" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="86">
+      <c r="AO23" s="55">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="AP23" s="86" t="str">
+      <c r="AP23" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -27923,15 +27935,15 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AN24" s="86" t="str">
+      <c r="AN24" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="86">
+      <c r="AO24" s="55">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="AP24" s="86" t="str">
+      <c r="AP24" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -28055,15 +28067,15 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="AN25" s="86" t="str">
+      <c r="AN25" s="55" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO25" s="86">
+      <c r="AO25" s="55">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="AP25" s="86" t="str">
+      <c r="AP25" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -28185,15 +28197,15 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN26" s="86">
+      <c r="AN26" s="55">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="AO26" s="86" t="str">
+      <c r="AO26" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP26" s="86" t="str">
+      <c r="AP26" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -28323,7 +28335,7 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="AO27" s="86" t="str">
+      <c r="AO27" s="55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -28336,7 +28348,7 @@
         <v/>
       </c>
       <c r="AR27" s="71">
-        <f t="shared" si="5"/>
+        <f>IF(OR($AD27=1,$AD27=2,$AD27=3),IF($AW27-$AX27&lt;&gt;0,$AW27-$AX27,""),"")</f>
         <v>10000</v>
       </c>
       <c r="AS27" s="55"/>
@@ -28996,7 +29008,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="J36">
         <v>14</v>
@@ -29014,7 +29026,7 @@
         <v>51</v>
       </c>
       <c r="Q36" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="T36" s="15" t="s">
         <v>231</v>
@@ -29049,7 +29061,7 @@
         <v>231</v>
       </c>
       <c r="G37" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="J37">
         <v>14</v>
@@ -29061,7 +29073,7 @@
         <v>33</v>
       </c>
       <c r="R37" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="T37" s="15" t="s">
         <v>131</v>
@@ -29098,7 +29110,7 @@
         <v>84</v>
       </c>
       <c r="F38" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J38">
         <v>15</v>
@@ -29116,7 +29128,7 @@
         <v>63</v>
       </c>
       <c r="Q38" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="T38" s="45" t="s">
         <v>132</v>
@@ -29175,7 +29187,7 @@
         <v>242</v>
       </c>
       <c r="G39" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J39">
         <v>15</v>
@@ -29187,7 +29199,7 @@
         <v>35</v>
       </c>
       <c r="R39" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="T39" s="60">
         <v>10</v>
@@ -29200,14 +29212,14 @@
         <v>1</v>
       </c>
       <c r="X39" s="30"/>
-      <c r="Y39" s="31">
-        <v>80000</v>
+      <c r="Y39" s="28">
+        <v>25000</v>
       </c>
       <c r="Z39" s="61" t="s">
         <v>150</v>
       </c>
       <c r="AA39" s="28">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="AY39" s="60">
         <v>10</v>
@@ -29280,7 +29292,7 @@
     </row>
     <row r="43" spans="1:58">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="T43" s="45" t="s">
         <v>132</v>
@@ -29344,13 +29356,13 @@
       </c>
       <c r="X44" s="30"/>
       <c r="Y44" s="31">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Z44" s="61" t="s">
         <v>150</v>
       </c>
       <c r="AA44" s="28">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AY44" s="60">
         <v>10</v>
@@ -30260,7 +30272,7 @@
         <v>44135</v>
       </c>
       <c r="G71" s="25">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="H71" s="3">
         <v>14</v>
@@ -30409,14 +30421,14 @@
         <v>142</v>
       </c>
       <c r="X74" s="30">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="Y74" s="11"/>
       <c r="Z74" s="59" t="s">
         <v>142</v>
       </c>
       <c r="AA74" s="31">
-        <v>97000</v>
+        <v>25000</v>
       </c>
       <c r="AY74" s="29"/>
       <c r="AZ74" s="29">
@@ -30987,7 +30999,7 @@
         <v>44135</v>
       </c>
       <c r="D91" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="E91" s="5">
         <v>14</v>
@@ -31402,7 +31414,7 @@
         <v>44135</v>
       </c>
       <c r="D109" s="25">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="4">
         <v>15</v>
@@ -31411,27 +31423,30 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:9">
       <c r="C116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:9">
       <c r="C117" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:9">
       <c r="C118" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="H118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -31447,8 +31462,14 @@
       <c r="E119" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>1</v>
       </c>
@@ -31463,7 +31484,7 @@
       </c>
       <c r="E120" s="51"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>2</v>
       </c>
@@ -31478,7 +31499,7 @@
       </c>
       <c r="E121" s="51"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>3</v>
       </c>
@@ -31493,7 +31514,7 @@
       </c>
       <c r="E122" s="51"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>4</v>
       </c>
@@ -31508,7 +31529,7 @@
       </c>
       <c r="E123" s="51"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>5</v>
       </c>
@@ -31520,10 +31541,10 @@
       </c>
       <c r="D124" s="51"/>
       <c r="E124" s="51">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>6</v>
       </c>
@@ -31535,10 +31556,10 @@
       </c>
       <c r="D125" s="51"/>
       <c r="E125" s="51">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>7</v>
       </c>
@@ -31553,7 +31574,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>8</v>
       </c>
@@ -31568,7 +31589,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>9</v>
       </c>
@@ -31609,7 +31630,7 @@
         <v>86</v>
       </c>
       <c r="D130" s="51">
-        <v>97000</v>
+        <v>25000</v>
       </c>
       <c r="E130" s="51"/>
     </row>
@@ -31699,7 +31720,7 @@
         <v>84</v>
       </c>
       <c r="D136" s="51">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E136" s="51"/>
     </row>
@@ -31709,11 +31730,11 @@
       </c>
       <c r="D137" s="51">
         <f>SUM(D120:D136)</f>
-        <v>361000</v>
+        <v>280000</v>
       </c>
       <c r="E137" s="51">
         <f>SUM(E120:E136)</f>
-        <v>361000</v>
+        <v>280000</v>
       </c>
     </row>
   </sheetData>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11286" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA0D03D-D5FA-4ADB-AE30-A8C1BA84334C}"/>
+  <xr:revisionPtr revIDLastSave="11368" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38660ABB-5E2D-4538-8532-BEBCEF30F907}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -70,13 +70,14 @@
     <sheet name="A5-1" sheetId="64" r:id="rId60"/>
     <sheet name="A5-2" sheetId="65" r:id="rId61"/>
     <sheet name="A5-3" sheetId="87" r:id="rId62"/>
-    <sheet name="A5-4" sheetId="67" r:id="rId63"/>
-    <sheet name="A5-5" sheetId="68" r:id="rId64"/>
-    <sheet name="B5-1" sheetId="69" r:id="rId65"/>
-    <sheet name="B5-2" sheetId="70" r:id="rId66"/>
-    <sheet name="B5-3" sheetId="71" r:id="rId67"/>
-    <sheet name="B5-4" sheetId="72" r:id="rId68"/>
-    <sheet name="B5-5" sheetId="73" r:id="rId69"/>
+    <sheet name="A5-3 (2)" sheetId="88" r:id="rId63"/>
+    <sheet name="A5-4" sheetId="67" r:id="rId64"/>
+    <sheet name="A5-5" sheetId="68" r:id="rId65"/>
+    <sheet name="B5-1" sheetId="69" r:id="rId66"/>
+    <sheet name="B5-2" sheetId="70" r:id="rId67"/>
+    <sheet name="B5-3" sheetId="71" r:id="rId68"/>
+    <sheet name="B5-4" sheetId="72" r:id="rId69"/>
+    <sheet name="B5-5" sheetId="73" r:id="rId70"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -123,8 +124,51 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B234CC52-F045-4CAB-BFFD-355C1016A66D}</author>
+    <author>tc={F592FC2C-ADC9-46F0-ABA3-CB530013588B}</author>
+    <author>tc={CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    下圖為會計學題目A4-3。擷取自解答本。</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+Reply:
+    下圖為會計學解答本的A4-3中，所列的分錄。
+Reply:
+    跟我列的不一樣。
+Reply:
+    不知道這有沒有對最終結果帶來影響?</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="2" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
+Reply:
+    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="321">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1079,6 +1123,15 @@
   <si>
     <t>A4-3</t>
   </si>
+  <si>
+    <t>A4-3的題目</t>
+  </si>
+  <si>
+    <t>A4-3的分錄</t>
+  </si>
+  <si>
+    <t>更正版</t>
+  </si>
 </sst>
 </file>
 
@@ -1122,7 +1175,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1479,18 +1538,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1501,9 +1557,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1519,6 +1607,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDADB24-996C-54A8-3FC7-863A1AEA2EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="257175"/>
+          <a:ext cx="2638425" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862B49AE-E843-D985-1E2C-A1D51AEC0481}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BDADB24-996C-54A8-3FC7-863A1AEA2EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="200025"/>
+          <a:ext cx="2124075" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="黃 奕捷" id="{301AB195-C950-41D3-AE73-D8C412ED5AFC}" userId="黃 奕捷" providerId="None"/>
+  <person displayName="黃 奕捷" id="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" userId="f81d786479e637b2" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1816,6 +2007,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2024-02-03T09:38:47.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
+    <text>下圖為會計學題目A4-3。擷取自解答本。</text>
+  </threadedComment>
+  <threadedComment ref="F1" personId="{301AB195-C950-41D3-AE73-D8C412ED5AFC}" id="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text xml:space="preserve">
+</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-02-03T09:37:52.76" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CAC2BD7F-B9D8-489D-B971-DEAEEFD2EC30}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>下圖為會計學解答本的A4-3中，所列的分錄。</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-02-03T09:39:08.55" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{26E6EF74-D88E-46A3-B8FC-AAA4756903A5}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>跟我列的不一樣。</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-02-03T09:39:42.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{57BC9BE9-A9AF-43F8-A768-CEF96647D6D7}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>不知道這有沒有對最終結果帶來影響?</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
+    <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F0BF6E50-40F4-4E74-ABF4-5F96E60DF16B}" parentId="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
+    <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
@@ -25704,8 +25922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1367CA6A-2818-4B44-993F-B1CF369E3B1B}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R62" workbookViewId="0">
-      <selection activeCell="AA75" sqref="AA75"/>
+    <sheetView topLeftCell="AC14" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -26057,7 +26275,7 @@
       <c r="AM8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AN8" s="77" t="s">
+      <c r="AN8" s="74" t="s">
         <v>19</v>
       </c>
       <c r="AO8" s="4" t="s">
@@ -26153,39 +26371,39 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AE9" s="79" t="s">
+      <c r="AE9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="74">
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83">
         <v>115600</v>
       </c>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="75">
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="85">
         <f>IF($AU9&gt;0,$AU9,"")</f>
         <v>115600</v>
       </c>
-      <c r="AN9" s="76" t="str">
+      <c r="AN9" s="86" t="str">
         <f>IF($AU9&lt;0,-$AU9,"")</f>
         <v/>
       </c>
-      <c r="AO9" s="75" t="str">
+      <c r="AO9" s="85" t="str">
         <f>IF(OR($AD9=4,$AD9=5),$AM9,"")</f>
         <v/>
       </c>
-      <c r="AP9" s="55" t="str">
+      <c r="AP9" s="87" t="str">
         <f>IF(OR($AD9=4,$AD9=5),$AN9,"")</f>
         <v/>
       </c>
-      <c r="AQ9" s="55">
+      <c r="AQ9" s="87">
         <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AT9-$AV9&lt;&gt;0,$AT9-$AV9,""),"")</f>
         <v>115600</v>
       </c>
-      <c r="AR9" s="71" t="str">
+      <c r="AR9" s="88" t="str">
         <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AW9-$AX9&lt;&gt;0,$AW9-$AX9,""),"")</f>
         <v/>
       </c>
@@ -26194,7 +26412,7 @@
         <f>IF($AM9="",0,$AM9)</f>
         <v>115600</v>
       </c>
-      <c r="AU9" s="64">
+      <c r="AU9" s="63">
         <f>$AG9-$AH9+$AI9-$AK9</f>
         <v>115600</v>
       </c>
@@ -26285,41 +26503,43 @@
       <c r="AD10">
         <v>1</v>
       </c>
-      <c r="AE10" s="80" t="s">
+      <c r="AE10" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="51">
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90">
         <v>30000</v>
       </c>
-      <c r="AH10" s="5"/>
-      <c r="AK10" s="17">
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="91">
         <v>10000</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AL10" s="89">
         <v>11</v>
       </c>
-      <c r="AM10" s="55">
+      <c r="AM10" s="87">
         <f t="shared" ref="AM10:AM27" si="0">IF($AU10&gt;0,$AU10,"")</f>
         <v>20000</v>
       </c>
-      <c r="AN10" s="55" t="str">
+      <c r="AN10" s="87" t="str">
         <f t="shared" ref="AN10:AN27" si="1">IF($AU10&lt;0,-$AU10,"")</f>
         <v/>
       </c>
-      <c r="AO10" s="55" t="str">
+      <c r="AO10" s="87" t="str">
         <f t="shared" ref="AO10:AO29" si="2">IF(OR($AD10=4,$AD10=5),$AM10,"")</f>
         <v/>
       </c>
-      <c r="AP10" s="55" t="str">
+      <c r="AP10" s="87" t="str">
         <f t="shared" ref="AP10:AP29" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
         <v/>
       </c>
-      <c r="AQ10" s="55">
+      <c r="AQ10" s="87">
         <f t="shared" ref="AQ10:AQ27" si="4">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AT10-$AV10&lt;&gt;0,$AT10-$AV10,""),"")</f>
         <v>20000</v>
       </c>
-      <c r="AR10" s="71" t="str">
+      <c r="AR10" s="88" t="str">
         <f t="shared" ref="AR10:AR27" si="5">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AW10-$AX10&lt;&gt;0,$AW10-$AX10,""),"")</f>
         <v/>
       </c>
@@ -26328,7 +26548,7 @@
         <f t="shared" ref="AT10:AT29" si="6">IF($AM10="",0,$AM10)</f>
         <v>20000</v>
       </c>
-      <c r="AU10" s="64">
+      <c r="AU10" s="63">
         <f t="shared" ref="AU10:AU27" si="7">$AG10-$AH10+$AI10-$AK10</f>
         <v>20000</v>
       </c>
@@ -26407,36 +26627,39 @@
       <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AE11" s="80" t="s">
+      <c r="AE11" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="51">
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90">
         <v>14000</v>
       </c>
-      <c r="AH11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="55">
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="87">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="AN11" s="55" t="str">
+      <c r="AN11" s="87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="55" t="str">
+      <c r="AO11" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP11" s="55" t="str">
+      <c r="AP11" s="87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ11" s="55">
+      <c r="AQ11" s="87">
         <f t="shared" si="4"/>
         <v>14000</v>
       </c>
-      <c r="AR11" s="71" t="str">
+      <c r="AR11" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -26445,7 +26668,7 @@
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
-      <c r="AU11" s="64">
+      <c r="AU11" s="63">
         <f t="shared" si="7"/>
         <v>14000</v>
       </c>
@@ -26537,36 +26760,39 @@
       <c r="AD12">
         <v>2</v>
       </c>
-      <c r="AE12" s="81" t="s">
+      <c r="AE12" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="51">
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93">
         <v>0</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="55" t="str">
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN12" s="55" t="str">
+      <c r="AN12" s="94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="55" t="str">
+      <c r="AO12" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP12" s="55" t="str">
+      <c r="AP12" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ12" s="55" t="str">
+      <c r="AQ12" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR12" s="71" t="str">
+      <c r="AR12" s="95" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -26575,7 +26801,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="64">
+      <c r="AU12" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -26656,35 +26882,39 @@
       <c r="AD13">
         <v>3</v>
       </c>
-      <c r="AE13" s="82" t="s">
+      <c r="AE13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="AF13" s="5"/>
-      <c r="AH13" s="70">
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="97">
         <v>200000</v>
       </c>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="55" t="str">
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="98" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN13" s="55">
+      <c r="AN13" s="98">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="AO13" s="55" t="str">
+      <c r="AO13" s="98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP13" s="55" t="str">
+      <c r="AP13" s="98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ13" s="55" t="str">
+      <c r="AQ13" s="98" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR13" s="71">
+      <c r="AR13" s="99">
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
@@ -26693,7 +26923,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU13" s="64">
+      <c r="AU13" s="63">
         <f>$AG13-$AH13+$AI13-$AK13</f>
         <v>-200000</v>
       </c>
@@ -26785,35 +27015,39 @@
       <c r="AD14">
         <v>4</v>
       </c>
-      <c r="AE14" s="83" t="s">
+      <c r="AE14" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="AF14" s="5"/>
-      <c r="AH14" s="70">
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="103">
         <v>70000</v>
       </c>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="55" t="str">
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="104" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN14" s="55">
+      <c r="AN14" s="104">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
-      <c r="AO14" s="55" t="str">
+      <c r="AO14" s="104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP14" s="55">
+      <c r="AP14" s="104">
         <f t="shared" si="3"/>
         <v>70000</v>
       </c>
-      <c r="AQ14" s="55" t="str">
+      <c r="AQ14" s="104" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR14" s="71" t="str">
+      <c r="AR14" s="105" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -26822,7 +27056,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU14" s="64">
+      <c r="AU14" s="63">
         <f t="shared" si="7"/>
         <v>-70000</v>
       </c>
@@ -26901,36 +27135,39 @@
       <c r="AD15">
         <v>5</v>
       </c>
-      <c r="AE15" s="84" t="s">
+      <c r="AE15" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="51">
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="107">
         <v>90000</v>
       </c>
-      <c r="AH15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="55">
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="108">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="AN15" s="55" t="str">
+      <c r="AN15" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="55">
+      <c r="AO15" s="108">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="AP15" s="55" t="str">
+      <c r="AP15" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ15" s="55" t="str">
+      <c r="AQ15" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR15" s="71" t="str">
+      <c r="AR15" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -26939,7 +27176,7 @@
         <f t="shared" si="6"/>
         <v>90000</v>
       </c>
-      <c r="AU15" s="64">
+      <c r="AU15" s="63">
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
@@ -27031,41 +27268,43 @@
       <c r="AD16">
         <v>5</v>
       </c>
-      <c r="AE16" s="84" t="s">
+      <c r="AE16" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="51">
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="107">
         <v>3000</v>
       </c>
-      <c r="AH16" s="5"/>
-      <c r="AK16" s="17">
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="110">
         <v>1800</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AL16" s="106">
         <v>13</v>
       </c>
-      <c r="AM16" s="55">
+      <c r="AM16" s="108">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="AN16" s="55" t="str">
+      <c r="AN16" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="55">
+      <c r="AO16" s="108">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="AP16" s="55" t="str">
+      <c r="AP16" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ16" s="55" t="str">
+      <c r="AQ16" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR16" s="71" t="str">
+      <c r="AR16" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27074,7 +27313,7 @@
         <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="AU16" s="64">
+      <c r="AU16" s="63">
         <f t="shared" si="7"/>
         <v>1200</v>
       </c>
@@ -27137,57 +27376,58 @@
       <c r="AD17">
         <v>5</v>
       </c>
-      <c r="AE17" s="84" t="s">
+      <c r="AE17" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="51">
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="107">
         <v>17000</v>
       </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="17">
-        <v>80000</v>
-      </c>
-      <c r="AJ17">
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="110">
+        <v>8000</v>
+      </c>
+      <c r="AJ17" s="54">
         <v>14</v>
       </c>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="55">
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="108">
         <f t="shared" si="0"/>
-        <v>97000</v>
-      </c>
-      <c r="AN17" s="55" t="str">
+        <v>25000</v>
+      </c>
+      <c r="AN17" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="55">
+      <c r="AO17" s="108">
         <f t="shared" si="2"/>
-        <v>97000</v>
-      </c>
-      <c r="AP17" s="55" t="str">
+        <v>25000</v>
+      </c>
+      <c r="AP17" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ17" s="55" t="str">
+      <c r="AQ17" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR17" s="71" t="str">
+      <c r="AR17" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AS17" s="55"/>
       <c r="AT17">
         <f t="shared" si="6"/>
-        <v>97000</v>
-      </c>
-      <c r="AU17" s="64">
+        <v>25000</v>
+      </c>
+      <c r="AU17" s="63">
         <f t="shared" si="7"/>
-        <v>97000</v>
+        <v>25000</v>
       </c>
       <c r="AV17">
         <f t="shared" si="8"/>
-        <v>97000</v>
+        <v>25000</v>
       </c>
       <c r="AW17">
         <f t="shared" si="9"/>
@@ -27250,36 +27490,39 @@
       <c r="AD18">
         <v>5</v>
       </c>
-      <c r="AE18" s="84" t="s">
+      <c r="AE18" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="63">
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="111">
         <v>400</v>
       </c>
-      <c r="AH18" s="48"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="55">
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="108">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="AN18" s="55" t="str">
+      <c r="AN18" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="55">
+      <c r="AO18" s="108">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="AP18" s="55" t="str">
+      <c r="AP18" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ18" s="55" t="str">
+      <c r="AQ18" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR18" s="71" t="str">
+      <c r="AR18" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27288,7 +27531,7 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="AU18" s="64">
+      <c r="AU18" s="63">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
@@ -27360,7 +27603,7 @@
         <f>SUM(AG9:AG18)</f>
         <v>270000</v>
       </c>
-      <c r="AH19" s="78">
+      <c r="AH19" s="75">
         <f>SUM(AH9:AH18)</f>
         <v>270000</v>
       </c>
@@ -27385,7 +27628,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR19" s="71" t="str">
+      <c r="AR19" s="69" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27470,39 +27713,41 @@
       <c r="AD20">
         <v>5</v>
       </c>
-      <c r="AE20" s="84" t="s">
+      <c r="AE20" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="AF20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="51">
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107">
         <v>1000</v>
       </c>
-      <c r="AJ20" s="51">
+      <c r="AJ20" s="107">
         <v>12</v>
       </c>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="55">
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="108">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="AN20" s="55" t="str">
+      <c r="AN20" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="55">
+      <c r="AO20" s="108">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="AP20" s="55" t="str">
+      <c r="AP20" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ20" s="55" t="str">
+      <c r="AQ20" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR20" s="71" t="str">
+      <c r="AR20" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27511,7 +27756,7 @@
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="AU20" s="64">
+      <c r="AU20" s="63">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
@@ -27630,7 +27875,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR21" s="71" t="str">
+      <c r="AR21" s="69" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27701,39 +27946,41 @@
       <c r="AD22">
         <v>5</v>
       </c>
-      <c r="AE22" s="84" t="s">
+      <c r="AE22" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="51"/>
-      <c r="AK22" s="51">
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="107">
         <v>1000</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AL22" s="106">
         <v>12</v>
       </c>
-      <c r="AM22" s="55" t="str">
+      <c r="AM22" s="108" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="55">
+      <c r="AN22" s="108">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="55" t="str">
+      <c r="AO22" s="108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="55">
+      <c r="AP22" s="108">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="AQ22" s="55" t="str">
+      <c r="AQ22" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR22" s="71" t="str">
+      <c r="AR22" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27742,7 +27989,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU22" s="64">
+      <c r="AU22" s="63">
         <f>$AG22-$AH22+$AI22-$AK22</f>
         <v>-1000</v>
       </c>
@@ -27811,39 +28058,41 @@
       <c r="AD23">
         <v>5</v>
       </c>
-      <c r="AE23" s="84" t="s">
+      <c r="AE23" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="AF23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="51">
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107">
         <v>10000</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="54">
         <v>11</v>
       </c>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="55">
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="108">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AN23" s="55" t="str">
+      <c r="AN23" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="55">
+      <c r="AO23" s="108">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="AP23" s="55" t="str">
+      <c r="AP23" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ23" s="55" t="str">
+      <c r="AQ23" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR23" s="71" t="str">
+      <c r="AR23" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -27852,7 +28101,7 @@
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="AU23" s="64">
+      <c r="AU23" s="63">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
@@ -27919,54 +28168,56 @@
       <c r="AD24">
         <v>5</v>
       </c>
-      <c r="AE24" s="84" t="s">
+      <c r="AE24" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AF24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="51">
-        <v>10000</v>
-      </c>
-      <c r="AJ24">
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" s="54">
         <v>13</v>
       </c>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="55">
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="108">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="AN24" s="55" t="str">
+        <v>1000</v>
+      </c>
+      <c r="AN24" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="55">
+      <c r="AO24" s="108">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="AP24" s="55" t="str">
+        <v>1000</v>
+      </c>
+      <c r="AP24" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ24" s="55" t="str">
+      <c r="AQ24" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR24" s="71" t="str">
+      <c r="AR24" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AS24" s="55"/>
       <c r="AT24">
         <f t="shared" si="6"/>
-        <v>10000</v>
-      </c>
-      <c r="AU24" s="64">
+        <v>1000</v>
+      </c>
+      <c r="AU24" s="63">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AV24">
         <f t="shared" si="8"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AW24">
         <f t="shared" si="9"/>
@@ -28051,39 +28302,41 @@
       <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AE25" s="84" t="s">
+      <c r="AE25" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="AF25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="51">
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107">
         <v>1800</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="54">
         <v>13</v>
       </c>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="55">
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="108">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="AN25" s="55" t="str">
+      <c r="AN25" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO25" s="55">
+      <c r="AO25" s="108">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="AP25" s="55" t="str">
+      <c r="AP25" s="108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ25" s="55" t="str">
+      <c r="AQ25" s="108" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR25" s="71" t="str">
+      <c r="AR25" s="109" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -28092,7 +28345,7 @@
         <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="AU25" s="64">
+      <c r="AU25" s="63">
         <f t="shared" si="7"/>
         <v>1800</v>
       </c>
@@ -28184,47 +28437,49 @@
       <c r="AE26" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="AF26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="51"/>
-      <c r="AK26" s="51">
-        <v>80000</v>
-      </c>
-      <c r="AL26" s="5">
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="93">
+        <v>8000</v>
+      </c>
+      <c r="AL26" s="92">
         <v>14</v>
       </c>
-      <c r="AM26" s="55" t="str">
+      <c r="AM26" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN26" s="55">
+      <c r="AN26" s="94">
         <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="AO26" s="55" t="str">
+        <v>8000</v>
+      </c>
+      <c r="AO26" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP26" s="55" t="str">
+      <c r="AP26" s="94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ26" s="55" t="str">
+      <c r="AQ26" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR26" s="71">
+      <c r="AR26" s="95">
         <f t="shared" si="5"/>
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="AS26" s="55"/>
       <c r="AT26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU26" s="64">
+      <c r="AU26" s="63">
         <f t="shared" si="7"/>
-        <v>-80000</v>
+        <v>-8000</v>
       </c>
       <c r="AV26">
         <f t="shared" si="8"/>
@@ -28232,7 +28487,7 @@
       </c>
       <c r="AW26">
         <f t="shared" si="9"/>
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="AX26">
         <f t="shared" si="10"/>
@@ -28315,50 +28570,52 @@
       <c r="AD27">
         <v>2</v>
       </c>
-      <c r="AE27" s="81" t="s">
+      <c r="AE27" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="AF27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="51"/>
-      <c r="AK27" s="51">
-        <v>10000</v>
-      </c>
-      <c r="AL27" s="5">
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="93">
+        <v>1000</v>
+      </c>
+      <c r="AL27" s="92">
         <v>15</v>
       </c>
-      <c r="AM27" s="55" t="str">
+      <c r="AM27" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN27" s="71">
+      <c r="AN27" s="95">
         <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="AO27" s="55" t="str">
+        <v>1000</v>
+      </c>
+      <c r="AO27" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP27" s="71" t="str">
+      <c r="AP27" s="95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AQ27" s="55" t="str">
+      <c r="AQ27" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR27" s="71">
+      <c r="AR27" s="95">
         <f>IF(OR($AD27=1,$AD27=2,$AD27=3),IF($AW27-$AX27&lt;&gt;0,$AW27-$AX27,""),"")</f>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AS27" s="55"/>
       <c r="AT27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AU27" s="64">
+      <c r="AU27" s="63">
         <f t="shared" si="7"/>
-        <v>-10000</v>
+        <v>-1000</v>
       </c>
       <c r="AV27">
         <f t="shared" si="8"/>
@@ -28366,7 +28623,7 @@
       </c>
       <c r="AW27">
         <f t="shared" si="9"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="AX27">
         <f t="shared" si="10"/>
@@ -28436,29 +28693,29 @@
         <v>107</v>
       </c>
       <c r="AH28" s="5"/>
-      <c r="AI28" s="65">
+      <c r="AI28" s="64">
         <f>SUM(AI$9:AI$27)</f>
-        <v>102800</v>
-      </c>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="65">
+        <v>21800</v>
+      </c>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="64">
         <f>SUM(AK$9:AK$27)</f>
-        <v>102800</v>
-      </c>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="65">
+        <v>21800</v>
+      </c>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="64">
         <f>SUM(AM$9:AM$27)</f>
-        <v>361000</v>
-      </c>
-      <c r="AN28" s="69">
+        <v>280000</v>
+      </c>
+      <c r="AN28" s="68">
         <f>SUM(AN$9:AN$27)</f>
-        <v>361000</v>
-      </c>
-      <c r="AO28" s="75">
+        <v>280000</v>
+      </c>
+      <c r="AO28" s="72">
         <f>SUM(AO$9:AO$27)</f>
-        <v>211400</v>
-      </c>
-      <c r="AP28" s="75">
+        <v>130400</v>
+      </c>
+      <c r="AP28" s="72">
         <f>SUM(AP$9:AP$27)</f>
         <v>71000</v>
       </c>
@@ -28466,15 +28723,15 @@
       <c r="AS28" s="55"/>
       <c r="AT28">
         <f t="shared" si="6"/>
-        <v>361000</v>
+        <v>280000</v>
       </c>
       <c r="AV28">
         <f t="shared" si="8"/>
-        <v>211400</v>
+        <v>130400</v>
       </c>
       <c r="AW28">
         <f t="shared" si="9"/>
-        <v>361000</v>
+        <v>280000</v>
       </c>
       <c r="AX28">
         <f t="shared" si="10"/>
@@ -28528,21 +28785,21 @@
       <c r="AH29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="75">
+      <c r="AO29" s="72">
         <f>IF(OR($AO$28="",$AP$28=""),"",IF($AO$28-$AP$28&gt;0,$AO$28-$AP$28,""))</f>
-        <v>140400</v>
-      </c>
-      <c r="AP29" s="76" t="str">
+        <v>59400</v>
+      </c>
+      <c r="AP29" s="73" t="str">
         <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
         <v/>
       </c>
-      <c r="AQ29" s="67" t="str">
+      <c r="AQ29" s="66" t="str">
         <f>IF($AP$29&lt;&gt;"",$AP$29,"")</f>
         <v/>
       </c>
-      <c r="AR29" s="85">
+      <c r="AR29" s="81">
         <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
-        <v>140400</v>
+        <v>59400</v>
       </c>
       <c r="AS29" s="55"/>
       <c r="AT29">
@@ -28551,7 +28808,7 @@
       </c>
       <c r="AV29">
         <f t="shared" si="8"/>
-        <v>140400</v>
+        <v>59400</v>
       </c>
       <c r="AW29">
         <f t="shared" si="9"/>
@@ -28620,23 +28877,23 @@
       <c r="AL30" s="48"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="48"/>
-      <c r="AO30" s="68">
+      <c r="AO30" s="67">
         <f>IF($AO28="",0,$AO28)-IF($AO29="",0,$AO29)</f>
         <v>71000</v>
       </c>
-      <c r="AP30" s="68">
+      <c r="AP30" s="67">
         <f>IF($AP28="",0,$AP28)-IF($AP29="",0,$AP29)</f>
         <v>71000</v>
       </c>
-      <c r="AQ30" s="68">
+      <c r="AQ30" s="67">
         <f>SUM(AQ$9:AQ$29)</f>
         <v>149600</v>
       </c>
-      <c r="AR30" s="72">
+      <c r="AR30" s="70">
         <f>SUM(AR$9:AR$29)</f>
-        <v>430400</v>
-      </c>
-      <c r="AS30" s="71"/>
+        <v>268400</v>
+      </c>
+      <c r="AS30" s="69"/>
       <c r="AT30" s="5"/>
       <c r="AV30">
         <f t="shared" si="8"/>
@@ -29213,13 +29470,13 @@
       </c>
       <c r="X39" s="30"/>
       <c r="Y39" s="28">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Z39" s="61" t="s">
         <v>150</v>
       </c>
       <c r="AA39" s="28">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="AY39" s="60">
         <v>10</v>
@@ -31747,6 +32004,6102 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB9DDD6-4367-40DA-B539-5BCDC6CC54BF}">
+  <dimension ref="A1:BF137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58">
+      <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="AC4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
+      <c r="L6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AC6" s="8">
+        <v>44135</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+    </row>
+    <row r="7" spans="1:58">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR7" s="4"/>
+      <c r="AT7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AY7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="19.5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="T8" s="45">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>200000</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN8" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY8" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF8" s="27">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>37</v>
+      </c>
+      <c r="R9" s="17">
+        <v>200000</v>
+      </c>
+      <c r="T9" s="46"/>
+      <c r="U9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>30000</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>170000</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83">
+        <v>115600</v>
+      </c>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="85">
+        <f>IF($AU9&gt;0,$AU9,"")</f>
+        <v>115600</v>
+      </c>
+      <c r="AN9" s="86" t="str">
+        <f>IF($AU9&lt;0,-$AU9,"")</f>
+        <v/>
+      </c>
+      <c r="AO9" s="85" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AM9,"")</f>
+        <v/>
+      </c>
+      <c r="AP9" s="87" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AN9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ9" s="87">
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AT9-$AV9&lt;&gt;0,$AT9-$AV9,""),"")</f>
+        <v>115600</v>
+      </c>
+      <c r="AR9" s="88" t="str">
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AW9-$AX9&lt;&gt;0,$AW9-$AX9,""),"")</f>
+        <v/>
+      </c>
+      <c r="AS9" s="55"/>
+      <c r="AT9">
+        <f>IF($AM9="",0,$AM9)</f>
+        <v>115600</v>
+      </c>
+      <c r="AU9" s="63">
+        <f>$AG9-$AH9+$AI9-$AK9</f>
+        <v>115600</v>
+      </c>
+      <c r="AV9">
+        <f>IF($AO9="",0,$AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f>IF($AN9="",0,$AN9)</f>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f>IF($AP9="",0,$AP9)</f>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD9" s="28">
+        <v>30000</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF9" s="28">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T10" s="46"/>
+      <c r="U10" s="5">
+        <v>5</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>90000</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>80000</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90">
+        <v>30000</v>
+      </c>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="91">
+        <v>10000</v>
+      </c>
+      <c r="AL10" s="89">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="87">
+        <f t="shared" ref="AM10:AM27" si="0">IF($AU10&gt;0,$AU10,"")</f>
+        <v>20000</v>
+      </c>
+      <c r="AN10" s="87" t="str">
+        <f t="shared" ref="AN10:AN27" si="1">IF($AU10&lt;0,-$AU10,"")</f>
+        <v/>
+      </c>
+      <c r="AO10" s="87" t="str">
+        <f t="shared" ref="AO10:AO27" si="2">IF(OR($AD10=4,$AD10=5),$AM10,"")</f>
+        <v/>
+      </c>
+      <c r="AP10" s="87" t="str">
+        <f t="shared" ref="AP10:AP27" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ10" s="87">
+        <f t="shared" ref="AQ10:AQ27" si="4">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AT10-$AV10&lt;&gt;0,$AT10-$AV10,""),"")</f>
+        <v>20000</v>
+      </c>
+      <c r="AR10" s="88" t="str">
+        <f t="shared" ref="AR10:AR26" si="5">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AW10-$AX10&lt;&gt;0,$AW10-$AX10,""),"")</f>
+        <v/>
+      </c>
+      <c r="AS10" s="55"/>
+      <c r="AT10">
+        <f t="shared" ref="AT10:AT29" si="6">IF($AM10="",0,$AM10)</f>
+        <v>20000</v>
+      </c>
+      <c r="AU10" s="63">
+        <f t="shared" ref="AU10:AU27" si="7">$AG10-$AH10+$AI10-$AK10</f>
+        <v>20000</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" ref="AV10:AV34" si="8">IF($AO10="",0,$AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" ref="AW10:AW34" si="9">IF($AN10="",0,$AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" ref="AX10:AX34" si="10">IF($AP10="",0,$AP10)</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD10" s="28">
+        <v>90000</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF10" s="28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>3000</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>77000</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90">
+        <v>14000</v>
+      </c>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="87">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="AN11" s="87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO11" s="87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP11" s="87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ11" s="87">
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="AR11" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS11" s="55"/>
+      <c r="AT11">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="AU11" s="63">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD11" s="28">
+        <v>3000</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF11" s="28">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44109</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="17">
+        <v>90000</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>90000</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="5">
+        <v>15</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>97000</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN12" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO12" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP12" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR12" s="95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS12" s="55"/>
+      <c r="AT12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF12" s="28">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="17">
+        <v>90000</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>90000</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="5">
+        <v>16</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" s="17">
+        <v>8000</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>105000</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="97">
+        <v>200000</v>
+      </c>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="98" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN13" s="98">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="AO13" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP13" s="98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ13" s="98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR13" s="99">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="AS13" s="55"/>
+      <c r="AT13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="63">
+        <f>$AG13-$AH13+$AI13-$AK13</f>
+        <v>-200000</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="5">
+        <v>16</v>
+      </c>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC13" s="17">
+        <v>8000</v>
+      </c>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF13" s="28">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44111</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="5">
+        <v>18</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>17000</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>88000</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="103">
+        <v>70000</v>
+      </c>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN14" s="104">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="AO14" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP14" s="104">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="AQ14" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR14" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS14" s="55"/>
+      <c r="AT14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="63">
+        <f t="shared" si="7"/>
+        <v>-70000</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="9"/>
+        <v>70000</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="10"/>
+        <v>70000</v>
+      </c>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="5">
+        <v>18</v>
+      </c>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD14" s="28">
+        <v>17000</v>
+      </c>
+      <c r="BE14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF14" s="28">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15">
+        <v>31</v>
+      </c>
+      <c r="R15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="5">
+        <v>21</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>400</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>87600</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="107">
+        <v>90000</v>
+      </c>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="108">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="AN15" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO15" s="108">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+      <c r="AP15" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR15" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS15" s="55"/>
+      <c r="AT15">
+        <f t="shared" si="6"/>
+        <v>90000</v>
+      </c>
+      <c r="AU15" s="63">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="5">
+        <v>21</v>
+      </c>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD15" s="28">
+        <v>400</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF15" s="28">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44115</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T16" s="59"/>
+      <c r="U16" s="48">
+        <v>31</v>
+      </c>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X16" s="30">
+        <v>28000</v>
+      </c>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>115600</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="113">
+        <v>3000</v>
+      </c>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="114">
+        <v>1800</v>
+      </c>
+      <c r="AL16" s="101">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="104">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="AN16" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO16" s="104">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="AP16" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ16" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR16" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS16" s="55"/>
+      <c r="AT16">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="AU16" s="63">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC16" s="30">
+        <v>28000</v>
+      </c>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF16" s="31">
+        <v>115600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AC17">
+        <v>9</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="107">
+        <v>17000</v>
+      </c>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="110">
+        <v>8000</v>
+      </c>
+      <c r="AJ17" s="54">
+        <v>14</v>
+      </c>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="108">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="AN17" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO17" s="108">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="AP17" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR17" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS17" s="55"/>
+      <c r="AT17">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+      <c r="AU17" s="63">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44119</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="17">
+        <v>20000</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>20000</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="111">
+        <v>400</v>
+      </c>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="108">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AN18" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO18" s="108">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="AP18" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ18" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR18" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS18" s="55"/>
+      <c r="AT18">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="AU18" s="63">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG19" s="62">
+        <f>SUM(AG9:AG18)</f>
+        <v>270000</v>
+      </c>
+      <c r="AH19" s="75">
+        <f>SUM(AH9:AH18)</f>
+        <v>270000</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN19" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO19" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP19" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ19" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR19" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS19" s="55"/>
+      <c r="AT19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="22"/>
+      <c r="AV19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+    </row>
+    <row r="20" spans="1:58">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="O20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20">
+        <v>41</v>
+      </c>
+      <c r="R20" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" s="107">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="108">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AN20" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO20" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="AP20" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR20" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS20" s="55"/>
+      <c r="AT20">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AU20" s="63">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF20" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44120</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T21" s="60">
+        <v>10</v>
+      </c>
+      <c r="U21" s="61">
+        <v>1</v>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61">
+        <v>1</v>
+      </c>
+      <c r="X21" s="30">
+        <v>30000</v>
+      </c>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>30000</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN21" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO21" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP21" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ21" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR21" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS21" s="55"/>
+      <c r="AT21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="22"/>
+      <c r="AV21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="30">
+        <v>30000</v>
+      </c>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF21" s="31">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="R22" s="17">
+        <v>8000</v>
+      </c>
+      <c r="AC22">
+        <v>12</v>
+      </c>
+      <c r="AD22">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AL22" s="106">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="108" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN22" s="108">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO22" s="108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP22" s="108">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="AQ22" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR22" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS22" s="55"/>
+      <c r="AT22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="63">
+        <f>$AG22-$AH22+$AI22-$AK22</f>
+        <v>-1000</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44122</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="17">
+        <v>17000</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>17000</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC23">
+        <v>13</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107">
+        <v>10000</v>
+      </c>
+      <c r="AJ23" s="54">
+        <v>11</v>
+      </c>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="108">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="AN23" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO23" s="108">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="AP23" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ23" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR23" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS23" s="55"/>
+      <c r="AT23">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="AU23" s="63">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="17">
+        <v>17000</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
+        <v>17000</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AC24">
+        <v>14</v>
+      </c>
+      <c r="AD24">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" s="54">
+        <v>13</v>
+      </c>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="108">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AN24" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO24" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="AP24" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ24" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR24" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS24" s="55"/>
+      <c r="AT24">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AU24" s="63">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+    </row>
+    <row r="25" spans="1:58">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44125</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="17">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>400</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC25">
+        <v>15</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107">
+        <v>1800</v>
+      </c>
+      <c r="AJ25" s="54">
+        <v>13</v>
+      </c>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="108">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="AN25" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO25" s="108">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="AP25" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR25" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS25" s="55"/>
+      <c r="AT25">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="AU25" s="63">
+        <f>$AG25-$AH25+$AI25-$AK25</f>
+        <v>1800</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF25" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="17">
+        <v>400</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="17">
+        <v>400</v>
+      </c>
+      <c r="T26" s="45">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4">
+        <v>15</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>10000</v>
+      </c>
+      <c r="AC26">
+        <v>16</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="93">
+        <v>8000</v>
+      </c>
+      <c r="AL26" s="92">
+        <v>14</v>
+      </c>
+      <c r="AM26" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN26" s="94">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="AO26" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP26" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ26" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR26" s="95">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="AS26" s="55"/>
+      <c r="AT26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="63">
+        <f t="shared" si="7"/>
+        <v>-8000</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>15</v>
+      </c>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF26" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="17">
+        <v>28000</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>28000</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y27" s="28">
+        <v>8000</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>2000</v>
+      </c>
+      <c r="AC27">
+        <v>17</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="93">
+        <v>1000</v>
+      </c>
+      <c r="AL27" s="92">
+        <v>15</v>
+      </c>
+      <c r="AM27" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN27" s="95">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO27" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP27" s="95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR27" s="95">
+        <f>IF(OR($AD27=1,$AD27=2,$AD27=3),IF($AW27-$AX27&lt;&gt;0,$AW27-$AX27,""),"")</f>
+        <v>1000</v>
+      </c>
+      <c r="AS27" s="55"/>
+      <c r="AT27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="63">
+        <f t="shared" si="7"/>
+        <v>-1000</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD27" s="28">
+        <v>8000</v>
+      </c>
+      <c r="BE27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF27" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="17">
+        <v>12000</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>12000</v>
+      </c>
+      <c r="T28" s="59"/>
+      <c r="U28" s="48">
+        <v>31</v>
+      </c>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X28" s="30">
+        <v>12000</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA28" s="31">
+        <v>14000</v>
+      </c>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="64">
+        <f>SUM(AI$9:AI$27)</f>
+        <v>21800</v>
+      </c>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="64">
+        <f>SUM(AK$9:AK$27)</f>
+        <v>21800</v>
+      </c>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="64">
+        <f>SUM(AM$9:AM$27)</f>
+        <v>280000</v>
+      </c>
+      <c r="AN28" s="68">
+        <f>SUM(AN$9:AN$27)</f>
+        <v>280000</v>
+      </c>
+      <c r="AO28" s="72">
+        <f>SUM(AO$9:AO$27)</f>
+        <v>130400</v>
+      </c>
+      <c r="AP28" s="72">
+        <f>SUM(AP$9:AP$27)</f>
+        <v>71000</v>
+      </c>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="55"/>
+      <c r="AT28">
+        <f t="shared" si="6"/>
+        <v>280000</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="8"/>
+        <v>130400</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="9"/>
+        <v>280000</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="10"/>
+        <v>71000</v>
+      </c>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC28" s="30">
+        <v>12000</v>
+      </c>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF28" s="31">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="17">
+        <v>40000</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29">
+        <v>41</v>
+      </c>
+      <c r="R29" s="17">
+        <v>40000</v>
+      </c>
+      <c r="AE29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="72">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF($AO$28-$AP$28&gt;0,$AO$28-$AP$28,""))</f>
+        <v>59400</v>
+      </c>
+      <c r="AP29" s="73" t="str">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
+        <v/>
+      </c>
+      <c r="AQ29" s="66" t="str">
+        <f>IF($AP$29&lt;&gt;"",$AP$29,"")</f>
+        <v/>
+      </c>
+      <c r="AR29" s="81">
+        <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
+        <v>59400</v>
+      </c>
+      <c r="AS29" s="55"/>
+      <c r="AT29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="8"/>
+        <v>59400</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
+      <c r="A30" s="3">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="67">
+        <f>IF($AO28="",0,$AO28)-IF($AO29="",0,$AO29)</f>
+        <v>71000</v>
+      </c>
+      <c r="AP30" s="67">
+        <f>IF($AP28="",0,$AP28)-IF($AP29="",0,$AP29)</f>
+        <v>71000</v>
+      </c>
+      <c r="AQ30" s="67">
+        <f>SUM(AQ$9:AQ$29)</f>
+        <v>149600</v>
+      </c>
+      <c r="AR30" s="70">
+        <f>SUM(AR$9:AR$29)</f>
+        <v>268400</v>
+      </c>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="5"/>
+      <c r="AV30">
+        <f t="shared" si="8"/>
+        <v>71000</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="10"/>
+        <v>71000</v>
+      </c>
+      <c r="AY30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="R31" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AV31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+    </row>
+    <row r="32" spans="1:58">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF32" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33">
+        <v>59</v>
+      </c>
+      <c r="R33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="45">
+        <v>10</v>
+      </c>
+      <c r="U33" s="4">
+        <v>5</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="28">
+        <v>3000</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>3000</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="28">
+        <v>3000</v>
+      </c>
+      <c r="BE33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF33" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="T34" s="59"/>
+      <c r="U34" s="48">
+        <v>11</v>
+      </c>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="48">
+        <v>11</v>
+      </c>
+      <c r="BA34" s="48"/>
+      <c r="BB34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="E35" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1800</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="O35" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35">
+        <v>25</v>
+      </c>
+      <c r="R35" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37">
+        <v>33</v>
+      </c>
+      <c r="R37" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AY37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+    </row>
+    <row r="38" spans="1:58">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF38" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="O39" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="P39">
+        <v>35</v>
+      </c>
+      <c r="R39" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T39" s="60">
+        <v>10</v>
+      </c>
+      <c r="U39" s="61">
+        <v>31</v>
+      </c>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61">
+        <v>1</v>
+      </c>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="28">
+        <v>8000</v>
+      </c>
+      <c r="Z39" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>8000</v>
+      </c>
+      <c r="AY39" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ39" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="31">
+        <v>80000</v>
+      </c>
+      <c r="BE39" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF39" s="28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58">
+      <c r="T41" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY41" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58">
+      <c r="T42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AY42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+    </row>
+    <row r="43" spans="1:58">
+      <c r="A43" t="s">
+        <v>317</v>
+      </c>
+      <c r="T43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y43" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD43" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58">
+      <c r="T44" s="60">
+        <v>10</v>
+      </c>
+      <c r="U44" s="61">
+        <v>31</v>
+      </c>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61">
+        <v>1</v>
+      </c>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="31">
+        <v>1000</v>
+      </c>
+      <c r="Z44" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA44" s="28">
+        <v>1000</v>
+      </c>
+      <c r="AY44" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ44" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA44" s="61"/>
+      <c r="BB44" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="30"/>
+      <c r="BD44" s="31">
+        <v>10000</v>
+      </c>
+      <c r="BE44" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF44" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58">
+      <c r="C49" s="7">
+        <v>44105</v>
+      </c>
+      <c r="D49" s="25">
+        <v>200000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="T49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AY49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+    </row>
+    <row r="50" spans="1:58">
+      <c r="E50" s="5"/>
+      <c r="F50" s="8">
+        <v>44105</v>
+      </c>
+      <c r="G50" s="17">
+        <v>30000</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="T50" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y50" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY50" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD50" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58">
+      <c r="E51" s="5"/>
+      <c r="F51" s="8">
+        <v>44109</v>
+      </c>
+      <c r="G51" s="17">
+        <v>90000</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="T51" s="60">
+        <v>10</v>
+      </c>
+      <c r="U51" s="61">
+        <v>1</v>
+      </c>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61">
+        <v>1</v>
+      </c>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="31">
+        <v>200000</v>
+      </c>
+      <c r="Z51" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA51" s="33">
+        <v>200000</v>
+      </c>
+      <c r="AY51" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ51" s="61">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="31">
+        <v>200000</v>
+      </c>
+      <c r="BE51" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF51" s="33">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58">
+      <c r="E52" s="5"/>
+      <c r="F52" s="8">
+        <v>44115</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
+      <c r="C53" s="8">
+        <v>44119</v>
+      </c>
+      <c r="D53" s="17">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>6</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58">
+      <c r="C54" s="8">
+        <v>44120</v>
+      </c>
+      <c r="D54" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>7</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AY54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+    </row>
+    <row r="55" spans="1:58">
+      <c r="E55" s="5"/>
+      <c r="F55" s="8">
+        <v>44122</v>
+      </c>
+      <c r="G55" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="T55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y55" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD55" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
+      <c r="E56" s="5"/>
+      <c r="F56" s="8">
+        <v>44125</v>
+      </c>
+      <c r="G56" s="17">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="T56" s="45">
+        <v>10</v>
+      </c>
+      <c r="U56" s="4">
+        <v>15</v>
+      </c>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4">
+        <v>1</v>
+      </c>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17">
+        <v>30000</v>
+      </c>
+      <c r="Z56" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA56" s="27">
+        <v>30000</v>
+      </c>
+      <c r="AY56" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ56" s="4">
+        <v>15</v>
+      </c>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="17"/>
+      <c r="BD56" s="17">
+        <v>30000</v>
+      </c>
+      <c r="BE56" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF56" s="27">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58">
+      <c r="C57" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D57" s="17">
+        <v>28000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29">
+        <v>31</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="30">
+        <v>40000</v>
+      </c>
+      <c r="Z57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA57" s="47">
+        <v>70000</v>
+      </c>
+      <c r="AY57" s="29"/>
+      <c r="AZ57" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA57" s="29"/>
+      <c r="BB57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC57" s="29"/>
+      <c r="BD57" s="30">
+        <v>40000</v>
+      </c>
+      <c r="BE57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF57" s="47">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58">
+      <c r="C60" s="7">
+        <v>44105</v>
+      </c>
+      <c r="D60" s="25">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G60" s="25">
+        <v>10000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>11</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AY60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+    </row>
+    <row r="61" spans="1:58">
+      <c r="T61" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y61" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY61" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD61" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF61" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T62" s="60">
+        <v>10</v>
+      </c>
+      <c r="U62" s="61">
+        <v>5</v>
+      </c>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61">
+        <v>1</v>
+      </c>
+      <c r="X62" s="30">
+        <v>90000</v>
+      </c>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA62" s="33">
+        <v>90000</v>
+      </c>
+      <c r="AY62" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ62" s="61">
+        <v>5</v>
+      </c>
+      <c r="BA62" s="61"/>
+      <c r="BB62" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC62" s="30">
+        <v>90000</v>
+      </c>
+      <c r="BD62" s="31"/>
+      <c r="BE62" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF62" s="33">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58">
+      <c r="C63" s="7">
+        <v>44119</v>
+      </c>
+      <c r="D63" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6</v>
+      </c>
+      <c r="F63" s="7">
+        <v>44120</v>
+      </c>
+      <c r="G63" s="25">
+        <v>8000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58">
+      <c r="C64" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D64" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>10</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
+      <c r="T65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AY65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="3"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+    </row>
+    <row r="66" spans="1:58">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="T66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y66" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD66" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF66" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7">
+        <v>44111</v>
+      </c>
+      <c r="G67" s="25">
+        <v>3000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="T67" s="45">
+        <v>10</v>
+      </c>
+      <c r="U67" s="4">
+        <v>7</v>
+      </c>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="17">
+        <v>3000</v>
+      </c>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA67" s="27">
+        <v>3000</v>
+      </c>
+      <c r="AY67" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ67" s="4">
+        <v>7</v>
+      </c>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC67" s="17">
+        <v>3000</v>
+      </c>
+      <c r="BD67" s="28"/>
+      <c r="BE67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF67" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
+      <c r="C68" s="8">
+        <v>44115</v>
+      </c>
+      <c r="D68" s="17">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>5</v>
+      </c>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29">
+        <v>31</v>
+      </c>
+      <c r="V68" s="29"/>
+      <c r="W68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X68" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA68" s="31">
+        <v>4800</v>
+      </c>
+      <c r="AY68" s="29"/>
+      <c r="AZ68" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA68" s="29"/>
+      <c r="BB68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC68" s="30">
+        <v>1800</v>
+      </c>
+      <c r="BD68" s="11"/>
+      <c r="BE68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF68" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BC70" s="3"/>
+      <c r="BD70" s="3"/>
+      <c r="BE70" s="3"/>
+      <c r="BF70" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G71" s="25">
+        <v>8000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>14</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AY71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ71" s="4"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="3"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="4"/>
+      <c r="BF71" s="4"/>
+    </row>
+    <row r="72" spans="1:58">
+      <c r="T72" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y72" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY72" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD72" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF72" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="T73" s="45">
+        <v>10</v>
+      </c>
+      <c r="U73" s="4">
+        <v>18</v>
+      </c>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="17">
+        <v>17000</v>
+      </c>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA73" s="27">
+        <v>17000</v>
+      </c>
+      <c r="AY73" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ73" s="4">
+        <v>18</v>
+      </c>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC73" s="17">
+        <v>17000</v>
+      </c>
+      <c r="BD73" s="28"/>
+      <c r="BE73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF73" s="27">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G74" s="25">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>15</v>
+      </c>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29">
+        <v>31</v>
+      </c>
+      <c r="V74" s="29"/>
+      <c r="W74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X74" s="30">
+        <v>8000</v>
+      </c>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA74" s="31">
+        <v>25000</v>
+      </c>
+      <c r="AY74" s="29"/>
+      <c r="AZ74" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA74" s="29"/>
+      <c r="BB74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC74" s="30">
+        <v>80000</v>
+      </c>
+      <c r="BD74" s="11"/>
+      <c r="BE74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF74" s="31">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ76" s="3"/>
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
+      <c r="BC76" s="3"/>
+      <c r="BD76" s="3"/>
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="7">
+        <v>44105</v>
+      </c>
+      <c r="G77" s="25">
+        <v>200000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AY77" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ77" s="4"/>
+      <c r="BA77" s="4"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="3"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="4"/>
+      <c r="BF77" s="4"/>
+    </row>
+    <row r="78" spans="1:58">
+      <c r="T78" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y78" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA78" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY78" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD78" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF78" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="T79" s="60">
+        <v>10</v>
+      </c>
+      <c r="U79" s="61">
+        <v>21</v>
+      </c>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61">
+        <v>1</v>
+      </c>
+      <c r="X79" s="30">
+        <v>400</v>
+      </c>
+      <c r="Y79" s="31"/>
+      <c r="Z79" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA79" s="31">
+        <v>400</v>
+      </c>
+      <c r="AY79" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ79" s="61">
+        <v>21</v>
+      </c>
+      <c r="BA79" s="61"/>
+      <c r="BB79" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC79" s="30">
+        <v>400</v>
+      </c>
+      <c r="BD79" s="31"/>
+      <c r="BE79" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF79" s="31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="7">
+        <v>44119</v>
+      </c>
+      <c r="G80" s="25">
+        <v>30000</v>
+      </c>
+      <c r="H80" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58">
+      <c r="E81" s="5"/>
+      <c r="F81" s="8">
+        <v>44135</v>
+      </c>
+      <c r="G81" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="T81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58">
+      <c r="T82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AY82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ82" s="4"/>
+      <c r="BA82" s="4"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="4"/>
+      <c r="BF82" s="4"/>
+    </row>
+    <row r="83" spans="1:58">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="T83" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X83" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA83" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY83" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC83" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF83" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58">
+      <c r="C84" s="7">
+        <v>44109</v>
+      </c>
+      <c r="D84" s="25">
+        <v>90000</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="T84" s="60">
+        <v>10</v>
+      </c>
+      <c r="U84" s="61">
+        <v>18</v>
+      </c>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61">
+        <v>1</v>
+      </c>
+      <c r="X84" s="30">
+        <v>17000</v>
+      </c>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA84" s="31">
+        <v>17000</v>
+      </c>
+      <c r="AY84" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ84" s="61">
+        <v>18</v>
+      </c>
+      <c r="BA84" s="61"/>
+      <c r="BB84" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC84" s="30">
+        <v>17000</v>
+      </c>
+      <c r="BD84" s="31"/>
+      <c r="BE84" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF84" s="31">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="T86" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY86" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+      <c r="BD86" s="3"/>
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58">
+      <c r="C87" s="7">
+        <v>44111</v>
+      </c>
+      <c r="D87" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="F87" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G87" s="25">
+        <v>1800</v>
+      </c>
+      <c r="H87" s="3">
+        <v>13</v>
+      </c>
+      <c r="T87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AY87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ87" s="4"/>
+      <c r="BA87" s="4"/>
+      <c r="BB87" s="4"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="4"/>
+      <c r="BE87" s="4"/>
+      <c r="BF87" s="4"/>
+    </row>
+    <row r="88" spans="1:58">
+      <c r="T88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y88" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA88" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD88" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF88" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T89" s="60">
+        <v>10</v>
+      </c>
+      <c r="U89" s="61">
+        <v>31</v>
+      </c>
+      <c r="V89" s="61"/>
+      <c r="W89" s="61">
+        <v>1</v>
+      </c>
+      <c r="X89" s="30">
+        <v>1000</v>
+      </c>
+      <c r="Y89" s="31"/>
+      <c r="Z89" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA89" s="31">
+        <v>1000</v>
+      </c>
+      <c r="AY89" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ89" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA89" s="61"/>
+      <c r="BB89" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC89" s="30">
+        <v>1000</v>
+      </c>
+      <c r="BD89" s="31"/>
+      <c r="BE89" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF89" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58">
+      <c r="C90" s="7">
+        <v>44122</v>
+      </c>
+      <c r="D90" s="25">
+        <v>17000</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:58">
+      <c r="C91" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D91" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E91" s="5">
+        <v>14</v>
+      </c>
+      <c r="T91" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY91" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58">
+      <c r="T92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AY92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ92" s="4"/>
+      <c r="BA92" s="4"/>
+      <c r="BB92" s="4"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="4"/>
+      <c r="BE92" s="4"/>
+      <c r="BF92" s="4"/>
+    </row>
+    <row r="93" spans="1:58">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="T93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y93" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA93" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD93" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF93" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58">
+      <c r="C94" s="7">
+        <v>44125</v>
+      </c>
+      <c r="D94" s="25">
+        <v>400</v>
+      </c>
+      <c r="E94" s="4">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="T94" s="60">
+        <v>10</v>
+      </c>
+      <c r="U94" s="61">
+        <v>31</v>
+      </c>
+      <c r="V94" s="61"/>
+      <c r="W94" s="61">
+        <v>1</v>
+      </c>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="Z94" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="AY94" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ94" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA94" s="61"/>
+      <c r="BB94" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC94" s="30"/>
+      <c r="BD94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="BE94" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF94" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="T96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58">
+      <c r="C97" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D97" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E97" s="4">
+        <v>11</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="T97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AY97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ97" s="4"/>
+      <c r="BA97" s="4"/>
+      <c r="BB97" s="4"/>
+      <c r="BC97" s="3"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="4"/>
+      <c r="BF97" s="4"/>
+    </row>
+    <row r="98" spans="1:58">
+      <c r="T98" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X98" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY98" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA98" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC98" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE98" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF98" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="T99" s="60">
+        <v>10</v>
+      </c>
+      <c r="U99" s="61">
+        <v>31</v>
+      </c>
+      <c r="V99" s="61"/>
+      <c r="W99" s="61">
+        <v>61</v>
+      </c>
+      <c r="X99" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Y99" s="31"/>
+      <c r="Z99" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA99" s="33">
+        <v>1800</v>
+      </c>
+      <c r="AY99" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ99" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA99" s="61"/>
+      <c r="BB99" s="61">
+        <v>61</v>
+      </c>
+      <c r="BC99" s="30">
+        <v>1800</v>
+      </c>
+      <c r="BD99" s="31"/>
+      <c r="BE99" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF99" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58">
+      <c r="C100" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D100" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="4">
+        <v>12</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="102" spans="1:58">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G103" s="25">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:58">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:58">
+      <c r="C106" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D106" s="25">
+        <v>1800</v>
+      </c>
+      <c r="E106" s="4">
+        <v>13</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="108" spans="1:58">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:58">
+      <c r="C109" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D109" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E109" s="4">
+        <v>15</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="C118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="51">
+        <v>115600</v>
+      </c>
+      <c r="E120" s="51"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="51">
+        <v>20000</v>
+      </c>
+      <c r="E121" s="51"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="51">
+        <v>14000</v>
+      </c>
+      <c r="E122" s="51"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="51">
+        <v>0</v>
+      </c>
+      <c r="E123" s="51"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" s="51">
+        <v>90000</v>
+      </c>
+      <c r="E128" s="51"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>10</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="51">
+        <v>1200</v>
+      </c>
+      <c r="E129" s="51"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="51">
+        <v>25000</v>
+      </c>
+      <c r="E130" s="51"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="51">
+        <v>400</v>
+      </c>
+      <c r="E131" s="51"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" s="51">
+        <v>10000</v>
+      </c>
+      <c r="E132" s="51"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E133" s="51"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="51">
+        <v>1800</v>
+      </c>
+      <c r="E135" s="51"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>17</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E136" s="51"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="C137" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="51">
+        <f>SUM(D120:D136)</f>
+        <v>280000</v>
+      </c>
+      <c r="E137" s="51">
+        <f>SUM(E120:E136)</f>
+        <v>280000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0"/>
+  <protectedRanges>
+    <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1251F-2DEA-4D8B-B6C4-93FEE7CE4C4D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31758,7 +38111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F340848-6CEB-41E6-B25C-51C581ED9FFB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31770,7 +38123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31784,7 +38137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1204C-E6B9-4847-8D0D-ABC818AD98E6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31796,7 +38149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35AD1AA-8E33-4D20-A6C4-8F727731DFD9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31808,20 +38161,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C81083-A4E6-4AA2-966B-0E20DA8087EC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC0246-4849-4C29-AF56-26E0AEC16E34}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32019,6 +38360,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC0246-4849-4C29-AF56-26E0AEC16E34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9BF354-7CC1-4735-95C7-BF3B854FA0D4}">
   <dimension ref="A1"/>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11368" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38660ABB-5E2D-4538-8532-BEBCEF30F907}"/>
+  <xr:revisionPtr revIDLastSave="11407" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AFB349-9C55-48E0-9BEE-EA80DDA27A81}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="64" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -71,13 +71,15 @@
     <sheet name="A5-2" sheetId="65" r:id="rId61"/>
     <sheet name="A5-3" sheetId="87" r:id="rId62"/>
     <sheet name="A5-3 (2)" sheetId="88" r:id="rId63"/>
-    <sheet name="A5-4" sheetId="67" r:id="rId64"/>
-    <sheet name="A5-5" sheetId="68" r:id="rId65"/>
-    <sheet name="B5-1" sheetId="69" r:id="rId66"/>
-    <sheet name="B5-2" sheetId="70" r:id="rId67"/>
-    <sheet name="B5-3" sheetId="71" r:id="rId68"/>
-    <sheet name="B5-4" sheetId="72" r:id="rId69"/>
-    <sheet name="B5-5" sheetId="73" r:id="rId70"/>
+    <sheet name="A3-3題目和解答" sheetId="89" r:id="rId64"/>
+    <sheet name="A4-3題目和解答" sheetId="90" r:id="rId65"/>
+    <sheet name="A5-4" sheetId="67" r:id="rId66"/>
+    <sheet name="A5-5" sheetId="68" r:id="rId67"/>
+    <sheet name="B5-1" sheetId="69" r:id="rId68"/>
+    <sheet name="B5-2" sheetId="70" r:id="rId69"/>
+    <sheet name="B5-3" sheetId="71" r:id="rId70"/>
+    <sheet name="B5-4" sheetId="72" r:id="rId71"/>
+    <sheet name="B5-5" sheetId="73" r:id="rId72"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -127,20 +129,12 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B234CC52-F045-4CAB-BFFD-355C1016A66D}</author>
     <author>tc={F592FC2C-ADC9-46F0-ABA3-CB530013588B}</author>
     <author>tc={CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}</author>
+    <author>tc={CC071A20-76E3-4F24-B055-9CD93F290D67}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    下圖為會計學題目A4-3。擷取自解答本。</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,10 +144,12 @@
 Reply:
     跟我列的不一樣。
 Reply:
-    不知道這有沒有對最終結果帶來影響?</t>
+    不知道這有沒有對最終結果帶來影響?
+Reply:
+    我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="2" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,12 +159,40 @@
     我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="2" shapeId="0" xr:uid="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    對題目A4-3，我的答案。
+Reply:
+    從A30到G39。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B234CC52-F045-4CAB-BFFD-355C1016A66D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    下圖為會計學題目A4-3。擷取自解答本。</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="322">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1124,13 +1148,16 @@
     <t>A4-3</t>
   </si>
   <si>
-    <t>A4-3的題目</t>
-  </si>
-  <si>
     <t>A4-3的分錄</t>
   </si>
   <si>
+    <t>A3-3題目和解答</t>
+  </si>
+  <si>
     <t>更正版</t>
+  </si>
+  <si>
+    <t>A4-3的題目</t>
   </si>
 </sst>
 </file>
@@ -1705,6 +1732,243 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523BD542-2676-0D25-7AC6-7B6A0C4C32D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="11401425"/>
+          <a:ext cx="4562475" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E8B150-36C9-2731-6ABE-12E69607D744}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{523BD542-2676-0D25-7AC6-7B6A0C4C32D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="4991100"/>
+          <a:ext cx="3429000" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4B6D5E-85AA-1CEE-9C3F-DE0A73850C7E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{99E8B150-36C9-2731-6ABE-12E69607D744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="285750"/>
+          <a:ext cx="3429000" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D00025-CADB-2A02-6118-76B3AEF08620}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2E4B6D5E-85AA-1CEE-9C3F-DE0A73850C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="5438775"/>
+          <a:ext cx="3429000" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B8BDF9-102C-1055-82A1-0F369D9451AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{92D00025-CADB-2A02-6118-76B3AEF08620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="666750"/>
+          <a:ext cx="3429000" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="黃 奕捷" id="{301AB195-C950-41D3-AE73-D8C412ED5AFC}" userId="黃 奕捷" providerId="None"/>
@@ -2009,9 +2273,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2024-02-03T09:38:47.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
-    <text>下圖為會計學題目A4-3。擷取自解答本。</text>
-  </threadedComment>
   <threadedComment ref="F1" personId="{301AB195-C950-41D3-AE73-D8C412ED5AFC}" id="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
     <text xml:space="preserve">
 </text>
@@ -2025,11 +2286,28 @@
   <threadedComment ref="F1" dT="2024-02-03T09:39:42.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{57BC9BE9-A9AF-43F8-A768-CEF96647D6D7}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
     <text>不知道這有沒有對最終結果帶來影響?</text>
   </threadedComment>
+  <threadedComment ref="F1" dT="2024-02-03T09:43:19.32" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{88A816EC-20E5-4B57-919E-44D958D0208F}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</text>
+  </threadedComment>
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
     <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
   </threadedComment>
   <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F0BF6E50-40F4-4E74-ABF4-5F96E60DF16B}" parentId="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
     <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:28.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
+    <text>對題目A4-3，我的答案。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:52.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{39AC9627-0524-4982-AF55-F9131E04DD9A}" parentId="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
+    <text>從A30到G39。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-02-03T09:38:47.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
+    <text>下圖為會計學題目A4-3。擷取自解答本。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -32008,7 +32286,7 @@
   <dimension ref="A1:BF137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -32017,6 +32295,7 @@
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.875" bestFit="1" customWidth="1"/>
@@ -32036,10 +32315,10 @@
       <c r="A1" t="s">
         <v>304</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>318</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>319</v>
       </c>
       <c r="J1" t="s">
@@ -38100,6 +38379,49 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10D647F-35CF-4363-891F-4B3A49A80A77}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377584E2-A20F-49DC-B5DD-950BCC48F6A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1251F-2DEA-4D8B-B6C4-93FEE7CE4C4D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38111,7 +38433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F340848-6CEB-41E6-B25C-51C581ED9FFB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38123,7 +38445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38137,32 +38459,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1204C-E6B9-4847-8D0D-ABC818AD98E6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35AD1AA-8E33-4D20-A6C4-8F727731DFD9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C81083-A4E6-4AA2-966B-0E20DA8087EC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38361,6 +38659,30 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35AD1AA-8E33-4D20-A6C4-8F727731DFD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C81083-A4E6-4AA2-966B-0E20DA8087EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC0246-4849-4C29-AF56-26E0AEC16E34}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11407" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AFB349-9C55-48E0-9BEE-EA80DDA27A81}"/>
+  <xr:revisionPtr revIDLastSave="11492" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92B1BE6C-CE48-4D24-AAD2-E109C5E922AC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="61" activeTab="64" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="43" activeTab="63" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -71,15 +71,17 @@
     <sheet name="A5-2" sheetId="65" r:id="rId61"/>
     <sheet name="A5-3" sheetId="87" r:id="rId62"/>
     <sheet name="A5-3 (2)" sheetId="88" r:id="rId63"/>
-    <sheet name="A3-3題目和解答" sheetId="89" r:id="rId64"/>
-    <sheet name="A4-3題目和解答" sheetId="90" r:id="rId65"/>
-    <sheet name="A5-4" sheetId="67" r:id="rId66"/>
-    <sheet name="A5-5" sheetId="68" r:id="rId67"/>
-    <sheet name="B5-1" sheetId="69" r:id="rId68"/>
-    <sheet name="B5-2" sheetId="70" r:id="rId69"/>
-    <sheet name="B5-3" sheetId="71" r:id="rId70"/>
-    <sheet name="B5-4" sheetId="72" r:id="rId71"/>
-    <sheet name="B5-5" sheetId="73" r:id="rId72"/>
+    <sheet name="A5-3 (3)" sheetId="92" r:id="rId64"/>
+    <sheet name="A5-3題目和解答" sheetId="91" r:id="rId65"/>
+    <sheet name="A3-3題目和解答" sheetId="89" r:id="rId66"/>
+    <sheet name="A4-3題目和解答" sheetId="90" r:id="rId67"/>
+    <sheet name="A5-4" sheetId="67" r:id="rId68"/>
+    <sheet name="A5-5" sheetId="68" r:id="rId69"/>
+    <sheet name="B5-1" sheetId="69" r:id="rId70"/>
+    <sheet name="B5-2" sheetId="70" r:id="rId71"/>
+    <sheet name="B5-3" sheetId="71" r:id="rId72"/>
+    <sheet name="B5-4" sheetId="72" r:id="rId73"/>
+    <sheet name="B5-5" sheetId="73" r:id="rId74"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -129,27 +131,13 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F592FC2C-ADC9-46F0-ABA3-CB530013588B}</author>
     <author>tc={CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}</author>
+    <author>tc={4C91B4A1-C478-45F9-BA0D-A06DD97813F1}</author>
+    <author>tc={00B3F093-5A89-4759-95DD-05276D17B09F}</author>
     <author>tc={CC071A20-76E3-4F24-B055-9CD93F290D67}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-Reply:
-    下圖為會計學解答本的A4-3中，所列的分錄。
-Reply:
-    跟我列的不一樣。
-Reply:
-    不知道這有沒有對最終結果帶來影響?
-Reply:
-    我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</t>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +147,24 @@
     我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</t>
       </text>
     </comment>
-    <comment ref="A30" authorId="2" shapeId="0" xr:uid="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{4C91B4A1-C478-45F9-BA0D-A06DD97813F1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{00B3F093-5A89-4759-95DD-05276D17B09F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +181,62 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={34C353A3-4A3D-4BF6-A7BE-B482F619C311}</author>
+    <author>tc={1451D451-CFAA-4007-83AE-B4F5D0AD411B}</author>
+    <author>tc={ABE2E7D7-EB46-4F0A-B9FB-33BC587A6063}</author>
+    <author>tc={2B64A37F-A65D-4470-BF11-B95FB13261DB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
+Reply:
+    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？
+Reply:
+    再次更正
+Reply:
+    跟A5-3(2)不一樣，我將累積折舊列為負債</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{1451D451-CFAA-4007-83AE-B4F5D0AD411B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{ABE2E7D7-EB46-4F0A-B9FB-33BC587A6063}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{2B64A37F-A65D-4470-BF11-B95FB13261DB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    對題目A4-3，我的答案。
+Reply:
+    從A30到G39。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={B234CC52-F045-4CAB-BFFD-355C1016A66D}</author>
+    <author>tc={F592FC2C-ADC9-46F0-ABA3-CB530013588B}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
@@ -187,12 +247,27 @@
     下圖為會計學題目A4-3。擷取自解答本。</t>
       </text>
     </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+Reply:
+    下圖為會計學解答本的A4-3中，所列的分錄。
+Reply:
+    跟我列的不一樣。
+Reply:
+    不知道這有沒有對最終結果帶來影響?
+Reply:
+    我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="327">
   <si>
     <t>見docx檔</t>
   </si>
@@ -941,6 +1016,9 @@
     <t>第59頁</t>
   </si>
   <si>
+    <t>第63頁</t>
+  </si>
+  <si>
     <t>?表示數值未知</t>
   </si>
   <si>
@@ -1148,16 +1226,28 @@
     <t>A4-3</t>
   </si>
   <si>
-    <t>A4-3的分錄</t>
+    <t>更正版</t>
+  </si>
+  <si>
+    <t>相關題目</t>
   </si>
   <si>
     <t>A3-3題目和解答</t>
   </si>
   <si>
-    <t>更正版</t>
+    <t>A4-3題目和解答</t>
+  </si>
+  <si>
+    <t>結帳分錄和過帳</t>
+  </si>
+  <si>
+    <t>租金費</t>
   </si>
   <si>
     <t>A4-3的題目</t>
+  </si>
+  <si>
+    <t>A4-3的分錄</t>
   </si>
 </sst>
 </file>
@@ -1641,102 +1731,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDADB24-996C-54A8-3FC7-863A1AEA2EA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1352550" y="257175"/>
-          <a:ext cx="2638425" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862B49AE-E843-D985-1E2C-A1D51AEC0481}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BDADB24-996C-54A8-3FC7-863A1AEA2EA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591050" y="200025"/>
-          <a:ext cx="2124075" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -1958,6 +1952,102 @@
         <a:xfrm>
           <a:off x="790575" y="666750"/>
           <a:ext cx="3429000" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B659ADA2-1E14-4078-902A-227C543A06A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="2638425" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC988DE9-A2E1-49FF-9514-B02E4A36031B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B659ADA2-1E14-4078-902A-227C543A06A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="419100"/>
+          <a:ext cx="2124075" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2273,27 +2363,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F1" personId="{301AB195-C950-41D3-AE73-D8C412ED5AFC}" id="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
-    <text xml:space="preserve">
-</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-02-03T09:37:52.76" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CAC2BD7F-B9D8-489D-B971-DEAEEFD2EC30}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
-    <text>下圖為會計學解答本的A4-3中，所列的分錄。</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-02-03T09:39:08.55" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{26E6EF74-D88E-46A3-B8FC-AAA4756903A5}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
-    <text>跟我列的不一樣。</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-02-03T09:39:42.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{57BC9BE9-A9AF-43F8-A768-CEF96647D6D7}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
-    <text>不知道這有沒有對最終結果帶來影響?</text>
-  </threadedComment>
-  <threadedComment ref="F1" dT="2024-02-03T09:43:19.32" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{88A816EC-20E5-4B57-919E-44D958D0208F}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
-    <text>我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</text>
-  </threadedComment>
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
     <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
   </threadedComment>
   <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F0BF6E50-40F4-4E74-ABF4-5F96E60DF16B}" parentId="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
     <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2024-02-03T10:08:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{4C91B4A1-C478-45F9-BA0D-A06DD97813F1}">
+    <text>A3-3題目和解答，詳見"A3-3題目和解答"工作表。</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2024-02-03T10:08:37.95" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{00B3F093-5A89-4759-95DD-05276D17B09F}">
+    <text>A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</text>
   </threadedComment>
   <threadedComment ref="A30" dT="2024-02-03T09:44:28.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
     <text>對題目A4-3，我的答案。</text>
@@ -2306,8 +2387,54 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{52CF8F65-A775-4F7F-B6F5-871127E84498}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:18:02.22" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B67CE214-93F3-4A05-B40D-F0A5AF05AD69}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>再次更正</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:18:56.70" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6C205B26-3855-49B9-8995-1CE80BCB42B6}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>跟A5-3(2)不一樣，我將累積折舊列為負債</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2024-02-03T10:08:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1451D451-CFAA-4007-83AE-B4F5D0AD411B}">
+    <text>A3-3題目和解答，詳見"A3-3題目和解答"工作表。</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2024-02-03T10:08:37.95" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{ABE2E7D7-EB46-4F0A-B9FB-33BC587A6063}">
+    <text>A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:28.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2B64A37F-A65D-4470-BF11-B95FB13261DB}">
+    <text>對題目A4-3，我的答案。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:52.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{498972CE-A988-4175-A435-BF010757FFCD}" parentId="{2B64A37F-A65D-4470-BF11-B95FB13261DB}">
+    <text>從A30到G39。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-02-03T09:38:47.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
     <text>下圖為會計學題目A4-3。擷取自解答本。</text>
+  </threadedComment>
+  <threadedComment ref="H1" personId="{301AB195-C950-41D3-AE73-D8C412ED5AFC}" id="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text xml:space="preserve">
+</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-02-03T09:37:52.76" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CAC2BD7F-B9D8-489D-B971-DEAEEFD2EC30}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>下圖為會計學解答本的A4-3中，所列的分錄。</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-02-03T09:39:08.55" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{26E6EF74-D88E-46A3-B8FC-AAA4756903A5}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>跟我列的不一樣。</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-02-03T09:39:42.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{57BC9BE9-A9AF-43F8-A768-CEF96647D6D7}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>不知道這有沒有對最終結果帶來影響?</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2024-02-03T09:43:19.32" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{88A816EC-20E5-4B57-919E-44D958D0208F}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
+    <text>我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -8103,8 +8230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA8AB41-CD6F-4776-BB6D-7E72DDA12EAB}">
   <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:E91"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20062,8 +20189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDE1CE6-EAF2-44E1-89F6-6082C649E6F2}">
   <dimension ref="A1:Z137"/>
   <sheetViews>
-    <sheetView topLeftCell="P66" workbookViewId="0">
-      <selection activeCell="S73" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="K85" workbookViewId="0">
+      <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21297,7 +21424,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="s">
         <v>142</v>
@@ -21309,7 +21436,7 @@
         <v>51</v>
       </c>
       <c r="P36" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="S36" s="15" t="s">
         <v>231</v>
@@ -21332,7 +21459,7 @@
         <v>231</v>
       </c>
       <c r="G37" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="N37" s="49" t="s">
         <v>231</v>
@@ -21341,7 +21468,7 @@
         <v>33</v>
       </c>
       <c r="Q37" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="S37" s="15" t="s">
         <v>131</v>
@@ -21368,7 +21495,7 @@
         <v>84</v>
       </c>
       <c r="F38" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="L38" t="s">
         <v>142</v>
@@ -21380,7 +21507,7 @@
         <v>63</v>
       </c>
       <c r="P38" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="S38" s="45" t="s">
         <v>132</v>
@@ -21415,7 +21542,7 @@
         <v>242</v>
       </c>
       <c r="G39" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N39" s="49" t="s">
         <v>242</v>
@@ -21424,7 +21551,7 @@
         <v>35</v>
       </c>
       <c r="Q39" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="S39" s="60">
         <v>10</v>
@@ -21438,13 +21565,13 @@
       </c>
       <c r="W39" s="30"/>
       <c r="X39" s="31">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="Y39" s="61" t="s">
         <v>150</v>
       </c>
       <c r="Z39" s="28">
-        <v>80000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -21512,13 +21639,13 @@
       </c>
       <c r="W44" s="30"/>
       <c r="X44" s="31">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="Y44" s="61" t="s">
         <v>150</v>
       </c>
       <c r="Z44" s="28">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -21693,7 +21820,7 @@
       </c>
       <c r="K52" s="51">
         <f>SUM(D71)-SUM(G71)</f>
-        <v>-80000</v>
+        <v>-8000</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -21711,7 +21838,7 @@
       </c>
       <c r="K53" s="51">
         <f>SUM(D74)-SUM(G74)</f>
-        <v>-10000</v>
+        <v>-1000</v>
       </c>
       <c r="S53" s="15" t="s">
         <v>148</v>
@@ -21876,7 +22003,7 @@
       </c>
       <c r="K58" s="51">
         <f>SUM(D90:D91)-SUM(G90:G91)</f>
-        <v>97000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -22059,7 +22186,7 @@
       </c>
       <c r="K64" s="51">
         <f>SUM(D109)-SUM(G109)</f>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="S64" s="15" t="s">
         <v>144</v>
@@ -22216,7 +22343,7 @@
         <v>44135</v>
       </c>
       <c r="G71" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="H71">
         <v>14</v>
@@ -22294,7 +22421,7 @@
         <v>44135</v>
       </c>
       <c r="G74" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H74">
         <v>15</v>
@@ -22308,14 +22435,14 @@
         <v>142</v>
       </c>
       <c r="W74" s="30">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="X74" s="11"/>
       <c r="Y74" s="59" t="s">
         <v>142</v>
       </c>
       <c r="Z74" s="31">
-        <v>97000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -22657,7 +22784,7 @@
         <v>44135</v>
       </c>
       <c r="D91" s="17">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="E91">
         <v>14</v>
@@ -22865,6 +22992,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="101" spans="1:26">
+      <c r="S101" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
     <row r="102" spans="1:26">
       <c r="A102">
         <v>15</v>
@@ -22875,6 +23016,16 @@
       <c r="C102" s="54" t="s">
         <v>243</v>
       </c>
+      <c r="S102" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
     </row>
     <row r="103" spans="1:26">
       <c r="F103" s="8">
@@ -22886,6 +23037,50 @@
       <c r="H103">
         <v>12</v>
       </c>
+      <c r="S103" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="T103" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U103" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="V103" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W103" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X103" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y103" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z103" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="S104" s="60">
+        <v>10</v>
+      </c>
+      <c r="T104" s="61">
+        <v>31</v>
+      </c>
+      <c r="U104" s="61"/>
+      <c r="V104" s="61">
+        <v>1</v>
+      </c>
+      <c r="W104" s="28">
+        <v>1000</v>
+      </c>
+      <c r="X104" s="31"/>
+      <c r="Y104" s="61"/>
+      <c r="Z104" s="28">
+        <v>1000</v>
+      </c>
     </row>
     <row r="105" spans="1:26">
       <c r="A105">
@@ -22925,7 +23120,7 @@
         <v>44135</v>
       </c>
       <c r="D109" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E109">
         <v>15</v>
@@ -23040,7 +23235,7 @@
       </c>
       <c r="D124" s="51"/>
       <c r="E124" s="51">
-        <v>80000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -23055,7 +23250,7 @@
       </c>
       <c r="D125" s="51"/>
       <c r="E125" s="51">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -23129,7 +23324,7 @@
         <v>86</v>
       </c>
       <c r="D130" s="51">
-        <v>97000</v>
+        <v>25000</v>
       </c>
       <c r="E130" s="51"/>
     </row>
@@ -23219,7 +23414,7 @@
         <v>84</v>
       </c>
       <c r="D136" s="51">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="E136" s="51"/>
     </row>
@@ -23229,11 +23424,11 @@
       </c>
       <c r="D137" s="51">
         <f>SUM(D120:D136)</f>
-        <v>361000</v>
+        <v>280000</v>
       </c>
       <c r="E137" s="51">
         <f>SUM(E120:E136)</f>
-        <v>361000</v>
+        <v>280000</v>
       </c>
     </row>
   </sheetData>
@@ -23275,34 +23470,34 @@
         <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="8">
         <v>44196</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -23350,10 +23545,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17">
@@ -23389,7 +23584,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17">
@@ -23415,11 +23610,11 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17">
@@ -23441,7 +23636,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17">
@@ -23483,7 +23678,7 @@
         <v>236</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
@@ -23528,7 +23723,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -23559,7 +23754,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -23567,13 +23762,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>22</v>
@@ -23590,13 +23785,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F3" s="8">
         <v>44075</v>
@@ -23610,7 +23805,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="17" t="s">
@@ -23634,7 +23829,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="17" t="s">
@@ -23647,19 +23842,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D7" s="17">
         <v>2</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F7" s="8">
         <v>44120</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H7" s="17">
         <v>84000</v>
@@ -23689,7 +23884,7 @@
     <row r="10" spans="1:9">
       <c r="F10" s="8"/>
       <c r="G10" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I10" s="17">
         <f>84000*1.5/12</f>
@@ -23701,7 +23896,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F11" s="8">
         <v>44105</v>
@@ -23749,7 +23944,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F15" s="8">
         <v>44196</v>
@@ -23775,25 +23970,25 @@
         <v>5</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F17" s="8">
         <v>44166</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H17" s="17">
         <v>30000</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L17" s="42">
         <v>0.12</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N17" s="17">
         <f>H17*L17*1/12</f>
@@ -23803,7 +23998,7 @@
     <row r="18" spans="4:14">
       <c r="F18" s="8"/>
       <c r="G18" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I18" s="17">
         <v>30000</v>
@@ -23823,7 +24018,7 @@
     </row>
     <row r="20" spans="4:14">
       <c r="G20" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I20" s="17">
         <f>H19</f>
@@ -23859,12 +24054,12 @@
     </row>
     <row r="2" spans="3:14">
       <c r="C2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="3:14">
       <c r="C3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
@@ -23875,7 +24070,7 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>198</v>
@@ -23899,7 +24094,7 @@
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>234</v>
@@ -23928,7 +24123,7 @@
     </row>
     <row r="7" spans="3:14">
       <c r="C7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
@@ -23942,7 +24137,7 @@
     </row>
     <row r="8" spans="3:14">
       <c r="C8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>234</v>
@@ -23955,7 +24150,7 @@
     </row>
     <row r="9" spans="3:14">
       <c r="C9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>198</v>
@@ -24037,7 +24232,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24047,7 +24242,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>22</v>
@@ -24116,7 +24311,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>22</v>
@@ -24144,7 +24339,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E15" s="17">
         <v>9600</v>
@@ -24169,7 +24364,7 @@
         <v>44196</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D18" s="17">
         <f>9600*1/12*2</f>
@@ -24187,7 +24382,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>22</v>
@@ -24249,7 +24444,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="C27" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E27" s="17">
         <f>9600*(1-2/12)</f>
@@ -24580,7 +24775,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="D1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -24590,7 +24785,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>129</v>
@@ -24603,7 +24798,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="N3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -24611,13 +24806,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>131</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N4" s="4">
         <v>12</v>
@@ -24672,7 +24867,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -24729,7 +24924,7 @@
     <row r="8" spans="1:23">
       <c r="D8" s="14"/>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J8" s="17">
         <v>10000</v>
@@ -24739,7 +24934,7 @@
     <row r="9" spans="1:23">
       <c r="D9" s="14"/>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="28">
@@ -24796,7 +24991,7 @@
     <row r="11" spans="1:23">
       <c r="D11" s="14"/>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="28">
@@ -24887,7 +25082,7 @@
         <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -24904,13 +25099,13 @@
     </row>
     <row r="3" spans="3:12">
       <c r="C3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G3" s="7">
         <v>44075</v>
@@ -24926,10 +25121,10 @@
     </row>
     <row r="4" spans="3:12">
       <c r="C4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17">
@@ -24939,13 +25134,13 @@
     </row>
     <row r="5" spans="3:12">
       <c r="C5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="8">
         <v>44075</v>
@@ -24961,7 +25156,7 @@
     </row>
     <row r="6" spans="3:12">
       <c r="I6" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17">
@@ -24973,7 +25168,7 @@
         <v>44196</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="17">
@@ -24997,7 +25192,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G9" s="8">
         <v>44075</v>
@@ -25036,7 +25231,7 @@
     </row>
     <row r="12" spans="3:12">
       <c r="I12" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17">
@@ -25126,7 +25321,7 @@
         <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -25146,7 +25341,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E3" s="8">
         <v>44013</v>
@@ -25183,7 +25378,7 @@
     </row>
     <row r="6" spans="3:9">
       <c r="G6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17">
@@ -25196,13 +25391,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E7" s="8">
         <v>44075</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H7" s="17">
         <v>240000</v>
@@ -25246,7 +25441,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E11" s="8">
         <v>43831</v>
@@ -25296,7 +25491,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E15" s="8">
         <v>43952</v>
@@ -25367,7 +25562,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="D1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -25377,7 +25572,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>129</v>
@@ -25390,7 +25585,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
       <c r="N3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -25398,13 +25593,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>131</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -25460,10 +25655,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H6" s="25">
         <v>100000</v>
@@ -25486,7 +25681,7 @@
     <row r="7" spans="1:23">
       <c r="D7" s="14"/>
       <c r="G7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H7" s="17">
         <v>10000</v>
@@ -25542,10 +25737,10 @@
     <row r="9" spans="1:23">
       <c r="D9" s="14"/>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="28">
@@ -25605,7 +25800,7 @@
     <row r="11" spans="1:23">
       <c r="D11" s="14"/>
       <c r="G11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11" s="17">
         <v>1400</v>
@@ -25648,10 +25843,10 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="30"/>
@@ -25724,21 +25919,21 @@
     </row>
     <row r="2" spans="1:16">
       <c r="C2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -25749,10 +25944,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>190</v>
@@ -25763,7 +25958,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="K4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7">
         <v>44075</v>
@@ -25779,7 +25974,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="C5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -25808,7 +26003,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="C7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
@@ -25822,7 +26017,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="C8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
@@ -25835,7 +26030,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="C9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>190</v>
@@ -25846,7 +26041,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="K11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -25857,7 +26052,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="K12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7">
         <v>44075</v>
@@ -26227,15 +26422,15 @@
   <sheetData>
     <row r="1" spans="1:58">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:58">
       <c r="AC2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:58">
@@ -26248,7 +26443,7 @@
     </row>
     <row r="4" spans="1:58">
       <c r="AC4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:58">
@@ -26271,10 +26466,10 @@
         <v>130</v>
       </c>
       <c r="AC5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AT5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AY5" s="15" t="s">
         <v>29</v>
@@ -26307,16 +26502,16 @@
         <v>44135</v>
       </c>
       <c r="AP6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AQ6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AR6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AT6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AY6" s="15" t="s">
         <v>131</v>
@@ -26409,34 +26604,34 @@
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN7" s="4"/>
       <c r="AO7" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AR7" s="4"/>
       <c r="AT7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AV7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="AX7" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AY7" s="45" t="s">
         <v>132</v>
@@ -26542,13 +26737,13 @@
         <v>17</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>17</v>
@@ -29827,7 +30022,7 @@
     </row>
     <row r="43" spans="1:58">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T43" s="45" t="s">
         <v>132</v>
@@ -31978,7 +32173,7 @@
         <v>158</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -32285,8 +32480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB9DDD6-4367-40DA-B539-5BCDC6CC54BF}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="W9" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -32313,37 +32508,46 @@
   <sheetData>
     <row r="1" spans="1:58">
       <c r="A1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:58">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
         <v>320</v>
       </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
       <c r="AC2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:58">
       <c r="A3" t="s">
         <v>94</v>
       </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
       <c r="J3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:58">
       <c r="AC4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:58">
@@ -32366,10 +32570,10 @@
         <v>130</v>
       </c>
       <c r="AC5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AT5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AY5" s="15" t="s">
         <v>29</v>
@@ -32402,16 +32606,16 @@
         <v>44135</v>
       </c>
       <c r="AP6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AQ6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AR6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AT6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AY6" s="15" t="s">
         <v>131</v>
@@ -32504,34 +32708,34 @@
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN7" s="4"/>
       <c r="AO7" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AR7" s="4"/>
       <c r="AT7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AV7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW7" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AW7" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="AX7" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AY7" s="45" t="s">
         <v>132</v>
@@ -32637,13 +32841,13 @@
         <v>17</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>17</v>
@@ -35174,7 +35378,9 @@
         <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
         <v>59400</v>
       </c>
-      <c r="AS29" s="55"/>
+      <c r="AS29" s="55">
+        <v>209000</v>
+      </c>
       <c r="AT29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -35922,7 +36128,7 @@
     </row>
     <row r="43" spans="1:58">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T43" s="45" t="s">
         <v>132</v>
@@ -38073,7 +38279,7 @@
         <v>158</v>
       </c>
       <c r="H118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -38373,12 +38579,6254 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF1E2F-0693-4B3F-AE4B-01AA9C5AD810}">
+  <dimension ref="A1:BF137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="AC4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
+      <c r="L6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AC6" s="8">
+        <v>44135</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+    </row>
+    <row r="7" spans="1:58">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR7" s="4"/>
+      <c r="AT7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="19.5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="T8" s="45">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>200000</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN8" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY8" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF8" s="27">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>37</v>
+      </c>
+      <c r="R9" s="17">
+        <v>200000</v>
+      </c>
+      <c r="T9" s="46"/>
+      <c r="U9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>30000</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>170000</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83">
+        <v>115600</v>
+      </c>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="85">
+        <f>IF($AU9&gt;0,$AU9,"")</f>
+        <v>115600</v>
+      </c>
+      <c r="AN9" s="86" t="str">
+        <f>IF($AU9&lt;0,-$AU9,"")</f>
+        <v/>
+      </c>
+      <c r="AO9" s="85" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AM9,"")</f>
+        <v/>
+      </c>
+      <c r="AP9" s="87" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AN9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ9" s="87">
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AT9-$AV9&lt;&gt;0,$AT9-$AV9,""),"")</f>
+        <v>115600</v>
+      </c>
+      <c r="AR9" s="88" t="str">
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AW9-$AX9&lt;&gt;0,$AW9-$AX9,""),"")</f>
+        <v/>
+      </c>
+      <c r="AS9" s="55"/>
+      <c r="AT9">
+        <f>IF($AM9="",0,$AM9)</f>
+        <v>115600</v>
+      </c>
+      <c r="AU9" s="63">
+        <f>$AG9-$AH9+$AI9-$AK9</f>
+        <v>115600</v>
+      </c>
+      <c r="AV9">
+        <f>IF($AO9="",0,$AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f>IF($AN9="",0,$AN9)</f>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f>IF($AP9="",0,$AP9)</f>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD9" s="28">
+        <v>30000</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF9" s="28">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T10" s="46"/>
+      <c r="U10" s="5">
+        <v>5</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>90000</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>80000</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90">
+        <v>30000</v>
+      </c>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="91">
+        <v>10000</v>
+      </c>
+      <c r="AL10" s="89">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="87">
+        <f t="shared" ref="AM10:AM27" si="0">IF($AU10&gt;0,$AU10,"")</f>
+        <v>20000</v>
+      </c>
+      <c r="AN10" s="87" t="str">
+        <f t="shared" ref="AN10:AN27" si="1">IF($AU10&lt;0,-$AU10,"")</f>
+        <v/>
+      </c>
+      <c r="AO10" s="87" t="str">
+        <f t="shared" ref="AO10:AO27" si="2">IF(OR($AD10=4,$AD10=5),$AM10,"")</f>
+        <v/>
+      </c>
+      <c r="AP10" s="87" t="str">
+        <f t="shared" ref="AP10:AP27" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ10" s="87">
+        <f t="shared" ref="AQ10:AQ27" si="4">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AT10-$AV10&lt;&gt;0,$AT10-$AV10,""),"")</f>
+        <v>20000</v>
+      </c>
+      <c r="AR10" s="88" t="str">
+        <f t="shared" ref="AR10:AR26" si="5">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AW10-$AX10&lt;&gt;0,$AW10-$AX10,""),"")</f>
+        <v/>
+      </c>
+      <c r="AS10" s="55"/>
+      <c r="AT10">
+        <f t="shared" ref="AT10:AT29" si="6">IF($AM10="",0,$AM10)</f>
+        <v>20000</v>
+      </c>
+      <c r="AU10" s="63">
+        <f t="shared" ref="AU10:AU27" si="7">$AG10-$AH10+$AI10-$AK10</f>
+        <v>20000</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" ref="AV10:AV34" si="8">IF($AO10="",0,$AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" ref="AW10:AW34" si="9">IF($AN10="",0,$AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" ref="AX10:AX34" si="10">IF($AP10="",0,$AP10)</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD10" s="28">
+        <v>90000</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF10" s="28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>3000</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>77000</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90">
+        <v>14000</v>
+      </c>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="87">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="AN11" s="87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO11" s="87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP11" s="87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ11" s="87">
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="AR11" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS11" s="55"/>
+      <c r="AT11">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="AU11" s="63">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD11" s="28">
+        <v>3000</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF11" s="28">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44109</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="17">
+        <v>90000</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>90000</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="5">
+        <v>15</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>97000</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN12" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO12" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP12" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR12" s="95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS12" s="55"/>
+      <c r="AT12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF12" s="28">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="17">
+        <v>90000</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>90000</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="5">
+        <v>16</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" s="17">
+        <v>8000</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>105000</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="97">
+        <v>200000</v>
+      </c>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="98" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN13" s="98">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="AO13" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP13" s="98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ13" s="98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR13" s="99">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="AS13" s="55"/>
+      <c r="AT13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="63">
+        <f>$AG13-$AH13+$AI13-$AK13</f>
+        <v>-200000</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="5">
+        <v>16</v>
+      </c>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC13" s="17">
+        <v>8000</v>
+      </c>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF13" s="28">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44111</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="5">
+        <v>18</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>17000</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>88000</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="103">
+        <v>70000</v>
+      </c>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN14" s="104">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="AO14" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP14" s="104">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="AQ14" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR14" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS14" s="55"/>
+      <c r="AT14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="63">
+        <f t="shared" si="7"/>
+        <v>-70000</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="9"/>
+        <v>70000</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="10"/>
+        <v>70000</v>
+      </c>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="5">
+        <v>18</v>
+      </c>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD14" s="28">
+        <v>17000</v>
+      </c>
+      <c r="BE14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF14" s="28">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15">
+        <v>31</v>
+      </c>
+      <c r="R15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="5">
+        <v>21</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>400</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>87600</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="107">
+        <v>90000</v>
+      </c>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="108">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="AN15" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO15" s="108">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+      <c r="AP15" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR15" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS15" s="55"/>
+      <c r="AT15">
+        <f t="shared" si="6"/>
+        <v>90000</v>
+      </c>
+      <c r="AU15" s="63">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="5">
+        <v>21</v>
+      </c>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD15" s="28">
+        <v>400</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF15" s="28">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44115</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T16" s="59"/>
+      <c r="U16" s="48">
+        <v>31</v>
+      </c>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X16" s="30">
+        <v>28000</v>
+      </c>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>115600</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="113">
+        <v>3000</v>
+      </c>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="114">
+        <v>1800</v>
+      </c>
+      <c r="AL16" s="101">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="104">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="AN16" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO16" s="104">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="AP16" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ16" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR16" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS16" s="55"/>
+      <c r="AT16">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="AU16" s="63">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC16" s="30">
+        <v>28000</v>
+      </c>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF16" s="31">
+        <v>115600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AC17">
+        <v>9</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="107">
+        <v>17000</v>
+      </c>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="110">
+        <v>8000</v>
+      </c>
+      <c r="AJ17" s="54">
+        <v>14</v>
+      </c>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="108">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="AN17" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO17" s="108">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="AP17" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR17" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS17" s="55"/>
+      <c r="AT17">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+      <c r="AU17" s="63">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44119</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="17">
+        <v>20000</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>20000</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="111">
+        <v>400</v>
+      </c>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="108">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AN18" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO18" s="108">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="AP18" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ18" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR18" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS18" s="55"/>
+      <c r="AT18">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="AU18" s="63">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG19" s="62">
+        <f>SUM(AG9:AG18)</f>
+        <v>270000</v>
+      </c>
+      <c r="AH19" s="75">
+        <f>SUM(AH9:AH18)</f>
+        <v>270000</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN19" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO19" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP19" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ19" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR19" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS19" s="55"/>
+      <c r="AT19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="22"/>
+      <c r="AV19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+    </row>
+    <row r="20" spans="1:58">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="O20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20">
+        <v>41</v>
+      </c>
+      <c r="R20" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" s="107">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="108">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AN20" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO20" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="AP20" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR20" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS20" s="55"/>
+      <c r="AT20">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AU20" s="63">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF20" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44120</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T21" s="60">
+        <v>10</v>
+      </c>
+      <c r="U21" s="61">
+        <v>1</v>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61">
+        <v>1</v>
+      </c>
+      <c r="X21" s="30">
+        <v>30000</v>
+      </c>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>30000</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN21" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO21" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP21" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ21" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR21" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS21" s="55"/>
+      <c r="AT21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="22"/>
+      <c r="AV21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="30">
+        <v>30000</v>
+      </c>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF21" s="31">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="R22" s="17">
+        <v>8000</v>
+      </c>
+      <c r="AC22">
+        <v>12</v>
+      </c>
+      <c r="AD22">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AL22" s="106">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="108" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN22" s="108">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO22" s="108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP22" s="108">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="AQ22" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR22" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS22" s="55"/>
+      <c r="AT22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="63">
+        <f>$AG22-$AH22+$AI22-$AK22</f>
+        <v>-1000</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44122</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="17">
+        <v>17000</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>17000</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC23">
+        <v>13</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107">
+        <v>10000</v>
+      </c>
+      <c r="AJ23" s="54">
+        <v>11</v>
+      </c>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="108">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="AN23" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO23" s="108">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="AP23" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ23" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR23" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS23" s="55"/>
+      <c r="AT23">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="AU23" s="63">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="17">
+        <v>17000</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
+        <v>17000</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AC24">
+        <v>14</v>
+      </c>
+      <c r="AD24">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" s="54">
+        <v>13</v>
+      </c>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="108">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AN24" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO24" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="AP24" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ24" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR24" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS24" s="55"/>
+      <c r="AT24">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AU24" s="63">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+    </row>
+    <row r="25" spans="1:58">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44125</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="17">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>400</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC25">
+        <v>15</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107">
+        <v>1800</v>
+      </c>
+      <c r="AJ25" s="54">
+        <v>13</v>
+      </c>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="108">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="AN25" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO25" s="108">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="AP25" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR25" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS25" s="55"/>
+      <c r="AT25">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="AU25" s="63">
+        <f>$AG25-$AH25+$AI25-$AK25</f>
+        <v>1800</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF25" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="17">
+        <v>400</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="17">
+        <v>400</v>
+      </c>
+      <c r="T26" s="45">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4">
+        <v>15</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>10000</v>
+      </c>
+      <c r="AC26">
+        <v>16</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="93">
+        <v>8000</v>
+      </c>
+      <c r="AL26" s="92">
+        <v>14</v>
+      </c>
+      <c r="AM26" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN26" s="94">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="AO26" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP26" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ26" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR26" s="95">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="AS26" s="55"/>
+      <c r="AT26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="63">
+        <f t="shared" si="7"/>
+        <v>-8000</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>15</v>
+      </c>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF26" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="17">
+        <v>28000</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>28000</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y27" s="28">
+        <v>8000</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>2000</v>
+      </c>
+      <c r="AC27">
+        <v>17</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="93">
+        <v>1000</v>
+      </c>
+      <c r="AL27" s="92">
+        <v>15</v>
+      </c>
+      <c r="AM27" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN27" s="95">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO27" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP27" s="95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR27" s="95">
+        <f>IF(OR($AD27=1,$AD27=2,$AD27=3),IF($AW27-$AX27&lt;&gt;0,$AW27-$AX27,""),"")</f>
+        <v>1000</v>
+      </c>
+      <c r="AS27" s="55"/>
+      <c r="AT27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="63">
+        <f t="shared" si="7"/>
+        <v>-1000</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD27" s="28">
+        <v>8000</v>
+      </c>
+      <c r="BE27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF27" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="17">
+        <v>12000</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>12000</v>
+      </c>
+      <c r="T28" s="59"/>
+      <c r="U28" s="48">
+        <v>31</v>
+      </c>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X28" s="30">
+        <v>12000</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA28" s="31">
+        <v>14000</v>
+      </c>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="64">
+        <f>SUM(AI$9:AI$27)</f>
+        <v>21800</v>
+      </c>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="64">
+        <f>SUM(AK$9:AK$27)</f>
+        <v>21800</v>
+      </c>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="64">
+        <f>SUM(AM$9:AM$27)</f>
+        <v>280000</v>
+      </c>
+      <c r="AN28" s="68">
+        <f>SUM(AN$9:AN$27)</f>
+        <v>280000</v>
+      </c>
+      <c r="AO28" s="72">
+        <f>SUM(AO$9:AO$27)</f>
+        <v>130400</v>
+      </c>
+      <c r="AP28" s="72">
+        <f>SUM(AP$9:AP$27)</f>
+        <v>71000</v>
+      </c>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="55"/>
+      <c r="AT28">
+        <f t="shared" si="6"/>
+        <v>280000</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="8"/>
+        <v>130400</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="9"/>
+        <v>280000</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="10"/>
+        <v>71000</v>
+      </c>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC28" s="30">
+        <v>12000</v>
+      </c>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF28" s="31">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="17">
+        <v>40000</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29">
+        <v>41</v>
+      </c>
+      <c r="R29" s="17">
+        <v>40000</v>
+      </c>
+      <c r="AE29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="72">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF($AO$28-$AP$28&gt;0,$AO$28-$AP$28,""))</f>
+        <v>59400</v>
+      </c>
+      <c r="AP29" s="73" t="str">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
+        <v/>
+      </c>
+      <c r="AQ29" s="66" t="str">
+        <f>IF($AP$29&lt;&gt;"",$AP$29,"")</f>
+        <v/>
+      </c>
+      <c r="AR29" s="81">
+        <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
+        <v>59400</v>
+      </c>
+      <c r="AS29" s="55">
+        <v>209000</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="8"/>
+        <v>59400</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
+      <c r="A30" s="3">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="67">
+        <f>IF($AO28="",0,$AO28)-IF($AO29="",0,$AO29)</f>
+        <v>71000</v>
+      </c>
+      <c r="AP30" s="67">
+        <f>IF($AP28="",0,$AP28)-IF($AP29="",0,$AP29)</f>
+        <v>71000</v>
+      </c>
+      <c r="AQ30" s="67">
+        <f>SUM(AQ$9:AQ$29)</f>
+        <v>149600</v>
+      </c>
+      <c r="AR30" s="70">
+        <f>SUM(AR$9:AR$29)</f>
+        <v>268400</v>
+      </c>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="5"/>
+      <c r="AV30">
+        <f t="shared" si="8"/>
+        <v>71000</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="10"/>
+        <v>71000</v>
+      </c>
+      <c r="AY30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="R31" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AV31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+    </row>
+    <row r="32" spans="1:58">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF32" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33">
+        <v>59</v>
+      </c>
+      <c r="R33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="45">
+        <v>10</v>
+      </c>
+      <c r="U33" s="4">
+        <v>5</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="28">
+        <v>3000</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>3000</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="28">
+        <v>3000</v>
+      </c>
+      <c r="BE33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF33" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="T34" s="59"/>
+      <c r="U34" s="48">
+        <v>11</v>
+      </c>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="48">
+        <v>11</v>
+      </c>
+      <c r="BA34" s="48"/>
+      <c r="BB34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="E35" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1800</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="O35" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35">
+        <v>25</v>
+      </c>
+      <c r="R35" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37">
+        <v>33</v>
+      </c>
+      <c r="R37" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AY37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+    </row>
+    <row r="38" spans="1:58">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF38" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="O39" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="P39">
+        <v>35</v>
+      </c>
+      <c r="R39" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T39" s="60">
+        <v>10</v>
+      </c>
+      <c r="U39" s="61">
+        <v>31</v>
+      </c>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61">
+        <v>1</v>
+      </c>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="28">
+        <v>8000</v>
+      </c>
+      <c r="Z39" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>8000</v>
+      </c>
+      <c r="AY39" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ39" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="31">
+        <v>80000</v>
+      </c>
+      <c r="BE39" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF39" s="28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58">
+      <c r="T41" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY41" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58">
+      <c r="T42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AY42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+    </row>
+    <row r="43" spans="1:58">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="T43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y43" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD43" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58">
+      <c r="T44" s="60">
+        <v>10</v>
+      </c>
+      <c r="U44" s="61">
+        <v>31</v>
+      </c>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61">
+        <v>1</v>
+      </c>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="31">
+        <v>1000</v>
+      </c>
+      <c r="Z44" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA44" s="28">
+        <v>1000</v>
+      </c>
+      <c r="AY44" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ44" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA44" s="61"/>
+      <c r="BB44" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="30"/>
+      <c r="BD44" s="31">
+        <v>10000</v>
+      </c>
+      <c r="BE44" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF44" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58">
+      <c r="C49" s="7">
+        <v>44105</v>
+      </c>
+      <c r="D49" s="25">
+        <v>200000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="T49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AY49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+    </row>
+    <row r="50" spans="1:58">
+      <c r="E50" s="5"/>
+      <c r="F50" s="8">
+        <v>44105</v>
+      </c>
+      <c r="G50" s="17">
+        <v>30000</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="T50" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y50" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY50" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD50" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58">
+      <c r="E51" s="5"/>
+      <c r="F51" s="8">
+        <v>44109</v>
+      </c>
+      <c r="G51" s="17">
+        <v>90000</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="T51" s="60">
+        <v>10</v>
+      </c>
+      <c r="U51" s="61">
+        <v>1</v>
+      </c>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61">
+        <v>1</v>
+      </c>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="31">
+        <v>200000</v>
+      </c>
+      <c r="Z51" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA51" s="33">
+        <v>200000</v>
+      </c>
+      <c r="AY51" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ51" s="61">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="31">
+        <v>200000</v>
+      </c>
+      <c r="BE51" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF51" s="33">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58">
+      <c r="E52" s="5"/>
+      <c r="F52" s="8">
+        <v>44115</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
+      <c r="C53" s="8">
+        <v>44119</v>
+      </c>
+      <c r="D53" s="17">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>6</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58">
+      <c r="C54" s="8">
+        <v>44120</v>
+      </c>
+      <c r="D54" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>7</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AY54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+    </row>
+    <row r="55" spans="1:58">
+      <c r="E55" s="5"/>
+      <c r="F55" s="8">
+        <v>44122</v>
+      </c>
+      <c r="G55" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="T55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y55" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD55" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
+      <c r="E56" s="5"/>
+      <c r="F56" s="8">
+        <v>44125</v>
+      </c>
+      <c r="G56" s="17">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="T56" s="45">
+        <v>10</v>
+      </c>
+      <c r="U56" s="4">
+        <v>15</v>
+      </c>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4">
+        <v>1</v>
+      </c>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17">
+        <v>30000</v>
+      </c>
+      <c r="Z56" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA56" s="27">
+        <v>30000</v>
+      </c>
+      <c r="AY56" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ56" s="4">
+        <v>15</v>
+      </c>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="17"/>
+      <c r="BD56" s="17">
+        <v>30000</v>
+      </c>
+      <c r="BE56" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF56" s="27">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58">
+      <c r="C57" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D57" s="17">
+        <v>28000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29">
+        <v>31</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="30">
+        <v>40000</v>
+      </c>
+      <c r="Z57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA57" s="47">
+        <v>70000</v>
+      </c>
+      <c r="AY57" s="29"/>
+      <c r="AZ57" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA57" s="29"/>
+      <c r="BB57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC57" s="29"/>
+      <c r="BD57" s="30">
+        <v>40000</v>
+      </c>
+      <c r="BE57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF57" s="47">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58">
+      <c r="C60" s="7">
+        <v>44105</v>
+      </c>
+      <c r="D60" s="25">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G60" s="25">
+        <v>10000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>11</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AY60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+    </row>
+    <row r="61" spans="1:58">
+      <c r="T61" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y61" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY61" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD61" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF61" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T62" s="60">
+        <v>10</v>
+      </c>
+      <c r="U62" s="61">
+        <v>5</v>
+      </c>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61">
+        <v>1</v>
+      </c>
+      <c r="X62" s="30">
+        <v>90000</v>
+      </c>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA62" s="33">
+        <v>90000</v>
+      </c>
+      <c r="AY62" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ62" s="61">
+        <v>5</v>
+      </c>
+      <c r="BA62" s="61"/>
+      <c r="BB62" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC62" s="30">
+        <v>90000</v>
+      </c>
+      <c r="BD62" s="31"/>
+      <c r="BE62" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF62" s="33">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58">
+      <c r="C63" s="7">
+        <v>44119</v>
+      </c>
+      <c r="D63" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6</v>
+      </c>
+      <c r="F63" s="7">
+        <v>44120</v>
+      </c>
+      <c r="G63" s="25">
+        <v>8000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58">
+      <c r="C64" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D64" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>10</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
+      <c r="T65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AY65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="3"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+    </row>
+    <row r="66" spans="1:58">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="T66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y66" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD66" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF66" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7">
+        <v>44111</v>
+      </c>
+      <c r="G67" s="25">
+        <v>3000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="T67" s="45">
+        <v>10</v>
+      </c>
+      <c r="U67" s="4">
+        <v>7</v>
+      </c>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="17">
+        <v>3000</v>
+      </c>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA67" s="27">
+        <v>3000</v>
+      </c>
+      <c r="AY67" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ67" s="4">
+        <v>7</v>
+      </c>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC67" s="17">
+        <v>3000</v>
+      </c>
+      <c r="BD67" s="28"/>
+      <c r="BE67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF67" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
+      <c r="C68" s="8">
+        <v>44115</v>
+      </c>
+      <c r="D68" s="17">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>5</v>
+      </c>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29">
+        <v>31</v>
+      </c>
+      <c r="V68" s="29"/>
+      <c r="W68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X68" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA68" s="31">
+        <v>4800</v>
+      </c>
+      <c r="AY68" s="29"/>
+      <c r="AZ68" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA68" s="29"/>
+      <c r="BB68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC68" s="30">
+        <v>1800</v>
+      </c>
+      <c r="BD68" s="11"/>
+      <c r="BE68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF68" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BC70" s="3"/>
+      <c r="BD70" s="3"/>
+      <c r="BE70" s="3"/>
+      <c r="BF70" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G71" s="25">
+        <v>8000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>14</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AY71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ71" s="4"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="3"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="4"/>
+      <c r="BF71" s="4"/>
+    </row>
+    <row r="72" spans="1:58">
+      <c r="T72" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y72" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY72" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD72" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF72" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="T73" s="45">
+        <v>10</v>
+      </c>
+      <c r="U73" s="4">
+        <v>18</v>
+      </c>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="17">
+        <v>17000</v>
+      </c>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA73" s="27">
+        <v>17000</v>
+      </c>
+      <c r="AY73" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ73" s="4">
+        <v>18</v>
+      </c>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC73" s="17">
+        <v>17000</v>
+      </c>
+      <c r="BD73" s="28"/>
+      <c r="BE73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF73" s="27">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G74" s="25">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>15</v>
+      </c>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29">
+        <v>31</v>
+      </c>
+      <c r="V74" s="29"/>
+      <c r="W74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X74" s="30">
+        <v>8000</v>
+      </c>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA74" s="31">
+        <v>25000</v>
+      </c>
+      <c r="AY74" s="29"/>
+      <c r="AZ74" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA74" s="29"/>
+      <c r="BB74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC74" s="30">
+        <v>80000</v>
+      </c>
+      <c r="BD74" s="11"/>
+      <c r="BE74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF74" s="31">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ76" s="3"/>
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
+      <c r="BC76" s="3"/>
+      <c r="BD76" s="3"/>
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="7">
+        <v>44105</v>
+      </c>
+      <c r="G77" s="25">
+        <v>200000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AY77" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ77" s="4"/>
+      <c r="BA77" s="4"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="3"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="4"/>
+      <c r="BF77" s="4"/>
+    </row>
+    <row r="78" spans="1:58">
+      <c r="T78" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y78" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA78" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY78" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD78" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF78" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="T79" s="60">
+        <v>10</v>
+      </c>
+      <c r="U79" s="61">
+        <v>21</v>
+      </c>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61">
+        <v>1</v>
+      </c>
+      <c r="X79" s="30">
+        <v>400</v>
+      </c>
+      <c r="Y79" s="31"/>
+      <c r="Z79" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA79" s="31">
+        <v>400</v>
+      </c>
+      <c r="AY79" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ79" s="61">
+        <v>21</v>
+      </c>
+      <c r="BA79" s="61"/>
+      <c r="BB79" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC79" s="30">
+        <v>400</v>
+      </c>
+      <c r="BD79" s="31"/>
+      <c r="BE79" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF79" s="31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="7">
+        <v>44119</v>
+      </c>
+      <c r="G80" s="25">
+        <v>30000</v>
+      </c>
+      <c r="H80" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58">
+      <c r="E81" s="5"/>
+      <c r="F81" s="8">
+        <v>44135</v>
+      </c>
+      <c r="G81" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="T81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58">
+      <c r="T82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AY82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ82" s="4"/>
+      <c r="BA82" s="4"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="4"/>
+      <c r="BF82" s="4"/>
+    </row>
+    <row r="83" spans="1:58">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="T83" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X83" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA83" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY83" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC83" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF83" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58">
+      <c r="C84" s="7">
+        <v>44109</v>
+      </c>
+      <c r="D84" s="25">
+        <v>90000</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="T84" s="60">
+        <v>10</v>
+      </c>
+      <c r="U84" s="61">
+        <v>18</v>
+      </c>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61">
+        <v>1</v>
+      </c>
+      <c r="X84" s="30">
+        <v>17000</v>
+      </c>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA84" s="31">
+        <v>17000</v>
+      </c>
+      <c r="AY84" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ84" s="61">
+        <v>18</v>
+      </c>
+      <c r="BA84" s="61"/>
+      <c r="BB84" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC84" s="30">
+        <v>17000</v>
+      </c>
+      <c r="BD84" s="31"/>
+      <c r="BE84" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF84" s="31">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="T86" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY86" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+      <c r="BD86" s="3"/>
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58">
+      <c r="C87" s="7">
+        <v>44111</v>
+      </c>
+      <c r="D87" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="F87" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G87" s="25">
+        <v>1800</v>
+      </c>
+      <c r="H87" s="3">
+        <v>13</v>
+      </c>
+      <c r="T87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AY87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ87" s="4"/>
+      <c r="BA87" s="4"/>
+      <c r="BB87" s="4"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="4"/>
+      <c r="BE87" s="4"/>
+      <c r="BF87" s="4"/>
+    </row>
+    <row r="88" spans="1:58">
+      <c r="T88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y88" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA88" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD88" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF88" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T89" s="60">
+        <v>10</v>
+      </c>
+      <c r="U89" s="61">
+        <v>31</v>
+      </c>
+      <c r="V89" s="61"/>
+      <c r="W89" s="61">
+        <v>1</v>
+      </c>
+      <c r="X89" s="30">
+        <v>1000</v>
+      </c>
+      <c r="Y89" s="31"/>
+      <c r="Z89" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA89" s="31">
+        <v>1000</v>
+      </c>
+      <c r="AY89" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ89" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA89" s="61"/>
+      <c r="BB89" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC89" s="30">
+        <v>1000</v>
+      </c>
+      <c r="BD89" s="31"/>
+      <c r="BE89" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF89" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58">
+      <c r="C90" s="7">
+        <v>44122</v>
+      </c>
+      <c r="D90" s="25">
+        <v>17000</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:58">
+      <c r="C91" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D91" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E91" s="5">
+        <v>14</v>
+      </c>
+      <c r="T91" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY91" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58">
+      <c r="T92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AY92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ92" s="4"/>
+      <c r="BA92" s="4"/>
+      <c r="BB92" s="4"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="4"/>
+      <c r="BE92" s="4"/>
+      <c r="BF92" s="4"/>
+    </row>
+    <row r="93" spans="1:58">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="T93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y93" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA93" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD93" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF93" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58">
+      <c r="C94" s="7">
+        <v>44125</v>
+      </c>
+      <c r="D94" s="25">
+        <v>400</v>
+      </c>
+      <c r="E94" s="4">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="T94" s="60">
+        <v>10</v>
+      </c>
+      <c r="U94" s="61">
+        <v>31</v>
+      </c>
+      <c r="V94" s="61"/>
+      <c r="W94" s="61">
+        <v>1</v>
+      </c>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="Z94" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="AY94" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ94" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA94" s="61"/>
+      <c r="BB94" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC94" s="30"/>
+      <c r="BD94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="BE94" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF94" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="T96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58">
+      <c r="C97" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D97" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E97" s="4">
+        <v>11</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="T97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AY97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ97" s="4"/>
+      <c r="BA97" s="4"/>
+      <c r="BB97" s="4"/>
+      <c r="BC97" s="3"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="4"/>
+      <c r="BF97" s="4"/>
+    </row>
+    <row r="98" spans="1:58">
+      <c r="T98" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X98" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY98" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA98" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC98" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE98" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF98" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="T99" s="60">
+        <v>10</v>
+      </c>
+      <c r="U99" s="61">
+        <v>31</v>
+      </c>
+      <c r="V99" s="61"/>
+      <c r="W99" s="61">
+        <v>61</v>
+      </c>
+      <c r="X99" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Y99" s="31"/>
+      <c r="Z99" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA99" s="33">
+        <v>1800</v>
+      </c>
+      <c r="AY99" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ99" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA99" s="61"/>
+      <c r="BB99" s="61">
+        <v>61</v>
+      </c>
+      <c r="BC99" s="30">
+        <v>1800</v>
+      </c>
+      <c r="BD99" s="31"/>
+      <c r="BE99" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF99" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58">
+      <c r="C100" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D100" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="4">
+        <v>12</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="102" spans="1:58">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" s="54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G103" s="25">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:58">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:58">
+      <c r="C106" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D106" s="25">
+        <v>1800</v>
+      </c>
+      <c r="E106" s="4">
+        <v>13</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="108" spans="1:58">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:58">
+      <c r="C109" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D109" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E109" s="4">
+        <v>15</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="C118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="51">
+        <v>115600</v>
+      </c>
+      <c r="E120" s="51"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="51">
+        <v>20000</v>
+      </c>
+      <c r="E121" s="51"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="51">
+        <v>14000</v>
+      </c>
+      <c r="E122" s="51"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="51">
+        <v>0</v>
+      </c>
+      <c r="E123" s="51"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" s="51">
+        <v>90000</v>
+      </c>
+      <c r="E128" s="51"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>10</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="51">
+        <v>1200</v>
+      </c>
+      <c r="E129" s="51"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="51">
+        <v>25000</v>
+      </c>
+      <c r="E130" s="51"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="51">
+        <v>400</v>
+      </c>
+      <c r="E131" s="51"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" s="51">
+        <v>10000</v>
+      </c>
+      <c r="E132" s="51"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E133" s="51"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="51">
+        <v>1800</v>
+      </c>
+      <c r="E135" s="51"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>17</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E136" s="51"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="C137" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="51">
+        <f>SUM(D120:D136)</f>
+        <v>280000</v>
+      </c>
+      <c r="E137" s="51">
+        <f>SUM(E120:E136)</f>
+        <v>280000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0"/>
+  <protectedRanges>
+    <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5EB354-CEB0-44A7-98D8-64C8EAE59E97}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
+        <v>44135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>30800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10D647F-35CF-4363-891F-4B3A49A80A77}">
   <dimension ref="B1"/>
   <sheetViews>
@@ -38393,7 +44841,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -38402,26 +44850,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377584E2-A20F-49DC-B5DD-950BCC48F6A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="H1" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1251F-2DEA-4D8B-B6C4-93FEE7CE4C4D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38433,34 +44891,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F340848-6CEB-41E6-B25C-51C581ED9FFB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1204C-E6B9-4847-8D0D-ABC818AD98E6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38659,6 +45091,32 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1204C-E6B9-4847-8D0D-ABC818AD98E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35AD1AA-8E33-4D20-A6C4-8F727731DFD9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38670,7 +45128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C81083-A4E6-4AA2-966B-0E20DA8087EC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38682,7 +45140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC0246-4849-4C29-AF56-26E0AEC16E34}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11492" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92B1BE6C-CE48-4D24-AAD2-E109C5E922AC}"/>
+  <xr:revisionPtr revIDLastSave="11662" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88A6F85-0379-400A-8786-676CC8008C73}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="43" activeTab="63" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,6 +185,9 @@
     <author>tc={1451D451-CFAA-4007-83AE-B4F5D0AD411B}</author>
     <author>tc={ABE2E7D7-EB46-4F0A-B9FB-33BC587A6063}</author>
     <author>tc={2B64A37F-A65D-4470-BF11-B95FB13261DB}</author>
+    <author>tc={B7A44D5C-E6C9-469A-9885-E630D2D0D089}</author>
+    <author>tc={16CF95BD-9F68-4B88-A993-5745082502DD}</author>
+    <author>tc={3262E0BF-B96D-4AF5-A9AD-CC02E3EDCE96}</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
@@ -198,7 +201,20 @@
 Reply:
     再次更正
 Reply:
-    跟A5-3(2)不一樣，我將累積折舊列為負債</t>
+    跟A5-3(2)不一樣，我將累積折舊列為負債
+Reply:
+    這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)
+Reply:
+    微小細節調整，合併儲存格和調整列寬。
+Reply:
+    微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。
+Reply:
+    K49的是用公式算，則J120的就只是複製並貼上K49數值。
+Reply:
+    主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。
+Reply:
+    細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
+用excel公式跟原本的小表格計算其相等性。</t>
       </text>
     </comment>
     <comment ref="E2" authorId="1" shapeId="0" xr:uid="{1451D451-CFAA-4007-83AE-B4F5D0AD411B}">
@@ -226,6 +242,32 @@
     對題目A4-3，我的答案。
 Reply:
     從A30到G39。</t>
+      </text>
+    </comment>
+    <comment ref="A114" authorId="4" shapeId="0" xr:uid="{B7A44D5C-E6C9-469A-9885-E630D2D0D089}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</t>
+      </text>
+    </comment>
+    <comment ref="K114" authorId="5" shapeId="0" xr:uid="{16CF95BD-9F68-4B88-A993-5745082502DD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據I120的cell，並用excel的公式計算。</t>
+      </text>
+    </comment>
+    <comment ref="H118" authorId="6" shapeId="0" xr:uid="{3262E0BF-B96D-4AF5-A9AD-CC02E3EDCE96}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    原本的文字內容：T字形科目金額總計(只貼上值)
+Reply:
+    打算訂這樣但因為字元太長。</t>
       </text>
     </comment>
   </commentList>
@@ -267,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="333">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1238,6 +1280,24 @@
     <t>A4-3題目和解答</t>
   </si>
   <si>
+    <t>T字形科目金額總計</t>
+  </si>
+  <si>
+    <t>科目金額總計</t>
+  </si>
+  <si>
+    <t>試算表(數值版)</t>
+  </si>
+  <si>
+    <t>試算表(公式版)</t>
+  </si>
+  <si>
+    <t>相同</t>
+  </si>
+  <si>
+    <t>數值</t>
+  </si>
+  <si>
     <t>結帳分錄和過帳</t>
   </si>
   <si>
@@ -1591,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1709,6 +1769,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2399,6 +2471,25 @@
   <threadedComment ref="A2" dT="2024-02-03T18:18:56.70" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6C205B26-3855-49B9-8995-1CE80BCB42B6}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
     <text>跟A5-3(2)不一樣，我將累積折舊列為負債</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:19:42.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D8FB1711-06D1-44D4-B3B4-EE0353839A31}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:29:58.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{FE5D0B41-08BE-4A2F-8134-1534481056A9}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>微小細節調整，合併儲存格和調整列寬。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:49:25.52" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{56327A2F-D194-45B1-901C-D23618F8710B}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:50:19.93" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CF97F40E-AE0F-4DA6-9C40-5A687DD7A0A5}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>K49的是用公式算，則J120的就只是複製並貼上K49數值。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T19:05:58.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0E9C7AB0-C15C-4ECC-9C90-70A7A473C8EC}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T19:08:43.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E6B362F5-1FB2-42DA-A07A-691AA64651DA}" parentId="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
+    <text>細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
+用excel公式跟原本的小表格計算其相等性。</text>
+  </threadedComment>
   <threadedComment ref="E2" dT="2024-02-03T10:08:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1451D451-CFAA-4007-83AE-B4F5D0AD411B}">
     <text>A3-3題目和解答，詳見"A3-3題目和解答"工作表。</text>
   </threadedComment>
@@ -2411,6 +2502,18 @@
   </threadedComment>
   <threadedComment ref="A30" dT="2024-02-03T09:44:52.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{498972CE-A988-4175-A435-BF010757FFCD}" parentId="{2B64A37F-A65D-4470-BF11-B95FB13261DB}">
     <text>從A30到G39。</text>
+  </threadedComment>
+  <threadedComment ref="A114" dT="2024-02-03T18:58:36.43" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B7A44D5C-E6C9-469A-9885-E630D2D0D089}">
+    <text>根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</text>
+  </threadedComment>
+  <threadedComment ref="K114" dT="2024-02-03T18:57:12.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{16CF95BD-9F68-4B88-A993-5745082502DD}">
+    <text>根據I120的cell，並用excel的公式計算。</text>
+  </threadedComment>
+  <threadedComment ref="H118" dT="2024-02-03T18:46:00.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3262E0BF-B96D-4AF5-A9AD-CC02E3EDCE96}">
+    <text>原本的文字內容：T字形科目金額總計(只貼上值)</text>
+  </threadedComment>
+  <threadedComment ref="H118" dT="2024-02-03T18:46:28.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D1A72220-FFE8-4066-8E45-FCC9411847AC}" parentId="{3262E0BF-B96D-4AF5-A9AD-CC02E3EDCE96}">
+    <text>打算訂這樣但因為字元太長。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -38587,8 +38690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF1E2F-0693-4B3F-AE4B-01AA9C5AD810}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N124" workbookViewId="0">
+      <selection activeCell="X120" sqref="X120:X137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -38597,14 +38700,24 @@
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.75" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.75" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="18.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="8.875" bestFit="1" customWidth="1"/>
@@ -38810,28 +38923,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="3" t="s">
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="3" t="s">
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="117"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="3" t="s">
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="115" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="3" t="s">
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="115" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="4"/>
+      <c r="AR7" s="116"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -38932,12 +39045,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="45" t="s">
+      <c r="AE8" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="AF8" s="116"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -39216,7 +39327,7 @@
         <v/>
       </c>
       <c r="AP10" s="87" t="str">
-        <f t="shared" ref="AP10:AP27" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
+        <f t="shared" ref="AP10:AR27" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
         <v/>
       </c>
       <c r="AQ10" s="87">
@@ -40630,43 +40741,40 @@
       <c r="AD22">
         <v>5</v>
       </c>
-      <c r="AE22" s="80" t="s">
+      <c r="AE22" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="107">
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="93">
         <v>1000</v>
       </c>
-      <c r="AL22" s="106">
+      <c r="AL22" s="92">
         <v>12</v>
       </c>
-      <c r="AM22" s="108" t="str">
+      <c r="AM22" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="108">
+      <c r="AN22" s="94">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="108" t="str">
+      <c r="AO22" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="108">
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR22" s="94">
         <f t="shared" si="3"/>
         <v>1000</v>
-      </c>
-      <c r="AQ22" s="108" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AR22" s="109" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
       <c r="AS22" s="55"/>
       <c r="AT22">
@@ -40686,7 +40794,7 @@
         <v>1000</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="10"/>
+        <f>IF($AR22="",0,$AR22)</f>
         <v>1000</v>
       </c>
     </row>
@@ -41401,7 +41509,7 @@
       </c>
       <c r="AP28" s="72">
         <f>SUM(AP$9:AP$27)</f>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="AR28" s="5"/>
       <c r="AS28" s="55"/>
@@ -41419,7 +41527,7 @@
       </c>
       <c r="AX28">
         <f t="shared" si="10"/>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="AY28" s="59"/>
       <c r="AZ28" s="48">
@@ -41471,7 +41579,7 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="72">
         <f>IF(OR($AO$28="",$AP$28=""),"",IF($AO$28-$AP$28&gt;0,$AO$28-$AP$28,""))</f>
-        <v>59400</v>
+        <v>60400</v>
       </c>
       <c r="AP29" s="73" t="str">
         <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
@@ -41483,7 +41591,7 @@
       </c>
       <c r="AR29" s="81">
         <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
-        <v>59400</v>
+        <v>60400</v>
       </c>
       <c r="AS29" s="55">
         <v>209000</v>
@@ -41494,7 +41602,7 @@
       </c>
       <c r="AV29">
         <f t="shared" si="8"/>
-        <v>59400</v>
+        <v>60400</v>
       </c>
       <c r="AW29">
         <f t="shared" si="9"/>
@@ -41565,11 +41673,11 @@
       <c r="AN30" s="48"/>
       <c r="AO30" s="67">
         <f>IF($AO28="",0,$AO28)-IF($AO29="",0,$AO29)</f>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="AP30" s="67">
         <f>IF($AP28="",0,$AP28)-IF($AP29="",0,$AP29)</f>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="AQ30" s="67">
         <f>SUM(AQ$9:AQ$29)</f>
@@ -41577,13 +41685,13 @@
       </c>
       <c r="AR30" s="70">
         <f>SUM(AR$9:AR$29)</f>
-        <v>268400</v>
+        <v>270400</v>
       </c>
       <c r="AS30" s="69"/>
       <c r="AT30" s="5"/>
       <c r="AV30">
         <f t="shared" si="8"/>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="AW30">
         <f t="shared" si="9"/>
@@ -41591,7 +41699,7 @@
       </c>
       <c r="AX30">
         <f t="shared" si="10"/>
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="AY30" s="15" t="s">
         <v>145</v>
@@ -41760,7 +41868,7 @@
       <c r="A33">
         <v>12</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="49" t="s">
         <v>243</v>
       </c>
       <c r="G33" s="17">
@@ -41769,7 +41877,7 @@
       <c r="J33">
         <v>12</v>
       </c>
-      <c r="O33" s="54" t="s">
+      <c r="O33" s="49" t="s">
         <v>243</v>
       </c>
       <c r="P33">
@@ -42340,6 +42448,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
+      <c r="J47" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" s="118"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -42350,6 +42462,12 @@
       </c>
       <c r="C48" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
       </c>
       <c r="T48" s="15" t="s">
         <v>38</v>
@@ -42389,6 +42507,13 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="51">
+        <f>SUM(D49:D57)-SUM(G49:G57)</f>
+        <v>115600</v>
+      </c>
       <c r="T49" s="15" t="s">
         <v>131</v>
       </c>
@@ -42421,6 +42546,13 @@
       <c r="H50">
         <v>2</v>
       </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" s="51">
+        <f>SUM(D60)-SUM(G60)</f>
+        <v>20000</v>
+      </c>
       <c r="T50" s="45" t="s">
         <v>132</v>
       </c>
@@ -42481,6 +42613,13 @@
       <c r="H51">
         <v>3</v>
       </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" s="51">
+        <f>SUM(D63:D64)-SUM(G63:G64)</f>
+        <v>14000</v>
+      </c>
       <c r="T51" s="60">
         <v>10</v>
       </c>
@@ -42533,6 +42672,13 @@
       <c r="H52">
         <v>5</v>
       </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52" s="51">
+        <f>SUM(D67:D68)-SUM(G67:G68)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:58">
       <c r="C53" s="8">
@@ -42543,6 +42689,13 @@
       </c>
       <c r="E53" s="5">
         <v>6</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" s="51">
+        <f>SUM(D71)-SUM(G71)</f>
+        <v>-8000</v>
       </c>
       <c r="T53" s="15" t="s">
         <v>148</v>
@@ -42578,6 +42731,13 @@
       </c>
       <c r="E54" s="5">
         <v>7</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54" s="51">
+        <f>SUM(D74)-SUM(G74)</f>
+        <v>-1000</v>
       </c>
       <c r="T54" s="15" t="s">
         <v>131</v>
@@ -42611,6 +42771,13 @@
       <c r="H55">
         <v>8</v>
       </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55" s="51">
+        <f>SUM(D77)-SUM(G77)</f>
+        <v>-200000</v>
+      </c>
       <c r="T55" s="45" t="s">
         <v>132</v>
       </c>
@@ -42671,6 +42838,13 @@
       <c r="H56">
         <v>9</v>
       </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" s="51">
+        <f>SUM(D80:D81)-SUM(G80:G81)</f>
+        <v>-70000</v>
+      </c>
       <c r="T56" s="45">
         <v>10</v>
       </c>
@@ -42722,6 +42896,13 @@
       <c r="E57" s="5">
         <v>10</v>
       </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57" s="51">
+        <f>SUM(D84)-SUM(G84)</f>
+        <v>90000</v>
+      </c>
       <c r="T57" s="29"/>
       <c r="U57" s="29">
         <v>31</v>
@@ -42759,6 +42940,15 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="58" spans="1:58">
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" s="51">
+        <f>SUM(D87)-SUM(G87)</f>
+        <v>1200</v>
+      </c>
+    </row>
     <row r="59" spans="1:58">
       <c r="A59">
         <v>2</v>
@@ -42768,6 +42958,13 @@
       </c>
       <c r="C59" s="6" t="s">
         <v>119</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59" s="51">
+        <f>SUM(D90:D91)-SUM(G90:G91)</f>
+        <v>25000</v>
       </c>
       <c r="T59" s="15" t="s">
         <v>143</v>
@@ -42812,6 +43009,13 @@
       </c>
       <c r="H60" s="3">
         <v>11</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60" s="51">
+        <f>SUM(D94)-SUM(G94)</f>
+        <v>400</v>
       </c>
       <c r="T60" s="15" t="s">
         <v>131</v>
@@ -42835,6 +43039,13 @@
       <c r="BF60" s="4"/>
     </row>
     <row r="61" spans="1:58">
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61" s="51">
+        <f>SUM(D97)-SUM(G97)</f>
+        <v>10000</v>
+      </c>
       <c r="T61" s="45" t="s">
         <v>132</v>
       </c>
@@ -42894,6 +43105,13 @@
       <c r="C62" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62" s="51">
+        <f>SUM(D100)-SUM(G100)</f>
+        <v>1000</v>
+      </c>
       <c r="T62" s="60">
         <v>10</v>
       </c>
@@ -42954,6 +43172,13 @@
       <c r="H63" s="3">
         <v>7</v>
       </c>
+      <c r="J63">
+        <v>15</v>
+      </c>
+      <c r="K63" s="51">
+        <f>SUM(D103)-SUM(G103)</f>
+        <v>-1000</v>
+      </c>
     </row>
     <row r="64" spans="1:58">
       <c r="C64" s="8">
@@ -42964,6 +43189,13 @@
       </c>
       <c r="E64" s="5">
         <v>10</v>
+      </c>
+      <c r="J64">
+        <v>16</v>
+      </c>
+      <c r="K64" s="51">
+        <f>SUM(D106)-SUM(G106)</f>
+        <v>1800</v>
       </c>
       <c r="T64" s="15" t="s">
         <v>144</v>
@@ -42991,6 +43223,13 @@
       </c>
     </row>
     <row r="65" spans="1:58">
+      <c r="J65">
+        <v>17</v>
+      </c>
+      <c r="K65" s="51">
+        <f>SUM(D109)-SUM(G109)</f>
+        <v>1000</v>
+      </c>
       <c r="T65" s="15" t="s">
         <v>131</v>
       </c>
@@ -43022,6 +43261,13 @@
       <c r="C66" s="49" t="s">
         <v>145</v>
       </c>
+      <c r="J66" t="s">
+        <v>107</v>
+      </c>
+      <c r="K66" s="17">
+        <f>SUM(K49:K65)</f>
+        <v>0</v>
+      </c>
       <c r="T66" s="45" t="s">
         <v>132</v>
       </c>
@@ -43350,7 +43596,7 @@
         <v>44135</v>
       </c>
       <c r="G74" s="25">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="H74" s="3">
         <v>15</v>
@@ -44296,9 +44542,9 @@
         <v>15</v>
       </c>
       <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="C102" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="49" t="s">
         <v>243</v>
       </c>
     </row>
@@ -44366,30 +44612,59 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+    <row r="114" spans="1:24">
+      <c r="A114" s="118" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" s="118"/>
+      <c r="K114" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="L114" s="118"/>
+    </row>
+    <row r="116" spans="1:24">
       <c r="C116" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="M116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="C117" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="M117" t="s">
+        <v>108</v>
+      </c>
+      <c r="W117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="H118" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="I118" s="118"/>
+      <c r="M118" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q118" s="118" t="s">
+        <v>325</v>
+      </c>
+      <c r="R118" s="118"/>
+      <c r="T118" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="U118" s="118"/>
+      <c r="W118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -44406,13 +44681,46 @@
         <v>19</v>
       </c>
       <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>324</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
+        <v>95</v>
+      </c>
+      <c r="M119" t="s">
+        <v>96</v>
+      </c>
+      <c r="N119" t="s">
         <v>17</v>
       </c>
-      <c r="I119" t="s">
+      <c r="O119" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="Q119" t="s">
+        <v>17</v>
+      </c>
+      <c r="R119" t="s">
+        <v>19</v>
+      </c>
+      <c r="T119" t="s">
+        <v>17</v>
+      </c>
+      <c r="U119" t="s">
+        <v>19</v>
+      </c>
+      <c r="W119" t="s">
+        <v>17</v>
+      </c>
+      <c r="X119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120">
         <v>1</v>
       </c>
@@ -44426,8 +44734,55 @@
         <v>115600</v>
       </c>
       <c r="E120" s="51"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>115600</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" s="55">
+        <f>IF($I120&gt;0,$I120,"")</f>
+        <v>115600</v>
+      </c>
+      <c r="O120" s="55" t="str">
+        <f>IF(-$I120&gt;0,-$I120,"")</f>
+        <v/>
+      </c>
+      <c r="Q120">
+        <f>IF(D120&lt;&gt;"",D120,0)</f>
+        <v>115600</v>
+      </c>
+      <c r="R120">
+        <f>IF(E120&lt;&gt;"",E120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <f>IF(N120&lt;&gt;"",N120,0)</f>
+        <v>115600</v>
+      </c>
+      <c r="U120">
+        <f>IF(O120&lt;&gt;"",O120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W120" t="b">
+        <f>IF(Q120=T120,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X120" t="b">
+        <f>IF(R120=U120,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121">
         <v>2</v>
       </c>
@@ -44441,8 +44796,55 @@
         <v>20000</v>
       </c>
       <c r="E121" s="51"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>20000</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N121" s="55">
+        <f t="shared" ref="N121:N136" si="11">IF($I121&gt;0,$I121,"")</f>
+        <v>20000</v>
+      </c>
+      <c r="O121" s="55" t="str">
+        <f t="shared" ref="O121:O136" si="12">IF(-$I121&gt;0,-$I121,"")</f>
+        <v/>
+      </c>
+      <c r="Q121">
+        <f t="shared" ref="Q121:Q137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
+        <v>20000</v>
+      </c>
+      <c r="R121">
+        <f t="shared" ref="R121:R137" si="14">IF(E121&lt;&gt;"",E121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <f t="shared" ref="T121:T137" si="15">IF(N121&lt;&gt;"",N121,0)</f>
+        <v>20000</v>
+      </c>
+      <c r="U121">
+        <f t="shared" ref="U121:U137" si="16">IF(O121&lt;&gt;"",O121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W121" t="b">
+        <f t="shared" ref="W121:W137" si="17">IF(Q121=T121,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X121" t="b">
+        <f t="shared" ref="X121:X137" si="18">IF(R121=U121,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122">
         <v>3</v>
       </c>
@@ -44456,8 +44858,55 @@
         <v>14000</v>
       </c>
       <c r="E122" s="51"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>14000</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N122" s="55">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="O122" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="13"/>
+        <v>14000</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="15"/>
+        <v>14000</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W122" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X122" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123">
         <v>4</v>
       </c>
@@ -44471,8 +44920,55 @@
         <v>0</v>
       </c>
       <c r="E123" s="51"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="N123" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O123" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W123" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X123" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124">
         <v>5</v>
       </c>
@@ -44486,8 +44982,55 @@
       <c r="E124" s="51">
         <v>8000</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>-8000</v>
+      </c>
+      <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="N124" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O124" s="55">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="14"/>
+        <v>8000</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="W124" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X124" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125">
         <v>6</v>
       </c>
@@ -44501,8 +45044,55 @@
       <c r="E125" s="51">
         <v>1000</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="H125">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>-1000</v>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="N125" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O125" s="55">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="W125" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X125" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126">
         <v>7</v>
       </c>
@@ -44516,8 +45106,55 @@
       <c r="E126" s="51">
         <v>200000</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="H126">
+        <v>7</v>
+      </c>
+      <c r="I126">
+        <v>-200000</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N126" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O126" s="55">
+        <f t="shared" si="12"/>
+        <v>200000</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="14"/>
+        <v>200000</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="16"/>
+        <v>200000</v>
+      </c>
+      <c r="W126" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X126" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127">
         <v>8</v>
       </c>
@@ -44531,8 +45168,55 @@
       <c r="E127" s="51">
         <v>70000</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>-70000</v>
+      </c>
+      <c r="K127">
+        <v>8</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="N127" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O127" s="55">
+        <f t="shared" si="12"/>
+        <v>70000</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="14"/>
+        <v>70000</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="16"/>
+        <v>70000</v>
+      </c>
+      <c r="W127" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X127" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128">
         <v>9</v>
       </c>
@@ -44546,8 +45230,55 @@
         <v>90000</v>
       </c>
       <c r="E128" s="51"/>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="I128">
+        <v>90000</v>
+      </c>
+      <c r="K128">
+        <v>9</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="M128" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="N128" s="55">
+        <f t="shared" si="11"/>
+        <v>90000</v>
+      </c>
+      <c r="O128" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="13"/>
+        <v>90000</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="15"/>
+        <v>90000</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W128" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X128" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129">
         <v>10</v>
       </c>
@@ -44561,8 +45292,55 @@
         <v>1200</v>
       </c>
       <c r="E129" s="51"/>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>1200</v>
+      </c>
+      <c r="K129">
+        <v>10</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="N129" s="55">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="O129" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="13"/>
+        <v>1200</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W129" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X129" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130">
         <v>11</v>
       </c>
@@ -44576,8 +45354,55 @@
         <v>25000</v>
       </c>
       <c r="E130" s="51"/>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="H130">
+        <v>11</v>
+      </c>
+      <c r="I130">
+        <v>25000</v>
+      </c>
+      <c r="K130">
+        <v>11</v>
+      </c>
+      <c r="L130">
+        <v>5</v>
+      </c>
+      <c r="M130" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="N130" s="55">
+        <f t="shared" si="11"/>
+        <v>25000</v>
+      </c>
+      <c r="O130" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="15"/>
+        <v>25000</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W130" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X130" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131">
         <v>12</v>
       </c>
@@ -44591,8 +45416,55 @@
         <v>400</v>
       </c>
       <c r="E131" s="51"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="H131">
+        <v>12</v>
+      </c>
+      <c r="I131">
+        <v>400</v>
+      </c>
+      <c r="K131">
+        <v>12</v>
+      </c>
+      <c r="L131">
+        <v>5</v>
+      </c>
+      <c r="M131" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="N131" s="55">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="O131" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W131" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X131" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132">
         <v>13</v>
       </c>
@@ -44606,8 +45478,55 @@
         <v>10000</v>
       </c>
       <c r="E132" s="51"/>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="H132">
+        <v>13</v>
+      </c>
+      <c r="I132">
+        <v>10000</v>
+      </c>
+      <c r="K132">
+        <v>13</v>
+      </c>
+      <c r="L132">
+        <v>5</v>
+      </c>
+      <c r="M132" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="N132" s="55">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="O132" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W132" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X132" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133">
         <v>14</v>
       </c>
@@ -44621,23 +45540,117 @@
         <v>1000</v>
       </c>
       <c r="E133" s="51"/>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="H133">
+        <v>14</v>
+      </c>
+      <c r="I133">
+        <v>1000</v>
+      </c>
+      <c r="K133">
+        <v>14</v>
+      </c>
+      <c r="L133">
+        <v>5</v>
+      </c>
+      <c r="M133" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="N133" s="55">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O133" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W133" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X133" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134">
         <v>15</v>
       </c>
       <c r="B134">
-        <v>5</v>
-      </c>
-      <c r="C134" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="49" t="s">
         <v>243</v>
       </c>
       <c r="D134" s="51"/>
       <c r="E134" s="51">
         <v>1000</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="H134">
+        <v>15</v>
+      </c>
+      <c r="I134">
+        <v>-1000</v>
+      </c>
+      <c r="K134">
+        <v>15</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="N134" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O134" s="55">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="W134" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X134" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135">
         <v>16</v>
       </c>
@@ -44651,8 +45664,55 @@
         <v>1800</v>
       </c>
       <c r="E135" s="51"/>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="H135">
+        <v>16</v>
+      </c>
+      <c r="I135">
+        <v>1800</v>
+      </c>
+      <c r="K135">
+        <v>16</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="N135" s="55">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+      <c r="O135" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="13"/>
+        <v>1800</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="15"/>
+        <v>1800</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W135" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X135" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136">
         <v>17</v>
       </c>
@@ -44666,8 +45726,55 @@
         <v>1000</v>
       </c>
       <c r="E136" s="51"/>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="H136">
+        <v>17</v>
+      </c>
+      <c r="I136">
+        <v>1000</v>
+      </c>
+      <c r="K136">
+        <v>17</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="N136" s="55">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O136" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W136" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X136" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="C137" t="s">
         <v>107</v>
       </c>
@@ -44678,6 +45785,47 @@
       <c r="E137" s="51">
         <f>SUM(E120:E136)</f>
         <v>280000</v>
+      </c>
+      <c r="H137" t="s">
+        <v>107</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>107</v>
+      </c>
+      <c r="N137" s="51">
+        <f>SUM(N120:N136)</f>
+        <v>280000</v>
+      </c>
+      <c r="O137" s="51">
+        <f>SUM(O120:O136)</f>
+        <v>280000</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="13"/>
+        <v>280000</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="14"/>
+        <v>280000</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="15"/>
+        <v>280000</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="16"/>
+        <v>280000</v>
+      </c>
+      <c r="W137" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X137" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -44685,6 +45833,20 @@
   <protectedRanges>
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
+  <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AE8:AF8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -44710,7 +45872,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -44759,7 +45921,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E8">
         <v>10000</v>
@@ -44866,10 +46028,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11662" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88A6F85-0379-400A-8786-676CC8008C73}"/>
+  <xr:revisionPtr revIDLastSave="11670" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE400A42-201D-408E-8FAC-80256E9E8944}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="43" activeTab="63" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="63" activeTab="63" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -71,17 +71,18 @@
     <sheet name="A5-2" sheetId="65" r:id="rId61"/>
     <sheet name="A5-3" sheetId="87" r:id="rId62"/>
     <sheet name="A5-3 (2)" sheetId="88" r:id="rId63"/>
-    <sheet name="A5-3 (3)" sheetId="92" r:id="rId64"/>
-    <sheet name="A5-3題目和解答" sheetId="91" r:id="rId65"/>
-    <sheet name="A3-3題目和解答" sheetId="89" r:id="rId66"/>
-    <sheet name="A4-3題目和解答" sheetId="90" r:id="rId67"/>
-    <sheet name="A5-4" sheetId="67" r:id="rId68"/>
-    <sheet name="A5-5" sheetId="68" r:id="rId69"/>
-    <sheet name="B5-1" sheetId="69" r:id="rId70"/>
-    <sheet name="B5-2" sheetId="70" r:id="rId71"/>
-    <sheet name="B5-3" sheetId="71" r:id="rId72"/>
-    <sheet name="B5-4" sheetId="72" r:id="rId73"/>
-    <sheet name="B5-5" sheetId="73" r:id="rId74"/>
+    <sheet name="A5-3 (4)" sheetId="93" r:id="rId64"/>
+    <sheet name="A5-3 (3)" sheetId="92" r:id="rId65"/>
+    <sheet name="A5-3題目和解答" sheetId="91" r:id="rId66"/>
+    <sheet name="A3-3題目和解答" sheetId="89" r:id="rId67"/>
+    <sheet name="A4-3題目和解答" sheetId="90" r:id="rId68"/>
+    <sheet name="A5-4" sheetId="67" r:id="rId69"/>
+    <sheet name="A5-5" sheetId="68" r:id="rId70"/>
+    <sheet name="B5-1" sheetId="69" r:id="rId71"/>
+    <sheet name="B5-2" sheetId="70" r:id="rId72"/>
+    <sheet name="B5-3" sheetId="71" r:id="rId73"/>
+    <sheet name="B5-4" sheetId="72" r:id="rId74"/>
+    <sheet name="B5-5" sheetId="73" r:id="rId75"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -181,6 +182,102 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={B21C1172-9B1F-4066-A4A3-B5ABC655902D}</author>
+    <author>tc={37EB792A-2639-4561-A575-313385C42344}</author>
+    <author>tc={38D5FD98-E4E2-424A-B554-62B04CFF60CF}</author>
+    <author>tc={C51CB67A-3161-470A-AA47-2F3C2952454B}</author>
+    <author>tc={5E442DBC-6DBD-45E5-B3E5-777B38518E7F}</author>
+    <author>tc={3F3212EA-9254-414B-9A16-E794A2D40884}</author>
+    <author>tc={1D9A2D02-01C8-4450-91EA-387BCF469F5E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
+Reply:
+    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？
+Reply:
+    再次更正
+Reply:
+    跟A5-3(2)不一樣，我將累積折舊列為負債
+Reply:
+    這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)
+Reply:
+    微小細節調整，合併儲存格和調整列寬。
+Reply:
+    微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。
+Reply:
+    K49的是用公式算，則J120的就只是複製並貼上K49數值。
+Reply:
+    主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。
+Reply:
+    細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
+用excel公式跟原本的小表格計算其相等性。</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{37EB792A-2639-4561-A575-313385C42344}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{38D5FD98-E4E2-424A-B554-62B04CFF60CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    對題目A4-3，我的答案。
+Reply:
+    從A30到G39。</t>
+      </text>
+    </comment>
+    <comment ref="A114" authorId="4" shapeId="0" xr:uid="{5E442DBC-6DBD-45E5-B3E5-777B38518E7F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</t>
+      </text>
+    </comment>
+    <comment ref="K114" authorId="5" shapeId="0" xr:uid="{3F3212EA-9254-414B-9A16-E794A2D40884}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據I120的cell，並用excel的公式計算。</t>
+      </text>
+    </comment>
+    <comment ref="H118" authorId="6" shapeId="0" xr:uid="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    原本的文字內容：T字形科目金額總計(只貼上值)
+Reply:
+    打算訂這樣但因為字元太長。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={34C353A3-4A3D-4BF6-A7BE-B482F619C311}</author>
     <author>tc={1451D451-CFAA-4007-83AE-B4F5D0AD411B}</author>
     <author>tc={ABE2E7D7-EB46-4F0A-B9FB-33BC587A6063}</author>
@@ -274,7 +371,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B234CC52-F045-4CAB-BFFD-355C1016A66D}</author>
@@ -309,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="334">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1292,6 +1389,9 @@
     <t>試算表(公式版)</t>
   </si>
   <si>
+    <t>比較</t>
+  </si>
+  <si>
     <t>相同</t>
   </si>
   <si>
@@ -1769,6 +1869,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1776,9 +1879,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2459,6 +2559,67 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0EF2658E-9DFF-475C-8C5B-AE89DB93F7E4}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:18:02.22" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6AAAE81A-DA94-4768-AAF1-A0AD342B5FB1}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>再次更正</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:18:56.70" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{36D49CC6-663F-40A5-8C68-7407A001AFA6}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>跟A5-3(2)不一樣，我將累積折舊列為負債</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:19:42.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{798729DA-4029-47B5-9EB5-1E3FA46E04CE}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:29:58.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{32E067A6-CFD8-49EA-91BE-3655D102D4A3}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>微小細節調整，合併儲存格和調整列寬。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:49:25.52" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{87BB30BA-FA07-451B-B18B-234D06D6621F}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:50:19.93" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8B345983-2AAF-467B-A3F1-509A6E708E3D}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>K49的是用公式算，則J120的就只是複製並貼上K49數值。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T19:05:58.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D963009A-F0CF-45C5-A33D-2E6FA69BC355}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T19:08:43.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B13E741B-C4FC-4C42-9F3D-BEB64B8C7B8C}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
+用excel公式跟原本的小表格計算其相等性。</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2024-02-03T10:08:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{37EB792A-2639-4561-A575-313385C42344}">
+    <text>A3-3題目和解答，詳見"A3-3題目和解答"工作表。</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2024-02-03T10:08:37.95" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{38D5FD98-E4E2-424A-B554-62B04CFF60CF}">
+    <text>A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:28.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
+    <text>對題目A4-3，我的答案。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:52.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{155FC2CB-74AC-4A4A-8CA9-862BDC16E6DF}" parentId="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
+    <text>從A30到G39。</text>
+  </threadedComment>
+  <threadedComment ref="A114" dT="2024-02-03T18:58:36.43" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5E442DBC-6DBD-45E5-B3E5-777B38518E7F}">
+    <text>根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</text>
+  </threadedComment>
+  <threadedComment ref="K114" dT="2024-02-03T18:57:12.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3F3212EA-9254-414B-9A16-E794A2D40884}">
+    <text>根據I120的cell，並用excel的公式計算。</text>
+  </threadedComment>
+  <threadedComment ref="H118" dT="2024-02-03T18:46:00.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
+    <text>原本的文字內容：T字形科目金額總計(只貼上值)</text>
+  </threadedComment>
+  <threadedComment ref="H118" dT="2024-02-03T18:46:28.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EF79D621-2F0D-4E49-A50E-5DD91AF3EFFA}" parentId="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
+    <text>打算訂這樣但因為字元太長。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
     <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
   </threadedComment>
@@ -2518,7 +2679,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-02-03T09:38:47.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
     <text>下圖為會計學題目A4-3。擷取自解答本。</text>
@@ -38687,11 +38848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF1E2F-0693-4B3F-AE4B-01AA9C5AD810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5853465-F56D-4EAD-814C-8B6ED3A4796D}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N124" workbookViewId="0">
-      <selection activeCell="X120" sqref="X120:X137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -38923,28 +39084,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="115" t="s">
+      <c r="AG7" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="115" t="s">
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="117"/>
-      <c r="AK7" s="117"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="115" t="s">
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="116" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="115" t="s">
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="116" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="116"/>
-      <c r="AQ7" s="115" t="s">
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="116" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="116"/>
+      <c r="AR7" s="117"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -39045,10 +39206,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="115" t="s">
+      <c r="AE8" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="116"/>
+      <c r="AF8" s="117"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -40739,42 +40900,42 @@
         <v>12</v>
       </c>
       <c r="AD22">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="93">
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="90">
         <v>1000</v>
       </c>
-      <c r="AL22" s="92">
+      <c r="AL22" s="89">
         <v>12</v>
       </c>
-      <c r="AM22" s="94" t="str">
+      <c r="AM22" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="94">
+      <c r="AN22" s="87">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="94" t="str">
+      <c r="AO22" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="94" t="str">
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR22" s="94">
+      <c r="AR22" s="87" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AS22" s="55"/>
       <c r="AT22">
@@ -40795,7 +40956,7 @@
       </c>
       <c r="AX22">
         <f>IF($AR22="",0,$AR22)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:58">
@@ -41685,7 +41846,7 @@
       </c>
       <c r="AR30" s="70">
         <f>SUM(AR$9:AR$29)</f>
-        <v>270400</v>
+        <v>269400</v>
       </c>
       <c r="AS30" s="69"/>
       <c r="AT30" s="5"/>
@@ -42448,10 +42609,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="118" t="s">
+      <c r="J47" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="118"/>
+      <c r="K47" s="115"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -44542,9 +44703,9 @@
         <v>15</v>
       </c>
       <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -44613,14 +44774,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="118" t="s">
+      <c r="A114" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="118"/>
-      <c r="K114" s="118" t="s">
+      <c r="B114" s="115"/>
+      <c r="K114" s="115" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="118"/>
+      <c r="L114" s="115"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -44629,6 +44790,9 @@
       <c r="M116" t="s">
         <v>157</v>
       </c>
+      <c r="W116" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="117" spans="1:24">
       <c r="C117" t="s">
@@ -44638,30 +44802,30 @@
         <v>108</v>
       </c>
       <c r="W117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:24">
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="118" t="s">
+      <c r="H118" s="115" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="118"/>
+      <c r="I118" s="115"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="118" t="s">
+      <c r="Q118" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="118"/>
-      <c r="T118" s="118" t="s">
+      <c r="R118" s="115"/>
+      <c r="T118" s="115" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="118"/>
+      <c r="U118" s="115"/>
       <c r="W118" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -44820,27 +44984,27 @@
         <v/>
       </c>
       <c r="Q121">
-        <f t="shared" ref="Q121:Q137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
+        <f t="shared" ref="Q121:R137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
         <v>20000</v>
       </c>
       <c r="R121">
-        <f t="shared" ref="R121:R137" si="14">IF(E121&lt;&gt;"",E121,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T121">
-        <f t="shared" ref="T121:T137" si="15">IF(N121&lt;&gt;"",N121,0)</f>
+        <f t="shared" ref="T121:U137" si="14">IF(N121&lt;&gt;"",N121,0)</f>
         <v>20000</v>
       </c>
       <c r="U121">
-        <f t="shared" ref="U121:U137" si="16">IF(O121&lt;&gt;"",O121,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W121" t="b">
-        <f t="shared" ref="W121:W137" si="17">IF(Q121=T121,TRUE,FALSE)</f>
+        <f t="shared" ref="W121:X137" si="15">IF(Q121=T121,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="X121" t="b">
-        <f t="shared" ref="X121:X137" si="18">IF(R121=U121,TRUE,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -44886,23 +45050,23 @@
         <v>14000</v>
       </c>
       <c r="R122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="U122">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T122">
+      <c r="W122" t="b">
         <f t="shared" si="15"/>
-        <v>14000</v>
-      </c>
-      <c r="U122">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W122" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X122" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -44948,23 +45112,23 @@
         <v>0</v>
       </c>
       <c r="R123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T123">
+      <c r="U123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W123" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U123">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W123" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X123" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45010,23 +45174,23 @@
         <v>0</v>
       </c>
       <c r="R124">
+        <f t="shared" si="13"/>
+        <v>8000</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
         <f t="shared" si="14"/>
         <v>8000</v>
       </c>
-      <c r="T124">
+      <c r="W124" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U124">
-        <f t="shared" si="16"/>
-        <v>8000</v>
-      </c>
-      <c r="W124" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X124" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45072,23 +45236,23 @@
         <v>0</v>
       </c>
       <c r="R125">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T125">
+      <c r="W125" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U125">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="W125" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X125" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45134,23 +45298,23 @@
         <v>0</v>
       </c>
       <c r="R126">
+        <f t="shared" si="13"/>
+        <v>200000</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
         <f t="shared" si="14"/>
         <v>200000</v>
       </c>
-      <c r="T126">
+      <c r="W126" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U126">
-        <f t="shared" si="16"/>
-        <v>200000</v>
-      </c>
-      <c r="W126" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X126" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45196,23 +45360,23 @@
         <v>0</v>
       </c>
       <c r="R127">
+        <f t="shared" si="13"/>
+        <v>70000</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U127">
         <f t="shared" si="14"/>
         <v>70000</v>
       </c>
-      <c r="T127">
+      <c r="W127" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U127">
-        <f t="shared" si="16"/>
-        <v>70000</v>
-      </c>
-      <c r="W127" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X127" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45258,23 +45422,23 @@
         <v>90000</v>
       </c>
       <c r="R128">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="14"/>
+        <v>90000</v>
+      </c>
+      <c r="U128">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T128">
+      <c r="W128" t="b">
         <f t="shared" si="15"/>
-        <v>90000</v>
-      </c>
-      <c r="U128">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W128" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X128" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45320,23 +45484,23 @@
         <v>1200</v>
       </c>
       <c r="R129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="U129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T129">
+      <c r="W129" t="b">
         <f t="shared" si="15"/>
-        <v>1200</v>
-      </c>
-      <c r="U129">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W129" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X129" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45382,23 +45546,23 @@
         <v>25000</v>
       </c>
       <c r="R130">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="U130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T130">
+      <c r="W130" t="b">
         <f t="shared" si="15"/>
-        <v>25000</v>
-      </c>
-      <c r="U130">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W130" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X130" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45444,23 +45608,23 @@
         <v>400</v>
       </c>
       <c r="R131">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="U131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T131">
+      <c r="W131" t="b">
         <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="U131">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W131" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X131" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45506,23 +45670,23 @@
         <v>10000</v>
       </c>
       <c r="R132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="U132">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T132">
+      <c r="W132" t="b">
         <f t="shared" si="15"/>
-        <v>10000</v>
-      </c>
-      <c r="U132">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W132" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X132" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45568,23 +45732,23 @@
         <v>1000</v>
       </c>
       <c r="R133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="U133">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T133">
+      <c r="W133" t="b">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="U133">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W133" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X133" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45630,23 +45794,23 @@
         <v>0</v>
       </c>
       <c r="R134">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T134">
+      <c r="W134" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U134">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="W134" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X134" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45692,23 +45856,23 @@
         <v>1800</v>
       </c>
       <c r="R135">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="U135">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T135">
+      <c r="W135" t="b">
         <f t="shared" si="15"/>
-        <v>1800</v>
-      </c>
-      <c r="U135">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W135" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X135" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45754,23 +45918,23 @@
         <v>1000</v>
       </c>
       <c r="R136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="U136">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T136">
+      <c r="W136" t="b">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="U136">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W136" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X136" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45808,23 +45972,23 @@
         <v>280000</v>
       </c>
       <c r="R137">
+        <f t="shared" si="13"/>
+        <v>280000</v>
+      </c>
+      <c r="T137">
         <f t="shared" si="14"/>
         <v>280000</v>
       </c>
-      <c r="T137">
+      <c r="U137">
+        <f t="shared" si="14"/>
+        <v>280000</v>
+      </c>
+      <c r="W137" t="b">
         <f t="shared" si="15"/>
-        <v>280000</v>
-      </c>
-      <c r="U137">
-        <f t="shared" si="16"/>
-        <v>280000</v>
-      </c>
-      <c r="W137" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X137" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -45835,16 +45999,16 @@
   </protectedRanges>
   <mergeCells count="12">
     <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
     <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AI7:AL7"/>
-    <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45853,6 +46017,7175 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF1E2F-0693-4B3F-AE4B-01AA9C5AD810}">
+  <dimension ref="A1:BF137"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD6" workbookViewId="0">
+      <selection activeCell="AR21" sqref="AR21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="AC4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
+      <c r="L6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AC6" s="8">
+        <v>44135</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY6" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+    </row>
+    <row r="7" spans="1:58">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ7" s="118"/>
+      <c r="AK7" s="118"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR7" s="117"/>
+      <c r="AT7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AY7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="19.5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="T8" s="45">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>200000</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE8" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN8" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY8" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="25">
+        <v>200000</v>
+      </c>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF8" s="27">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <v>37</v>
+      </c>
+      <c r="R9" s="17">
+        <v>200000</v>
+      </c>
+      <c r="T9" s="46"/>
+      <c r="U9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>30000</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>170000</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83">
+        <v>115600</v>
+      </c>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="85">
+        <f>IF($AU9&gt;0,$AU9,"")</f>
+        <v>115600</v>
+      </c>
+      <c r="AN9" s="86" t="str">
+        <f>IF($AU9&lt;0,-$AU9,"")</f>
+        <v/>
+      </c>
+      <c r="AO9" s="85" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AM9,"")</f>
+        <v/>
+      </c>
+      <c r="AP9" s="87" t="str">
+        <f>IF(OR($AD9=4,$AD9=5),$AN9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ9" s="87">
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AT9-$AV9&lt;&gt;0,$AT9-$AV9,""),"")</f>
+        <v>115600</v>
+      </c>
+      <c r="AR9" s="88" t="str">
+        <f>IF(OR($AD9=1,$AD9=2,$AD9=3),IF($AW9-$AX9&lt;&gt;0,$AW9-$AX9,""),"")</f>
+        <v/>
+      </c>
+      <c r="AS9" s="55"/>
+      <c r="AT9">
+        <f>IF($AM9="",0,$AM9)</f>
+        <v>115600</v>
+      </c>
+      <c r="AU9" s="63">
+        <f>$AG9-$AH9+$AI9-$AK9</f>
+        <v>115600</v>
+      </c>
+      <c r="AV9">
+        <f>IF($AO9="",0,$AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f>IF($AN9="",0,$AN9)</f>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f>IF($AP9="",0,$AP9)</f>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD9" s="28">
+        <v>30000</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF9" s="28">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T10" s="46"/>
+      <c r="U10" s="5">
+        <v>5</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>90000</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>80000</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90">
+        <v>30000</v>
+      </c>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="91">
+        <v>10000</v>
+      </c>
+      <c r="AL10" s="89">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="87">
+        <f t="shared" ref="AM10:AM27" si="0">IF($AU10&gt;0,$AU10,"")</f>
+        <v>20000</v>
+      </c>
+      <c r="AN10" s="87" t="str">
+        <f t="shared" ref="AN10:AN27" si="1">IF($AU10&lt;0,-$AU10,"")</f>
+        <v/>
+      </c>
+      <c r="AO10" s="87" t="str">
+        <f t="shared" ref="AO10:AO27" si="2">IF(OR($AD10=4,$AD10=5),$AM10,"")</f>
+        <v/>
+      </c>
+      <c r="AP10" s="87" t="str">
+        <f t="shared" ref="AP10:AR27" si="3">IF(OR($AD10=4,$AD10=5),$AN10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ10" s="87">
+        <f t="shared" ref="AQ10:AQ27" si="4">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AT10-$AV10&lt;&gt;0,$AT10-$AV10,""),"")</f>
+        <v>20000</v>
+      </c>
+      <c r="AR10" s="88" t="str">
+        <f t="shared" ref="AR10:AR26" si="5">IF(OR($AD10=1,$AD10=2,$AD10=3),IF($AW10-$AX10&lt;&gt;0,$AW10-$AX10,""),"")</f>
+        <v/>
+      </c>
+      <c r="AS10" s="55"/>
+      <c r="AT10">
+        <f t="shared" ref="AT10:AT29" si="6">IF($AM10="",0,$AM10)</f>
+        <v>20000</v>
+      </c>
+      <c r="AU10" s="63">
+        <f t="shared" ref="AU10:AU27" si="7">$AG10-$AH10+$AI10-$AK10</f>
+        <v>20000</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" ref="AV10:AV34" si="8">IF($AO10="",0,$AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" ref="AW10:AW34" si="9">IF($AN10="",0,$AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" ref="AX10:AX34" si="10">IF($AP10="",0,$AP10)</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD10" s="28">
+        <v>90000</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF10" s="28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="28">
+        <v>3000</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>77000</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90">
+        <v>14000</v>
+      </c>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="87">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="AN11" s="87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO11" s="87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP11" s="87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ11" s="87">
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="AR11" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS11" s="55"/>
+      <c r="AT11">
+        <f t="shared" si="6"/>
+        <v>14000</v>
+      </c>
+      <c r="AU11" s="63">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD11" s="28">
+        <v>3000</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF11" s="28">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44109</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="17">
+        <v>90000</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>90000</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="5">
+        <v>15</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" s="28">
+        <v>97000</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN12" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO12" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP12" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR12" s="95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS12" s="55"/>
+      <c r="AT12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC12" s="17">
+        <v>20000</v>
+      </c>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF12" s="28">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="17">
+        <v>90000</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>90000</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="5">
+        <v>16</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" s="17">
+        <v>8000</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>105000</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="97">
+        <v>200000</v>
+      </c>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="98" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN13" s="98">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="AO13" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP13" s="98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ13" s="98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR13" s="99">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="AS13" s="55"/>
+      <c r="AT13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="63">
+        <f>$AG13-$AH13+$AI13-$AK13</f>
+        <v>-200000</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="5">
+        <v>16</v>
+      </c>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC13" s="17">
+        <v>8000</v>
+      </c>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF13" s="28">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44111</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="5">
+        <v>18</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" s="28">
+        <v>17000</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>88000</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="103">
+        <v>70000</v>
+      </c>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="104" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN14" s="104">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="AO14" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP14" s="104">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="AQ14" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR14" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS14" s="55"/>
+      <c r="AT14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="63">
+        <f t="shared" si="7"/>
+        <v>-70000</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="9"/>
+        <v>70000</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="10"/>
+        <v>70000</v>
+      </c>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="5">
+        <v>18</v>
+      </c>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD14" s="28">
+        <v>17000</v>
+      </c>
+      <c r="BE14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF14" s="28">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15">
+        <v>31</v>
+      </c>
+      <c r="R15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="5">
+        <v>21</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" s="28">
+        <v>400</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>87600</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="107">
+        <v>90000</v>
+      </c>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="108">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="AN15" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO15" s="108">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+      <c r="AP15" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR15" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS15" s="55"/>
+      <c r="AT15">
+        <f t="shared" si="6"/>
+        <v>90000</v>
+      </c>
+      <c r="AU15" s="63">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="5">
+        <v>21</v>
+      </c>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD15" s="28">
+        <v>400</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF15" s="28">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44115</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>3000</v>
+      </c>
+      <c r="T16" s="59"/>
+      <c r="U16" s="48">
+        <v>31</v>
+      </c>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X16" s="30">
+        <v>28000</v>
+      </c>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>115600</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="113">
+        <v>3000</v>
+      </c>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="114">
+        <v>1800</v>
+      </c>
+      <c r="AL16" s="101">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="104">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="AN16" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO16" s="104">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="AP16" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ16" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR16" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS16" s="55"/>
+      <c r="AT16">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="AU16" s="63">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC16" s="30">
+        <v>28000</v>
+      </c>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF16" s="31">
+        <v>115600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3000</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AC17">
+        <v>9</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="107">
+        <v>17000</v>
+      </c>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="110">
+        <v>8000</v>
+      </c>
+      <c r="AJ17" s="54">
+        <v>14</v>
+      </c>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="108">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="AN17" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO17" s="108">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="AP17" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR17" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS17" s="55"/>
+      <c r="AT17">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+      <c r="AU17" s="63">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44119</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="17">
+        <v>20000</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>20000</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="111">
+        <v>400</v>
+      </c>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="108">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AN18" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO18" s="108">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="AP18" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ18" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR18" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS18" s="55"/>
+      <c r="AT18">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="AU18" s="63">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG19" s="62">
+        <f>SUM(AG9:AG18)</f>
+        <v>270000</v>
+      </c>
+      <c r="AH19" s="75">
+        <f>SUM(AH9:AH18)</f>
+        <v>270000</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN19" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO19" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP19" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ19" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR19" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS19" s="55"/>
+      <c r="AT19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="22"/>
+      <c r="AV19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+    </row>
+    <row r="20" spans="1:58">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="17">
+        <v>30000</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="O20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20">
+        <v>41</v>
+      </c>
+      <c r="R20" s="17">
+        <v>30000</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" s="107">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="108">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AN20" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO20" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="AP20" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ20" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR20" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS20" s="55"/>
+      <c r="AT20">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AU20" s="63">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF20" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44120</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T21" s="60">
+        <v>10</v>
+      </c>
+      <c r="U21" s="61">
+        <v>1</v>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61">
+        <v>1</v>
+      </c>
+      <c r="X21" s="30">
+        <v>30000</v>
+      </c>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>30000</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN21" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO21" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP21" s="55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ21" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR21" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS21" s="55"/>
+      <c r="AT21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="22"/>
+      <c r="AV21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="30">
+        <v>30000</v>
+      </c>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF21" s="31">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="R22" s="17">
+        <v>8000</v>
+      </c>
+      <c r="AC22">
+        <v>12</v>
+      </c>
+      <c r="AD22">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="93">
+        <v>1000</v>
+      </c>
+      <c r="AL22" s="92">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN22" s="94">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO22" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR22" s="94">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="AS22" s="55"/>
+      <c r="AT22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="63">
+        <f>$AG22-$AH22+$AI22-$AK22</f>
+        <v>-1000</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="AX22">
+        <f>IF($AR22="",0,$AR22)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44122</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="17">
+        <v>17000</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>17000</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC23">
+        <v>13</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="107">
+        <v>10000</v>
+      </c>
+      <c r="AJ23" s="54">
+        <v>11</v>
+      </c>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="108">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="AN23" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO23" s="108">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="AP23" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ23" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR23" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS23" s="55"/>
+      <c r="AT23">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="AU23" s="63">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="17">
+        <v>17000</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
+        <v>17000</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AC24">
+        <v>14</v>
+      </c>
+      <c r="AD24">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="54"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="107">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" s="54">
+        <v>13</v>
+      </c>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="106"/>
+      <c r="AM24" s="108">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AN24" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO24" s="108">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="AP24" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ24" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR24" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS24" s="55"/>
+      <c r="AT24">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AU24" s="63">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+    </row>
+    <row r="25" spans="1:58">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44125</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="17">
+        <v>400</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>400</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC25">
+        <v>15</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107">
+        <v>1800</v>
+      </c>
+      <c r="AJ25" s="54">
+        <v>13</v>
+      </c>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="108">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="AN25" s="108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO25" s="108">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="AP25" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR25" s="109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS25" s="55"/>
+      <c r="AT25">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+      <c r="AU25" s="63">
+        <f>$AG25-$AH25+$AI25-$AK25</f>
+        <v>1800</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF25" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="17">
+        <v>400</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="17">
+        <v>400</v>
+      </c>
+      <c r="T26" s="45">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4">
+        <v>15</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>10000</v>
+      </c>
+      <c r="AC26">
+        <v>16</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="93">
+        <v>8000</v>
+      </c>
+      <c r="AL26" s="92">
+        <v>14</v>
+      </c>
+      <c r="AM26" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN26" s="94">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="AO26" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP26" s="94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ26" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR26" s="95">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="AS26" s="55"/>
+      <c r="AT26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="63">
+        <f t="shared" si="7"/>
+        <v>-8000</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>15</v>
+      </c>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF26" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="17">
+        <v>28000</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>28000</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y27" s="28">
+        <v>8000</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>2000</v>
+      </c>
+      <c r="AC27">
+        <v>17</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="93">
+        <v>1000</v>
+      </c>
+      <c r="AL27" s="92">
+        <v>15</v>
+      </c>
+      <c r="AM27" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN27" s="95">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="AO27" s="94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP27" s="95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AR27" s="95">
+        <f>IF(OR($AD27=1,$AD27=2,$AD27=3),IF($AW27-$AX27&lt;&gt;0,$AW27-$AX27,""),"")</f>
+        <v>1000</v>
+      </c>
+      <c r="AS27" s="55"/>
+      <c r="AT27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="63">
+        <f t="shared" si="7"/>
+        <v>-1000</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD27" s="28">
+        <v>8000</v>
+      </c>
+      <c r="BE27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF27" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="17">
+        <v>12000</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>12000</v>
+      </c>
+      <c r="T28" s="59"/>
+      <c r="U28" s="48">
+        <v>31</v>
+      </c>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X28" s="30">
+        <v>12000</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA28" s="31">
+        <v>14000</v>
+      </c>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="64">
+        <f>SUM(AI$9:AI$27)</f>
+        <v>21800</v>
+      </c>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="64">
+        <f>SUM(AK$9:AK$27)</f>
+        <v>21800</v>
+      </c>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="64">
+        <f>SUM(AM$9:AM$27)</f>
+        <v>280000</v>
+      </c>
+      <c r="AN28" s="68">
+        <f>SUM(AN$9:AN$27)</f>
+        <v>280000</v>
+      </c>
+      <c r="AO28" s="72">
+        <f>SUM(AO$9:AO$27)</f>
+        <v>130400</v>
+      </c>
+      <c r="AP28" s="72">
+        <f>SUM(AP$9:AP$27)</f>
+        <v>70000</v>
+      </c>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="55"/>
+      <c r="AT28">
+        <f t="shared" si="6"/>
+        <v>280000</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="8"/>
+        <v>130400</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="9"/>
+        <v>280000</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="10"/>
+        <v>70000</v>
+      </c>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC28" s="30">
+        <v>12000</v>
+      </c>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF28" s="31">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="17">
+        <v>40000</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29">
+        <v>41</v>
+      </c>
+      <c r="R29" s="17">
+        <v>40000</v>
+      </c>
+      <c r="AE29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="72">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF($AO$28-$AP$28&gt;0,$AO$28-$AP$28,""))</f>
+        <v>60400</v>
+      </c>
+      <c r="AP29" s="73" t="str">
+        <f>IF(OR($AO$28="",$AP$28=""),"",IF(-($AO$28-$AP$28)&gt;0,-($AO$28-$AP$28),""))</f>
+        <v/>
+      </c>
+      <c r="AQ29" s="66" t="str">
+        <f>IF($AP$29&lt;&gt;"",$AP$29,"")</f>
+        <v/>
+      </c>
+      <c r="AR29" s="81">
+        <f>IF($AO$29&lt;&gt;"",$AO$29,"")</f>
+        <v>60400</v>
+      </c>
+      <c r="AS29" s="55">
+        <v>209000</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="8"/>
+        <v>60400</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
+      <c r="A30" s="3">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="67">
+        <f>IF($AO28="",0,$AO28)-IF($AO29="",0,$AO29)</f>
+        <v>70000</v>
+      </c>
+      <c r="AP30" s="67">
+        <f>IF($AP28="",0,$AP28)-IF($AP29="",0,$AP29)</f>
+        <v>70000</v>
+      </c>
+      <c r="AQ30" s="67">
+        <f>SUM(AQ$9:AQ$29)</f>
+        <v>149600</v>
+      </c>
+      <c r="AR30" s="70">
+        <f>SUM(AR$9:AR$29)</f>
+        <v>270400</v>
+      </c>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="5"/>
+      <c r="AV30">
+        <f t="shared" si="8"/>
+        <v>70000</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="10"/>
+        <v>70000</v>
+      </c>
+      <c r="AY30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="R31" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AV31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+    </row>
+    <row r="32" spans="1:58">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD32" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF32" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="O33" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33">
+        <v>59</v>
+      </c>
+      <c r="R33" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="45">
+        <v>10</v>
+      </c>
+      <c r="U33" s="4">
+        <v>5</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="28">
+        <v>3000</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>3000</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="28">
+        <v>3000</v>
+      </c>
+      <c r="BE33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF33" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="T34" s="59"/>
+      <c r="U34" s="48">
+        <v>11</v>
+      </c>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="X34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="48">
+        <v>11</v>
+      </c>
+      <c r="BA34" s="48"/>
+      <c r="BB34" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC34" s="30">
+        <v>3000</v>
+      </c>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="E35" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1800</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="O35" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35">
+        <v>25</v>
+      </c>
+      <c r="R35" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="17">
+        <v>8000</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="O37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37">
+        <v>33</v>
+      </c>
+      <c r="R37" s="17">
+        <v>8000</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AY37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+    </row>
+    <row r="38" spans="1:58">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY38" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD38" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF38" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="O39" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="P39">
+        <v>35</v>
+      </c>
+      <c r="R39" s="17">
+        <v>1000</v>
+      </c>
+      <c r="T39" s="60">
+        <v>10</v>
+      </c>
+      <c r="U39" s="61">
+        <v>31</v>
+      </c>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61">
+        <v>1</v>
+      </c>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="28">
+        <v>8000</v>
+      </c>
+      <c r="Z39" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA39" s="28">
+        <v>8000</v>
+      </c>
+      <c r="AY39" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ39" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="31">
+        <v>80000</v>
+      </c>
+      <c r="BE39" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF39" s="28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58">
+      <c r="T41" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY41" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58">
+      <c r="T42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AY42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ42" s="4"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+    </row>
+    <row r="43" spans="1:58">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="T43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y43" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD43" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58">
+      <c r="T44" s="60">
+        <v>10</v>
+      </c>
+      <c r="U44" s="61">
+        <v>31</v>
+      </c>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61">
+        <v>1</v>
+      </c>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="31">
+        <v>1000</v>
+      </c>
+      <c r="Z44" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA44" s="28">
+        <v>1000</v>
+      </c>
+      <c r="AY44" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ44" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA44" s="61"/>
+      <c r="BB44" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="30"/>
+      <c r="BD44" s="31">
+        <v>10000</v>
+      </c>
+      <c r="BE44" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF44" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" s="115"/>
+    </row>
+    <row r="48" spans="1:58">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58">
+      <c r="C49" s="7">
+        <v>44105</v>
+      </c>
+      <c r="D49" s="25">
+        <v>200000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="51">
+        <f>SUM(D49:D57)-SUM(G49:G57)</f>
+        <v>115600</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AY49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+    </row>
+    <row r="50" spans="1:58">
+      <c r="E50" s="5"/>
+      <c r="F50" s="8">
+        <v>44105</v>
+      </c>
+      <c r="G50" s="17">
+        <v>30000</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" s="51">
+        <f>SUM(D60)-SUM(G60)</f>
+        <v>20000</v>
+      </c>
+      <c r="T50" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y50" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY50" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD50" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58">
+      <c r="E51" s="5"/>
+      <c r="F51" s="8">
+        <v>44109</v>
+      </c>
+      <c r="G51" s="17">
+        <v>90000</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51" s="51">
+        <f>SUM(D63:D64)-SUM(G63:G64)</f>
+        <v>14000</v>
+      </c>
+      <c r="T51" s="60">
+        <v>10</v>
+      </c>
+      <c r="U51" s="61">
+        <v>1</v>
+      </c>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61">
+        <v>1</v>
+      </c>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="31">
+        <v>200000</v>
+      </c>
+      <c r="Z51" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA51" s="33">
+        <v>200000</v>
+      </c>
+      <c r="AY51" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ51" s="61">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="31">
+        <v>200000</v>
+      </c>
+      <c r="BE51" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF51" s="33">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58">
+      <c r="E52" s="5"/>
+      <c r="F52" s="8">
+        <v>44115</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52" s="51">
+        <f>SUM(D67:D68)-SUM(G67:G68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58">
+      <c r="C53" s="8">
+        <v>44119</v>
+      </c>
+      <c r="D53" s="17">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="5">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" s="51">
+        <f>SUM(D71)-SUM(G71)</f>
+        <v>-8000</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY53" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58">
+      <c r="C54" s="8">
+        <v>44120</v>
+      </c>
+      <c r="D54" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54" s="51">
+        <f>SUM(D74)-SUM(G74)</f>
+        <v>-1000</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AY54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+    </row>
+    <row r="55" spans="1:58">
+      <c r="E55" s="5"/>
+      <c r="F55" s="8">
+        <v>44122</v>
+      </c>
+      <c r="G55" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55" s="51">
+        <f>SUM(D77)-SUM(G77)</f>
+        <v>-200000</v>
+      </c>
+      <c r="T55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y55" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD55" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58">
+      <c r="E56" s="5"/>
+      <c r="F56" s="8">
+        <v>44125</v>
+      </c>
+      <c r="G56" s="17">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" s="51">
+        <f>SUM(D80:D81)-SUM(G80:G81)</f>
+        <v>-70000</v>
+      </c>
+      <c r="T56" s="45">
+        <v>10</v>
+      </c>
+      <c r="U56" s="4">
+        <v>15</v>
+      </c>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4">
+        <v>1</v>
+      </c>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17">
+        <v>30000</v>
+      </c>
+      <c r="Z56" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA56" s="27">
+        <v>30000</v>
+      </c>
+      <c r="AY56" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ56" s="4">
+        <v>15</v>
+      </c>
+      <c r="BA56" s="4"/>
+      <c r="BB56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="17"/>
+      <c r="BD56" s="17">
+        <v>30000</v>
+      </c>
+      <c r="BE56" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF56" s="27">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58">
+      <c r="C57" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D57" s="17">
+        <v>28000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57" s="51">
+        <f>SUM(D84)-SUM(G84)</f>
+        <v>90000</v>
+      </c>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29">
+        <v>31</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="30">
+        <v>40000</v>
+      </c>
+      <c r="Z57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA57" s="47">
+        <v>70000</v>
+      </c>
+      <c r="AY57" s="29"/>
+      <c r="AZ57" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA57" s="29"/>
+      <c r="BB57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC57" s="29"/>
+      <c r="BD57" s="30">
+        <v>40000</v>
+      </c>
+      <c r="BE57" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF57" s="47">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58">
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" s="51">
+        <f>SUM(D87)-SUM(G87)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59" s="51">
+        <f>SUM(D90:D91)-SUM(G90:G91)</f>
+        <v>25000</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58">
+      <c r="C60" s="7">
+        <v>44105</v>
+      </c>
+      <c r="D60" s="25">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G60" s="25">
+        <v>10000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60" s="51">
+        <f>SUM(D94)-SUM(G94)</f>
+        <v>400</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AY60" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="3"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+    </row>
+    <row r="61" spans="1:58">
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61" s="51">
+        <f>SUM(D97)-SUM(G97)</f>
+        <v>10000</v>
+      </c>
+      <c r="T61" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y61" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY61" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD61" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF61" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62" s="51">
+        <f>SUM(D100)-SUM(G100)</f>
+        <v>1000</v>
+      </c>
+      <c r="T62" s="60">
+        <v>10</v>
+      </c>
+      <c r="U62" s="61">
+        <v>5</v>
+      </c>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61">
+        <v>1</v>
+      </c>
+      <c r="X62" s="30">
+        <v>90000</v>
+      </c>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA62" s="33">
+        <v>90000</v>
+      </c>
+      <c r="AY62" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ62" s="61">
+        <v>5</v>
+      </c>
+      <c r="BA62" s="61"/>
+      <c r="BB62" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC62" s="30">
+        <v>90000</v>
+      </c>
+      <c r="BD62" s="31"/>
+      <c r="BE62" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF62" s="33">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58">
+      <c r="C63" s="7">
+        <v>44119</v>
+      </c>
+      <c r="D63" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6</v>
+      </c>
+      <c r="F63" s="7">
+        <v>44120</v>
+      </c>
+      <c r="G63" s="25">
+        <v>8000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>15</v>
+      </c>
+      <c r="K63" s="51">
+        <f>SUM(D103)-SUM(G103)</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58">
+      <c r="C64" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D64" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E64" s="5">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>16</v>
+      </c>
+      <c r="K64" s="51">
+        <f>SUM(D106)-SUM(G106)</f>
+        <v>1800</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY64" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:58">
+      <c r="J65">
+        <v>17</v>
+      </c>
+      <c r="K65" s="51">
+        <f>SUM(D109)-SUM(G109)</f>
+        <v>1000</v>
+      </c>
+      <c r="T65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AY65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="3"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+    </row>
+    <row r="66" spans="1:58">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" t="s">
+        <v>107</v>
+      </c>
+      <c r="K66" s="17">
+        <f>SUM(K49:K65)</f>
+        <v>0</v>
+      </c>
+      <c r="T66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y66" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC66" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD66" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF66" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:58">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7">
+        <v>44111</v>
+      </c>
+      <c r="G67" s="25">
+        <v>3000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="T67" s="45">
+        <v>10</v>
+      </c>
+      <c r="U67" s="4">
+        <v>7</v>
+      </c>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="17">
+        <v>3000</v>
+      </c>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA67" s="27">
+        <v>3000</v>
+      </c>
+      <c r="AY67" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ67" s="4">
+        <v>7</v>
+      </c>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC67" s="17">
+        <v>3000</v>
+      </c>
+      <c r="BD67" s="28"/>
+      <c r="BE67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF67" s="27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:58">
+      <c r="C68" s="8">
+        <v>44115</v>
+      </c>
+      <c r="D68" s="17">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>5</v>
+      </c>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29">
+        <v>31</v>
+      </c>
+      <c r="V68" s="29"/>
+      <c r="W68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X68" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA68" s="31">
+        <v>4800</v>
+      </c>
+      <c r="AY68" s="29"/>
+      <c r="AZ68" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA68" s="29"/>
+      <c r="BB68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC68" s="30">
+        <v>1800</v>
+      </c>
+      <c r="BD68" s="11"/>
+      <c r="BE68" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF68" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:58">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY70" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+      <c r="BC70" s="3"/>
+      <c r="BD70" s="3"/>
+      <c r="BE70" s="3"/>
+      <c r="BF70" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:58">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G71" s="25">
+        <v>8000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>14</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AY71" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ71" s="4"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="3"/>
+      <c r="BD71" s="4"/>
+      <c r="BE71" s="4"/>
+      <c r="BF71" s="4"/>
+    </row>
+    <row r="72" spans="1:58">
+      <c r="T72" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y72" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY72" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA72" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD72" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE72" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF72" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:58">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="T73" s="45">
+        <v>10</v>
+      </c>
+      <c r="U73" s="4">
+        <v>18</v>
+      </c>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="17">
+        <v>17000</v>
+      </c>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA73" s="27">
+        <v>17000</v>
+      </c>
+      <c r="AY73" s="45">
+        <v>10</v>
+      </c>
+      <c r="AZ73" s="4">
+        <v>18</v>
+      </c>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC73" s="17">
+        <v>17000</v>
+      </c>
+      <c r="BD73" s="28"/>
+      <c r="BE73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF73" s="27">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:58">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G74" s="25">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>15</v>
+      </c>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29">
+        <v>31</v>
+      </c>
+      <c r="V74" s="29"/>
+      <c r="W74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="X74" s="30">
+        <v>8000</v>
+      </c>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA74" s="31">
+        <v>25000</v>
+      </c>
+      <c r="AY74" s="29"/>
+      <c r="AZ74" s="29">
+        <v>31</v>
+      </c>
+      <c r="BA74" s="29"/>
+      <c r="BB74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC74" s="30">
+        <v>80000</v>
+      </c>
+      <c r="BD74" s="11"/>
+      <c r="BE74" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF74" s="31">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:58">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ76" s="3"/>
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
+      <c r="BC76" s="3"/>
+      <c r="BD76" s="3"/>
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:58">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="7">
+        <v>44105</v>
+      </c>
+      <c r="G77" s="25">
+        <v>200000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AY77" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ77" s="4"/>
+      <c r="BA77" s="4"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="3"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="4"/>
+      <c r="BF77" s="4"/>
+    </row>
+    <row r="78" spans="1:58">
+      <c r="T78" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y78" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA78" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY78" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC78" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD78" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF78" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:58">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="T79" s="60">
+        <v>10</v>
+      </c>
+      <c r="U79" s="61">
+        <v>21</v>
+      </c>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61">
+        <v>1</v>
+      </c>
+      <c r="X79" s="30">
+        <v>400</v>
+      </c>
+      <c r="Y79" s="31"/>
+      <c r="Z79" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA79" s="31">
+        <v>400</v>
+      </c>
+      <c r="AY79" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ79" s="61">
+        <v>21</v>
+      </c>
+      <c r="BA79" s="61"/>
+      <c r="BB79" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC79" s="30">
+        <v>400</v>
+      </c>
+      <c r="BD79" s="31"/>
+      <c r="BE79" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF79" s="31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:58">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="7">
+        <v>44119</v>
+      </c>
+      <c r="G80" s="25">
+        <v>30000</v>
+      </c>
+      <c r="H80" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:58">
+      <c r="E81" s="5"/>
+      <c r="F81" s="8">
+        <v>44135</v>
+      </c>
+      <c r="G81" s="17">
+        <v>40000</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="T81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:58">
+      <c r="T82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AY82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ82" s="4"/>
+      <c r="BA82" s="4"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="4"/>
+      <c r="BF82" s="4"/>
+    </row>
+    <row r="83" spans="1:58">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="T83" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X83" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA83" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY83" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC83" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD83" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF83" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:58">
+      <c r="C84" s="7">
+        <v>44109</v>
+      </c>
+      <c r="D84" s="25">
+        <v>90000</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="T84" s="60">
+        <v>10</v>
+      </c>
+      <c r="U84" s="61">
+        <v>18</v>
+      </c>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61">
+        <v>1</v>
+      </c>
+      <c r="X84" s="30">
+        <v>17000</v>
+      </c>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA84" s="31">
+        <v>17000</v>
+      </c>
+      <c r="AY84" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ84" s="61">
+        <v>18</v>
+      </c>
+      <c r="BA84" s="61"/>
+      <c r="BB84" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC84" s="30">
+        <v>17000</v>
+      </c>
+      <c r="BD84" s="31"/>
+      <c r="BE84" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF84" s="31">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:58">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="T86" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AY86" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+      <c r="BD86" s="3"/>
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:58">
+      <c r="C87" s="7">
+        <v>44111</v>
+      </c>
+      <c r="D87" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="F87" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G87" s="25">
+        <v>1800</v>
+      </c>
+      <c r="H87" s="3">
+        <v>13</v>
+      </c>
+      <c r="T87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AY87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ87" s="4"/>
+      <c r="BA87" s="4"/>
+      <c r="BB87" s="4"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="4"/>
+      <c r="BE87" s="4"/>
+      <c r="BF87" s="4"/>
+    </row>
+    <row r="88" spans="1:58">
+      <c r="T88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y88" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA88" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC88" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD88" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF88" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:58">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T89" s="60">
+        <v>10</v>
+      </c>
+      <c r="U89" s="61">
+        <v>31</v>
+      </c>
+      <c r="V89" s="61"/>
+      <c r="W89" s="61">
+        <v>1</v>
+      </c>
+      <c r="X89" s="30">
+        <v>1000</v>
+      </c>
+      <c r="Y89" s="31"/>
+      <c r="Z89" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA89" s="31">
+        <v>1000</v>
+      </c>
+      <c r="AY89" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ89" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA89" s="61"/>
+      <c r="BB89" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC89" s="30">
+        <v>1000</v>
+      </c>
+      <c r="BD89" s="31"/>
+      <c r="BE89" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF89" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:58">
+      <c r="C90" s="7">
+        <v>44122</v>
+      </c>
+      <c r="D90" s="25">
+        <v>17000</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:58">
+      <c r="C91" s="8">
+        <v>44135</v>
+      </c>
+      <c r="D91" s="17">
+        <v>8000</v>
+      </c>
+      <c r="E91" s="5">
+        <v>14</v>
+      </c>
+      <c r="T91" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY91" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:58">
+      <c r="T92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AY92" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ92" s="4"/>
+      <c r="BA92" s="4"/>
+      <c r="BB92" s="4"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="4"/>
+      <c r="BE92" s="4"/>
+      <c r="BF92" s="4"/>
+    </row>
+    <row r="93" spans="1:58">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="T93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y93" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA93" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA93" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD93" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE93" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF93" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:58">
+      <c r="C94" s="7">
+        <v>44125</v>
+      </c>
+      <c r="D94" s="25">
+        <v>400</v>
+      </c>
+      <c r="E94" s="4">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="T94" s="60">
+        <v>10</v>
+      </c>
+      <c r="U94" s="61">
+        <v>31</v>
+      </c>
+      <c r="V94" s="61"/>
+      <c r="W94" s="61">
+        <v>1</v>
+      </c>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="Z94" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="AY94" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ94" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA94" s="61"/>
+      <c r="BB94" s="61">
+        <v>1</v>
+      </c>
+      <c r="BC94" s="30"/>
+      <c r="BD94" s="31">
+        <v>1000</v>
+      </c>
+      <c r="BE94" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF94" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:58">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="T96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY96" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58">
+      <c r="C97" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D97" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E97" s="4">
+        <v>11</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="T97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AY97" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ97" s="4"/>
+      <c r="BA97" s="4"/>
+      <c r="BB97" s="4"/>
+      <c r="BC97" s="3"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="4"/>
+      <c r="BF97" s="4"/>
+    </row>
+    <row r="98" spans="1:58">
+      <c r="T98" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X98" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY98" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA98" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC98" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD98" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE98" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF98" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:58">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="T99" s="60">
+        <v>10</v>
+      </c>
+      <c r="U99" s="61">
+        <v>31</v>
+      </c>
+      <c r="V99" s="61"/>
+      <c r="W99" s="61">
+        <v>61</v>
+      </c>
+      <c r="X99" s="30">
+        <v>1800</v>
+      </c>
+      <c r="Y99" s="31"/>
+      <c r="Z99" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA99" s="33">
+        <v>1800</v>
+      </c>
+      <c r="AY99" s="60">
+        <v>10</v>
+      </c>
+      <c r="AZ99" s="61">
+        <v>31</v>
+      </c>
+      <c r="BA99" s="61"/>
+      <c r="BB99" s="61">
+        <v>61</v>
+      </c>
+      <c r="BC99" s="30">
+        <v>1800</v>
+      </c>
+      <c r="BD99" s="31"/>
+      <c r="BE99" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF99" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:58">
+      <c r="C100" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D100" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="4">
+        <v>12</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="102" spans="1:58">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7">
+        <v>44135</v>
+      </c>
+      <c r="G103" s="25">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:58">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:58">
+      <c r="C106" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D106" s="25">
+        <v>1800</v>
+      </c>
+      <c r="E106" s="4">
+        <v>13</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="108" spans="1:58">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:58">
+      <c r="C109" s="7">
+        <v>44135</v>
+      </c>
+      <c r="D109" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E109" s="4">
+        <v>15</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="114" spans="1:24">
+      <c r="A114" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" s="115"/>
+      <c r="K114" s="115" t="s">
+        <v>326</v>
+      </c>
+      <c r="L114" s="115"/>
+    </row>
+    <row r="116" spans="1:24">
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+      <c r="M116" t="s">
+        <v>157</v>
+      </c>
+      <c r="W116" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
+      <c r="C117" t="s">
+        <v>108</v>
+      </c>
+      <c r="M117" t="s">
+        <v>108</v>
+      </c>
+      <c r="W117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
+      <c r="C118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="I118" s="115"/>
+      <c r="M118" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q118" s="115" t="s">
+        <v>325</v>
+      </c>
+      <c r="R118" s="115"/>
+      <c r="T118" s="115" t="s">
+        <v>326</v>
+      </c>
+      <c r="U118" s="115"/>
+      <c r="W118" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>324</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
+        <v>95</v>
+      </c>
+      <c r="M119" t="s">
+        <v>96</v>
+      </c>
+      <c r="N119" t="s">
+        <v>17</v>
+      </c>
+      <c r="O119" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>17</v>
+      </c>
+      <c r="R119" t="s">
+        <v>19</v>
+      </c>
+      <c r="T119" t="s">
+        <v>17</v>
+      </c>
+      <c r="U119" t="s">
+        <v>19</v>
+      </c>
+      <c r="W119" t="s">
+        <v>17</v>
+      </c>
+      <c r="X119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="51">
+        <v>115600</v>
+      </c>
+      <c r="E120" s="51"/>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>115600</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" s="55">
+        <f>IF($I120&gt;0,$I120,"")</f>
+        <v>115600</v>
+      </c>
+      <c r="O120" s="55" t="str">
+        <f>IF(-$I120&gt;0,-$I120,"")</f>
+        <v/>
+      </c>
+      <c r="Q120">
+        <f>IF(D120&lt;&gt;"",D120,0)</f>
+        <v>115600</v>
+      </c>
+      <c r="R120">
+        <f>IF(E120&lt;&gt;"",E120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <f>IF(N120&lt;&gt;"",N120,0)</f>
+        <v>115600</v>
+      </c>
+      <c r="U120">
+        <f>IF(O120&lt;&gt;"",O120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W120" t="b">
+        <f>IF(Q120=T120,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X120" t="b">
+        <f>IF(R120=U120,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="51">
+        <v>20000</v>
+      </c>
+      <c r="E121" s="51"/>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>20000</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N121" s="55">
+        <f t="shared" ref="N121:N136" si="11">IF($I121&gt;0,$I121,"")</f>
+        <v>20000</v>
+      </c>
+      <c r="O121" s="55" t="str">
+        <f t="shared" ref="O121:O136" si="12">IF(-$I121&gt;0,-$I121,"")</f>
+        <v/>
+      </c>
+      <c r="Q121">
+        <f t="shared" ref="Q121:Q137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
+        <v>20000</v>
+      </c>
+      <c r="R121">
+        <f t="shared" ref="R121:R137" si="14">IF(E121&lt;&gt;"",E121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <f t="shared" ref="T121:T137" si="15">IF(N121&lt;&gt;"",N121,0)</f>
+        <v>20000</v>
+      </c>
+      <c r="U121">
+        <f t="shared" ref="U121:U137" si="16">IF(O121&lt;&gt;"",O121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W121" t="b">
+        <f t="shared" ref="W121:W137" si="17">IF(Q121=T121,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="X121" t="b">
+        <f t="shared" ref="X121:X137" si="18">IF(R121=U121,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="51">
+        <v>14000</v>
+      </c>
+      <c r="E122" s="51"/>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>14000</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N122" s="55">
+        <f t="shared" si="11"/>
+        <v>14000</v>
+      </c>
+      <c r="O122" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="13"/>
+        <v>14000</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="15"/>
+        <v>14000</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W122" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X122" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="51">
+        <v>0</v>
+      </c>
+      <c r="E123" s="51"/>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="N123" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O123" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W123" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X123" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51">
+        <v>8000</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>-8000</v>
+      </c>
+      <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="N124" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O124" s="55">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="14"/>
+        <v>8000</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="W124" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X124" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51">
+        <v>1000</v>
+      </c>
+      <c r="H125">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>-1000</v>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="N125" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O125" s="55">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="W125" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X125" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51">
+        <v>200000</v>
+      </c>
+      <c r="H126">
+        <v>7</v>
+      </c>
+      <c r="I126">
+        <v>-200000</v>
+      </c>
+      <c r="K126">
+        <v>7</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N126" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O126" s="55">
+        <f t="shared" si="12"/>
+        <v>200000</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="14"/>
+        <v>200000</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="16"/>
+        <v>200000</v>
+      </c>
+      <c r="W126" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X126" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51">
+        <v>70000</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>-70000</v>
+      </c>
+      <c r="K127">
+        <v>8</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="N127" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O127" s="55">
+        <f t="shared" si="12"/>
+        <v>70000</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="14"/>
+        <v>70000</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="16"/>
+        <v>70000</v>
+      </c>
+      <c r="W127" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X127" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="A128">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" s="51">
+        <v>90000</v>
+      </c>
+      <c r="E128" s="51"/>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="I128">
+        <v>90000</v>
+      </c>
+      <c r="K128">
+        <v>9</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="M128" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="N128" s="55">
+        <f t="shared" si="11"/>
+        <v>90000</v>
+      </c>
+      <c r="O128" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="13"/>
+        <v>90000</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="15"/>
+        <v>90000</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W128" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X128" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
+      <c r="A129">
+        <v>10</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="51">
+        <v>1200</v>
+      </c>
+      <c r="E129" s="51"/>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>1200</v>
+      </c>
+      <c r="K129">
+        <v>10</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="N129" s="55">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="O129" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="13"/>
+        <v>1200</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W129" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X129" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" s="51">
+        <v>25000</v>
+      </c>
+      <c r="E130" s="51"/>
+      <c r="H130">
+        <v>11</v>
+      </c>
+      <c r="I130">
+        <v>25000</v>
+      </c>
+      <c r="K130">
+        <v>11</v>
+      </c>
+      <c r="L130">
+        <v>5</v>
+      </c>
+      <c r="M130" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="N130" s="55">
+        <f t="shared" si="11"/>
+        <v>25000</v>
+      </c>
+      <c r="O130" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="15"/>
+        <v>25000</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W130" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X130" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
+      <c r="A131">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" s="51">
+        <v>400</v>
+      </c>
+      <c r="E131" s="51"/>
+      <c r="H131">
+        <v>12</v>
+      </c>
+      <c r="I131">
+        <v>400</v>
+      </c>
+      <c r="K131">
+        <v>12</v>
+      </c>
+      <c r="L131">
+        <v>5</v>
+      </c>
+      <c r="M131" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="N131" s="55">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="O131" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W131" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X131" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" s="51">
+        <v>10000</v>
+      </c>
+      <c r="E132" s="51"/>
+      <c r="H132">
+        <v>13</v>
+      </c>
+      <c r="I132">
+        <v>10000</v>
+      </c>
+      <c r="K132">
+        <v>13</v>
+      </c>
+      <c r="L132">
+        <v>5</v>
+      </c>
+      <c r="M132" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="N132" s="55">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="O132" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W132" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X132" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E133" s="51"/>
+      <c r="H133">
+        <v>14</v>
+      </c>
+      <c r="I133">
+        <v>1000</v>
+      </c>
+      <c r="K133">
+        <v>14</v>
+      </c>
+      <c r="L133">
+        <v>5</v>
+      </c>
+      <c r="M133" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="N133" s="55">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O133" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W133" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X133" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51">
+        <v>1000</v>
+      </c>
+      <c r="H134">
+        <v>15</v>
+      </c>
+      <c r="I134">
+        <v>-1000</v>
+      </c>
+      <c r="K134">
+        <v>15</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="N134" s="55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O134" s="55">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="W134" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X134" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="51">
+        <v>1800</v>
+      </c>
+      <c r="E135" s="51"/>
+      <c r="H135">
+        <v>16</v>
+      </c>
+      <c r="I135">
+        <v>1800</v>
+      </c>
+      <c r="K135">
+        <v>16</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="N135" s="55">
+        <f t="shared" si="11"/>
+        <v>1800</v>
+      </c>
+      <c r="O135" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="13"/>
+        <v>1800</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="15"/>
+        <v>1800</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W135" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X135" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
+      <c r="A136">
+        <v>17</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E136" s="51"/>
+      <c r="H136">
+        <v>17</v>
+      </c>
+      <c r="I136">
+        <v>1000</v>
+      </c>
+      <c r="K136">
+        <v>17</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="N136" s="55">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O136" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W136" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X136" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
+      <c r="C137" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="51">
+        <f>SUM(D120:D136)</f>
+        <v>280000</v>
+      </c>
+      <c r="E137" s="51">
+        <f>SUM(E120:E136)</f>
+        <v>280000</v>
+      </c>
+      <c r="H137" t="s">
+        <v>107</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>107</v>
+      </c>
+      <c r="N137" s="51">
+        <f>SUM(N120:N136)</f>
+        <v>280000</v>
+      </c>
+      <c r="O137" s="51">
+        <f>SUM(O120:O136)</f>
+        <v>280000</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="13"/>
+        <v>280000</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="14"/>
+        <v>280000</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="15"/>
+        <v>280000</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="16"/>
+        <v>280000</v>
+      </c>
+      <c r="W137" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="X137" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0"/>
+  <protectedRanges>
+    <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
+  </protectedRanges>
+  <mergeCells count="12">
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5EB354-CEB0-44A7-98D8-64C8EAE59E97}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -45872,7 +53205,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -45921,7 +53254,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E8">
         <v>10000</v>
@@ -45988,7 +53321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10D647F-35CF-4363-891F-4B3A49A80A77}">
   <dimension ref="B1"/>
   <sheetViews>
@@ -46012,7 +53345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377584E2-A20F-49DC-B5DD-950BCC48F6A4}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -46028,10 +53361,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -46041,20 +53374,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1251F-2DEA-4D8B-B6C4-93FEE7CE4C4D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F340848-6CEB-41E6-B25C-51C581ED9FFB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46253,6 +53574,18 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F340848-6CEB-41E6-B25C-51C581ED9FFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8FD65F-CB54-44FB-BE81-C61B5A1B8DFF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -46266,7 +53599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1204C-E6B9-4847-8D0D-ABC818AD98E6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -46278,7 +53611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35AD1AA-8E33-4D20-A6C4-8F727731DFD9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -46290,7 +53623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C81083-A4E6-4AA2-966B-0E20DA8087EC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -46302,7 +53635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC0246-4849-4C29-AF56-26E0AEC16E34}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11670" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE400A42-201D-408E-8FAC-80256E9E8944}"/>
+  <xr:revisionPtr revIDLastSave="12546" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EB6D517-3107-47F5-BDA8-55C9C39168B2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="63" activeTab="63" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="79" activeTab="79" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -71,8 +71,8 @@
     <sheet name="A5-2" sheetId="65" r:id="rId61"/>
     <sheet name="A5-3" sheetId="87" r:id="rId62"/>
     <sheet name="A5-3 (2)" sheetId="88" r:id="rId63"/>
-    <sheet name="A5-3 (4)" sheetId="93" r:id="rId64"/>
-    <sheet name="A5-3 (3)" sheetId="92" r:id="rId65"/>
+    <sheet name="A5-3 (3)" sheetId="92" r:id="rId64"/>
+    <sheet name="A5-3 (4)" sheetId="93" r:id="rId65"/>
     <sheet name="A5-3題目和解答" sheetId="91" r:id="rId66"/>
     <sheet name="A3-3題目和解答" sheetId="89" r:id="rId67"/>
     <sheet name="A4-3題目和解答" sheetId="90" r:id="rId68"/>
@@ -83,6 +83,14 @@
     <sheet name="B5-3" sheetId="71" r:id="rId73"/>
     <sheet name="B5-4" sheetId="72" r:id="rId74"/>
     <sheet name="B5-5" sheetId="73" r:id="rId75"/>
+    <sheet name="Q6-3" sheetId="97" r:id="rId76"/>
+    <sheet name="Q6-4" sheetId="98" r:id="rId77"/>
+    <sheet name="Q6-8" sheetId="99" r:id="rId78"/>
+    <sheet name="Q6-9" sheetId="100" r:id="rId79"/>
+    <sheet name="Q6-10" sheetId="101" r:id="rId80"/>
+    <sheet name="A6-1" sheetId="94" r:id="rId81"/>
+    <sheet name="A6-2" sheetId="95" r:id="rId82"/>
+    <sheet name="A6-3" sheetId="96" r:id="rId83"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -182,102 +190,6 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B21C1172-9B1F-4066-A4A3-B5ABC655902D}</author>
-    <author>tc={37EB792A-2639-4561-A575-313385C42344}</author>
-    <author>tc={38D5FD98-E4E2-424A-B554-62B04CFF60CF}</author>
-    <author>tc={C51CB67A-3161-470A-AA47-2F3C2952454B}</author>
-    <author>tc={5E442DBC-6DBD-45E5-B3E5-777B38518E7F}</author>
-    <author>tc={3F3212EA-9254-414B-9A16-E794A2D40884}</author>
-    <author>tc={1D9A2D02-01C8-4450-91EA-387BCF469F5E}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
-Reply:
-    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？
-Reply:
-    再次更正
-Reply:
-    跟A5-3(2)不一樣，我將累積折舊列為負債
-Reply:
-    這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)
-Reply:
-    微小細節調整，合併儲存格和調整列寬。
-Reply:
-    微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。
-Reply:
-    K49的是用公式算，則J120的就只是複製並貼上K49數值。
-Reply:
-    主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。
-Reply:
-    細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
-用excel公式跟原本的小表格計算其相等性。</t>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{37EB792A-2639-4561-A575-313385C42344}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{38D5FD98-E4E2-424A-B554-62B04CFF60CF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A4-3題目和解答，詳見
-A4-3題目和解答的工作表。</t>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    對題目A4-3，我的答案。
-Reply:
-    從A30到G39。</t>
-      </text>
-    </comment>
-    <comment ref="A114" authorId="4" shapeId="0" xr:uid="{5E442DBC-6DBD-45E5-B3E5-777B38518E7F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</t>
-      </text>
-    </comment>
-    <comment ref="K114" authorId="5" shapeId="0" xr:uid="{3F3212EA-9254-414B-9A16-E794A2D40884}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    根據I120的cell，並用excel的公式計算。</t>
-      </text>
-    </comment>
-    <comment ref="H118" authorId="6" shapeId="0" xr:uid="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    原本的文字內容：T字形科目金額總計(只貼上值)
-Reply:
-    打算訂這樣但因為字元太長。</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={34C353A3-4A3D-4BF6-A7BE-B482F619C311}</author>
     <author>tc={1451D451-CFAA-4007-83AE-B4F5D0AD411B}</author>
     <author>tc={ABE2E7D7-EB46-4F0A-B9FB-33BC587A6063}</author>
@@ -371,6 +283,104 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B21C1172-9B1F-4066-A4A3-B5ABC655902D}</author>
+    <author>tc={37EB792A-2639-4561-A575-313385C42344}</author>
+    <author>tc={38D5FD98-E4E2-424A-B554-62B04CFF60CF}</author>
+    <author>tc={C51CB67A-3161-470A-AA47-2F3C2952454B}</author>
+    <author>tc={5E442DBC-6DBD-45E5-B3E5-777B38518E7F}</author>
+    <author>tc={3F3212EA-9254-414B-9A16-E794A2D40884}</author>
+    <author>tc={1D9A2D02-01C8-4450-91EA-387BCF469F5E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
+Reply:
+    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？
+Reply:
+    再次更正
+Reply:
+    跟A5-3(2)不一樣，我將累積折舊列為負債
+Reply:
+    這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)
+Reply:
+    微小細節調整，合併儲存格和調整列寬。
+Reply:
+    微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。
+Reply:
+    K49的是用公式算，則J120的就只是複製並貼上K49數值。
+Reply:
+    主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。
+Reply:
+    細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
+用excel公式跟原本的小表格計算其相等性。
+Reply:
+    主要更正，剛剛檢討選擇題時，意外發現，累積折舊屬於資產減少，應記載於貸方。</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{37EB792A-2639-4561-A575-313385C42344}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{38D5FD98-E4E2-424A-B554-62B04CFF60CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    對題目A4-3，我的答案。
+Reply:
+    從A30到G39。</t>
+      </text>
+    </comment>
+    <comment ref="A114" authorId="4" shapeId="0" xr:uid="{5E442DBC-6DBD-45E5-B3E5-777B38518E7F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</t>
+      </text>
+    </comment>
+    <comment ref="K114" authorId="5" shapeId="0" xr:uid="{3F3212EA-9254-414B-9A16-E794A2D40884}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據I120的cell，並用excel的公式計算。</t>
+      </text>
+    </comment>
+    <comment ref="H118" authorId="6" shapeId="0" xr:uid="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    原本的文字內容：T字形科目金額總計(只貼上值)
+Reply:
+    打算訂這樣但因為字元太長。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -405,8 +415,172 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E38DB57D-D9F3-4B60-944E-2ACBDEE63CBF}</author>
+    <author>tc={4918CD1F-A033-4363-B733-61AA30DB4233}</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{E38DB57D-D9F3-4B60-944E-2ACBDEE63CBF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    7/1賒帳65000元。
+Reply:
+    付款條件，2/10,1/20,N/30
+Reply:
+    7/6客戶退回商品共8000元。
+Reply:
+    7/19買方收到欠款的一半。</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="1" shapeId="0" xr:uid="{4918CD1F-A033-4363-B733-61AA30DB4233}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    蕭貨折扣之金額?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2BF7949A-E520-4B22-8B34-C6C2B631A144}</author>
+    <author>tc={54C8DF78-BCF7-4F30-B2B3-06F6868CA926}</author>
+    <author>tc={8CEAB13A-9878-4CE5-B35B-68A76FCB55E4}</author>
+    <author>tc={2E1E66FB-CEE8-4322-9793-535FCF4E34EA}</author>
+    <author>tc={E2536F55-FEB5-4C30-98C1-6A8201B4EA3E}</author>
+    <author>tc={764B817D-E01A-44F6-8B13-1955C6C81B88}</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{2BF7949A-E520-4B22-8B34-C6C2B631A144}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    應收款項差額=期末應收款項-期初應收款項-已經收回的應收款項=本期銷貨淨額</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{54C8DF78-BCF7-4F30-B2B3-06F6868CA926}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    方程式
+Reply:
+    期末應收帳款 - 8000 - 26000 = 30000
+Reply:
+    期末應收帳款 = 8000 + 26000 + 30000 = 64000</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="2" shapeId="0" xr:uid="{8CEAB13A-9878-4CE5-B35B-68A76FCB55E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    銷貨成本 = 期初存貨 + 購貨 - ( 購貨退回 + 購貨折讓 + 購貨折扣 ) - 期末存貨</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="3" shapeId="0" xr:uid="{2E1E66FB-CEE8-4322-9793-535FCF4E34EA}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    銷貨毛利=銷貨淨額 - 銷貨成本 </t>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="4" shapeId="0" xr:uid="{E2536F55-FEB5-4C30-98C1-6A8201B4EA3E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    金額來自於E11的這個cell。</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="5" shapeId="0" xr:uid="{764B817D-E01A-44F6-8B13-1955C6C81B88}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    因為題目沒提到，所以假設商品的折扣等為零。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CFFC20E6-724D-42CF-9E56-EA298CCE4715}</author>
+    <author>tc={64DEB0AB-2B10-40C6-89DD-197FFD9974A2}</author>
+    <author>tc={08EA928B-FC29-4A2B-93C7-D8C2AB78A100}</author>
+    <author>tc={3E6ED9F6-59A9-44E1-96CF-742977B3EA74}</author>
+    <author>tc={B06AEFA8-872A-401B-B9C0-ECF82E1C154A}</author>
+  </authors>
+  <commentList>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{CFFC20E6-724D-42CF-9E56-EA298CCE4715}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    題目提到各年度有連帶關係。
+Reply:
+    所以，才有一些等式成立。
+Reply:
+    詳見，各個會計科目的註解。</t>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="1" shapeId="0" xr:uid="{64DEB0AB-2B10-40C6-89DD-197FFD9974A2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    題目沒有這些欄位，但我自行增加，因為需要這些來計算題目所要求的。
+Reply:
+    有些欄位不求，因為沒必要。那些欄位將為空白。</t>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="2" shapeId="0" xr:uid="{08EA928B-FC29-4A2B-93C7-D8C2AB78A100}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    題目未提供任何線索，所以我假設這些交易沒有折扣、折讓、回扣等。</t>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="3" shapeId="0" xr:uid="{3E6ED9F6-59A9-44E1-96CF-742977B3EA74}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    18年期末存貨=19年期初存貨。</t>
+      </text>
+    </comment>
+    <comment ref="Y3" authorId="4" shapeId="0" xr:uid="{B06AEFA8-872A-401B-B9C0-ECF82E1C154A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    18年銷貨淨額 = 18年銷貨
+Reply:
+    因為我的假設。
+Reply:
+    詳見假設底下的欄位。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="411">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1409,20 +1583,253 @@
   <si>
     <t>A4-3的分錄</t>
   </si>
+  <si>
+    <t>銷貨毛利率</t>
+  </si>
+  <si>
+    <t>銷貨總額</t>
+  </si>
+  <si>
+    <t>銷貨運費</t>
+  </si>
+  <si>
+    <t>銷貨退回</t>
+  </si>
+  <si>
+    <t>銷貨折扣</t>
+  </si>
+  <si>
+    <t>營業費用+銷貨運費</t>
+  </si>
+  <si>
+    <t>想求</t>
+  </si>
+  <si>
+    <t>該年度淨利</t>
+  </si>
+  <si>
+    <t>求得</t>
+  </si>
+  <si>
+    <t>銷貨淨額</t>
+  </si>
+  <si>
+    <t>銷貨毛利</t>
+  </si>
+  <si>
+    <t>營業淨利</t>
+  </si>
+  <si>
+    <t>稅前淨利</t>
+  </si>
+  <si>
+    <t>所得稅</t>
+  </si>
+  <si>
+    <t>購貨</t>
+  </si>
+  <si>
+    <t>方程式</t>
+  </si>
+  <si>
+    <t>購貨退出</t>
+  </si>
+  <si>
+    <t>41,800 = 期初存貨 + 45,000 - ( 800  + 0 + 400 ) + 1000 - 9000</t>
+  </si>
+  <si>
+    <t>購貨折扣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">期初存貨 = 41,800 - ( 45,000 - ( 800  + 0 + 400 ) + 1000 - 9000 ) </t>
+  </si>
+  <si>
+    <t>購貨運費</t>
+  </si>
+  <si>
+    <t>期初存貨 = 6000</t>
+  </si>
+  <si>
+    <t>銷貨成本</t>
+  </si>
+  <si>
+    <t>期末存貨</t>
+  </si>
+  <si>
+    <t>期初存貨</t>
+  </si>
+  <si>
+    <t>商品定價</t>
+  </si>
+  <si>
+    <t>商業折扣</t>
+  </si>
+  <si>
+    <t>現金折扣</t>
+  </si>
+  <si>
+    <t>訂貨日</t>
+  </si>
+  <si>
+    <t>收款款項應被記載為</t>
+  </si>
+  <si>
+    <t>鞋子收入</t>
+  </si>
+  <si>
+    <t>付款日</t>
+  </si>
+  <si>
+    <t>商品費用</t>
+  </si>
+  <si>
+    <t>商品退回</t>
+  </si>
+  <si>
+    <t>買方</t>
+  </si>
+  <si>
+    <t>賣方</t>
+  </si>
+  <si>
+    <t>買方購貨20000</t>
+  </si>
+  <si>
+    <t>期初應收帳款</t>
+  </si>
+  <si>
+    <t>銷貨</t>
+  </si>
+  <si>
+    <t>收回之應收帳款</t>
+  </si>
+  <si>
+    <t>賣方現金銷貨5000</t>
+  </si>
+  <si>
+    <t>貨品費</t>
+  </si>
+  <si>
+    <t>現金銷貨</t>
+  </si>
+  <si>
+    <t>銷貨收入</t>
+  </si>
+  <si>
+    <t>期末應收款項</t>
+  </si>
+  <si>
+    <t>賣方收回應收帳款26000</t>
+  </si>
+  <si>
+    <t>結算銷貨成本</t>
+  </si>
+  <si>
+    <t>假設</t>
+  </si>
+  <si>
+    <t>購貨折讓</t>
+  </si>
+  <si>
+    <t>銷貨折讓</t>
+  </si>
+  <si>
+    <t>購貨（銷貨）淨額的綜合損益表</t>
+  </si>
+  <si>
+    <t>減</t>
+  </si>
+  <si>
+    <t>銷貨退出</t>
+  </si>
+  <si>
+    <t>購貨淨額</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>購貨成本</t>
+  </si>
+  <si>
+    <t>上面分錄的綜合損益表</t>
+  </si>
+  <si>
+    <t>商品總額</t>
+  </si>
+  <si>
+    <t>期貨存貨</t>
+  </si>
+  <si>
+    <t>銷貨成本的公式</t>
+  </si>
+  <si>
+    <t>商品總額=期初存貨+購貨淨額</t>
+  </si>
+  <si>
+    <t>商品總額=期初存貨 + 購貨淨額</t>
+  </si>
+  <si>
+    <t>商品單價</t>
+  </si>
+  <si>
+    <t>賒銷商品200件</t>
+  </si>
+  <si>
+    <t>商品數量</t>
+  </si>
+  <si>
+    <t>定價每件1000元</t>
+  </si>
+  <si>
+    <t>折扣</t>
+  </si>
+  <si>
+    <t>八折成交</t>
+  </si>
+  <si>
+    <t>銷貨折扣率</t>
+  </si>
+  <si>
+    <t>付款條件2/10,N/30</t>
+  </si>
+  <si>
+    <t>折扣前商品費用</t>
+  </si>
+  <si>
+    <t>折扣後商品費用</t>
+  </si>
+  <si>
+    <t>營業</t>
+  </si>
+  <si>
+    <t>自行新增</t>
+  </si>
+  <si>
+    <t>毛利(損)</t>
+  </si>
+  <si>
+    <t>費用</t>
+  </si>
+  <si>
+    <t>淨利(損)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1449,6 +1856,11 @@
       <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1751,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1872,6 +2284,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,6 +2301,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2559,67 +2981,6 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0EF2658E-9DFF-475C-8C5B-AE89DB93F7E4}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T18:18:02.22" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6AAAE81A-DA94-4768-AAF1-A0AD342B5FB1}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>再次更正</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T18:18:56.70" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{36D49CC6-663F-40A5-8C68-7407A001AFA6}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>跟A5-3(2)不一樣，我將累積折舊列為負債</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T18:19:42.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{798729DA-4029-47B5-9EB5-1E3FA46E04CE}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T18:29:58.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{32E067A6-CFD8-49EA-91BE-3655D102D4A3}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>微小細節調整，合併儲存格和調整列寬。</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T18:49:25.52" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{87BB30BA-FA07-451B-B18B-234D06D6621F}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T18:50:19.93" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8B345983-2AAF-467B-A3F1-509A6E708E3D}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>K49的是用公式算，則J120的就只是複製並貼上K49數值。</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T19:05:58.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D963009A-F0CF-45C5-A33D-2E6FA69BC355}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2024-02-03T19:08:43.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B13E741B-C4FC-4C42-9F3D-BEB64B8C7B8C}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
-    <text>細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
-用excel公式跟原本的小表格計算其相等性。</text>
-  </threadedComment>
-  <threadedComment ref="E2" dT="2024-02-03T10:08:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{37EB792A-2639-4561-A575-313385C42344}">
-    <text>A3-3題目和解答，詳見"A3-3題目和解答"工作表。</text>
-  </threadedComment>
-  <threadedComment ref="E3" dT="2024-02-03T10:08:37.95" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{38D5FD98-E4E2-424A-B554-62B04CFF60CF}">
-    <text>A4-3題目和解答，詳見
-A4-3題目和解答的工作表。</text>
-  </threadedComment>
-  <threadedComment ref="A30" dT="2024-02-03T09:44:28.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
-    <text>對題目A4-3，我的答案。</text>
-  </threadedComment>
-  <threadedComment ref="A30" dT="2024-02-03T09:44:52.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{155FC2CB-74AC-4A4A-8CA9-862BDC16E6DF}" parentId="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
-    <text>從A30到G39。</text>
-  </threadedComment>
-  <threadedComment ref="A114" dT="2024-02-03T18:58:36.43" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5E442DBC-6DBD-45E5-B3E5-777B38518E7F}">
-    <text>根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</text>
-  </threadedComment>
-  <threadedComment ref="K114" dT="2024-02-03T18:57:12.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3F3212EA-9254-414B-9A16-E794A2D40884}">
-    <text>根據I120的cell，並用excel的公式計算。</text>
-  </threadedComment>
-  <threadedComment ref="H118" dT="2024-02-03T18:46:00.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
-    <text>原本的文字內容：T字形科目金額總計(只貼上值)</text>
-  </threadedComment>
-  <threadedComment ref="H118" dT="2024-02-03T18:46:28.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EF79D621-2F0D-4E49-A50E-5DD91AF3EFFA}" parentId="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
-    <text>打算訂這樣但因為字元太長。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
     <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
   </threadedComment>
@@ -2679,6 +3040,70 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T09:31:08.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0EF2658E-9DFF-475C-8C5B-AE89DB93F7E4}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:18:02.22" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6AAAE81A-DA94-4768-AAF1-A0AD342B5FB1}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>再次更正</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:18:56.70" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{36D49CC6-663F-40A5-8C68-7407A001AFA6}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>跟A5-3(2)不一樣，我將累積折舊列為負債</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:19:42.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{798729DA-4029-47B5-9EB5-1E3FA46E04CE}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>這個錯誤的發現是來自課本的工作底稿的科目(我仔細觀察發現)</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:29:58.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{32E067A6-CFD8-49EA-91BE-3655D102D4A3}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>微小細節調整，合併儲存格和調整列寬。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:49:25.52" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{87BB30BA-FA07-451B-B18B-234D06D6621F}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>微小細節調整，重新計算原本T字形的總計。並記錄在表格中。開始於cell K49和I120。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T18:50:19.93" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8B345983-2AAF-467B-A3F1-509A6E708E3D}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>K49的是用公式算，則J120的就只是複製並貼上K49數值。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T19:05:58.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D963009A-F0CF-45C5-A33D-2E6FA69BC355}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>主要更正，T字形中的應付稅捐這個科目，從一萬元更正一千元。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T19:08:43.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B13E741B-C4FC-4C42-9F3D-BEB64B8C7B8C}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>細微增加，首先，增加一個小表格，根據I120的cell並用公式計算。其次，
+用excel公式跟原本的小表格計算其相等性。</text>
+  </threadedComment>
+  <threadedComment ref="A2" dT="2024-02-03T20:30:13.42" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{94B3013D-72D5-41DF-920F-7D80FD250D3E}" parentId="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
+    <text>主要更正，剛剛檢討選擇題時，意外發現，累積折舊屬於資產減少，應記載於貸方。</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2024-02-03T10:08:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{37EB792A-2639-4561-A575-313385C42344}">
+    <text>A3-3題目和解答，詳見"A3-3題目和解答"工作表。</text>
+  </threadedComment>
+  <threadedComment ref="E3" dT="2024-02-03T10:08:37.95" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{38D5FD98-E4E2-424A-B554-62B04CFF60CF}">
+    <text>A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:28.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
+    <text>對題目A4-3，我的答案。</text>
+  </threadedComment>
+  <threadedComment ref="A30" dT="2024-02-03T09:44:52.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{155FC2CB-74AC-4A4A-8CA9-862BDC16E6DF}" parentId="{C51CB67A-3161-470A-AA47-2F3C2952454B}">
+    <text>從A30到G39。</text>
+  </threadedComment>
+  <threadedComment ref="A114" dT="2024-02-03T18:58:36.43" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5E442DBC-6DBD-45E5-B3E5-777B38518E7F}">
+    <text>根據I120的cell，將數值複製並貼上值，然後將負數的值移動貸方。</text>
+  </threadedComment>
+  <threadedComment ref="K114" dT="2024-02-03T18:57:12.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3F3212EA-9254-414B-9A16-E794A2D40884}">
+    <text>根據I120的cell，並用excel的公式計算。</text>
+  </threadedComment>
+  <threadedComment ref="H118" dT="2024-02-03T18:46:00.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
+    <text>原本的文字內容：T字形科目金額總計(只貼上值)</text>
+  </threadedComment>
+  <threadedComment ref="H118" dT="2024-02-03T18:46:28.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EF79D621-2F0D-4E49-A50E-5DD91AF3EFFA}" parentId="{1D9A2D02-01C8-4450-91EA-387BCF469F5E}">
+    <text>打算訂這樣但因為字元太長。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-02-03T09:38:47.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B234CC52-F045-4CAB-BFFD-355C1016A66D}">
@@ -2699,6 +3124,90 @@
   </threadedComment>
   <threadedComment ref="H1" dT="2024-02-03T09:43:19.32" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{88A816EC-20E5-4B57-919E-44D958D0208F}" parentId="{F592FC2C-ADC9-46F0-ABA3-CB530013588B}">
     <text>我列的分錄附加在A3-3的分錄下方。開始於A30這個cell。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C3" dT="2024-02-04T10:19:59.71" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E38DB57D-D9F3-4B60-944E-2ACBDEE63CBF}">
+    <text>7/1賒帳65000元。</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2024-02-04T10:20:34.93" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B1973B37-4EB5-4632-84CF-B94DB75C46DC}" parentId="{E38DB57D-D9F3-4B60-944E-2ACBDEE63CBF}">
+    <text>付款條件，2/10,1/20,N/30</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2024-02-04T10:21:12.94" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{90CDC947-8E43-4DF4-9907-F847D46E9118}" parentId="{E38DB57D-D9F3-4B60-944E-2ACBDEE63CBF}">
+    <text>7/6客戶退回商品共8000元。</text>
+  </threadedComment>
+  <threadedComment ref="C3" dT="2024-02-04T10:21:55.75" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{769611D6-932C-4E57-B0CF-73CA2FD83987}" parentId="{E38DB57D-D9F3-4B60-944E-2ACBDEE63CBF}">
+    <text>7/19買方收到欠款的一半。</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2024-02-04T10:22:26.39" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{4918CD1F-A033-4363-B733-61AA30DB4233}">
+    <text>蕭貨折扣之金額?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D10" dT="2024-02-04T10:52:21.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2BF7949A-E520-4B22-8B34-C6C2B631A144}">
+    <text>應收款項差額=期末應收款項-期初應收款項-已經收回的應收款項=本期銷貨淨額</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2024-02-04T10:55:19.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{54C8DF78-BCF7-4F30-B2B3-06F6868CA926}">
+    <text>方程式</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2024-02-04T10:55:55.27" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{81F9CD07-A3A4-4002-AE83-16F62152514C}" parentId="{54C8DF78-BCF7-4F30-B2B3-06F6868CA926}">
+    <text>期末應收帳款 - 8000 - 26000 = 30000</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2024-02-04T10:56:37.32" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{05A93C1A-70B7-45C5-B7EE-B60290D09020}" parentId="{54C8DF78-BCF7-4F30-B2B3-06F6868CA926}">
+    <text>期末應收帳款 = 8000 + 26000 + 30000 = 64000</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2024-02-04T10:59:27.78" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8CEAB13A-9878-4CE5-B35B-68A76FCB55E4}">
+    <text>銷貨成本 = 期初存貨 + 購貨 - ( 購貨退回 + 購貨折讓 + 購貨折扣 ) - 期末存貨</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2024-02-04T10:57:49.39" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2E1E66FB-CEE8-4322-9793-535FCF4E34EA}">
+    <text xml:space="preserve">銷貨毛利=銷貨淨額 - 銷貨成本 </text>
+  </threadedComment>
+  <threadedComment ref="L12" dT="2024-02-04T12:34:38.64" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E2536F55-FEB5-4C30-98C1-6A8201B4EA3E}">
+    <text>金額來自於E11的這個cell。</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2024-02-04T10:51:35.33" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{764B817D-E01A-44F6-8B13-1955C6C81B88}">
+    <text>因為題目沒提到，所以假設商品的折扣等為零。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M2" dT="2024-02-04T07:39:58.62" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{CFFC20E6-724D-42CF-9E56-EA298CCE4715}">
+    <text>題目提到各年度有連帶關係。</text>
+  </threadedComment>
+  <threadedComment ref="M2" dT="2024-02-04T07:40:23.40" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5F9F081E-3DC4-4493-AF38-E7FE6C4D1A44}" parentId="{CFFC20E6-724D-42CF-9E56-EA298CCE4715}">
+    <text>所以，才有一些等式成立。</text>
+  </threadedComment>
+  <threadedComment ref="M2" dT="2024-02-04T07:40:56.41" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0C5864AD-AC4C-4223-8A08-9D4FBD6C12D6}" parentId="{CFFC20E6-724D-42CF-9E56-EA298CCE4715}">
+    <text>詳見，各個會計科目的註解。</text>
+  </threadedComment>
+  <threadedComment ref="V2" dT="2024-02-04T07:37:48.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{64DEB0AB-2B10-40C6-89DD-197FFD9974A2}">
+    <text>題目沒有這些欄位，但我自行增加，因為需要這些來計算題目所要求的。</text>
+  </threadedComment>
+  <threadedComment ref="V2" dT="2024-02-04T07:45:43.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{50243AEB-7C8D-4F19-BCB9-9014CFB275F5}" parentId="{64DEB0AB-2B10-40C6-89DD-197FFD9974A2}">
+    <text>有些欄位不求，因為沒必要。那些欄位將為空白。</text>
+  </threadedComment>
+  <threadedComment ref="Z2" dT="2024-02-04T07:36:32.85" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{08EA928B-FC29-4A2B-93C7-D8C2AB78A100}">
+    <text>題目未提供任何線索，所以我假設這些交易沒有折扣、折讓、回扣等。</text>
+  </threadedComment>
+  <threadedComment ref="Q3" dT="2024-02-04T07:39:31.84" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3E6ED9F6-59A9-44E1-96CF-742977B3EA74}">
+    <text>18年期末存貨=19年期初存貨。</text>
+  </threadedComment>
+  <threadedComment ref="Y3" dT="2024-02-04T07:38:53.46" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B06AEFA8-872A-401B-B9C0-ECF82E1C154A}">
+    <text>18年銷貨淨額 = 18年銷貨</text>
+  </threadedComment>
+  <threadedComment ref="Y3" dT="2024-02-04T07:42:59.27" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{831F7E43-5B18-4990-B79E-636356C4E461}" parentId="{B06AEFA8-872A-401B-B9C0-ECF82E1C154A}">
+    <text>因為我的假設。</text>
+  </threadedComment>
+  <threadedComment ref="Y3" dT="2024-02-04T07:43:15.27" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AE0DFEFB-A357-4C81-BC03-036CC3745127}" parentId="{B06AEFA8-872A-401B-B9C0-ECF82E1C154A}">
+    <text>詳見假設底下的欄位。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -38848,11 +39357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5853465-F56D-4EAD-814C-8B6ED3A4796D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF1E2F-0693-4B3F-AE4B-01AA9C5AD810}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -39084,28 +39593,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="116" t="s">
+      <c r="AG7" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="116" t="s">
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="117"/>
-      <c r="AM7" s="116" t="s">
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="116" t="s">
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="117"/>
-      <c r="AQ7" s="116" t="s">
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="117"/>
+      <c r="AR7" s="121"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -39206,10 +39715,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="116" t="s">
+      <c r="AE8" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="117"/>
+      <c r="AF8" s="121"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -40900,42 +41409,42 @@
         <v>12</v>
       </c>
       <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="90">
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="93">
         <v>1000</v>
       </c>
-      <c r="AL22" s="89">
+      <c r="AL22" s="92">
         <v>12</v>
       </c>
-      <c r="AM22" s="87" t="str">
+      <c r="AM22" s="94" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="87">
+      <c r="AN22" s="94">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="87" t="str">
+      <c r="AO22" s="94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="87" t="str">
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR22" s="87" t="str">
+      <c r="AR22" s="94">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AS22" s="55"/>
       <c r="AT22">
@@ -40956,7 +41465,7 @@
       </c>
       <c r="AX22">
         <f>IF($AR22="",0,$AR22)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:58">
@@ -41846,7 +42355,7 @@
       </c>
       <c r="AR30" s="70">
         <f>SUM(AR$9:AR$29)</f>
-        <v>269400</v>
+        <v>270400</v>
       </c>
       <c r="AS30" s="69"/>
       <c r="AT30" s="5"/>
@@ -42609,10 +43118,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="115" t="s">
+      <c r="J47" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="115"/>
+      <c r="K47" s="119"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -44703,9 +45212,9 @@
         <v>15</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="49" t="s">
         <v>243</v>
       </c>
     </row>
@@ -44774,14 +45283,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="115" t="s">
+      <c r="A114" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="115"/>
-      <c r="K114" s="115" t="s">
+      <c r="B114" s="119"/>
+      <c r="K114" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="115"/>
+      <c r="L114" s="119"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -44809,21 +45318,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="115" t="s">
+      <c r="H118" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="115"/>
+      <c r="I118" s="119"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="115" t="s">
+      <c r="Q118" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="115"/>
-      <c r="T118" s="115" t="s">
+      <c r="R118" s="119"/>
+      <c r="T118" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="115"/>
+      <c r="U118" s="119"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -44984,27 +45493,27 @@
         <v/>
       </c>
       <c r="Q121">
-        <f t="shared" ref="Q121:R137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
+        <f t="shared" ref="Q121:Q137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
         <v>20000</v>
       </c>
       <c r="R121">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="R121:R137" si="14">IF(E121&lt;&gt;"",E121,0)</f>
         <v>0</v>
       </c>
       <c r="T121">
-        <f t="shared" ref="T121:U137" si="14">IF(N121&lt;&gt;"",N121,0)</f>
+        <f t="shared" ref="T121:T137" si="15">IF(N121&lt;&gt;"",N121,0)</f>
         <v>20000</v>
       </c>
       <c r="U121">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U121:U137" si="16">IF(O121&lt;&gt;"",O121,0)</f>
         <v>0</v>
       </c>
       <c r="W121" t="b">
-        <f t="shared" ref="W121:X137" si="15">IF(Q121=T121,TRUE,FALSE)</f>
+        <f t="shared" ref="W121:W137" si="17">IF(Q121=T121,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="X121" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="X121:X137" si="18">IF(R121=U121,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -45050,23 +45559,23 @@
         <v>14000</v>
       </c>
       <c r="R122">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <f t="shared" si="14"/>
-        <v>14000</v>
-      </c>
-      <c r="U122">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T122">
+        <f t="shared" si="15"/>
+        <v>14000</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W122" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X122" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45112,23 +45621,23 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="U123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W123" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X123" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45174,23 +45683,23 @@
         <v>0</v>
       </c>
       <c r="R124">
-        <f t="shared" si="13"/>
-        <v>8000</v>
-      </c>
-      <c r="T124">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U124">
         <f t="shared" si="14"/>
         <v>8000</v>
       </c>
+      <c r="T124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
       <c r="W124" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X124" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45236,23 +45745,23 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="T125">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U125">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
+      <c r="T125">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
       <c r="W125" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X125" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45298,23 +45807,23 @@
         <v>0</v>
       </c>
       <c r="R126">
-        <f t="shared" si="13"/>
-        <v>200000</v>
-      </c>
-      <c r="T126">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U126">
         <f t="shared" si="14"/>
         <v>200000</v>
       </c>
+      <c r="T126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="16"/>
+        <v>200000</v>
+      </c>
       <c r="W126" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X126" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45360,23 +45869,23 @@
         <v>0</v>
       </c>
       <c r="R127">
-        <f t="shared" si="13"/>
-        <v>70000</v>
-      </c>
-      <c r="T127">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U127">
         <f t="shared" si="14"/>
         <v>70000</v>
       </c>
+      <c r="T127">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="16"/>
+        <v>70000</v>
+      </c>
       <c r="W127" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X127" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45422,23 +45931,23 @@
         <v>90000</v>
       </c>
       <c r="R128">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T128">
-        <f t="shared" si="14"/>
-        <v>90000</v>
-      </c>
-      <c r="U128">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T128">
+        <f t="shared" si="15"/>
+        <v>90000</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W128" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X128" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45484,23 +45993,23 @@
         <v>1200</v>
       </c>
       <c r="R129">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T129">
-        <f t="shared" si="14"/>
-        <v>1200</v>
-      </c>
-      <c r="U129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T129">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W129" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X129" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45546,23 +46055,23 @@
         <v>25000</v>
       </c>
       <c r="R130">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <f t="shared" si="14"/>
-        <v>25000</v>
-      </c>
-      <c r="U130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T130">
+        <f t="shared" si="15"/>
+        <v>25000</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W130" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X130" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45608,23 +46117,23 @@
         <v>400</v>
       </c>
       <c r="R131">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <f t="shared" si="14"/>
-        <v>400</v>
-      </c>
-      <c r="U131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T131">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W131" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X131" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45670,23 +46179,23 @@
         <v>10000</v>
       </c>
       <c r="R132">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T132">
-        <f t="shared" si="14"/>
-        <v>10000</v>
-      </c>
-      <c r="U132">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T132">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W132" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X132" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45732,23 +46241,23 @@
         <v>1000</v>
       </c>
       <c r="R133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T133">
-        <f t="shared" si="14"/>
-        <v>1000</v>
-      </c>
-      <c r="U133">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T133">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W133" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X133" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45794,23 +46303,23 @@
         <v>0</v>
       </c>
       <c r="R134">
-        <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="T134">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U134">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
+      <c r="T134">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
       <c r="W134" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X134" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45856,23 +46365,23 @@
         <v>1800</v>
       </c>
       <c r="R135">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T135">
-        <f t="shared" si="14"/>
-        <v>1800</v>
-      </c>
-      <c r="U135">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T135">
+        <f t="shared" si="15"/>
+        <v>1800</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W135" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X135" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45918,23 +46427,23 @@
         <v>1000</v>
       </c>
       <c r="R136">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T136">
-        <f t="shared" si="14"/>
-        <v>1000</v>
-      </c>
-      <c r="U136">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="T136">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="W136" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X136" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45972,23 +46481,23 @@
         <v>280000</v>
       </c>
       <c r="R137">
-        <f t="shared" si="13"/>
-        <v>280000</v>
-      </c>
-      <c r="T137">
         <f t="shared" si="14"/>
         <v>280000</v>
       </c>
+      <c r="T137">
+        <f t="shared" si="15"/>
+        <v>280000</v>
+      </c>
       <c r="U137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>280000</v>
       </c>
       <c r="W137" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X137" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -45998,18 +46507,18 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
     <mergeCell ref="Q118:R118"/>
-    <mergeCell ref="T118:U118"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AE8:AF8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -46017,11 +46526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF1E2F-0693-4B3F-AE4B-01AA9C5AD810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5853465-F56D-4EAD-814C-8B6ED3A4796D}">
   <dimension ref="A1:BF137"/>
   <sheetViews>
-    <sheetView topLeftCell="AD6" workbookViewId="0">
-      <selection activeCell="AR21" sqref="AR21"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -46253,28 +46762,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="116" t="s">
+      <c r="AG7" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="116" t="s">
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="118"/>
-      <c r="AK7" s="118"/>
-      <c r="AL7" s="117"/>
-      <c r="AM7" s="116" t="s">
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="116" t="s">
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="117"/>
-      <c r="AQ7" s="116" t="s">
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="120" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="117"/>
+      <c r="AR7" s="121"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -46375,10 +46884,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="116" t="s">
+      <c r="AE8" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="117"/>
+      <c r="AF8" s="121"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -48069,42 +48578,42 @@
         <v>12</v>
       </c>
       <c r="AD22">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="93">
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="90">
         <v>1000</v>
       </c>
-      <c r="AL22" s="92">
+      <c r="AL22" s="89">
         <v>12</v>
       </c>
-      <c r="AM22" s="94" t="str">
+      <c r="AM22" s="87" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN22" s="94">
+      <c r="AN22" s="87">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AO22" s="94" t="str">
+      <c r="AO22" s="87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="94" t="str">
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="87" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR22" s="94">
+      <c r="AR22" s="87" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AS22" s="55"/>
       <c r="AT22">
@@ -48125,7 +48634,7 @@
       </c>
       <c r="AX22">
         <f>IF($AR22="",0,$AR22)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:58">
@@ -49015,7 +49524,7 @@
       </c>
       <c r="AR30" s="70">
         <f>SUM(AR$9:AR$29)</f>
-        <v>270400</v>
+        <v>269400</v>
       </c>
       <c r="AS30" s="69"/>
       <c r="AT30" s="5"/>
@@ -49778,10 +50287,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="115" t="s">
+      <c r="J47" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="115"/>
+      <c r="K47" s="119"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -51872,9 +52381,9 @@
         <v>15</v>
       </c>
       <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -51943,14 +52452,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="115" t="s">
+      <c r="A114" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="115"/>
-      <c r="K114" s="115" t="s">
+      <c r="B114" s="119"/>
+      <c r="K114" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="115"/>
+      <c r="L114" s="119"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -51978,21 +52487,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="115" t="s">
+      <c r="H118" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="115"/>
+      <c r="I118" s="119"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="115" t="s">
+      <c r="Q118" s="119" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="115"/>
-      <c r="T118" s="115" t="s">
+      <c r="R118" s="119"/>
+      <c r="T118" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="115"/>
+      <c r="U118" s="119"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -52153,27 +52662,27 @@
         <v/>
       </c>
       <c r="Q121">
-        <f t="shared" ref="Q121:Q137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
+        <f t="shared" ref="Q121:R137" si="13">IF(D121&lt;&gt;"",D121,0)</f>
         <v>20000</v>
       </c>
       <c r="R121">
-        <f t="shared" ref="R121:R137" si="14">IF(E121&lt;&gt;"",E121,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T121">
-        <f t="shared" ref="T121:T137" si="15">IF(N121&lt;&gt;"",N121,0)</f>
+        <f t="shared" ref="T121:U137" si="14">IF(N121&lt;&gt;"",N121,0)</f>
         <v>20000</v>
       </c>
       <c r="U121">
-        <f t="shared" ref="U121:U137" si="16">IF(O121&lt;&gt;"",O121,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W121" t="b">
-        <f t="shared" ref="W121:W137" si="17">IF(Q121=T121,TRUE,FALSE)</f>
+        <f t="shared" ref="W121:X137" si="15">IF(Q121=T121,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="X121" t="b">
-        <f t="shared" ref="X121:X137" si="18">IF(R121=U121,TRUE,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52219,23 +52728,23 @@
         <v>14000</v>
       </c>
       <c r="R122">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="U122">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T122">
+      <c r="W122" t="b">
         <f t="shared" si="15"/>
-        <v>14000</v>
-      </c>
-      <c r="U122">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W122" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X122" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52281,23 +52790,23 @@
         <v>0</v>
       </c>
       <c r="R123">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T123">
+      <c r="U123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W123" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U123">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W123" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X123" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52343,23 +52852,23 @@
         <v>0</v>
       </c>
       <c r="R124">
+        <f t="shared" si="13"/>
+        <v>8000</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
         <f t="shared" si="14"/>
         <v>8000</v>
       </c>
-      <c r="T124">
+      <c r="W124" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U124">
-        <f t="shared" si="16"/>
-        <v>8000</v>
-      </c>
-      <c r="W124" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X124" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52405,23 +52914,23 @@
         <v>0</v>
       </c>
       <c r="R125">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U125">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T125">
+      <c r="W125" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U125">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="W125" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X125" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52467,23 +52976,23 @@
         <v>0</v>
       </c>
       <c r="R126">
+        <f t="shared" si="13"/>
+        <v>200000</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U126">
         <f t="shared" si="14"/>
         <v>200000</v>
       </c>
-      <c r="T126">
+      <c r="W126" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U126">
-        <f t="shared" si="16"/>
-        <v>200000</v>
-      </c>
-      <c r="W126" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X126" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52529,23 +53038,23 @@
         <v>0</v>
       </c>
       <c r="R127">
+        <f t="shared" si="13"/>
+        <v>70000</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U127">
         <f t="shared" si="14"/>
         <v>70000</v>
       </c>
-      <c r="T127">
+      <c r="W127" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U127">
-        <f t="shared" si="16"/>
-        <v>70000</v>
-      </c>
-      <c r="W127" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X127" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52591,23 +53100,23 @@
         <v>90000</v>
       </c>
       <c r="R128">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="14"/>
+        <v>90000</v>
+      </c>
+      <c r="U128">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T128">
+      <c r="W128" t="b">
         <f t="shared" si="15"/>
-        <v>90000</v>
-      </c>
-      <c r="U128">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W128" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X128" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52653,23 +53162,23 @@
         <v>1200</v>
       </c>
       <c r="R129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="U129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T129">
+      <c r="W129" t="b">
         <f t="shared" si="15"/>
-        <v>1200</v>
-      </c>
-      <c r="U129">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W129" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X129" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52715,23 +53224,23 @@
         <v>25000</v>
       </c>
       <c r="R130">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="U130">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T130">
+      <c r="W130" t="b">
         <f t="shared" si="15"/>
-        <v>25000</v>
-      </c>
-      <c r="U130">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W130" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X130" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52777,23 +53286,23 @@
         <v>400</v>
       </c>
       <c r="R131">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="U131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T131">
+      <c r="W131" t="b">
         <f t="shared" si="15"/>
-        <v>400</v>
-      </c>
-      <c r="U131">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W131" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X131" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52839,23 +53348,23 @@
         <v>10000</v>
       </c>
       <c r="R132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="U132">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T132">
+      <c r="W132" t="b">
         <f t="shared" si="15"/>
-        <v>10000</v>
-      </c>
-      <c r="U132">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W132" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X132" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52901,23 +53410,23 @@
         <v>1000</v>
       </c>
       <c r="R133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="U133">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T133">
+      <c r="W133" t="b">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="U133">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W133" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X133" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -52963,23 +53472,23 @@
         <v>0</v>
       </c>
       <c r="R134">
+        <f t="shared" si="13"/>
+        <v>1000</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U134">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
-      <c r="T134">
+      <c r="W134" t="b">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U134">
-        <f t="shared" si="16"/>
-        <v>1000</v>
-      </c>
-      <c r="W134" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X134" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -53025,23 +53534,23 @@
         <v>1800</v>
       </c>
       <c r="R135">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="14"/>
+        <v>1800</v>
+      </c>
+      <c r="U135">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T135">
+      <c r="W135" t="b">
         <f t="shared" si="15"/>
-        <v>1800</v>
-      </c>
-      <c r="U135">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W135" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X135" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -53087,23 +53596,23 @@
         <v>1000</v>
       </c>
       <c r="R136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="U136">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T136">
+      <c r="W136" t="b">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="U136">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W136" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X136" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -53141,23 +53650,23 @@
         <v>280000</v>
       </c>
       <c r="R137">
+        <f t="shared" si="13"/>
+        <v>280000</v>
+      </c>
+      <c r="T137">
         <f t="shared" si="14"/>
         <v>280000</v>
       </c>
-      <c r="T137">
+      <c r="U137">
+        <f t="shared" si="14"/>
+        <v>280000</v>
+      </c>
+      <c r="W137" t="b">
         <f t="shared" si="15"/>
-        <v>280000</v>
-      </c>
-      <c r="U137">
-        <f t="shared" si="16"/>
-        <v>280000</v>
-      </c>
-      <c r="W137" t="b">
-        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X137" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -53167,18 +53676,18 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="T118:U118"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AI7:AL7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
     <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -53647,6 +54156,556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F202F6-C39F-4EDD-8BDC-131126C68BF9}">
+  <dimension ref="C2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="117">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="117">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="D6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="117">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="D7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="117">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="117">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="117">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="117"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="117">
+        <f>$E$4-(SUM($E$5:$E$7))</f>
+        <v>492500</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12">
+        <f>$E$11*$E$3</f>
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="117">
+        <f>$E$12-$E$8</f>
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="D14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="117">
+        <f>$E$13</f>
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="D15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="117">
+        <f>$E$9</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="117">
+        <f>$E$14-$E$15</f>
+        <v>51500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF9CAFB-A371-4F39-8861-3F7DBAD7188B}">
+  <dimension ref="C2:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="117">
+        <v>45000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="D4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="117">
+        <v>800</v>
+      </c>
+      <c r="G4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="D5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="117">
+        <v>400</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="D6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="117">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="D7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="117">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="D8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="117">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="117">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="E10" s="117"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="E11" s="117"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="E12" s="117"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="E13" s="117"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="E14" s="117"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="E15" s="117"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="E16" s="117"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="117"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="117"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="117"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="117"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BC92B-9053-4F46-B9A4-6BF87E205F4D}">
+  <dimension ref="C2:K10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="117">
+        <v>1200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="D4" s="118" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="119"/>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="D5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="117">
+        <v>0.05</v>
+      </c>
+      <c r="G5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="117">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="117"/>
+      <c r="I6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="117">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="G7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="117">
+        <f>$J$5*$E$4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="H8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="117">
+        <f>($J$5-$J$7)*$E$5</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="117">
+        <f>$J$5-$J$7-$J$8</f>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="117">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF714E68-743C-496E-A9BC-12770F85AB75}">
+  <dimension ref="C2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="119"/>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="E5" s="8">
+        <v>44013</v>
+      </c>
+      <c r="F5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="51">
+        <v>65000</v>
+      </c>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="E7" s="8">
+        <v>44018</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="51">
+        <v>8000</v>
+      </c>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="G8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="E9" s="8">
+        <v>44031</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="51">
+        <f>($H$5-$H$7)/2</f>
+        <v>28500</v>
+      </c>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="G10" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51">
+        <f>$H$9*0.01</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51">
+        <f>$H$9-$I$10</f>
+        <v>28215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9BF354-7CC1-4735-95C7-BF3B854FA0D4}">
   <dimension ref="A1"/>
@@ -53662,6 +54721,1657 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C954D-889C-486D-B875-FD18EEFEEBF6}">
+  <dimension ref="C1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:18">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:18">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="3:18">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="51">
+        <v>20000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18">
+      <c r="D4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="51">
+        <v>12000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="D5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="51">
+        <v>11000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="J5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="51">
+        <v>20000</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51">
+        <v>43831</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51">
+        <v>8000</v>
+      </c>
+      <c r="R5" s="51"/>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="51">
+        <v>9000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51">
+        <v>8000</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51">
+        <v>14000</v>
+      </c>
+      <c r="R6" s="51"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="D7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="51">
+        <v>8000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51">
+        <v>14000</v>
+      </c>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="51">
+        <v>26000</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="8">
+        <v>44196</v>
+      </c>
+      <c r="J8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L8" s="51">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51">
+        <v>44196</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51">
+        <v>5000</v>
+      </c>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="3:18">
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="51">
+        <v>5000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18">
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="51">
+        <v>64000</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" s="8">
+        <v>44196</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="51">
+        <v>26000</v>
+      </c>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51">
+        <v>44196</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51">
+        <v>26000</v>
+      </c>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="51">
+        <v>21000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51">
+        <v>26000</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18">
+      <c r="D12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="51">
+        <v>30000</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="L12" s="51">
+        <v>21000</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51">
+        <v>44196</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="3:18">
+      <c r="C13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L13" s="51">
+        <v>0</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="D14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18">
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="K16" t="s">
+        <v>358</v>
+      </c>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51">
+        <v>12000</v>
+      </c>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51">
+        <v>12000</v>
+      </c>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="7:18">
+      <c r="K17" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51">
+        <v>20000</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51">
+        <v>20000</v>
+      </c>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="7:18">
+      <c r="K18" t="s">
+        <v>354</v>
+      </c>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51">
+        <v>0</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51">
+        <v>0</v>
+      </c>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="7:18">
+      <c r="J19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" s="51">
+        <v>11000</v>
+      </c>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="20" spans="7:18">
+      <c r="K20" t="s">
+        <v>356</v>
+      </c>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51">
+        <v>11000</v>
+      </c>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51">
+        <v>11000</v>
+      </c>
+      <c r="R20" s="51"/>
+    </row>
+    <row r="21" spans="7:18">
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+    </row>
+    <row r="22" spans="7:18">
+      <c r="G22" s="119" t="s">
+        <v>384</v>
+      </c>
+      <c r="H22" s="119"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+    </row>
+    <row r="23" spans="7:18">
+      <c r="G23" t="s">
+        <v>368</v>
+      </c>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+    </row>
+    <row r="24" spans="7:18">
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="7:18">
+      <c r="I25" s="8">
+        <v>44135</v>
+      </c>
+      <c r="J25" t="s">
+        <v>348</v>
+      </c>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51">
+        <v>20000</v>
+      </c>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="7:18">
+      <c r="J26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" t="s">
+        <v>350</v>
+      </c>
+      <c r="L26" s="51">
+        <v>0</v>
+      </c>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q26" s="51">
+        <v>0</v>
+      </c>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="7:18">
+      <c r="K27" t="s">
+        <v>382</v>
+      </c>
+      <c r="L27" s="51">
+        <v>0</v>
+      </c>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>0</v>
+      </c>
+      <c r="R27" s="51"/>
+    </row>
+    <row r="28" spans="7:18">
+      <c r="K28" t="s">
+        <v>352</v>
+      </c>
+      <c r="L28" s="51">
+        <v>0</v>
+      </c>
+      <c r="M28" s="124">
+        <v>0</v>
+      </c>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q28" s="124">
+        <v>0</v>
+      </c>
+      <c r="R28" s="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:18">
+      <c r="J29" t="s">
+        <v>387</v>
+      </c>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51">
+        <v>20000</v>
+      </c>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="7:18">
+      <c r="J30" t="s">
+        <v>388</v>
+      </c>
+      <c r="K30" t="s">
+        <v>354</v>
+      </c>
+      <c r="L30" s="51"/>
+      <c r="M30" s="124">
+        <v>0</v>
+      </c>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+    </row>
+    <row r="31" spans="7:18">
+      <c r="J31" t="s">
+        <v>389</v>
+      </c>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51">
+        <v>20000</v>
+      </c>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+    </row>
+    <row r="32" spans="7:18">
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+    </row>
+    <row r="33" spans="7:18">
+      <c r="G33" s="119" t="s">
+        <v>390</v>
+      </c>
+      <c r="H33" s="119"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+    </row>
+    <row r="34" spans="7:18">
+      <c r="G34" t="s">
+        <v>368</v>
+      </c>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+    </row>
+    <row r="35" spans="7:18">
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+    </row>
+    <row r="36" spans="7:18">
+      <c r="I36" s="8">
+        <v>44135</v>
+      </c>
+      <c r="J36" t="s">
+        <v>358</v>
+      </c>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51">
+        <v>12000</v>
+      </c>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="7:18">
+      <c r="J37" t="s">
+        <v>388</v>
+      </c>
+      <c r="K37" s="123" t="s">
+        <v>389</v>
+      </c>
+      <c r="L37" s="51"/>
+      <c r="M37" s="124">
+        <v>20000</v>
+      </c>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+    </row>
+    <row r="38" spans="7:18">
+      <c r="J38" t="s">
+        <v>391</v>
+      </c>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51">
+        <v>32000</v>
+      </c>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+    </row>
+    <row r="39" spans="7:18">
+      <c r="J39" t="s">
+        <v>385</v>
+      </c>
+      <c r="K39" t="s">
+        <v>392</v>
+      </c>
+      <c r="L39" s="51"/>
+      <c r="M39" s="124">
+        <v>11000</v>
+      </c>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+    </row>
+    <row r="40" spans="7:18">
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51">
+        <v>21000</v>
+      </c>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G33:H33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D0F0E4-1437-4BCB-88B7-63D370BE8DC4}">
+  <dimension ref="A2:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="33.75">
+      <c r="A4" s="116" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="33.75">
+      <c r="A5" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="55">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="55">
+        <v>180000</v>
+      </c>
+      <c r="G5" s="55">
+        <v>140000</v>
+      </c>
+      <c r="H5" s="55">
+        <v>120000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>343</v>
+      </c>
+      <c r="K5" s="55">
+        <v>100000</v>
+      </c>
+      <c r="L5" s="55">
+        <v>180000</v>
+      </c>
+      <c r="M5" s="55">
+        <v>180000</v>
+      </c>
+      <c r="N5" s="55">
+        <v>140000</v>
+      </c>
+      <c r="O5" s="55">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33.75">
+      <c r="A6" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="55">
+        <v>40000</v>
+      </c>
+      <c r="G6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="L6" s="55">
+        <v>40000</v>
+      </c>
+      <c r="M6" s="55">
+        <v>70000</v>
+      </c>
+      <c r="N6" s="55">
+        <v>30000</v>
+      </c>
+      <c r="O6" s="55">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="33.75">
+      <c r="A7" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="55">
+        <v>60000</v>
+      </c>
+      <c r="F7" s="55">
+        <v>120000</v>
+      </c>
+      <c r="G7" s="55">
+        <v>80000</v>
+      </c>
+      <c r="H7" s="55">
+        <v>110000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="55">
+        <v>60000</v>
+      </c>
+      <c r="L7" s="55">
+        <v>130000</v>
+      </c>
+      <c r="M7" s="55">
+        <v>120000</v>
+      </c>
+      <c r="N7" s="55">
+        <v>80000</v>
+      </c>
+      <c r="O7" s="55">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="33.75">
+      <c r="A8" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="55">
+        <v>190000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K8" s="55">
+        <v>90000</v>
+      </c>
+      <c r="L8" s="55">
+        <v>170000</v>
+      </c>
+      <c r="M8" s="55">
+        <v>190000</v>
+      </c>
+      <c r="N8" s="55">
+        <v>110000</v>
+      </c>
+      <c r="O8" s="55">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="33.75">
+      <c r="A9" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="55">
+        <v>24000</v>
+      </c>
+      <c r="E9" s="55">
+        <v>30000</v>
+      </c>
+      <c r="H9" s="55">
+        <v>70000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K9" s="55">
+        <v>24000</v>
+      </c>
+      <c r="L9" s="55">
+        <v>30000</v>
+      </c>
+      <c r="M9" s="55">
+        <v>40000</v>
+      </c>
+      <c r="N9" s="55">
+        <v>20000</v>
+      </c>
+      <c r="O9" s="55">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="55">
+        <v>140000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10" s="55">
+        <v>66000</v>
+      </c>
+      <c r="L10" s="55">
+        <v>140000</v>
+      </c>
+      <c r="M10" s="55">
+        <v>150000</v>
+      </c>
+      <c r="N10" s="55">
+        <v>90000</v>
+      </c>
+      <c r="O10" s="55">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="55">
+        <v>40000</v>
+      </c>
+      <c r="F11" s="55">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="55">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="55">
+        <v>30000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" s="55">
+        <v>34000</v>
+      </c>
+      <c r="L11" s="55">
+        <v>40000</v>
+      </c>
+      <c r="M11" s="55">
+        <v>30000</v>
+      </c>
+      <c r="N11" s="55">
+        <v>50000</v>
+      </c>
+      <c r="O11" s="55">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0916332-44DA-4258-BB33-8601CC4AF7AC}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8">
+        <v>44114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" s="43">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="115"/>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="55">
+        <f>$D$8-$D$9</f>
+        <v>128000</v>
+      </c>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="55">
+        <f>$D$8*$D$6</f>
+        <v>32000</v>
+      </c>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55">
+        <f>$D$7*(1-$D$5)</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="43">
+        <f>$D$3*$D$4</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="43">
+        <f>$D$7*(1-$D$5)</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="43">
+        <f>$D$8*$D$6</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8">
+        <v>44124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="43">
+        <f>$D$8-$D$9</f>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A06BC8-C1F3-47E2-A6C3-0C488E808FB1}">
+  <dimension ref="C1:AE6"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:31">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:31">
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>372</v>
+      </c>
+      <c r="T2" t="s">
+        <v>406</v>
+      </c>
+      <c r="U2" t="s">
+        <v>406</v>
+      </c>
+      <c r="V2" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K3" t="s">
+        <v>410</v>
+      </c>
+      <c r="N3" t="s">
+        <v>372</v>
+      </c>
+      <c r="O3" t="s">
+        <v>358</v>
+      </c>
+      <c r="P3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>357</v>
+      </c>
+      <c r="R3" t="s">
+        <v>356</v>
+      </c>
+      <c r="S3" t="s">
+        <v>408</v>
+      </c>
+      <c r="T3" t="s">
+        <v>409</v>
+      </c>
+      <c r="U3" t="s">
+        <v>410</v>
+      </c>
+      <c r="V3" t="s">
+        <v>391</v>
+      </c>
+      <c r="W3" t="s">
+        <v>389</v>
+      </c>
+      <c r="X3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31">
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+      <c r="G4">
+        <v>2800</v>
+      </c>
+      <c r="H4">
+        <v>12000</v>
+      </c>
+      <c r="I4">
+        <v>11200</v>
+      </c>
+      <c r="K4">
+        <v>4600</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" s="51">
+        <v>23200</v>
+      </c>
+      <c r="O4" s="51">
+        <v>4000</v>
+      </c>
+      <c r="P4" s="51">
+        <v>10800</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>2800</v>
+      </c>
+      <c r="R4" s="51">
+        <v>12000</v>
+      </c>
+      <c r="S4" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T4" s="51">
+        <v>6600</v>
+      </c>
+      <c r="U4" s="51">
+        <v>4600</v>
+      </c>
+      <c r="V4" s="51">
+        <v>14800</v>
+      </c>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51">
+        <v>10800</v>
+      </c>
+      <c r="Y4" s="51">
+        <v>23200</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31">
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>25400</v>
+      </c>
+      <c r="F5">
+        <v>14000</v>
+      </c>
+      <c r="J5">
+        <v>4500</v>
+      </c>
+      <c r="K5">
+        <v>4200</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5" s="51">
+        <v>25400</v>
+      </c>
+      <c r="O5" s="51">
+        <v>2800</v>
+      </c>
+      <c r="P5" s="51">
+        <v>14000</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>100</v>
+      </c>
+      <c r="R5" s="51">
+        <v>16700</v>
+      </c>
+      <c r="S5" s="51">
+        <v>8700</v>
+      </c>
+      <c r="T5" s="51">
+        <v>4500</v>
+      </c>
+      <c r="U5" s="51">
+        <v>4200</v>
+      </c>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51">
+        <v>18200</v>
+      </c>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51">
+        <v>25400</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>17000</v>
+      </c>
+      <c r="H6">
+        <v>10000</v>
+      </c>
+      <c r="I6">
+        <v>4000</v>
+      </c>
+      <c r="J6">
+        <v>5600</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6" s="51">
+        <v>14000</v>
+      </c>
+      <c r="O6" s="51">
+        <v>100</v>
+      </c>
+      <c r="P6" s="51">
+        <v>26900</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>17000</v>
+      </c>
+      <c r="R6" s="51">
+        <v>10000</v>
+      </c>
+      <c r="S6" s="51">
+        <v>4000</v>
+      </c>
+      <c r="T6" s="51">
+        <v>5600</v>
+      </c>
+      <c r="U6" s="51">
+        <v>-1600</v>
+      </c>
+      <c r="V6" s="51">
+        <v>27000</v>
+      </c>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51">
+        <v>14000</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12546" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EB6D517-3107-47F5-BDA8-55C9C39168B2}"/>
+  <xr:revisionPtr revIDLastSave="12653" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{768BDB1F-E5D9-4AAE-8325-3AB236F6EB67}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="79" activeTab="79" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="83" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -91,6 +91,8 @@
     <sheet name="A6-1" sheetId="94" r:id="rId81"/>
     <sheet name="A6-2" sheetId="95" r:id="rId82"/>
     <sheet name="A6-3" sheetId="96" r:id="rId83"/>
+    <sheet name="Q6-18" sheetId="102" r:id="rId84"/>
+    <sheet name="Q11-35" sheetId="103" r:id="rId85"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -131,6 +133,51 @@
           <t xml:space="preserve">黃 奕捷:
 </t>
         </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B78456FF-FA2F-4143-8AFB-178C68BFD2EC}</author>
+    <author>tc={F9D05D7D-128C-4E56-9275-7EB39E955679}</author>
+    <author>tc={3B6C8113-ED6E-4DC2-9ECB-C6C993043A61}</author>
+    <author>tc={2D1FCF36-BA95-4A0B-BD36-869E513646DD}</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，CH11-3-4 page 266。</t>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{F9D05D7D-128C-4E56-9275-7EB39E955679}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，CH11-3-4 page 266。</t>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="2" shapeId="0" xr:uid="{3B6C8113-ED6E-4DC2-9ECB-C6C993043A61}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    數值為上三項科目的數值總和</t>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="3" shapeId="0" xr:uid="{2D1FCF36-BA95-4A0B-BD36-869E513646DD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    成本率 = 可供銷售商品的成本/可供銷售商品的零售價</t>
       </text>
     </comment>
   </commentList>
@@ -579,8 +626,26 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={35ED09B8-8FC7-450B-B04D-AEFE9B343FBB}</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{35ED09B8-8FC7-450B-B04D-AEFE9B343FBB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    這就是題目所要求的。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="425">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1814,6 +1879,48 @@
   <si>
     <t>淨利(損)</t>
   </si>
+  <si>
+    <t>綜合報表</t>
+  </si>
+  <si>
+    <t>定額</t>
+  </si>
+  <si>
+    <t>支出憑證</t>
+  </si>
+  <si>
+    <t>零用金餘額</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>最終的零用金餘額</t>
+  </si>
+  <si>
+    <t>原始表格</t>
+  </si>
+  <si>
+    <t>零售法的表格</t>
+  </si>
+  <si>
+    <t>零售價</t>
+  </si>
+  <si>
+    <t>本期購貨</t>
+  </si>
+  <si>
+    <t>可供銷售商品</t>
+  </si>
+  <si>
+    <t>成本率</t>
+  </si>
+  <si>
+    <t>期末存貨零售業</t>
+  </si>
+  <si>
+    <t>期末存貨成本</t>
+  </si>
 </sst>
 </file>
 
@@ -2163,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2289,6 +2396,8 @@
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2301,8 +2410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3212,6 +3320,31 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I8" dT="2024-02-05T15:55:09.62" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{35ED09B8-8FC7-450B-B04D-AEFE9B343FBB}">
+    <text>這就是題目所要求的。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
+    <text>參考，CH11-3-4 page 266。</text>
+  </threadedComment>
+  <threadedComment ref="M3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F9D05D7D-128C-4E56-9275-7EB39E955679}">
+    <text>參考，CH11-3-4 page 266。</text>
+  </threadedComment>
+  <threadedComment ref="M8" dT="2024-02-06T07:28:10.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3B6C8113-ED6E-4DC2-9ECB-C6C993043A61}">
+    <text>數值為上三項科目的數值總和</text>
+  </threadedComment>
+  <threadedComment ref="M9" dT="2024-02-06T07:30:07.54" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2D1FCF36-BA95-4A0B-BD36-869E513646DD}">
+    <text>成本率 = 可供銷售商品的成本/可供銷售商品的零售價</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
@@ -39593,28 +39726,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="120" t="s">
+      <c r="AG7" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="120" t="s">
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="120" t="s">
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="122" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="120" t="s">
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="122" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="120" t="s">
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="121"/>
+      <c r="AR7" s="123"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -39715,10 +39848,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="120" t="s">
+      <c r="AE8" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="121"/>
+      <c r="AF8" s="123"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -43118,10 +43251,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="119" t="s">
+      <c r="J47" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="119"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -45283,14 +45416,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="119" t="s">
+      <c r="A114" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="119"/>
-      <c r="K114" s="119" t="s">
+      <c r="B114" s="121"/>
+      <c r="K114" s="121" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="119"/>
+      <c r="L114" s="121"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -45318,21 +45451,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="119" t="s">
+      <c r="H118" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="119"/>
+      <c r="I118" s="121"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="119" t="s">
+      <c r="Q118" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="119"/>
-      <c r="T118" s="119" t="s">
+      <c r="R118" s="121"/>
+      <c r="T118" s="121" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="119"/>
+      <c r="U118" s="121"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -46507,6 +46640,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -46514,11 +46652,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -46762,28 +46895,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="120" t="s">
+      <c r="AG7" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="120" t="s">
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="120" t="s">
+      <c r="AJ7" s="124"/>
+      <c r="AK7" s="124"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="122" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="120" t="s">
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="122" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="120" t="s">
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="121"/>
+      <c r="AR7" s="123"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -46884,10 +47017,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="120" t="s">
+      <c r="AE8" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="121"/>
+      <c r="AF8" s="123"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -50287,10 +50420,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="119" t="s">
+      <c r="J47" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="119"/>
+      <c r="K47" s="121"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -52452,14 +52585,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="119" t="s">
+      <c r="A114" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="119"/>
-      <c r="K114" s="119" t="s">
+      <c r="B114" s="121"/>
+      <c r="K114" s="121" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="119"/>
+      <c r="L114" s="121"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -52487,21 +52620,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="119" t="s">
+      <c r="H118" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="119"/>
+      <c r="I118" s="121"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="119" t="s">
+      <c r="Q118" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="119"/>
-      <c r="T118" s="119" t="s">
+      <c r="R118" s="121"/>
+      <c r="T118" s="121" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="119"/>
+      <c r="U118" s="121"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -53676,11 +53809,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -53688,6 +53816,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -54485,10 +54618,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="119"/>
+      <c r="I4" s="121"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -54611,10 +54744,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="119"/>
+      <c r="G4" s="121"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -54728,7 +54861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C954D-889C-486D-B875-FD18EEFEEBF6}">
   <dimension ref="C1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -55233,10 +55366,10 @@
       <c r="R21" s="51"/>
     </row>
     <row r="22" spans="7:18">
-      <c r="G22" s="119" t="s">
+      <c r="G22" s="121" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="119"/>
+      <c r="H22" s="121"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -55366,7 +55499,7 @@
       <c r="L28" s="51">
         <v>0</v>
       </c>
-      <c r="M28" s="124">
+      <c r="M28" s="120">
         <v>0</v>
       </c>
       <c r="N28" s="51"/>
@@ -55374,10 +55507,10 @@
       <c r="P28" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="Q28" s="124">
+      <c r="Q28" s="120">
         <v>0</v>
       </c>
-      <c r="R28" s="124">
+      <c r="R28" s="120">
         <v>0</v>
       </c>
     </row>
@@ -55407,7 +55540,7 @@
         <v>354</v>
       </c>
       <c r="L30" s="51"/>
-      <c r="M30" s="124">
+      <c r="M30" s="120">
         <v>0</v>
       </c>
       <c r="N30" s="51"/>
@@ -55440,10 +55573,10 @@
       <c r="R32" s="51"/>
     </row>
     <row r="33" spans="7:18">
-      <c r="G33" s="119" t="s">
+      <c r="G33" s="121" t="s">
         <v>390</v>
       </c>
-      <c r="H33" s="119"/>
+      <c r="H33" s="121"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -55513,11 +55646,11 @@
       <c r="J37" t="s">
         <v>388</v>
       </c>
-      <c r="K37" s="123" t="s">
+      <c r="K37" s="119" t="s">
         <v>389</v>
       </c>
       <c r="L37" s="51"/>
-      <c r="M37" s="124">
+      <c r="M37" s="120">
         <v>20000</v>
       </c>
       <c r="N37" s="51"/>
@@ -55548,7 +55681,7 @@
         <v>392</v>
       </c>
       <c r="L39" s="51"/>
-      <c r="M39" s="124">
+      <c r="M39" s="120">
         <v>11000</v>
       </c>
       <c r="N39" s="51"/>
@@ -56375,6 +56508,312 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B328EE38-CB64-49A7-B51D-8EC0337B253E}">
+  <dimension ref="G2:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:9">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9">
+      <c r="G3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="7:9">
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9">
+      <c r="G5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9">
+      <c r="G6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I6">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9">
+      <c r="G7" t="s">
+        <v>414</v>
+      </c>
+      <c r="I7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9">
+      <c r="G8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9">
+      <c r="G9" t="s">
+        <v>416</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D7CC90-FCA2-49EA-95E9-69DCA491AD6B}">
+  <dimension ref="C2:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="C3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H3" t="s">
+        <v>418</v>
+      </c>
+      <c r="M3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="51">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="51">
+        <v>80000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="51">
+        <v>20000</v>
+      </c>
+      <c r="J5" s="51">
+        <v>80000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" s="51">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="51">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="51">
+        <v>1647000</v>
+      </c>
+      <c r="E6" s="51">
+        <v>5400000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="51">
+        <v>1647000</v>
+      </c>
+      <c r="J6" s="51">
+        <v>5400000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>420</v>
+      </c>
+      <c r="N6" s="51">
+        <v>1647000</v>
+      </c>
+      <c r="O6" s="51">
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="51">
+        <v>13000</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="H7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="51">
+        <v>13000</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="M7" t="s">
+        <v>354</v>
+      </c>
+      <c r="N7" s="51">
+        <v>13000</v>
+      </c>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51">
+        <v>5850000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>421</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="M8" t="s">
+        <v>421</v>
+      </c>
+      <c r="N8" s="64">
+        <f>SUM(N5:N7)</f>
+        <v>1680000</v>
+      </c>
+      <c r="O8" s="125">
+        <f>SUM(O5:O7)</f>
+        <v>5480000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="H9" t="s">
+        <v>422</v>
+      </c>
+      <c r="M9" t="s">
+        <v>422</v>
+      </c>
+      <c r="N9" s="117">
+        <f>$N$8/$O$8</f>
+        <v>0.30656934306569344</v>
+      </c>
+      <c r="O9" s="117"/>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="H10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" s="51">
+        <v>5850000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>343</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51">
+        <v>5850000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="H11" t="s">
+        <v>423</v>
+      </c>
+      <c r="M11" t="s">
+        <v>357</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51">
+        <f>$O$8-$O$10</f>
+        <v>-370000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="H12" t="s">
+        <v>424</v>
+      </c>
+      <c r="M12" t="s">
+        <v>424</v>
+      </c>
+      <c r="N12" s="51">
+        <f>$O$11*$N$9</f>
+        <v>-113430.65693430658</v>
+      </c>
+      <c r="O12" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E03B8D-8ED8-4791-8F71-0136E8F4672A}">
   <dimension ref="A1"/>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12653" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{768BDB1F-E5D9-4AAE-8325-3AB236F6EB67}"/>
+  <xr:revisionPtr revIDLastSave="12951" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17AF7D3-541D-4DBE-B680-40288EF49D45}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="83" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="85" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -92,7 +92,11 @@
     <sheet name="A6-2" sheetId="95" r:id="rId82"/>
     <sheet name="A6-3" sheetId="96" r:id="rId83"/>
     <sheet name="Q6-18" sheetId="102" r:id="rId84"/>
-    <sheet name="Q11-35" sheetId="103" r:id="rId85"/>
+    <sheet name="Q11-17" sheetId="107" r:id="rId85"/>
+    <sheet name="Q11-18" sheetId="106" r:id="rId86"/>
+    <sheet name="Q11-35" sheetId="103" r:id="rId87"/>
+    <sheet name="Q12-8" sheetId="104" r:id="rId88"/>
+    <sheet name="Q12-2" sheetId="105" r:id="rId89"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -140,6 +144,24 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={292C61DE-D93C-4D77-A133-651752AB9984}</author>
+  </authors>
+  <commentList>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{292C61DE-D93C-4D77-A133-651752AB9984}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    期末存貨</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B78456FF-FA2F-4143-8AFB-178C68BFD2EC}</author>
@@ -645,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="439">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1898,16 +1920,16 @@
     <t>最終的零用金餘額</t>
   </si>
   <si>
-    <t>原始表格</t>
-  </si>
-  <si>
-    <t>零售法的表格</t>
+    <t>進銷貨資料</t>
   </si>
   <si>
     <t>零售價</t>
   </si>
   <si>
-    <t>本期購貨</t>
+    <t>存貨</t>
+  </si>
+  <si>
+    <t>6月</t>
   </si>
   <si>
     <t>可供銷售商品</t>
@@ -1916,10 +1938,52 @@
     <t>成本率</t>
   </si>
   <si>
+    <t>期末存貨的零售價</t>
+  </si>
+  <si>
+    <t>期末存貨的成本</t>
+  </si>
+  <si>
+    <t>第一批</t>
+  </si>
+  <si>
+    <t>第二批</t>
+  </si>
+  <si>
+    <t>第三批</t>
+  </si>
+  <si>
+    <t>第四批</t>
+  </si>
+  <si>
+    <t>本年銷貨</t>
+  </si>
+  <si>
+    <t>原始表格</t>
+  </si>
+  <si>
+    <t>零售法的表格</t>
+  </si>
+  <si>
+    <t>本期購貨</t>
+  </si>
+  <si>
     <t>期末存貨零售業</t>
   </si>
   <si>
     <t>期末存貨成本</t>
+  </si>
+  <si>
+    <t>本期資產</t>
+  </si>
+  <si>
+    <t>折舊率</t>
+  </si>
+  <si>
+    <t>折舊額</t>
+  </si>
+  <si>
+    <t>本期剩下資產</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2398,6 +2462,7 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2410,7 +2475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3087,6 +3152,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment10.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
+    <text>參考，CH11-3-4 page 266。</text>
+  </threadedComment>
+  <threadedComment ref="M3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F9D05D7D-128C-4E56-9275-7EB39E955679}">
+    <text>參考，CH11-3-4 page 266。</text>
+  </threadedComment>
+  <threadedComment ref="M8" dT="2024-02-06T07:28:10.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3B6C8113-ED6E-4DC2-9ECB-C6C993043A61}">
+    <text>數值為上三項科目的數值總和</text>
+  </threadedComment>
+  <threadedComment ref="M9" dT="2024-02-06T07:30:07.54" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2D1FCF36-BA95-4A0B-BD36-869E513646DD}">
+    <text>成本率 = 可供銷售商品的成本/可供銷售商品的零售價</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
@@ -3330,17 +3412,8 @@
 
 <file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
-    <text>參考，CH11-3-4 page 266。</text>
-  </threadedComment>
-  <threadedComment ref="M3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F9D05D7D-128C-4E56-9275-7EB39E955679}">
-    <text>參考，CH11-3-4 page 266。</text>
-  </threadedComment>
-  <threadedComment ref="M8" dT="2024-02-06T07:28:10.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{3B6C8113-ED6E-4DC2-9ECB-C6C993043A61}">
-    <text>數值為上三項科目的數值總和</text>
-  </threadedComment>
-  <threadedComment ref="M9" dT="2024-02-06T07:30:07.54" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2D1FCF36-BA95-4A0B-BD36-869E513646DD}">
-    <text>成本率 = 可供銷售商品的成本/可供銷售商品的零售價</text>
+  <threadedComment ref="K9" dT="2024-02-12T00:20:14.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{292C61DE-D93C-4D77-A133-651752AB9984}">
+    <text>期末存貨</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -39726,28 +39799,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="122" t="s">
+      <c r="AG7" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="122" t="s">
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="122" t="s">
+      <c r="AJ7" s="125"/>
+      <c r="AK7" s="125"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="123" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="122" t="s">
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="123" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="122" t="s">
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="123" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="123"/>
+      <c r="AR7" s="124"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -39848,10 +39921,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="122" t="s">
+      <c r="AE8" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="123"/>
+      <c r="AF8" s="124"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -43251,10 +43324,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="121" t="s">
+      <c r="J47" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="121"/>
+      <c r="K47" s="122"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -45416,14 +45489,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="121" t="s">
+      <c r="A114" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="121"/>
-      <c r="K114" s="121" t="s">
+      <c r="B114" s="122"/>
+      <c r="K114" s="122" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="121"/>
+      <c r="L114" s="122"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -45451,21 +45524,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="121" t="s">
+      <c r="H118" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="121"/>
+      <c r="I118" s="122"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="121" t="s">
+      <c r="Q118" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="121"/>
-      <c r="T118" s="121" t="s">
+      <c r="R118" s="122"/>
+      <c r="T118" s="122" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="121"/>
+      <c r="U118" s="122"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -46640,11 +46713,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -46652,6 +46720,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -46895,28 +46968,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="122" t="s">
+      <c r="AG7" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="122" t="s">
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="122" t="s">
+      <c r="AJ7" s="125"/>
+      <c r="AK7" s="125"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="123" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="123"/>
-      <c r="AO7" s="122" t="s">
+      <c r="AN7" s="124"/>
+      <c r="AO7" s="123" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="123"/>
-      <c r="AQ7" s="122" t="s">
+      <c r="AP7" s="124"/>
+      <c r="AQ7" s="123" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="123"/>
+      <c r="AR7" s="124"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -47017,10 +47090,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="122" t="s">
+      <c r="AE8" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="123"/>
+      <c r="AF8" s="124"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -50420,10 +50493,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="121" t="s">
+      <c r="J47" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="121"/>
+      <c r="K47" s="122"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -52585,14 +52658,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="121" t="s">
+      <c r="A114" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="121"/>
-      <c r="K114" s="121" t="s">
+      <c r="B114" s="122"/>
+      <c r="K114" s="122" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="121"/>
+      <c r="L114" s="122"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -52620,21 +52693,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="121" t="s">
+      <c r="H118" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="121"/>
+      <c r="I118" s="122"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="121" t="s">
+      <c r="Q118" s="122" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="121"/>
-      <c r="T118" s="121" t="s">
+      <c r="R118" s="122"/>
+      <c r="T118" s="122" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="121"/>
+      <c r="U118" s="122"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -53809,6 +53882,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -53816,11 +53894,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -54618,10 +54691,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="121"/>
+      <c r="I4" s="122"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -54744,10 +54817,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="121"/>
+      <c r="G4" s="122"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -55366,10 +55439,10 @@
       <c r="R21" s="51"/>
     </row>
     <row r="22" spans="7:18">
-      <c r="G22" s="121" t="s">
+      <c r="G22" s="122" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="121"/>
+      <c r="H22" s="122"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -55573,10 +55646,10 @@
       <c r="R32" s="51"/>
     </row>
     <row r="33" spans="7:18">
-      <c r="G33" s="121" t="s">
+      <c r="G33" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="H33" s="121"/>
+      <c r="H33" s="122"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -56595,10 +56668,381 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9428B042-E599-4AD3-8150-2E3F592FD5F3}">
+  <dimension ref="C2:N13"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4" t="s">
+        <v>417</v>
+      </c>
+      <c r="M4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="D5" s="118">
+        <v>45444</v>
+      </c>
+      <c r="E5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="51">
+        <v>24000</v>
+      </c>
+      <c r="G5" s="51">
+        <v>34280</v>
+      </c>
+      <c r="K5" s="118">
+        <v>45444</v>
+      </c>
+      <c r="L5" t="s">
+        <v>419</v>
+      </c>
+      <c r="M5" s="51">
+        <v>24000</v>
+      </c>
+      <c r="N5" s="51">
+        <v>34280</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="D6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="51">
+        <v>246000</v>
+      </c>
+      <c r="G6" s="51">
+        <v>365720</v>
+      </c>
+      <c r="K6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M6" s="51">
+        <v>246000</v>
+      </c>
+      <c r="N6" s="51">
+        <v>365720</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="E7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="51">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="L7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="51">
+        <v>-10000</v>
+      </c>
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="E8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51">
+        <v>300000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>372</v>
+      </c>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51">
+        <v>10000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>337</v>
+      </c>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="L10" t="s">
+        <v>421</v>
+      </c>
+      <c r="M10" s="64">
+        <f>SUM(M5:M9)</f>
+        <v>260000</v>
+      </c>
+      <c r="N10" s="64">
+        <f>SUM(N5:N9)</f>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="L11" t="s">
+        <v>422</v>
+      </c>
+      <c r="M11">
+        <f>M10/N10</f>
+        <v>0.37681159420289856</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="L12" t="s">
+        <v>423</v>
+      </c>
+      <c r="N12" s="64">
+        <f>N10-(N8+N9)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="L13" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" s="126">
+        <f>$N12*$M11</f>
+        <v>150724.63768115942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BD5300-C713-43D5-9E3C-ADAE2D1014F0}">
+  <dimension ref="C2:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" s="118">
+        <v>45292</v>
+      </c>
+      <c r="D3" s="51">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="117">
+        <v>3</v>
+      </c>
+      <c r="H3" s="118">
+        <v>45292</v>
+      </c>
+      <c r="I3" s="51">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="117">
+        <v>3</v>
+      </c>
+      <c r="K3" s="51">
+        <f>$I3*$J3</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="51">
+        <v>8000</v>
+      </c>
+      <c r="E4" s="117">
+        <v>3.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>425</v>
+      </c>
+      <c r="I4" s="51">
+        <v>8000</v>
+      </c>
+      <c r="J4" s="117">
+        <v>3.25</v>
+      </c>
+      <c r="K4" s="51">
+        <f t="shared" ref="K4:K8" si="0">$I4*$J4</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="51">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="117">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I5" s="51">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="117">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="51">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="51">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="117">
+        <v>3.65</v>
+      </c>
+      <c r="H6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I6" s="51">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="117">
+        <v>3.65</v>
+      </c>
+      <c r="K6" s="51">
+        <f t="shared" si="0"/>
+        <v>21900</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="51">
+        <v>9000</v>
+      </c>
+      <c r="E7" s="117">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="51">
+        <v>9000</v>
+      </c>
+      <c r="J7" s="117">
+        <v>3.9</v>
+      </c>
+      <c r="K7" s="51">
+        <f t="shared" si="0"/>
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="51">
+        <v>28000</v>
+      </c>
+      <c r="E8" s="117">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="51">
+        <v>28000</v>
+      </c>
+      <c r="J8" s="117">
+        <v>5</v>
+      </c>
+      <c r="K8" s="51">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="51">
+        <f>SUM($K4:$K7)</f>
+        <v>118000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D7CC90-FCA2-49EA-95E9-69DCA491AD6B}">
   <dimension ref="C2:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -56620,13 +57064,13 @@
     </row>
     <row r="3" spans="3:15">
       <c r="C3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H3" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M3" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="3:15">
@@ -56634,19 +57078,19 @@
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I4" t="s">
         <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N4" t="s">
         <v>299</v>
       </c>
       <c r="O4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="3:15">
@@ -56680,7 +57124,7 @@
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D6" s="51">
         <v>1647000</v>
@@ -56689,7 +57133,7 @@
         <v>5400000</v>
       </c>
       <c r="H6" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="I6" s="51">
         <v>1647000</v>
@@ -56698,7 +57142,7 @@
         <v>5400000</v>
       </c>
       <c r="M6" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="N6" s="51">
         <v>1647000</v>
@@ -56749,7 +57193,7 @@
         <f>SUM(N5:N7)</f>
         <v>1680000</v>
       </c>
-      <c r="O8" s="125">
+      <c r="O8" s="121">
         <f>SUM(O5:O7)</f>
         <v>5480000</v>
       </c>
@@ -56784,7 +57228,7 @@
     </row>
     <row r="11" spans="3:15">
       <c r="H11" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M11" t="s">
         <v>357</v>
@@ -56797,10 +57241,10 @@
     </row>
     <row r="12" spans="3:15">
       <c r="H12" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M12" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="N12" s="51">
         <f>$O$11*$N$9</f>
@@ -56811,6 +57255,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0CD4C2-537D-4F66-A4CC-00FF3AC7FB13}">
+  <dimension ref="C2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="51">
+        <v>80000</v>
+      </c>
+      <c r="E3" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="51">
+        <f>$D3*$E3</f>
+        <v>16000</v>
+      </c>
+      <c r="G3" s="51">
+        <f>$D3-$F3</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="51">
+        <f>$G3</f>
+        <v>64000</v>
+      </c>
+      <c r="E4" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="51">
+        <f t="shared" ref="F4:F6" si="0">$D4*$E4</f>
+        <v>12800</v>
+      </c>
+      <c r="G4" s="51">
+        <f t="shared" ref="G4:G6" si="1">$D4-$F4</f>
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="51">
+        <f t="shared" ref="D5:D6" si="2">$G4</f>
+        <v>51200</v>
+      </c>
+      <c r="E5" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="51">
+        <f t="shared" si="0"/>
+        <v>10240</v>
+      </c>
+      <c r="G5" s="51">
+        <f t="shared" si="1"/>
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" s="51">
+        <f t="shared" si="2"/>
+        <v>40960</v>
+      </c>
+      <c r="E6" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="51">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECB7870-F12E-46B0-A86A-FE474AD50FD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12951" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17AF7D3-541D-4DBE-B680-40288EF49D45}"/>
+  <xr:revisionPtr revIDLastSave="13458" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AF49D5-F5F5-470E-9A57-C7B13CDC56A6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="85" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="89" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -92,11 +92,14 @@
     <sheet name="A6-2" sheetId="95" r:id="rId82"/>
     <sheet name="A6-3" sheetId="96" r:id="rId83"/>
     <sheet name="Q6-18" sheetId="102" r:id="rId84"/>
-    <sheet name="Q11-17" sheetId="107" r:id="rId85"/>
-    <sheet name="Q11-18" sheetId="106" r:id="rId86"/>
-    <sheet name="Q11-35" sheetId="103" r:id="rId87"/>
-    <sheet name="Q12-8" sheetId="104" r:id="rId88"/>
+    <sheet name="Q9-19" sheetId="110" r:id="rId85"/>
+    <sheet name="Q11-17" sheetId="107" r:id="rId86"/>
+    <sheet name="Q11-18" sheetId="106" r:id="rId87"/>
+    <sheet name="Q11-35" sheetId="103" r:id="rId88"/>
     <sheet name="Q12-2" sheetId="105" r:id="rId89"/>
+    <sheet name="Q12-8" sheetId="104" r:id="rId90"/>
+    <sheet name="Q12-15" sheetId="109" r:id="rId91"/>
+    <sheet name="Q12-40" sheetId="108" r:id="rId92"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -146,6 +149,60 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={440EC1AD-9133-4C1A-B64B-38FFDBF9B531}</author>
+    <author>tc={7ECDE23B-FC30-4639-9B62-69F2DFF7F6BC}</author>
+    <author>tc={DE544348-00E0-4326-B47B-CFF84C1737ED}</author>
+    <author>tc={EBA6B24E-3CA0-4E79-BC58-E02927303D7C}</author>
+    <author>tc={1A622B5A-126C-4537-9D98-D2967356A8B9}</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{440EC1AD-9133-4C1A-B64B-38FFDBF9B531}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    詳見，Accounting (Studying).docx。CH9的19題。</t>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{7ECDE23B-FC30-4639-9B62-69F2DFF7F6BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    收益 - 費用 = 淨利</t>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="2" shapeId="0" xr:uid="{DE544348-00E0-4326-B47B-CFF84C1737ED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    資產 - 負債 = 權益</t>
+      </text>
+    </comment>
+    <comment ref="Q20" authorId="3" shapeId="0" xr:uid="{EBA6B24E-3CA0-4E79-BC58-E02927303D7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    收益 - 費用 = 淨利</t>
+      </text>
+    </comment>
+    <comment ref="S20" authorId="4" shapeId="0" xr:uid="{1A622B5A-126C-4537-9D98-D2967356A8B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    資產 - 負債 = 權益</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={292C61DE-D93C-4D77-A133-651752AB9984}</author>
   </authors>
   <commentList>
@@ -161,7 +218,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B78456FF-FA2F-4143-8AFB-178C68BFD2EC}</author>
@@ -200,6 +257,24 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     成本率 = 可供銷售商品的成本/可供銷售商品的零售價</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A2168248-DE8B-4497-B27C-93AB61B1DC48}</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{A2168248-DE8B-4497-B27C-93AB61B1DC48}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    此科目的數額為題目所問的成本</t>
       </text>
     </comment>
   </commentList>
@@ -667,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="453">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1920,6 +1995,42 @@
     <t>最終的零用金餘額</t>
   </si>
   <si>
+    <t>資產損益表</t>
+  </si>
+  <si>
+    <t>編號ID</t>
+  </si>
+  <si>
+    <t>某某公司</t>
+  </si>
+  <si>
+    <t>第一頁</t>
+  </si>
+  <si>
+    <t>電話費</t>
+  </si>
+  <si>
+    <t>某年</t>
+  </si>
+  <si>
+    <t>借或貸</t>
+  </si>
+  <si>
+    <t>代收票據</t>
+  </si>
+  <si>
+    <t>第二頁</t>
+  </si>
+  <si>
+    <t>某某年</t>
+  </si>
+  <si>
+    <t>第四頁</t>
+  </si>
+  <si>
+    <t>第五頁</t>
+  </si>
+  <si>
     <t>進銷貨資料</t>
   </si>
   <si>
@@ -1985,6 +2096,12 @@
   <si>
     <t>本期剩下資產</t>
   </si>
+  <si>
+    <t>房地產</t>
+  </si>
+  <si>
+    <t>房屋</t>
+  </si>
 </sst>
 </file>
 
@@ -2000,7 +2117,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2032,6 +2149,13 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2334,7 +2458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2463,6 +2587,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2475,7 +2600,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3154,6 +3288,14 @@
 
 <file path=xl/threadedComments/threadedComment10.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K9" dT="2024-02-12T00:20:14.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{292C61DE-D93C-4D77-A133-651752AB9984}">
+    <text>期末存貨</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment11.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="H3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
     <text>參考，CH11-3-4 page 266。</text>
   </threadedComment>
@@ -3165,6 +3307,14 @@
   </threadedComment>
   <threadedComment ref="M9" dT="2024-02-06T07:30:07.54" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2D1FCF36-BA95-4A0B-BD36-869E513646DD}">
     <text>成本率 = 可供銷售商品的成本/可供銷售商品的零售價</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment12.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D6" dT="2024-02-12T01:32:06.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A2168248-DE8B-4497-B27C-93AB61B1DC48}">
+    <text>此科目的數額為題目所問的成本</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3412,8 +3562,20 @@
 
 <file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K9" dT="2024-02-12T00:20:14.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{292C61DE-D93C-4D77-A133-651752AB9984}">
-    <text>期末存貨</text>
+  <threadedComment ref="C3" dT="2024-02-12T08:49:46.37" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{440EC1AD-9133-4C1A-B64B-38FFDBF9B531}">
+    <text>詳見，Accounting (Studying).docx。CH9的19題。</text>
+  </threadedComment>
+  <threadedComment ref="O4" dT="2024-02-12T09:29:45.06" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{7ECDE23B-FC30-4639-9B62-69F2DFF7F6BC}">
+    <text>收益 - 費用 = 淨利</text>
+  </threadedComment>
+  <threadedComment ref="T4" dT="2024-02-12T09:29:45.06" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{DE544348-00E0-4326-B47B-CFF84C1737ED}">
+    <text>資產 - 負債 = 權益</text>
+  </threadedComment>
+  <threadedComment ref="Q20" dT="2024-02-12T09:29:45.06" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EBA6B24E-3CA0-4E79-BC58-E02927303D7C}">
+    <text>收益 - 費用 = 淨利</text>
+  </threadedComment>
+  <threadedComment ref="S20" dT="2024-02-12T09:29:45.06" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1A622B5A-126C-4537-9D98-D2967356A8B9}">
+    <text>資產 - 負債 = 權益</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -39799,28 +39961,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="123" t="s">
+      <c r="AG7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123" t="s">
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="123" t="s">
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="125"/>
+      <c r="AM7" s="124" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="123" t="s">
+      <c r="AN7" s="125"/>
+      <c r="AO7" s="124" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="123" t="s">
+      <c r="AP7" s="125"/>
+      <c r="AQ7" s="124" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="124"/>
+      <c r="AR7" s="125"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -39921,10 +40083,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="123" t="s">
+      <c r="AE8" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="124"/>
+      <c r="AF8" s="125"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -43324,10 +43486,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="122" t="s">
+      <c r="J47" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="122"/>
+      <c r="K47" s="123"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -45489,14 +45651,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="122" t="s">
+      <c r="A114" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="122"/>
-      <c r="K114" s="122" t="s">
+      <c r="B114" s="123"/>
+      <c r="K114" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="122"/>
+      <c r="L114" s="123"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -45524,21 +45686,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="122" t="s">
+      <c r="H118" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="122"/>
+      <c r="I118" s="123"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="122" t="s">
+      <c r="Q118" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="122"/>
-      <c r="T118" s="122" t="s">
+      <c r="R118" s="123"/>
+      <c r="T118" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="122"/>
+      <c r="U118" s="123"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -46713,6 +46875,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -46720,11 +46887,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -46968,28 +47130,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="123" t="s">
+      <c r="AG7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123" t="s">
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="123" t="s">
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="125"/>
+      <c r="AM7" s="124" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="124"/>
-      <c r="AO7" s="123" t="s">
+      <c r="AN7" s="125"/>
+      <c r="AO7" s="124" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="124"/>
-      <c r="AQ7" s="123" t="s">
+      <c r="AP7" s="125"/>
+      <c r="AQ7" s="124" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="124"/>
+      <c r="AR7" s="125"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -47090,10 +47252,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="123" t="s">
+      <c r="AE8" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="124"/>
+      <c r="AF8" s="125"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -50493,10 +50655,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="122" t="s">
+      <c r="J47" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="122"/>
+      <c r="K47" s="123"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -52658,14 +52820,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="122" t="s">
+      <c r="A114" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="122"/>
-      <c r="K114" s="122" t="s">
+      <c r="B114" s="123"/>
+      <c r="K114" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="122"/>
+      <c r="L114" s="123"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -52693,21 +52855,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="122" t="s">
+      <c r="H118" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="122"/>
+      <c r="I118" s="123"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="122" t="s">
+      <c r="Q118" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="122"/>
-      <c r="T118" s="122" t="s">
+      <c r="R118" s="123"/>
+      <c r="T118" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="122"/>
+      <c r="U118" s="123"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -53882,11 +54044,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -53894,6 +54051,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -54691,10 +54853,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="122"/>
+      <c r="I4" s="123"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -54817,10 +54979,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="123"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -55439,10 +55601,10 @@
       <c r="R21" s="51"/>
     </row>
     <row r="22" spans="7:18">
-      <c r="G22" s="122" t="s">
+      <c r="G22" s="123" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="123"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -55646,10 +55808,10 @@
       <c r="R32" s="51"/>
     </row>
     <row r="33" spans="7:18">
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="123" t="s">
         <v>390</v>
       </c>
-      <c r="H33" s="122"/>
+      <c r="H33" s="123"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -56668,6 +56830,943 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4CF56-3D19-4025-A991-69CFA3EB7189}">
+  <dimension ref="C3:AN36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="7" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:40">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>315</v>
+      </c>
+      <c r="T4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40">
+      <c r="D5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>419</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="3:40">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6" s="51">
+        <v>2700</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="J6" t="s">
+        <v>422</v>
+      </c>
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="51">
+        <v>8000</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="51">
+        <v>30000</v>
+      </c>
+      <c r="AG6" s="123" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH6" s="123"/>
+    </row>
+    <row r="7" spans="3:40">
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>2700</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>7200</v>
+      </c>
+      <c r="T7" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" s="51">
+        <v>7200</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL7" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="3:40">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="51">
+        <v>4500</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="51">
+        <v>30000</v>
+      </c>
+      <c r="M8" s="51"/>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="51">
+        <f>SUM(Q6:Q7)</f>
+        <v>7200</v>
+      </c>
+      <c r="R8" s="51">
+        <f>SUM(R6:R7)</f>
+        <v>8000</v>
+      </c>
+      <c r="T8" t="s">
+        <v>424</v>
+      </c>
+      <c r="W8" s="51">
+        <v>22000</v>
+      </c>
+      <c r="AK8" s="51">
+        <v>30000</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN8" s="51">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:40">
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51">
+        <v>4500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51">
+        <v>7200</v>
+      </c>
+      <c r="U9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="51">
+        <f>SUM(V6:V8)</f>
+        <v>30000</v>
+      </c>
+      <c r="W9" s="51">
+        <f>SUM(W6:W8)</f>
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="10" spans="3:40">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="51">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="J10" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51">
+        <v>22000</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="3:40">
+      <c r="F11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <v>30000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51">
+        <v>8000</v>
+      </c>
+      <c r="AG11" s="123" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH11" s="123"/>
+    </row>
+    <row r="12" spans="3:40">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="51">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="J12" t="s">
+        <v>421</v>
+      </c>
+      <c r="L12" s="51">
+        <v>7200</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="AG12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL12" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="3:40">
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51">
+        <v>8000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="51">
+        <f>SUM(L$8:L$12)</f>
+        <v>37200</v>
+      </c>
+      <c r="M13" s="51">
+        <f>SUM(M$8:M$12)</f>
+        <v>37200</v>
+      </c>
+      <c r="AL13" s="51">
+        <v>7200</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN13" s="51">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="15" spans="3:40">
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="3:40">
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" s="123" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH16" s="123"/>
+    </row>
+    <row r="17" spans="4:40">
+      <c r="D17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL17" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="4:40">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="51">
+        <v>30000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL18" s="51">
+        <v>22000</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN18" s="51">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:40">
+      <c r="J19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="4:40">
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126" t="s">
+        <v>261</v>
+      </c>
+      <c r="N20" s="125"/>
+      <c r="O20" s="126" t="s">
+        <v>314</v>
+      </c>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126" t="s">
+        <v>315</v>
+      </c>
+      <c r="R20" s="125"/>
+      <c r="S20" s="126" t="s">
+        <v>417</v>
+      </c>
+      <c r="T20" s="125"/>
+      <c r="AG20" t="s">
+        <v>424</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="4:40">
+      <c r="D21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="129"/>
+      <c r="K21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG21" s="123" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH21" s="123"/>
+    </row>
+    <row r="22" spans="4:40">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="51">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="51">
+        <v>30000</v>
+      </c>
+      <c r="L22" s="130"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="51">
+        <v>30000</v>
+      </c>
+      <c r="P22" s="130"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="51">
+        <v>30000</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="AG22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL22" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="4:40">
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="51">
+        <v>4500</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="51"/>
+      <c r="L23" s="130">
+        <v>2700</v>
+      </c>
+      <c r="M23" s="51"/>
+      <c r="N23" s="130">
+        <v>4500</v>
+      </c>
+      <c r="O23" s="51"/>
+      <c r="P23" s="130">
+        <v>7200</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="T23" s="130">
+        <v>7200</v>
+      </c>
+      <c r="AL23" s="51">
+        <v>8000</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN23" s="51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:40">
+      <c r="J24" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="130">
+        <v>22000</v>
+      </c>
+      <c r="M24" s="51"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="130">
+        <v>22000</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="T24" s="130">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:40">
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>424</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="51"/>
+      <c r="L25" s="130">
+        <v>8000</v>
+      </c>
+      <c r="M25" s="51"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="130">
+        <v>8000</v>
+      </c>
+      <c r="R25" s="130">
+        <v>8000</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="AG25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="4:40">
+      <c r="D26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="120">
+        <v>2700</v>
+      </c>
+      <c r="L26" s="132"/>
+      <c r="M26" s="120">
+        <v>4500</v>
+      </c>
+      <c r="N26" s="132"/>
+      <c r="O26" s="120">
+        <v>7200</v>
+      </c>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="120">
+        <v>7200</v>
+      </c>
+      <c r="R26" s="48"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="48"/>
+      <c r="AG26" s="123" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH26" s="123"/>
+    </row>
+    <row r="27" spans="4:40">
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="51">
+        <v>8000</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="51">
+        <v>30000</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="62">
+        <v>37200</v>
+      </c>
+      <c r="L27" s="75">
+        <v>37200</v>
+      </c>
+      <c r="M27" s="62">
+        <f>SUM(M22:M26)</f>
+        <v>4500</v>
+      </c>
+      <c r="N27" s="75">
+        <f>SUM(N22:N26)</f>
+        <v>4500</v>
+      </c>
+      <c r="O27" s="62">
+        <v>37200</v>
+      </c>
+      <c r="P27" s="75">
+        <v>37200</v>
+      </c>
+      <c r="Q27" s="131">
+        <f>SUM(Q22:Q26)</f>
+        <v>7200</v>
+      </c>
+      <c r="R27" s="130">
+        <f>SUM(R22:R26)</f>
+        <v>8000</v>
+      </c>
+      <c r="S27" s="131">
+        <f>SUM(S22:S26)</f>
+        <v>30000</v>
+      </c>
+      <c r="T27" s="130">
+        <f>SUM(T22:T26)</f>
+        <v>29200</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL27" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="4:40">
+      <c r="J28" s="46"/>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="120">
+        <f>IF($Q$27-$R$27&lt;0,-($Q$27-$R$27),"")</f>
+        <v>800</v>
+      </c>
+      <c r="R28" s="48" t="str">
+        <f>IF(-($Q$27-$R$27)&lt;0,($Q$27-$R$27),"")</f>
+        <v/>
+      </c>
+      <c r="S28" s="11" t="str">
+        <f>IF($S$27-$T$27&lt;0,($S$27-$T$27),"")</f>
+        <v/>
+      </c>
+      <c r="T28" s="132">
+        <f>IF(-($S$27-$T$27)&lt;0,($S$27-$T$27),"")</f>
+        <v>800</v>
+      </c>
+      <c r="AK28" s="51">
+        <v>7200</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN28" s="51">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="29" spans="4:40">
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="62">
+        <f>SUM(Q27:Q28)</f>
+        <v>8000</v>
+      </c>
+      <c r="R29" s="75">
+        <f>SUM(R27:R28)</f>
+        <v>8000</v>
+      </c>
+      <c r="S29" s="62">
+        <f>SUM(S27:S28)</f>
+        <v>30000</v>
+      </c>
+      <c r="T29" s="75">
+        <f>SUM(T27:T28)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:40">
+      <c r="D30" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>418</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="4:40">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>418</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="51">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="51">
+        <v>4500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9428B042-E599-4AD3-8150-2E3F592FD5F3}">
   <dimension ref="C2:N13"/>
   <sheetViews>
@@ -56694,22 +57793,22 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="J4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M4" t="s">
         <v>299</v>
       </c>
       <c r="N4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="3:14">
@@ -56717,7 +57816,7 @@
         <v>45444</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="F5" s="51">
         <v>24000</v>
@@ -56729,7 +57828,7 @@
         <v>45444</v>
       </c>
       <c r="L5" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="M5" s="51">
         <v>24000</v>
@@ -56740,7 +57839,7 @@
     </row>
     <row r="6" spans="3:14">
       <c r="D6" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
         <v>348</v>
@@ -56752,7 +57851,7 @@
         <v>365720</v>
       </c>
       <c r="K6" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L6" t="s">
         <v>348</v>
@@ -56814,7 +57913,7 @@
     </row>
     <row r="10" spans="3:14">
       <c r="L10" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="M10" s="64">
         <f>SUM(M5:M9)</f>
@@ -56827,7 +57926,7 @@
     </row>
     <row r="11" spans="3:14">
       <c r="L11" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M11">
         <f>M10/N10</f>
@@ -56836,7 +57935,7 @@
     </row>
     <row r="12" spans="3:14">
       <c r="L12" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="N12" s="64">
         <f>N10-(N8+N9)</f>
@@ -56845,9 +57944,9 @@
     </row>
     <row r="13" spans="3:14">
       <c r="L13" t="s">
-        <v>424</v>
-      </c>
-      <c r="M13" s="126">
+        <v>436</v>
+      </c>
+      <c r="M13" s="122">
         <f>$N12*$M11</f>
         <v>150724.63768115942</v>
       </c>
@@ -56857,7 +57956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BD5300-C713-43D5-9E3C-ADAE2D1014F0}">
   <dimension ref="C2:K9"/>
   <sheetViews>
@@ -56905,7 +58004,7 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D4" s="51">
         <v>8000</v>
@@ -56914,7 +58013,7 @@
         <v>3.25</v>
       </c>
       <c r="H4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="I4" s="51">
         <v>8000</v>
@@ -56929,7 +58028,7 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D5" s="51">
         <v>10000</v>
@@ -56938,7 +58037,7 @@
         <v>3.5</v>
       </c>
       <c r="H5" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="I5" s="51">
         <v>10000</v>
@@ -56953,7 +58052,7 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D6" s="51">
         <v>6000</v>
@@ -56962,7 +58061,7 @@
         <v>3.65</v>
       </c>
       <c r="H6" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="I6" s="51">
         <v>6000</v>
@@ -56977,7 +58076,7 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D7" s="51">
         <v>9000</v>
@@ -56986,7 +58085,7 @@
         <v>3.9</v>
       </c>
       <c r="H7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="I7" s="51">
         <v>9000</v>
@@ -57001,7 +58100,7 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D8" s="51">
         <v>28000</v>
@@ -57010,7 +58109,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="I8" s="51">
         <v>28000</v>
@@ -57038,7 +58137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D7CC90-FCA2-49EA-95E9-69DCA491AD6B}">
   <dimension ref="C2:O12"/>
   <sheetViews>
@@ -57064,13 +58163,13 @@
     </row>
     <row r="3" spans="3:15">
       <c r="C3" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="H3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="M3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="3:15">
@@ -57078,19 +58177,19 @@
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="I4" t="s">
         <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="N4" t="s">
         <v>299</v>
       </c>
       <c r="O4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="3:15">
@@ -57124,7 +58223,7 @@
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D6" s="51">
         <v>1647000</v>
@@ -57133,7 +58232,7 @@
         <v>5400000</v>
       </c>
       <c r="H6" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="I6" s="51">
         <v>1647000</v>
@@ -57142,7 +58241,7 @@
         <v>5400000</v>
       </c>
       <c r="M6" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="N6" s="51">
         <v>1647000</v>
@@ -57183,11 +58282,11 @@
         <v>5850000</v>
       </c>
       <c r="H8" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="I8" s="51"/>
       <c r="M8" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="N8" s="64">
         <f>SUM(N5:N7)</f>
@@ -57200,10 +58299,10 @@
     </row>
     <row r="9" spans="3:15">
       <c r="H9" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="N9" s="117">
         <f>$N$8/$O$8</f>
@@ -57228,7 +58327,7 @@
     </row>
     <row r="11" spans="3:15">
       <c r="H11" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M11" t="s">
         <v>357</v>
@@ -57241,10 +58340,10 @@
     </row>
     <row r="12" spans="3:15">
       <c r="H12" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="M12" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="N12" s="51">
         <f>$O$11*$N$9</f>
@@ -57255,122 +58354,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0CD4C2-537D-4F66-A4CC-00FF3AC7FB13}">
-  <dimension ref="C2:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7">
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="51">
-        <v>80000</v>
-      </c>
-      <c r="E3" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="51">
-        <f>$D3*$E3</f>
-        <v>16000</v>
-      </c>
-      <c r="G3" s="51">
-        <f>$D3-$F3</f>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4" s="51">
-        <f>$G3</f>
-        <v>64000</v>
-      </c>
-      <c r="E4" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="51">
-        <f t="shared" ref="F4:F6" si="0">$D4*$E4</f>
-        <v>12800</v>
-      </c>
-      <c r="G4" s="51">
-        <f t="shared" ref="G4:G6" si="1">$D4-$F4</f>
-        <v>51200</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5" s="51">
-        <f t="shared" ref="D5:D6" si="2">$G4</f>
-        <v>51200</v>
-      </c>
-      <c r="E5" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="51">
-        <f t="shared" si="0"/>
-        <v>10240</v>
-      </c>
-      <c r="G5" s="51">
-        <f t="shared" si="1"/>
-        <v>40960</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6" s="51">
-        <f t="shared" si="2"/>
-        <v>40960</v>
-      </c>
-      <c r="E6" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="51">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
-      <c r="G6" s="51">
-        <f t="shared" si="1"/>
-        <v>32768</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -57402,4 +58385,298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0CD4C2-537D-4F66-A4CC-00FF3AC7FB13}">
+  <dimension ref="C2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="51">
+        <v>80000</v>
+      </c>
+      <c r="E3" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="51">
+        <f>$D3*$E3</f>
+        <v>16000</v>
+      </c>
+      <c r="G3" s="51">
+        <f>$D3-$F3</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="51">
+        <f>$G3</f>
+        <v>64000</v>
+      </c>
+      <c r="E4" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="51">
+        <f t="shared" ref="F4:F6" si="0">$D4*$E4</f>
+        <v>12800</v>
+      </c>
+      <c r="G4" s="51">
+        <f t="shared" ref="G4:G6" si="1">$D4-$F4</f>
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="51">
+        <f t="shared" ref="D5:D6" si="2">$G4</f>
+        <v>51200</v>
+      </c>
+      <c r="E5" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="51">
+        <f t="shared" si="0"/>
+        <v>10240</v>
+      </c>
+      <c r="G5" s="51">
+        <f t="shared" si="1"/>
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" s="51">
+        <f t="shared" si="2"/>
+        <v>40960</v>
+      </c>
+      <c r="E6" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="51">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C619EF6F-D0CD-4E16-9778-2B7D76592133}">
+  <dimension ref="C2:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="51">
+        <v>8385000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="D4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="51">
+        <v>6000000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="51">
+        <v>4000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="51">
+        <f>$K$7*$E4/($E$4+$E$5)</f>
+        <v>5031000</v>
+      </c>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="51">
+        <f>$K$7*$E5/($E$4+$E$5)</f>
+        <v>3354000</v>
+      </c>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="I7" t="s">
+        <v>451</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51">
+        <v>8385000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E93931C-6301-485F-8816-6647BD6733E2}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="6" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="51">
+        <v>300000</v>
+      </c>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="13458" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AF49D5-F5F5-470E-9A57-C7B13CDC56A6}"/>
+  <xr:revisionPtr revIDLastSave="13590" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084C8985-4F23-439D-BAF1-30649F038847}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="89" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="84" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -93,13 +93,15 @@
     <sheet name="A6-3" sheetId="96" r:id="rId83"/>
     <sheet name="Q6-18" sheetId="102" r:id="rId84"/>
     <sheet name="Q9-19" sheetId="110" r:id="rId85"/>
-    <sheet name="Q11-17" sheetId="107" r:id="rId86"/>
-    <sheet name="Q11-18" sheetId="106" r:id="rId87"/>
-    <sheet name="Q11-35" sheetId="103" r:id="rId88"/>
-    <sheet name="Q12-2" sheetId="105" r:id="rId89"/>
-    <sheet name="Q12-8" sheetId="104" r:id="rId90"/>
-    <sheet name="Q12-15" sheetId="109" r:id="rId91"/>
-    <sheet name="Q12-40" sheetId="108" r:id="rId92"/>
+    <sheet name="Q9-20" sheetId="112" r:id="rId86"/>
+    <sheet name="A9-1" sheetId="111" r:id="rId87"/>
+    <sheet name="Q11-17" sheetId="107" r:id="rId88"/>
+    <sheet name="Q11-18" sheetId="106" r:id="rId89"/>
+    <sheet name="Q11-35" sheetId="103" r:id="rId90"/>
+    <sheet name="Q12-2" sheetId="105" r:id="rId91"/>
+    <sheet name="Q12-8" sheetId="104" r:id="rId92"/>
+    <sheet name="Q12-15" sheetId="109" r:id="rId93"/>
+    <sheet name="Q12-40" sheetId="108" r:id="rId94"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -203,6 +205,24 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={D9802697-BFDB-4476-AFD6-0FAA6D9EF3A5}</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{D9802697-BFDB-4476-AFD6-0FAA6D9EF3A5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    詳見，Accounting (Studying).docx。CH9的20題。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={292C61DE-D93C-4D77-A133-651752AB9984}</author>
   </authors>
   <commentList>
@@ -218,7 +238,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B78456FF-FA2F-4143-8AFB-178C68BFD2EC}</author>
@@ -263,7 +283,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A2168248-DE8B-4497-B27C-93AB61B1DC48}</author>
@@ -742,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5531" uniqueCount="463">
   <si>
     <t>見docx檔</t>
   </si>
@@ -1998,6 +2018,9 @@
     <t>資產損益表</t>
   </si>
   <si>
+    <t>銀行調節表</t>
+  </si>
+  <si>
     <t>編號ID</t>
   </si>
   <si>
@@ -2013,22 +2036,49 @@
     <t>某年</t>
   </si>
   <si>
+    <t>某某年</t>
+  </si>
+  <si>
     <t>借或貸</t>
+  </si>
+  <si>
+    <t>帳上公司存款餘額</t>
   </si>
   <si>
     <t>代收票據</t>
   </si>
   <si>
+    <t>(1)帳上誤記</t>
+  </si>
+  <si>
     <t>第二頁</t>
   </si>
   <si>
-    <t>某某年</t>
+    <t>(2)代收手續費</t>
+  </si>
+  <si>
+    <t>(4)帳上誤記</t>
+  </si>
+  <si>
+    <t>正確存款餘額</t>
   </si>
   <si>
     <t>第四頁</t>
   </si>
   <si>
     <t>第五頁</t>
+  </si>
+  <si>
+    <t>帳上銀行存款餘額</t>
+  </si>
+  <si>
+    <t>銀行結單餘額</t>
+  </si>
+  <si>
+    <t>(1)送存帳款</t>
+  </si>
+  <si>
+    <t>(3)支票未兌現</t>
   </si>
   <si>
     <t>進銷貨資料</t>
@@ -2458,7 +2508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2588,6 +2638,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2600,16 +2653,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3288,13 +3343,21 @@
 
 <file path=xl/threadedComments/threadedComment10.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C3" dT="2024-02-12T08:49:46.37" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D9802697-BFDB-4476-AFD6-0FAA6D9EF3A5}">
+    <text>詳見，Accounting (Studying).docx。CH9的20題。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment11.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="K9" dT="2024-02-12T00:20:14.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{292C61DE-D93C-4D77-A133-651752AB9984}">
     <text>期末存貨</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment12.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="H3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
     <text>參考，CH11-3-4 page 266。</text>
@@ -3311,7 +3374,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment13.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D6" dT="2024-02-12T01:32:06.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A2168248-DE8B-4497-B27C-93AB61B1DC48}">
     <text>此科目的數額為題目所問的成本</text>
@@ -39961,28 +40024,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="124" t="s">
+      <c r="AG7" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124" t="s">
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="125"/>
-      <c r="AM7" s="124" t="s">
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="128"/>
+      <c r="AM7" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="125"/>
-      <c r="AO7" s="124" t="s">
+      <c r="AN7" s="128"/>
+      <c r="AO7" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="125"/>
-      <c r="AQ7" s="124" t="s">
+      <c r="AP7" s="128"/>
+      <c r="AQ7" s="127" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="125"/>
+      <c r="AR7" s="128"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -40083,10 +40146,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="124" t="s">
+      <c r="AE8" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="125"/>
+      <c r="AF8" s="128"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -43486,10 +43549,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="123" t="s">
+      <c r="J47" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="123"/>
+      <c r="K47" s="126"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -45651,14 +45714,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="123" t="s">
+      <c r="A114" s="126" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="123"/>
-      <c r="K114" s="123" t="s">
+      <c r="B114" s="126"/>
+      <c r="K114" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="123"/>
+      <c r="L114" s="126"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -45686,21 +45749,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="123" t="s">
+      <c r="H118" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="123"/>
+      <c r="I118" s="126"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="123" t="s">
+      <c r="Q118" s="126" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="123"/>
-      <c r="T118" s="123" t="s">
+      <c r="R118" s="126"/>
+      <c r="T118" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="123"/>
+      <c r="U118" s="126"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -46875,11 +46938,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -46887,6 +46945,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -47130,28 +47193,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="124" t="s">
+      <c r="AG7" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124" t="s">
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="125"/>
-      <c r="AM7" s="124" t="s">
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="128"/>
+      <c r="AM7" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="125"/>
-      <c r="AO7" s="124" t="s">
+      <c r="AN7" s="128"/>
+      <c r="AO7" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="125"/>
-      <c r="AQ7" s="124" t="s">
+      <c r="AP7" s="128"/>
+      <c r="AQ7" s="127" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="125"/>
+      <c r="AR7" s="128"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -47252,10 +47315,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="124" t="s">
+      <c r="AE8" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="125"/>
+      <c r="AF8" s="128"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -50655,10 +50718,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="123" t="s">
+      <c r="J47" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="123"/>
+      <c r="K47" s="126"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -52820,14 +52883,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="123" t="s">
+      <c r="A114" s="126" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="123"/>
-      <c r="K114" s="123" t="s">
+      <c r="B114" s="126"/>
+      <c r="K114" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="123"/>
+      <c r="L114" s="126"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -52855,21 +52918,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="123" t="s">
+      <c r="H118" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="123"/>
+      <c r="I118" s="126"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="123" t="s">
+      <c r="Q118" s="126" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="123"/>
-      <c r="T118" s="123" t="s">
+      <c r="R118" s="126"/>
+      <c r="T118" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="123"/>
+      <c r="U118" s="126"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -54044,6 +54107,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -54051,11 +54119,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -54853,10 +54916,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="123"/>
+      <c r="I4" s="126"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -54979,10 +55042,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="123"/>
+      <c r="G4" s="126"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -55601,10 +55664,10 @@
       <c r="R21" s="51"/>
     </row>
     <row r="22" spans="7:18">
-      <c r="G22" s="123" t="s">
+      <c r="G22" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="123"/>
+      <c r="H22" s="126"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -55808,10 +55871,10 @@
       <c r="R32" s="51"/>
     </row>
     <row r="33" spans="7:18">
-      <c r="G33" s="123" t="s">
+      <c r="G33" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="H33" s="123"/>
+      <c r="H33" s="126"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -56831,10 +56894,10 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4CF56-3D19-4025-A991-69CFA3EB7189}">
-  <dimension ref="C3:AN36"/>
+  <dimension ref="C3:AY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -56845,14 +56908,16 @@
     <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:40">
+    <row r="3" spans="3:51">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:40">
+    <row r="4" spans="3:51">
       <c r="D4" t="s">
         <v>94</v>
       </c>
@@ -56868,10 +56933,13 @@
       <c r="AG4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="3:40">
+      <c r="AR4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="3:51">
       <c r="D5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
         <v>96</v>
@@ -56886,7 +56954,7 @@
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O5" t="s">
         <v>96</v>
@@ -56916,22 +56984,32 @@
         <v>29</v>
       </c>
       <c r="AN5" t="s">
+        <v>421</v>
+      </c>
+      <c r="AR5" s="126" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="6" spans="3:40">
+      <c r="AS5" s="126"/>
+      <c r="AT5" s="126"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="132"/>
+      <c r="AX5" s="132"/>
+      <c r="AY5" s="132"/>
+    </row>
+    <row r="6" spans="3:51">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G6" s="51">
         <v>2700</v>
       </c>
       <c r="H6" s="51"/>
       <c r="J6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O6" t="s">
         <v>101</v>
@@ -56945,12 +57023,22 @@
       <c r="V6" s="51">
         <v>30000</v>
       </c>
-      <c r="AG6" s="123" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH6" s="123"/>
-    </row>
-    <row r="7" spans="3:40">
+      <c r="AG6" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH6" s="126"/>
+      <c r="AR6" s="134" t="s">
+        <v>424</v>
+      </c>
+      <c r="AS6" s="134"/>
+      <c r="AT6" s="134"/>
+      <c r="AU6" s="134"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135"/>
+    </row>
+    <row r="7" spans="3:51">
       <c r="F7" t="s">
         <v>103</v>
       </c>
@@ -56971,7 +57059,7 @@
         <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="51">
         <v>7200</v>
@@ -56997,22 +57085,29 @@
       <c r="AK7" t="s">
         <v>135</v>
       </c>
-      <c r="AL7" s="127" t="s">
+      <c r="AL7" s="123" t="s">
         <v>136</v>
       </c>
       <c r="AM7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="3:40">
+      <c r="AR7" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="28">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:51">
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G8" s="51">
         <v>4500</v>
@@ -57037,7 +57132,7 @@
         <v>8000</v>
       </c>
       <c r="T8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="W8" s="51">
         <v>22000</v>
@@ -57051,8 +57146,18 @@
       <c r="AN8" s="51">
         <v>30000</v>
       </c>
-    </row>
-    <row r="9" spans="3:40">
+      <c r="AR8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AT8" s="17">
+        <v>4500</v>
+      </c>
+      <c r="AU8" s="28"/>
+    </row>
+    <row r="9" spans="3:51">
       <c r="F9" t="s">
         <v>103</v>
       </c>
@@ -57078,8 +57183,13 @@
         <f>SUM(W6:W8)</f>
         <v>29200</v>
       </c>
-    </row>
-    <row r="10" spans="3:40">
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="28">
+        <f>SUM($AT$8:$AT$9)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:51">
       <c r="D10">
         <v>3</v>
       </c>
@@ -57091,7 +57201,7 @@
       </c>
       <c r="H10" s="51"/>
       <c r="J10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L10" s="51"/>
       <c r="M10" s="51">
@@ -57101,12 +57211,17 @@
         <v>103</v>
       </c>
       <c r="AN10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="3:40">
+        <v>429</v>
+      </c>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="27">
+        <f>SUM($AU$7,$AU$9)</f>
+        <v>89500</v>
+      </c>
+    </row>
+    <row r="11" spans="3:51">
       <c r="F11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G11" s="51"/>
       <c r="H11" s="51">
@@ -57119,24 +57234,26 @@
       <c r="M11" s="51">
         <v>8000</v>
       </c>
-      <c r="AG11" s="123" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH11" s="123"/>
-    </row>
-    <row r="12" spans="3:40">
+      <c r="AG11" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH11" s="126"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="28"/>
+    </row>
+    <row r="12" spans="3:51">
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G12" s="51">
         <v>8000</v>
       </c>
       <c r="H12" s="51"/>
       <c r="J12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L12" s="51">
         <v>7200</v>
@@ -57157,17 +57274,27 @@
       <c r="AK12" t="s">
         <v>135</v>
       </c>
-      <c r="AL12" s="127" t="s">
+      <c r="AL12" s="123" t="s">
         <v>136</v>
       </c>
       <c r="AM12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="3:40">
+      <c r="AR12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>430</v>
+      </c>
+      <c r="AT12" s="17">
+        <v>550</v>
+      </c>
+      <c r="AU12" s="28"/>
+    </row>
+    <row r="13" spans="3:51">
       <c r="F13" t="s">
         <v>101</v>
       </c>
@@ -57195,39 +57322,59 @@
       <c r="AN13" s="51">
         <v>7200</v>
       </c>
-    </row>
-    <row r="15" spans="3:40">
+      <c r="AS13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AT13" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU13" s="28">
+        <f>SUM($AT$12:$AT$13)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="3:51">
+      <c r="AR14" t="s">
+        <v>432</v>
+      </c>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="133">
+        <f>$AU$10-$AU$13</f>
+        <v>88860</v>
+      </c>
+    </row>
+    <row r="15" spans="3:51">
       <c r="D15" t="s">
         <v>105</v>
       </c>
       <c r="AG15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AN15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="3:40">
+    <row r="16" spans="3:51">
       <c r="D16" t="s">
         <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="AG16" s="123" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH16" s="123"/>
+      <c r="AG16" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH16" s="126"/>
     </row>
     <row r="17" spans="4:40">
       <c r="D17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -57250,11 +57397,11 @@
       <c r="AK17" t="s">
         <v>135</v>
       </c>
-      <c r="AL17" s="127" t="s">
+      <c r="AL17" s="123" t="s">
         <v>136</v>
       </c>
       <c r="AM17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN17" t="s">
         <v>140</v>
@@ -57268,7 +57415,7 @@
         <v>30000</v>
       </c>
       <c r="J18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL18" s="51">
         <v>22000</v>
@@ -57282,7 +57429,7 @@
     </row>
     <row r="19" spans="4:40">
       <c r="J19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="4:40">
@@ -57292,50 +57439,50 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="128" t="s">
+      <c r="J20" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="126" t="s">
+      <c r="K20" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126" t="s">
+      <c r="L20" s="128"/>
+      <c r="M20" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="N20" s="125"/>
-      <c r="O20" s="126" t="s">
+      <c r="N20" s="128"/>
+      <c r="O20" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126" t="s">
+      <c r="P20" s="128"/>
+      <c r="Q20" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="R20" s="125"/>
-      <c r="S20" s="126" t="s">
+      <c r="R20" s="128"/>
+      <c r="S20" s="129" t="s">
         <v>417</v>
       </c>
-      <c r="T20" s="125"/>
+      <c r="T20" s="128"/>
       <c r="AG20" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AN20" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="4:40">
       <c r="D21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="129"/>
+      <c r="J21" s="131"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -57366,10 +57513,10 @@
       <c r="T21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AG21" s="123" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH21" s="123"/>
+      <c r="AG21" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH21" s="126"/>
     </row>
     <row r="22" spans="4:40">
       <c r="F22">
@@ -57384,13 +57531,13 @@
       <c r="K22" s="51">
         <v>30000</v>
       </c>
-      <c r="L22" s="130"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="130"/>
+      <c r="N22" s="124"/>
       <c r="O22" s="51">
         <v>30000</v>
       </c>
-      <c r="P22" s="130"/>
+      <c r="P22" s="124"/>
       <c r="R22" s="5"/>
       <c r="S22" s="51">
         <v>30000</v>
@@ -57411,11 +57558,11 @@
       <c r="AK22" t="s">
         <v>135</v>
       </c>
-      <c r="AL22" s="127" t="s">
+      <c r="AL22" s="123" t="s">
         <v>136</v>
       </c>
       <c r="AM22" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN22" t="s">
         <v>140</v>
@@ -57432,19 +57579,19 @@
         <v>103</v>
       </c>
       <c r="K23" s="51"/>
-      <c r="L23" s="130">
+      <c r="L23" s="124">
         <v>2700</v>
       </c>
       <c r="M23" s="51"/>
-      <c r="N23" s="130">
+      <c r="N23" s="124">
         <v>4500</v>
       </c>
       <c r="O23" s="51"/>
-      <c r="P23" s="130">
+      <c r="P23" s="124">
         <v>7200</v>
       </c>
       <c r="R23" s="5"/>
-      <c r="T23" s="130">
+      <c r="T23" s="124">
         <v>7200</v>
       </c>
       <c r="AL23" s="51">
@@ -57459,20 +57606,20 @@
     </row>
     <row r="24" spans="4:40">
       <c r="J24" s="46" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K24" s="51"/>
-      <c r="L24" s="130">
+      <c r="L24" s="124">
         <v>22000</v>
       </c>
       <c r="M24" s="51"/>
-      <c r="N24" s="130"/>
+      <c r="N24" s="124"/>
       <c r="O24" s="51"/>
-      <c r="P24" s="130">
+      <c r="P24" s="124">
         <v>22000</v>
       </c>
       <c r="R24" s="5"/>
-      <c r="T24" s="130">
+      <c r="T24" s="124">
         <v>22000</v>
       </c>
     </row>
@@ -57481,70 +57628,70 @@
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>101</v>
       </c>
       <c r="K25" s="51"/>
-      <c r="L25" s="130">
+      <c r="L25" s="124">
         <v>8000</v>
       </c>
       <c r="M25" s="51"/>
-      <c r="N25" s="130"/>
+      <c r="N25" s="124"/>
       <c r="O25" s="51"/>
-      <c r="P25" s="130">
+      <c r="P25" s="124">
         <v>8000</v>
       </c>
-      <c r="R25" s="130">
+      <c r="R25" s="124">
         <v>8000</v>
       </c>
       <c r="T25" s="5"/>
       <c r="AG25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN25" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="4:40">
       <c r="D26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K26" s="120">
         <v>2700</v>
       </c>
-      <c r="L26" s="132"/>
+      <c r="L26" s="125"/>
       <c r="M26" s="120">
         <v>4500</v>
       </c>
-      <c r="N26" s="132"/>
+      <c r="N26" s="125"/>
       <c r="O26" s="120">
         <v>7200</v>
       </c>
-      <c r="P26" s="132"/>
+      <c r="P26" s="125"/>
       <c r="Q26" s="120">
         <v>7200</v>
       </c>
       <c r="R26" s="48"/>
       <c r="S26" s="11"/>
       <c r="T26" s="48"/>
-      <c r="AG26" s="123" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH26" s="123"/>
+      <c r="AG26" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH26" s="126"/>
     </row>
     <row r="27" spans="4:40">
       <c r="D27">
@@ -57582,19 +57729,19 @@
       <c r="P27" s="75">
         <v>37200</v>
       </c>
-      <c r="Q27" s="131">
+      <c r="Q27" s="51">
         <f>SUM(Q22:Q26)</f>
         <v>7200</v>
       </c>
-      <c r="R27" s="130">
+      <c r="R27" s="124">
         <f>SUM(R22:R26)</f>
         <v>8000</v>
       </c>
-      <c r="S27" s="131">
+      <c r="S27" s="51">
         <f>SUM(S22:S26)</f>
         <v>30000</v>
       </c>
-      <c r="T27" s="130">
+      <c r="T27" s="124">
         <f>SUM(T22:T26)</f>
         <v>29200</v>
       </c>
@@ -57613,11 +57760,11 @@
       <c r="AK27" t="s">
         <v>135</v>
       </c>
-      <c r="AL27" s="127" t="s">
+      <c r="AL27" s="123" t="s">
         <v>136</v>
       </c>
       <c r="AM27" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN27" t="s">
         <v>140</v>
@@ -57640,7 +57787,7 @@
         <f>IF($S$27-$T$27&lt;0,($S$27-$T$27),"")</f>
         <v/>
       </c>
-      <c r="T28" s="132">
+      <c r="T28" s="125">
         <f>IF(-($S$27-$T$27)&lt;0,($S$27-$T$27),"")</f>
         <v>800</v>
       </c>
@@ -57689,13 +57836,13 @@
     </row>
     <row r="30" spans="4:40">
       <c r="D30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -57714,18 +57861,18 @@
         <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -57748,18 +57895,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AG16:AH16"/>
     <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -57767,6 +57916,451 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A10B08-A25B-4C32-A934-46BC57433D3A}">
+  <dimension ref="C3:AN30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:40">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:40">
+      <c r="C4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="3:40">
+      <c r="C5" s="126" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="AG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="3:40">
+      <c r="C6" s="134">
+        <v>44043</v>
+      </c>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="AG6" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH6" s="126"/>
+    </row>
+    <row r="7" spans="3:40">
+      <c r="C7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="28">
+        <v>655710</v>
+      </c>
+      <c r="G7" t="s">
+        <v>436</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
+        <v>653900</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL7" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="3:40">
+      <c r="C8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="17">
+        <v>15300</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="AK8" s="51">
+        <v>30000</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN8" s="51">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:40">
+      <c r="D9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E9" s="17">
+        <v>14130</v>
+      </c>
+      <c r="F9" s="28">
+        <f>SUM($E$8:$E$9)</f>
+        <v>29430</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="3:40">
+      <c r="E10" s="25"/>
+      <c r="F10" s="27">
+        <f>SUM($F$7,$F$9)</f>
+        <v>685140</v>
+      </c>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121">
+        <f>SUM($J$7)</f>
+        <v>653900</v>
+      </c>
+    </row>
+    <row r="11" spans="3:40">
+      <c r="E11" s="17"/>
+      <c r="F11" s="28"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="3:40">
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="17">
+        <v>550</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="AG12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="3:40">
+      <c r="D13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="17">
+        <v>90</v>
+      </c>
+      <c r="F13" s="28">
+        <f>SUM($E$12:$E$13)</f>
+        <v>640</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="AG13" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH13" s="126"/>
+    </row>
+    <row r="14" spans="3:40">
+      <c r="C14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="133">
+        <f>$F$10-$F$13</f>
+        <v>684500</v>
+      </c>
+      <c r="G14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I14" s="121"/>
+      <c r="J14" s="64">
+        <f>$J$10</f>
+        <v>653900</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL14" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="3:40">
+      <c r="AL15" s="51">
+        <v>7200</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN15" s="51">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="17" spans="33:40">
+      <c r="AG17" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="33:40">
+      <c r="AG18" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH18" s="126"/>
+    </row>
+    <row r="19" spans="33:40">
+      <c r="AG19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL19" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="33:40">
+      <c r="AL20" s="51">
+        <v>22000</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN20" s="51">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" spans="33:40">
+      <c r="AG22" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="33:40">
+      <c r="AG23" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH23" s="126"/>
+    </row>
+    <row r="24" spans="33:40">
+      <c r="AG24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL24" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="33:40">
+      <c r="AL25" s="51">
+        <v>8000</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN25" s="51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="33:40">
+      <c r="AG27" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="33:40">
+      <c r="AG28" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH28" s="126"/>
+    </row>
+    <row r="29" spans="33:40">
+      <c r="AG29" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL29" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="33:40">
+      <c r="AK30" s="51">
+        <v>7200</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN30" s="51">
+        <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG23:AH23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C65885-B258-4885-9F9D-3262A10E939C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9428B042-E599-4AD3-8150-2E3F592FD5F3}">
   <dimension ref="C2:N13"/>
   <sheetViews>
@@ -57793,22 +58387,22 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="M4" t="s">
         <v>299</v>
       </c>
       <c r="N4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="3:14">
@@ -57816,7 +58410,7 @@
         <v>45444</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F5" s="51">
         <v>24000</v>
@@ -57828,7 +58422,7 @@
         <v>45444</v>
       </c>
       <c r="L5" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M5" s="51">
         <v>24000</v>
@@ -57839,7 +58433,7 @@
     </row>
     <row r="6" spans="3:14">
       <c r="D6" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E6" t="s">
         <v>348</v>
@@ -57851,7 +58445,7 @@
         <v>365720</v>
       </c>
       <c r="K6" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="L6" t="s">
         <v>348</v>
@@ -57913,7 +58507,7 @@
     </row>
     <row r="10" spans="3:14">
       <c r="L10" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="M10" s="64">
         <f>SUM(M5:M9)</f>
@@ -57926,7 +58520,7 @@
     </row>
     <row r="11" spans="3:14">
       <c r="L11" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M11">
         <f>M10/N10</f>
@@ -57935,7 +58529,7 @@
     </row>
     <row r="12" spans="3:14">
       <c r="L12" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="N12" s="64">
         <f>N10-(N8+N9)</f>
@@ -57944,7 +58538,7 @@
     </row>
     <row r="13" spans="3:14">
       <c r="L13" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="M13" s="122">
         <f>$N12*$M11</f>
@@ -57956,7 +58550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BD5300-C713-43D5-9E3C-ADAE2D1014F0}">
   <dimension ref="C2:K9"/>
   <sheetViews>
@@ -58004,7 +58598,7 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D4" s="51">
         <v>8000</v>
@@ -58013,7 +58607,7 @@
         <v>3.25</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="I4" s="51">
         <v>8000</v>
@@ -58028,7 +58622,7 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D5" s="51">
         <v>10000</v>
@@ -58037,7 +58631,7 @@
         <v>3.5</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="I5" s="51">
         <v>10000</v>
@@ -58052,7 +58646,7 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D6" s="51">
         <v>6000</v>
@@ -58061,7 +58655,7 @@
         <v>3.65</v>
       </c>
       <c r="H6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="I6" s="51">
         <v>6000</v>
@@ -58076,7 +58670,7 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D7" s="51">
         <v>9000</v>
@@ -58085,7 +58679,7 @@
         <v>3.9</v>
       </c>
       <c r="H7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="I7" s="51">
         <v>9000</v>
@@ -58100,7 +58694,7 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D8" s="51">
         <v>28000</v>
@@ -58109,7 +58703,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="I8" s="51">
         <v>28000</v>
@@ -58137,7 +58731,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E03B8D-8ED8-4791-8F71-0136E8F4672A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D7CC90-FCA2-49EA-95E9-69DCA491AD6B}">
   <dimension ref="C2:O12"/>
   <sheetViews>
@@ -58163,13 +58775,13 @@
     </row>
     <row r="3" spans="3:15">
       <c r="C3" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="H3" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="M3" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="3:15">
@@ -58177,19 +58789,19 @@
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="I4" t="s">
         <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="N4" t="s">
         <v>299</v>
       </c>
       <c r="O4" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="3:15">
@@ -58223,7 +58835,7 @@
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D6" s="51">
         <v>1647000</v>
@@ -58232,7 +58844,7 @@
         <v>5400000</v>
       </c>
       <c r="H6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="I6" s="51">
         <v>1647000</v>
@@ -58241,7 +58853,7 @@
         <v>5400000</v>
       </c>
       <c r="M6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="N6" s="51">
         <v>1647000</v>
@@ -58282,11 +58894,11 @@
         <v>5850000</v>
       </c>
       <c r="H8" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="I8" s="51"/>
       <c r="M8" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="N8" s="64">
         <f>SUM(N5:N7)</f>
@@ -58299,10 +58911,10 @@
     </row>
     <row r="9" spans="3:15">
       <c r="H9" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M9" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="N9" s="117">
         <f>$N$8/$O$8</f>
@@ -58327,7 +58939,7 @@
     </row>
     <row r="11" spans="3:15">
       <c r="H11" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M11" t="s">
         <v>357</v>
@@ -58340,10 +58952,10 @@
     </row>
     <row r="12" spans="3:15">
       <c r="H12" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="M12" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="N12" s="51">
         <f>$O$11*$N$9</f>
@@ -58357,7 +58969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECB7870-F12E-46B0-A86A-FE474AD50FD3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -58369,25 +58981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E03B8D-8ED8-4791-8F71-0136E8F4672A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0CD4C2-537D-4F66-A4CC-00FF3AC7FB13}">
   <dimension ref="C2:G6"/>
   <sheetViews>
@@ -58407,16 +59001,16 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="G2" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="3:7">
@@ -58503,7 +59097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C619EF6F-D0CD-4E16-9778-2B7D76592133}">
   <dimension ref="C2:K7"/>
   <sheetViews>
@@ -58529,7 +59123,7 @@
         <v>277</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E3" s="51">
         <v>8385000</v>
@@ -58540,7 +59134,7 @@
     </row>
     <row r="4" spans="3:11">
       <c r="D4" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E4" s="51">
         <v>6000000</v>
@@ -58569,7 +59163,7 @@
         <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="J5" s="51">
         <f>$K$7*$E4/($E$4+$E$5)</f>
@@ -58589,7 +59183,7 @@
     </row>
     <row r="7" spans="3:11">
       <c r="I7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="J7" s="51"/>
       <c r="K7" s="51">
@@ -58601,7 +59195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E93931C-6301-485F-8816-6647BD6733E2}">
   <dimension ref="B2:F8"/>
   <sheetViews>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="13590" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084C8985-4F23-439D-BAF1-30649F038847}"/>
+  <xr:revisionPtr revIDLastSave="14112" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9BB6DD-BDFE-4E60-90E4-CD160704C64C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="84" activeTab="84" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -101,7 +101,14 @@
     <sheet name="Q12-2" sheetId="105" r:id="rId91"/>
     <sheet name="Q12-8" sheetId="104" r:id="rId92"/>
     <sheet name="Q12-15" sheetId="109" r:id="rId93"/>
-    <sheet name="Q12-40" sheetId="108" r:id="rId94"/>
+    <sheet name="Q12-36" sheetId="113" r:id="rId94"/>
+    <sheet name="Q12-38" sheetId="114" r:id="rId95"/>
+    <sheet name="Q12-40" sheetId="108" r:id="rId96"/>
+    <sheet name="Q14-15" sheetId="115" r:id="rId97"/>
+    <sheet name="Q16-20" sheetId="116" r:id="rId98"/>
+    <sheet name="Q17-23" sheetId="117" r:id="rId99"/>
+    <sheet name="Q17-27" sheetId="118" r:id="rId100"/>
+    <sheet name="Q18-3" sheetId="119" r:id="rId101"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -286,6 +293,34 @@
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={C4F56186-D303-4132-A760-03B5963D4C53}</author>
+    <author>tc={D0A40ABC-6F47-4367-9C0A-3E6D08031F71}</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{C4F56186-D303-4132-A760-03B5963D4C53}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    詳見，CH12 part 1 Q36。</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="1" shapeId="0" xr:uid="{D0A40ABC-6F47-4367-9C0A-3E6D08031F71}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    想求：
+甲公司可認列的商譽是多少?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={A2168248-DE8B-4497-B27C-93AB61B1DC48}</author>
   </authors>
   <commentList>
@@ -295,6 +330,25 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     此科目的數額為題目所問的成本</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={71C7FF9F-E798-4FC5-BC85-087B97950848}</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{71C7FF9F-E798-4FC5-BC85-087B97950848}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    詳見，accounting (studying).docx
+檔的CH17 的 part 1的第23題。</t>
       </text>
     </comment>
   </commentList>
@@ -762,7 +816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5531" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="495">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2054,10 +2108,7 @@
     <t>第二頁</t>
   </si>
   <si>
-    <t>(2)代收手續費</t>
-  </si>
-  <si>
-    <t>(4)帳上誤記</t>
+    <t>(2)票據未入帳</t>
   </si>
   <si>
     <t>正確存款餘額</t>
@@ -2079,6 +2130,12 @@
   </si>
   <si>
     <t>(3)支票未兌現</t>
+  </si>
+  <si>
+    <t>(2)代收手續費</t>
+  </si>
+  <si>
+    <t>(4)帳上誤記</t>
   </si>
   <si>
     <t>進銷貨資料</t>
@@ -2152,12 +2209,105 @@
   <si>
     <t>房屋</t>
   </si>
+  <si>
+    <t>乙公司</t>
+  </si>
+  <si>
+    <t>甲公司購買價格</t>
+  </si>
+  <si>
+    <t>帳面金額</t>
+  </si>
+  <si>
+    <t>公允價值</t>
+  </si>
+  <si>
+    <t>無形資產</t>
+  </si>
+  <si>
+    <t>交換表</t>
+  </si>
+  <si>
+    <t>甲公司鑽探機器設備</t>
+  </si>
+  <si>
+    <t>乙公司開採機器設備</t>
+  </si>
+  <si>
+    <t>設備成本</t>
+  </si>
+  <si>
+    <t>現金收(付)</t>
+  </si>
+  <si>
+    <t>甲公司</t>
+  </si>
+  <si>
+    <t>換入資產認列金額</t>
+  </si>
+  <si>
+    <t>利息</t>
+  </si>
+  <si>
+    <t>償還</t>
+  </si>
+  <si>
+    <t>債務合計</t>
+  </si>
+  <si>
+    <t>資本公積--庫藏股票交易</t>
+  </si>
+  <si>
+    <t>財務報表上</t>
+  </si>
+  <si>
+    <t>股本</t>
+  </si>
+  <si>
+    <t>財務報表</t>
+  </si>
+  <si>
+    <t>股本溢價</t>
+  </si>
+  <si>
+    <t>未分配盈餘</t>
+  </si>
+  <si>
+    <t>庫藏股票</t>
+  </si>
+  <si>
+    <t>權益合計</t>
+  </si>
+  <si>
+    <t>期間初</t>
+  </si>
+  <si>
+    <t>期間末</t>
+  </si>
+  <si>
+    <t>流通在外股數</t>
+  </si>
+  <si>
+    <t>調整後股利率</t>
+  </si>
+  <si>
+    <t>流通期間比例</t>
+  </si>
+  <si>
+    <t>加權股數</t>
+  </si>
+  <si>
+    <t>應付公司債</t>
+  </si>
+  <si>
+    <t>公司債溢價</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -2166,6 +2316,7 @@
     <numFmt numFmtId="180" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="182" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="#,##0.000_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -2641,6 +2792,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2659,12 +2813,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3376,8 +3527,29 @@
 
 <file path=xl/threadedComments/threadedComment13.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C3" dT="2024-02-12T12:45:56.36" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C4F56186-D303-4132-A760-03B5963D4C53}">
+    <text>詳見，CH12 part 1 Q36。</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2024-02-12T13:08:40.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D0A40ABC-6F47-4367-9C0A-3E6D08031F71}">
+    <text>想求：
+甲公司可認列的商譽是多少?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment14.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D6" dT="2024-02-12T01:32:06.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A2168248-DE8B-4497-B27C-93AB61B1DC48}">
     <text>此科目的數額為題目所問的成本</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment15.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C3" dT="2024-02-13T08:42:52.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{71C7FF9F-E798-4FC5-BC85-087B97950848}">
+    <text>詳見，accounting (studying).docx
+檔的CH17 的 part 1的第23題。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -4459,6 +4631,268 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7413EB4A-0299-49B1-97BE-457A25CD665F}">
+  <dimension ref="C3:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="D4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H4" t="s">
+        <v>491</v>
+      </c>
+      <c r="I4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="D5" s="118">
+        <v>45292</v>
+      </c>
+      <c r="E5" s="118">
+        <v>45352</v>
+      </c>
+      <c r="F5" s="51">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I5" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="D6" s="118">
+        <v>45352</v>
+      </c>
+      <c r="E6" s="118">
+        <v>45413</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="117">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="51">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="D7" s="118">
+        <v>45413</v>
+      </c>
+      <c r="E7" s="118">
+        <v>45597</v>
+      </c>
+      <c r="F7" s="51">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="117">
+        <f>6/12</f>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="51">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="D8" s="118">
+        <v>45597</v>
+      </c>
+      <c r="E8" s="118">
+        <v>45657</v>
+      </c>
+      <c r="F8" s="51">
+        <v>3300</v>
+      </c>
+      <c r="H8" s="117">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="D9" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="129"/>
+      <c r="F9" s="51">
+        <v>3300</v>
+      </c>
+      <c r="H9" s="117">
+        <v>1</v>
+      </c>
+      <c r="I9" s="51">
+        <v>18200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
+  <dimension ref="C3:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="D6" s="8">
+        <v>43647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="51">
+        <v>208424</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="F7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="F8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51">
+        <f>$G$6-$H$7</f>
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="D9" s="8">
+        <v>44012</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="51">
+        <f>$H$7*0.06</f>
+        <v>12000</v>
+      </c>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="51">
+        <f>$H$11-$G$9</f>
+        <v>2000.0000000000018</v>
+      </c>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <f>$H$7*0.07</f>
+        <v>14000.000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1E3A07-CD87-4EF8-B107-8CE59A6E4981}">
   <dimension ref="B1:S7"/>
@@ -40024,28 +40458,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="127" t="s">
+      <c r="AG7" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="127" t="s">
+      <c r="AH7" s="131"/>
+      <c r="AI7" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="127" t="s">
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="127" t="s">
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="130" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="127" t="s">
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="128"/>
+      <c r="AR7" s="131"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -40146,10 +40580,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="127" t="s">
+      <c r="AE8" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="128"/>
+      <c r="AF8" s="131"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -43549,10 +43983,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="126" t="s">
+      <c r="J47" s="129" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="126"/>
+      <c r="K47" s="129"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -45714,14 +46148,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="126" t="s">
+      <c r="A114" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="126"/>
-      <c r="K114" s="126" t="s">
+      <c r="B114" s="129"/>
+      <c r="K114" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="126"/>
+      <c r="L114" s="129"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -45749,21 +46183,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="126" t="s">
+      <c r="H118" s="129" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="126"/>
+      <c r="I118" s="129"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="126" t="s">
+      <c r="Q118" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="126"/>
-      <c r="T118" s="126" t="s">
+      <c r="R118" s="129"/>
+      <c r="T118" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="126"/>
+      <c r="U118" s="129"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -47193,28 +47627,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="127" t="s">
+      <c r="AG7" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="127" t="s">
+      <c r="AH7" s="131"/>
+      <c r="AI7" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="127" t="s">
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="127" t="s">
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="130" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="127" t="s">
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="128"/>
+      <c r="AR7" s="131"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -47315,10 +47749,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="127" t="s">
+      <c r="AE8" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="128"/>
+      <c r="AF8" s="131"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -50718,10 +51152,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="126" t="s">
+      <c r="J47" s="129" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="126"/>
+      <c r="K47" s="129"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -52883,14 +53317,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="126" t="s">
+      <c r="A114" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="126"/>
-      <c r="K114" s="126" t="s">
+      <c r="B114" s="129"/>
+      <c r="K114" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="126"/>
+      <c r="L114" s="129"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -52918,21 +53352,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="126" t="s">
+      <c r="H118" s="129" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="126"/>
+      <c r="I118" s="129"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="126" t="s">
+      <c r="Q118" s="129" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="126"/>
-      <c r="T118" s="126" t="s">
+      <c r="R118" s="129"/>
+      <c r="T118" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="126"/>
+      <c r="U118" s="129"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -54916,10 +55350,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="126" t="s">
+      <c r="H4" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="126"/>
+      <c r="I4" s="129"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -55042,10 +55476,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="126"/>
+      <c r="G4" s="129"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -55664,10 +56098,10 @@
       <c r="R21" s="51"/>
     </row>
     <row r="22" spans="7:18">
-      <c r="G22" s="126" t="s">
+      <c r="G22" s="129" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="126"/>
+      <c r="H22" s="129"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -55871,10 +56305,10 @@
       <c r="R32" s="51"/>
     </row>
     <row r="33" spans="7:18">
-      <c r="G33" s="126" t="s">
+      <c r="G33" s="129" t="s">
         <v>390</v>
       </c>
-      <c r="H33" s="126"/>
+      <c r="H33" s="129"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -56896,8 +57330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4CF56-3D19-4025-A991-69CFA3EB7189}">
   <dimension ref="C3:AY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -56986,16 +57420,12 @@
       <c r="AN5" t="s">
         <v>421</v>
       </c>
-      <c r="AR5" s="126" t="s">
+      <c r="AR5" s="129" t="s">
         <v>420</v>
       </c>
-      <c r="AS5" s="126"/>
-      <c r="AT5" s="126"/>
-      <c r="AU5" s="126"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="132"/>
-      <c r="AX5" s="132"/>
-      <c r="AY5" s="132"/>
+      <c r="AS5" s="129"/>
+      <c r="AT5" s="129"/>
+      <c r="AU5" s="129"/>
     </row>
     <row r="6" spans="3:51">
       <c r="D6">
@@ -57023,20 +57453,20 @@
       <c r="V6" s="51">
         <v>30000</v>
       </c>
-      <c r="AG6" s="126" t="s">
+      <c r="AG6" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH6" s="126"/>
-      <c r="AR6" s="134" t="s">
+      <c r="AH6" s="129"/>
+      <c r="AR6" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="AS6" s="134"/>
-      <c r="AT6" s="134"/>
-      <c r="AU6" s="134"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
     </row>
     <row r="7" spans="3:51">
       <c r="F7" t="s">
@@ -57234,10 +57664,10 @@
       <c r="M11" s="51">
         <v>8000</v>
       </c>
-      <c r="AG11" s="126" t="s">
+      <c r="AG11" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH11" s="126"/>
+      <c r="AH11" s="129"/>
       <c r="AT11" s="17"/>
       <c r="AU11" s="28"/>
     </row>
@@ -57322,25 +57752,20 @@
       <c r="AN13" s="51">
         <v>7200</v>
       </c>
-      <c r="AS13" t="s">
-        <v>431</v>
-      </c>
-      <c r="AT13" s="17">
-        <v>90</v>
-      </c>
+      <c r="AT13" s="17"/>
       <c r="AU13" s="28">
         <f>SUM($AT$12:$AT$13)</f>
-        <v>640</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="3:51">
       <c r="AR14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AT14" s="25"/>
-      <c r="AU14" s="133">
+      <c r="AU14" s="126">
         <f>$AU$10-$AU$13</f>
-        <v>88860</v>
+        <v>88950</v>
       </c>
     </row>
     <row r="15" spans="3:51">
@@ -57361,10 +57786,10 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="AG16" s="126" t="s">
+      <c r="AG16" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH16" s="126"/>
+      <c r="AH16" s="129"/>
     </row>
     <row r="17" spans="4:40">
       <c r="D17" t="s">
@@ -57439,34 +57864,34 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="130" t="s">
+      <c r="J20" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="129" t="s">
+      <c r="K20" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129" t="s">
+      <c r="L20" s="131"/>
+      <c r="M20" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="N20" s="128"/>
-      <c r="O20" s="129" t="s">
+      <c r="N20" s="131"/>
+      <c r="O20" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="129" t="s">
+      <c r="P20" s="131"/>
+      <c r="Q20" s="132" t="s">
         <v>315</v>
       </c>
-      <c r="R20" s="128"/>
-      <c r="S20" s="129" t="s">
+      <c r="R20" s="131"/>
+      <c r="S20" s="132" t="s">
         <v>417</v>
       </c>
-      <c r="T20" s="128"/>
+      <c r="T20" s="131"/>
       <c r="AG20" t="s">
         <v>427</v>
       </c>
       <c r="AN20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="4:40">
@@ -57482,7 +57907,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="131"/>
+      <c r="J21" s="134"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -57513,10 +57938,10 @@
       <c r="T21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AG21" s="126" t="s">
+      <c r="AG21" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH21" s="126"/>
+      <c r="AH21" s="129"/>
     </row>
     <row r="22" spans="4:40">
       <c r="F22">
@@ -57651,7 +58076,7 @@
         <v>422</v>
       </c>
       <c r="AN25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="4:40">
@@ -57688,10 +58113,10 @@
       <c r="R26" s="48"/>
       <c r="S26" s="11"/>
       <c r="T26" s="48"/>
-      <c r="AG26" s="126" t="s">
+      <c r="AG26" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH26" s="126"/>
+      <c r="AH26" s="129"/>
     </row>
     <row r="27" spans="4:40">
       <c r="D27">
@@ -57920,7 +58345,7 @@
   <dimension ref="C3:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -57953,16 +58378,16 @@
       </c>
     </row>
     <row r="5" spans="3:40">
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="129" t="s">
         <v>420</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
       <c r="AG5" t="s">
         <v>29</v>
       </c>
@@ -57971,31 +58396,31 @@
       </c>
     </row>
     <row r="6" spans="3:40">
-      <c r="C6" s="134">
+      <c r="C6" s="135">
         <v>44043</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="AG6" s="126" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="AG6" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH6" s="126"/>
+      <c r="AH6" s="129"/>
     </row>
     <row r="7" spans="3:40">
       <c r="C7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="28">
         <v>655710</v>
       </c>
       <c r="G7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="51">
@@ -58031,7 +58456,7 @@
         <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E8" s="17">
         <v>15300</v>
@@ -58054,7 +58479,7 @@
     </row>
     <row r="9" spans="3:40">
       <c r="D9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E9" s="17">
         <v>14130</v>
@@ -58089,7 +58514,7 @@
         <v>385</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E12" s="17">
         <v>550</v>
@@ -58109,7 +58534,7 @@
     </row>
     <row r="13" spans="3:40">
       <c r="D13" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E13" s="17">
         <v>90</v>
@@ -58120,22 +58545,22 @@
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
-      <c r="AG13" s="126" t="s">
+      <c r="AG13" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH13" s="126"/>
+      <c r="AH13" s="129"/>
     </row>
     <row r="14" spans="3:40">
       <c r="C14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="133">
+      <c r="F14" s="126">
         <f>$F$10-$F$13</f>
         <v>684500</v>
       </c>
       <c r="G14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I14" s="121"/>
       <c r="J14" s="64">
@@ -58187,10 +58612,10 @@
       </c>
     </row>
     <row r="18" spans="33:40">
-      <c r="AG18" s="126" t="s">
+      <c r="AG18" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH18" s="126"/>
+      <c r="AH18" s="129"/>
     </row>
     <row r="19" spans="33:40">
       <c r="AG19" t="s">
@@ -58234,14 +58659,14 @@
         <v>427</v>
       </c>
       <c r="AN22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="33:40">
-      <c r="AG23" s="126" t="s">
+      <c r="AG23" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH23" s="126"/>
+      <c r="AH23" s="129"/>
     </row>
     <row r="24" spans="33:40">
       <c r="AG24" t="s">
@@ -58285,14 +58710,14 @@
         <v>422</v>
       </c>
       <c r="AN27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="33:40">
-      <c r="AG28" s="126" t="s">
+      <c r="AG28" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="AH28" s="126"/>
+      <c r="AH28" s="129"/>
     </row>
     <row r="29" spans="33:40">
       <c r="AG29" t="s">
@@ -58348,14 +58773,20 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C65885-B258-4885-9F9D-3262A10E939C}">
-  <dimension ref="A1"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -58387,22 +58818,22 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
       <c r="G4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J4" t="s">
         <v>440</v>
-      </c>
-      <c r="J4" t="s">
-        <v>439</v>
       </c>
       <c r="M4" t="s">
         <v>299</v>
       </c>
       <c r="N4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="3:14">
@@ -58410,7 +58841,7 @@
         <v>45444</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F5" s="51">
         <v>24000</v>
@@ -58422,7 +58853,7 @@
         <v>45444</v>
       </c>
       <c r="L5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M5" s="51">
         <v>24000</v>
@@ -58433,7 +58864,7 @@
     </row>
     <row r="6" spans="3:14">
       <c r="D6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E6" t="s">
         <v>348</v>
@@ -58445,7 +58876,7 @@
         <v>365720</v>
       </c>
       <c r="K6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L6" t="s">
         <v>348</v>
@@ -58507,7 +58938,7 @@
     </row>
     <row r="10" spans="3:14">
       <c r="L10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M10" s="64">
         <f>SUM(M5:M9)</f>
@@ -58520,7 +58951,7 @@
     </row>
     <row r="11" spans="3:14">
       <c r="L11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M11">
         <f>M10/N10</f>
@@ -58529,7 +58960,7 @@
     </row>
     <row r="12" spans="3:14">
       <c r="L12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N12" s="64">
         <f>N10-(N8+N9)</f>
@@ -58538,7 +58969,7 @@
     </row>
     <row r="13" spans="3:14">
       <c r="L13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M13" s="122">
         <f>$N12*$M11</f>
@@ -58598,7 +59029,7 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D4" s="51">
         <v>8000</v>
@@ -58607,7 +59038,7 @@
         <v>3.25</v>
       </c>
       <c r="H4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I4" s="51">
         <v>8000</v>
@@ -58622,7 +59053,7 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D5" s="51">
         <v>10000</v>
@@ -58631,7 +59062,7 @@
         <v>3.5</v>
       </c>
       <c r="H5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I5" s="51">
         <v>10000</v>
@@ -58646,7 +59077,7 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D6" s="51">
         <v>6000</v>
@@ -58655,7 +59086,7 @@
         <v>3.65</v>
       </c>
       <c r="H6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I6" s="51">
         <v>6000</v>
@@ -58670,7 +59101,7 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D7" s="51">
         <v>9000</v>
@@ -58679,7 +59110,7 @@
         <v>3.9</v>
       </c>
       <c r="H7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I7" s="51">
         <v>9000</v>
@@ -58694,7 +59125,7 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D8" s="51">
         <v>28000</v>
@@ -58703,7 +59134,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I8" s="51">
         <v>28000</v>
@@ -58775,13 +59206,13 @@
     </row>
     <row r="3" spans="3:15">
       <c r="C3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="3:15">
@@ -58789,19 +59220,19 @@
         <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I4" t="s">
         <v>299</v>
       </c>
       <c r="J4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N4" t="s">
         <v>299</v>
       </c>
       <c r="O4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="3:15">
@@ -58835,7 +59266,7 @@
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D6" s="51">
         <v>1647000</v>
@@ -58844,7 +59275,7 @@
         <v>5400000</v>
       </c>
       <c r="H6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I6" s="51">
         <v>1647000</v>
@@ -58853,7 +59284,7 @@
         <v>5400000</v>
       </c>
       <c r="M6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N6" s="51">
         <v>1647000</v>
@@ -58894,11 +59325,11 @@
         <v>5850000</v>
       </c>
       <c r="H8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I8" s="51"/>
       <c r="M8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N8" s="64">
         <f>SUM(N5:N7)</f>
@@ -58911,10 +59342,10 @@
     </row>
     <row r="9" spans="3:15">
       <c r="H9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N9" s="117">
         <f>$N$8/$O$8</f>
@@ -58939,7 +59370,7 @@
     </row>
     <row r="11" spans="3:15">
       <c r="H11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M11" t="s">
         <v>357</v>
@@ -58952,10 +59383,10 @@
     </row>
     <row r="12" spans="3:15">
       <c r="H12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N12" s="51">
         <f>$O$11*$N$9</f>
@@ -59001,16 +59432,16 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="3:7">
@@ -59123,7 +59554,7 @@
         <v>277</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E3" s="51">
         <v>8385000</v>
@@ -59134,7 +59565,7 @@
     </row>
     <row r="4" spans="3:11">
       <c r="D4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E4" s="51">
         <v>6000000</v>
@@ -59163,7 +59594,7 @@
         <v>4000000</v>
       </c>
       <c r="H5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J5" s="51">
         <f>$K$7*$E4/($E$4+$E$5)</f>
@@ -59183,7 +59614,7 @@
     </row>
     <row r="7" spans="3:11">
       <c r="I7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J7" s="51"/>
       <c r="K7" s="51">
@@ -59196,6 +59627,257 @@
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4FCE5C-60C3-484E-86F5-A0E539942817}">
+  <dimension ref="C3:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" s="51">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F7" s="51">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="51">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="E11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11" s="51">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="E13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="E14" t="s">
+        <v>467</v>
+      </c>
+      <c r="F14" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96897107-C1C1-4CE3-9CB7-A5D41A379EAD}">
+  <dimension ref="D3:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="D4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1600000</v>
+      </c>
+      <c r="F5" s="51">
+        <v>1000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>472</v>
+      </c>
+      <c r="I5" s="51">
+        <v>1600000</v>
+      </c>
+      <c r="J5" s="51">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="51">
+        <v>800000</v>
+      </c>
+      <c r="F6" s="51">
+        <v>500000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="51">
+        <v>800000</v>
+      </c>
+      <c r="J6" s="51">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="51">
+        <v>230000</v>
+      </c>
+      <c r="F7" s="51">
+        <v>-230000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I7" s="51">
+        <v>230000</v>
+      </c>
+      <c r="J7" s="51">
+        <v>-230000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8" s="51">
+        <v>880000</v>
+      </c>
+      <c r="F8" s="51">
+        <v>650000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>467</v>
+      </c>
+      <c r="I8" s="51">
+        <v>880000</v>
+      </c>
+      <c r="J8" s="51">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="I10" t="s">
+        <v>474</v>
+      </c>
+      <c r="J10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="H11" t="s">
+        <v>475</v>
+      </c>
+      <c r="I11" s="51">
+        <f>I5+I7</f>
+        <v>1830000</v>
+      </c>
+      <c r="J11" s="51">
+        <f>J5+J7</f>
+        <v>770000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E93931C-6301-485F-8816-6647BD6733E2}">
   <dimension ref="B2:F8"/>
   <sheetViews>
@@ -59273,4 +59955,757 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A223095-3DCD-4338-BA65-0B977353EC09}">
+  <dimension ref="C2:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="J3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="J5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127">
+        <v>100000</v>
+      </c>
+      <c r="O5" s="127">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="J6" s="8">
+        <v>44012</v>
+      </c>
+      <c r="K6" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" t="s">
+        <v>476</v>
+      </c>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127">
+        <v>5000</v>
+      </c>
+      <c r="O6" s="127">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="J7" s="8">
+        <v>44012</v>
+      </c>
+      <c r="K7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M7" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N7" s="127"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="L8" t="s">
+        <v>478</v>
+      </c>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127">
+        <v>85928</v>
+      </c>
+      <c r="O8" s="127"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="J9" s="8">
+        <v>44196</v>
+      </c>
+      <c r="K9" t="s">
+        <v>388</v>
+      </c>
+      <c r="L9" t="s">
+        <v>476</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127">
+        <v>4296.3999999999996</v>
+      </c>
+      <c r="O9" s="127">
+        <v>4296.3999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="J10" s="8">
+        <v>44196</v>
+      </c>
+      <c r="K10" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" t="s">
+        <v>477</v>
+      </c>
+      <c r="M10" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N10" s="127"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="L11" t="s">
+        <v>478</v>
+      </c>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127">
+        <v>70522.399999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="J12" s="8">
+        <v>44377</v>
+      </c>
+      <c r="K12" t="s">
+        <v>388</v>
+      </c>
+      <c r="L12" t="s">
+        <v>476</v>
+      </c>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127">
+        <v>3526.12</v>
+      </c>
+      <c r="O12" s="127">
+        <v>3526.12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="J13" s="8">
+        <v>44377</v>
+      </c>
+      <c r="K13" t="s">
+        <v>385</v>
+      </c>
+      <c r="L13" t="s">
+        <v>477</v>
+      </c>
+      <c r="M13" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N13" s="127"/>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="L14" t="s">
+        <v>478</v>
+      </c>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127">
+        <v>54346.52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="J15" s="8">
+        <v>44561</v>
+      </c>
+      <c r="K15" t="s">
+        <v>388</v>
+      </c>
+      <c r="L15" t="s">
+        <v>476</v>
+      </c>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127">
+        <v>2717.326</v>
+      </c>
+      <c r="O15" s="127">
+        <v>2717.326</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="J16" s="8">
+        <v>44561</v>
+      </c>
+      <c r="K16" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" t="s">
+        <v>477</v>
+      </c>
+      <c r="M16" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N16" s="127"/>
+    </row>
+    <row r="17" spans="10:15">
+      <c r="L17" t="s">
+        <v>478</v>
+      </c>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127">
+        <v>37361.845999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15">
+      <c r="J18" s="8">
+        <v>44742</v>
+      </c>
+      <c r="K18" t="s">
+        <v>388</v>
+      </c>
+      <c r="L18" t="s">
+        <v>476</v>
+      </c>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127">
+        <v>1868.0923</v>
+      </c>
+      <c r="O18" s="127">
+        <v>1868.0923</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15">
+      <c r="J19" s="8">
+        <v>44742</v>
+      </c>
+      <c r="K19" t="s">
+        <v>385</v>
+      </c>
+      <c r="L19" t="s">
+        <v>477</v>
+      </c>
+      <c r="M19" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N19" s="127"/>
+    </row>
+    <row r="20" spans="10:15">
+      <c r="L20" t="s">
+        <v>478</v>
+      </c>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127">
+        <v>19527.938300000002</v>
+      </c>
+      <c r="O20" s="127">
+        <v>19527.938300000002</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15">
+      <c r="J21" s="8">
+        <v>44926</v>
+      </c>
+      <c r="K21" t="s">
+        <v>388</v>
+      </c>
+      <c r="L21" t="s">
+        <v>476</v>
+      </c>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127">
+        <v>976.39691500000004</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15">
+      <c r="J22" s="8">
+        <v>44926</v>
+      </c>
+      <c r="K22" t="s">
+        <v>385</v>
+      </c>
+      <c r="L22" t="s">
+        <v>477</v>
+      </c>
+      <c r="M22" s="128">
+        <v>20504.334914999999</v>
+      </c>
+      <c r="N22" s="127"/>
+    </row>
+    <row r="23" spans="10:15">
+      <c r="L23" t="s">
+        <v>478</v>
+      </c>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15">
+      <c r="L24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="127">
+        <f>SUM($O$6:$O$23)</f>
+        <v>36935.876600000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C85544-2F30-4227-94F0-D399CE92CE1F}">
+  <dimension ref="C3:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="6" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="D6" s="8">
+        <v>44105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="51">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="D8" s="8">
+        <v>44150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="51">
+        <v>8500</v>
+      </c>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="F9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="D10" s="8">
+        <v>44181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="51">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="F11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="D14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="E15" s="124"/>
+      <c r="F15" s="8">
+        <v>44105</v>
+      </c>
+      <c r="G15" s="51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="D16" s="8">
+        <v>44150</v>
+      </c>
+      <c r="E16" s="124">
+        <v>8500</v>
+      </c>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="8">
+        <v>44181</v>
+      </c>
+      <c r="E17" s="124">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="8">
+        <v>44105</v>
+      </c>
+      <c r="E20" s="124">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="8"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="8">
+        <v>44150</v>
+      </c>
+      <c r="G21" s="51">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="8"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="8">
+        <v>44181</v>
+      </c>
+      <c r="G22" s="51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" s="51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="51">
+        <v>-8500</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27" s="120">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="F28" s="62">
+        <f>SUM($F$25:$F$27)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="51"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E50274D-F622-4016-A2EA-C41A5DC0F129}">
+  <dimension ref="C2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="D5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" s="51">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="D6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="D7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" s="51">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="D8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F9" s="62">
+        <f>SUM($F$5:$F$7)-$F$8</f>
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="F14" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14112" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9BB6DD-BDFE-4E60-90E4-CD160704C64C}"/>
+  <xr:revisionPtr revIDLastSave="14175" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23ADDA60-545F-4183-9DC6-68839A088F51}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,6 +109,9 @@
     <sheet name="Q17-23" sheetId="117" r:id="rId99"/>
     <sheet name="Q17-27" sheetId="118" r:id="rId100"/>
     <sheet name="Q18-3" sheetId="119" r:id="rId101"/>
+    <sheet name="Q18-3-2" sheetId="120" r:id="rId102"/>
+    <sheet name="Q18-3-3" sheetId="121" r:id="rId103"/>
+    <sheet name="Q18-3-4" sheetId="122" r:id="rId104"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -355,6 +358,76 @@
 </comments>
 </file>
 
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DE0146A6-D370-4EB3-A584-9CC5150EF5BA}</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據題目給的購入公司債價格。
+Reply:
+    五年期。
+Reply:
+    票面利率7%。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4A99945B-2909-4CC5-8171-687DCF2900B9}</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據題目給的購入公司債價格。
+Reply:
+    五年期。
+Reply:
+    票面利率7%。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AD066488-ACF2-42F4-9FEC-70333CC9E9DD}</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據題目給的票面利率、市場利率和會計學課本的附表一和附表二所計算出的發行價格。
+Reply:
+    五年期。
+Reply:
+    票面利率7%。
+Reply:
+    發行價格 = 200,000.8
+Reply:
+    計算過程見旁邊的圖。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -399,6 +472,67 @@
     對題目A4-3，我的答案。
 Reply:
     從A30到G39。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A70A48F5-C10C-4011-9EB6-416D8C967936}</author>
+    <author>tc={812B22EB-9658-412D-9656-CC156169A555}</author>
+    <author>tc={8535B5DB-4A19-48A0-B997-053C627EED93}</author>
+    <author>tc={69C635D0-9183-4A8D-A4D4-2D7321005CDF}</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{A70A48F5-C10C-4011-9EB6-416D8C967936}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    一元年金現值
+Reply:
+    為紅色底線上數字</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{812B22EB-9658-412D-9656-CC156169A555}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    根據題目給的票面利率、市場利率計算出發行價格。
+Reply:
+    10年期。
+Reply:
+    票面利率7% / 2。
+Reply:
+    發行價格 = 28,952.303973697484849388786480081
+Reply:
+    計算過程見旁邊的圖。
+Reply:
+    一元年金現值如圖一和其註解。
+Reply:
+    一元現值如圖二和其註解。
+Reply:
+    發行價格如圖三和其註解。</t>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="2" shapeId="0" xr:uid="{8535B5DB-4A19-48A0-B997-053C627EED93}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    一元值值</t>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="3" shapeId="0" xr:uid="{69C635D0-9183-4A8D-A4D4-2D7321005CDF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    發行價格</t>
       </text>
     </comment>
   </commentList>
@@ -816,7 +950,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="498">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2302,6 +2436,15 @@
   <si>
     <t>公司債溢價</t>
   </si>
+  <si>
+    <t>圖一</t>
+  </si>
+  <si>
+    <t>圖二</t>
+  </si>
+  <si>
+    <t>圖三</t>
+  </si>
 </sst>
 </file>
 
@@ -2807,13 +2950,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3164,6 +3307,300 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FA66D8-C183-6464-30DC-44ABA34701BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="285750"/>
+          <a:ext cx="3971925" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFA12D4-4138-1340-55BD-6A1C1AA1729B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="657225"/>
+          <a:ext cx="3457575" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77820371-62BB-3C21-48A8-01B92BC6DF1C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0DFA12D4-4138-1340-55BD-6A1C1AA1729B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="3886200"/>
+          <a:ext cx="4572000" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B120E41-AB02-0CC6-70AD-3D881B3FCB45}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{77820371-62BB-3C21-48A8-01B92BC6DF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="4867275"/>
+          <a:ext cx="4562475" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABC310F-BCCE-44B1-8FB6-41E4E162DAF8}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B120E41-AB02-0CC6-70AD-3D881B3FCB45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7000875" y="1600200"/>
+            <a:ext cx="2857500" cy="323850"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABC310F-BCCE-44B1-8FB6-41E4E162DAF8}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B120E41-AB02-0CC6-70AD-3D881B3FCB45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6982872" y="1582390"/>
+              <a:ext cx="2893147" cy="359833"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">18076 4440 16383 0 0,'4'3'0'0'0,"4"6"0"0"0,5 0 0 0 0,4 3 0 0 0,2 3 0 0 0,6-2 0 0 0,-2 2 0 0 0,2-3 0 0 0,1 1 0 0 0,-1-3 0 0 0,3-2 0 0 0,1 1 0 0 0,-2-1 0 0 0,-2-2 0 0 0,-1-2 0 0 0,6-2 0 0 0,1-1 0 0 0,3 0 0 0 0,3-2 0 0 0,6 1 0 0 0,6 0 0 0 0,2-1 0 0 0,4 1 0 0 0,-2 0 0 0 0,6 0 0 0 0,0-4 0 0 0,4-1 0 0 0,-2 1 0 0 0,-3 0 0 0 0,-5 2 0 0 0,-4 0 0 0 0,-4-2 0 0 0,-1-2 0 0 0,-2 2 0 0 0,-4 0 0 0 0,-1-2 0 0 0,0-4 0 0 0,-3 0 0 0 0,-3 2 0 0 0,-3 2 0 0 0,-4 2 0 0 0,-1 1 0 0 0,-1 2 0 0 0,-2 1 0 0 0,1 0 0 0 0,3 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,7 0 0 0 0,8 0 0 0 0,2 0 0 0 0,4 0 0 0 0,2 0 0 0 0,-3 0 0 0 0,1 0 0 0 0,8 0 0 0 0,-2 0 0 0 0,-3 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,8 0 0 0 0,0 4 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-2 2 0 0 0,-2 0 0 0 0,3 3 0 0 0,7 0 0 0 0,-3-2 0 0 0,-2 2 0 0 0,0-1 0 0 0,-5-1 0 0 0,1 1 0 0 0,4-1 0 0 0,-2-1 0 0 0,1-2 0 0 0,1-1 0 0 0,-5 2 0 0 0,-1 4 0 0 0,-6 0 0 0 0,-4-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-3-2 0 0 0,-5 1 0 0 0,-4 0 0 0 0,4-2 0 0 0,1 2 0 0 0,-3-1 0 0 0,2-1 0 0 0,-2-2 0 0 0,-2-1 0 0 0,2-2 0 0 0,-2 3 0 0 0,-1 1 0 0 0,2 3 0 0 0,0 0 0 0 0,-2 2 0 0 0,-2 0 0 0 0,2-2 0 0 0,4-3 0 0 0,0-1 0 0 0,-2-2 0 0 0,2 2 0 0 0,-1 1 0 0 0,5-1 0 0 0,11-1 0 0 0,-2 3 0 0 0,2 0 0 0 0,-3 3 0 0 0,-2-1 0 0 0,-4 0 0 0 0,-1-3 0 0 0,0-2 0 0 0,2-1 0 0 0,1-1 0 0 0,1 2 0 0 0,-2 5 0 0 0,3 1 0 0 0,1 3 0 0 0,2-1 0 0 0,-4-3 0 0 0,-1-2 0 0 0,-4-2 0 0 0,-4-2 0 0 0,0 2 0 0 0,-2 1 0 0 0,5 3 0 0 0,4 0 0 0 0,-1 2 0 0 0,4 0 0 0 0,-1-2 0 0 0,-1-3 0 0 0,1 2 0 0 0,-3 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-2 0 0 0 0,3-1 0 0 0,0 2 0 0 0,-4-1 0 0 0,-4-1 0 0 0,-3-2 0 0 0,0-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,-2 2 0 0 0,-1 2 0 0 0,0 3 0 0 0,2 0 0 0 0,0-1 0 0 0,5-2 0 0 0,3 2 0 0 0,-1 0 0 0 0,3-2 0 0 0,-2-1 0 0 0,-3-2 0 0 0,-3 0 0 0 0,-2-2 0 0 0,-2 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 0 0 0 0,5 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-3 3 0 0 0,1 2 0 0 0,1 0 0 0 0,3-1 0 0 0,4-2 0 0 0,3 0 0 0 0,4 2 0 0 0,-2 1 0 0 0,-3 0 0 0 0,-4-2 0 0 0,0 3 0 0 0,2 1 0 0 0,0-2 0 0 0,-3 2 0 0 0,2 1 0 0 0,5-2 0 0 0,1-2 0 0 0,2 2 0 0 0,0 1 0 0 0,-2 2 0 0 0,-4-1 0 0 0,3-1 0 0 0,-4 2 0 0 0,-4-1 0 0 0,0-2 0 0 0,-1-2 0 0 0,2-1 0 0 0,0 2 0 0 0,2 0 0 0 0,0 3 0 0 0,-3 0 0 0 0,-2-1 0 0 0,-1 2 0 0 0,-2-1 0 0 0,2-2 0 0 0,5-1 0 0 0,0-3 0 0 0,-1 0 0 0 0,-2 2 0 0 0,-2 1 0 0 0,2-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-2-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 0 0 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3550,6 +3987,95 @@
   <threadedComment ref="C3" dT="2024-02-13T08:42:52.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{71C7FF9F-E798-4FC5-BC85-087B97950848}">
     <text>詳見，accounting (studying).docx
 檔的CH17 的 part 1的第23題。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment16.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G6" dT="2024-02-14T06:17:22.61" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
+    <text>根據題目給的購入公司債價格。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:43:24.86" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F5AF050E-D63E-4A05-A3BF-E7FB2BFF080A}" parentId="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
+    <text>五年期。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:43:30.46" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B28EA0EB-EF50-442B-AAFC-29C961F70666}" parentId="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
+    <text>票面利率7%。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment17.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G6" dT="2024-02-14T06:17:45.22" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
+    <text>根據題目給的購入公司債價格。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:43:02.61" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{69CDAA13-7008-4801-BEC1-EFE58697BEA8}" parentId="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
+    <text>五年期。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:43:06.16" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E0B8ECED-C5AD-42BD-9A13-E9FFF7FC0C92}" parentId="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
+    <text>票面利率7%。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment18.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G6" dT="2024-02-14T06:19:18.21" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+    <text>根據題目給的票面利率、市場利率和會計學課本的附表一和附表二所計算出的發行價格。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:19:47.47" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D6617201-1153-473E-898D-EE066C99BB9D}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+    <text>五年期。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:20:04.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8152571B-0AC4-4774-842D-8A6B6118F23A}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+    <text>票面利率7%。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:20:23.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AC8F232A-D30B-4955-B28E-793127BD02F9}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+    <text>發行價格 = 200,000.8</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:23:16.59" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E0909267-7E37-4024-A46B-AADDF82566CC}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+    <text>計算過程見旁邊的圖。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment19.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J3" dT="2024-02-14T06:38:38.65" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A70A48F5-C10C-4011-9EB6-416D8C967936}">
+    <text>一元年金現值</text>
+  </threadedComment>
+  <threadedComment ref="J3" dT="2024-02-14T06:39:07.75" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E055A2C2-AF7C-4C8C-8251-5590592127D8}" parentId="{A70A48F5-C10C-4011-9EB6-416D8C967936}">
+    <text>為紅色底線上數字</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:19:18.21" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>根據題目給的票面利率、市場利率計算出發行價格。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:19:47.47" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0EED7166-A7C7-4123-B7BC-6986099A969D}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>10年期。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:20:04.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{290AFC4E-3E44-41F5-A3C3-DEFAA8C291F7}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>票面利率7% / 2。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:20:23.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{09DF28A3-F7F1-43ED-846A-13CD9691D158}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>發行價格 = 28,952.303973697484849388786480081</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:23:16.59" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B5E76F9E-B168-426F-8404-F6D68F02B884}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>計算過程見旁邊的圖。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:40:54.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6FD54516-60AE-42E5-B9B3-3F542A51FC94}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>一元年金現值如圖一和其註解。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:41:05.16" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EB0F2DA4-D1D8-48C0-B182-4DA593B903B1}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>一元現值如圖二和其註解。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T06:41:20.13" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5AD4BD83-0C7C-4ECA-B89E-4CCF5540D952}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
+    <text>發行價格如圖三和其註解。</text>
+  </threadedComment>
+  <threadedComment ref="J18" dT="2024-02-14T06:38:11.79" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8535B5DB-4A19-48A0-B997-053C627EED93}">
+    <text>一元值值</text>
+  </threadedComment>
+  <threadedComment ref="J23" dT="2024-02-14T06:37:35.52" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{69C635D0-9183-4A8D-A4D4-2D7321005CDF}">
+    <text>發行價格</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -4771,11 +5297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
   <dimension ref="C3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4890,6 +5416,458 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F603FC1-F1F2-4B5D-A98D-B5351E3EB2D7}">
+  <dimension ref="C3:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="D6" s="8">
+        <v>43647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="51">
+        <v>208424</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="F7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="F8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51">
+        <f>$G$6-$H$7</f>
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="D9" s="8">
+        <v>43830</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="51">
+        <f>$H$7*0.06/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="51">
+        <f>$H$11-$G$9</f>
+        <v>1000.0000000000009</v>
+      </c>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <f>$H$7*0.07/2</f>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="D12" s="8">
+        <v>43983</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="51">
+        <f>$H$7*0.06/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="E13" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" s="51">
+        <f>$H$11-$G$9</f>
+        <v>1000.0000000000009</v>
+      </c>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51">
+        <f>$H$7*0.07/2</f>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC662B7-8751-4BCF-865A-DC1358C7B49E}">
+  <dimension ref="C3:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="D6" s="8">
+        <v>43647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="43">
+        <v>200000.8</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="F7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="F8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="117">
+        <f>$G$6-$H$7</f>
+        <v>0.79999999998835847</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="D9" s="8">
+        <v>43830</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="51">
+        <f>$H$7*0.06/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="51">
+        <f>$H$11-$G$9</f>
+        <v>1000.0000000000009</v>
+      </c>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <f>$H$7*0.07/2</f>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="D12" s="8">
+        <v>43983</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="51">
+        <f>$H$7*0.06/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="E13" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" s="51">
+        <f>$H$11-$G$9</f>
+        <v>1000.0000000000009</v>
+      </c>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51">
+        <f>$H$7*0.07/2</f>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D644D7-040E-4BD0-AB14-AD1AD01CCAAD}">
+  <dimension ref="C3:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="D6" s="8">
+        <v>43647</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="43">
+        <v>28952.303973697399</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="F7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="F8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="117">
+        <f>$G$6-$H$7</f>
+        <v>-171047.69602630261</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="D9" s="8">
+        <v>43830</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="51">
+        <f>$H$7*0.06/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="51">
+        <f>$H$11-$G$9</f>
+        <v>1000.0000000000009</v>
+      </c>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <f>$H$7*0.07/2</f>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="D12" s="8">
+        <v>43983</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="51">
+        <f>$H$7*0.06/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="E13" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" s="51">
+        <f>$H$11-$G$9</f>
+        <v>1000.0000000000009</v>
+      </c>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51">
+        <f>$H$7*0.07/2</f>
+        <v>7000.0000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -47372,6 +48350,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -47379,11 +48362,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -54541,11 +55519,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -54553,6 +55526,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -57457,12 +58435,12 @@
         <v>423</v>
       </c>
       <c r="AH6" s="129"/>
-      <c r="AR6" s="135" t="s">
+      <c r="AR6" s="133" t="s">
         <v>424</v>
       </c>
-      <c r="AS6" s="135"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133"/>
+      <c r="AU6" s="133"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
@@ -57864,7 +58842,7 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="133" t="s">
+      <c r="J20" s="134" t="s">
         <v>96</v>
       </c>
       <c r="K20" s="132" t="s">
@@ -57907,7 +58885,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="134"/>
+      <c r="J21" s="135"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -58321,6 +59299,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AR5:AU5"/>
     <mergeCell ref="AR6:AU6"/>
     <mergeCell ref="AG26:AH26"/>
@@ -58328,12 +59312,6 @@
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG21:AH21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58396,16 +59374,16 @@
       </c>
     </row>
     <row r="6" spans="3:40">
-      <c r="C6" s="135">
+      <c r="C6" s="133">
         <v>44043</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
       <c r="AG6" s="129" t="s">
         <v>423</v>
       </c>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14175" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23ADDA60-545F-4183-9DC6-68839A088F51}"/>
+  <xr:revisionPtr revIDLastSave="14219" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF6B76D-8C15-4B95-B741-383BD8C31EB8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="101" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -108,12 +108,10 @@
     <sheet name="Q16-20" sheetId="116" r:id="rId98"/>
     <sheet name="Q17-23" sheetId="117" r:id="rId99"/>
     <sheet name="Q17-27" sheetId="118" r:id="rId100"/>
-    <sheet name="Q18-3" sheetId="119" r:id="rId101"/>
-    <sheet name="Q18-3-2" sheetId="120" r:id="rId102"/>
-    <sheet name="Q18-3-3" sheetId="121" r:id="rId103"/>
-    <sheet name="Q18-3-4" sheetId="122" r:id="rId104"/>
+    <sheet name="Q18-9" sheetId="119" r:id="rId101"/>
+    <sheet name="Q18-10" sheetId="120" r:id="rId102"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -361,19 +359,15 @@
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DE0146A6-D370-4EB3-A584-9CC5150EF5BA}</author>
+    <author>tc={855A39EA-A303-4335-B20D-E095E56EEAA9}</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{855A39EA-A303-4335-B20D-E095E56EEAA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    根據題目給的購入公司債價格。
-Reply:
-    五年期。
-Reply:
-    票面利率7%。</t>
+    詳見 accounting (studying).docx。</t>
       </text>
     </comment>
   </commentList>
@@ -383,45 +377,24 @@
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4A99945B-2909-4CC5-8171-687DCF2900B9}</author>
+    <author>tc={2D142CAC-1446-4819-891D-143CF79A88EC}</author>
+    <author>tc={11A3C39D-DE84-46CE-AD62-C17250D31BC8}</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{2D142CAC-1446-4819-891D-143CF79A88EC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    根據題目給的購入公司債價格。
-Reply:
-    五年期。
-Reply:
-    票面利率7%。</t>
+    詳見 accounting (studying).docx。</t>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={AD066488-ACF2-42F4-9FEC-70333CC9E9DD}</author>
-  </authors>
-  <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{11A3C39D-DE84-46CE-AD62-C17250D31BC8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    根據題目給的票面利率、市場利率和會計學課本的附表一和附表二所計算出的發行價格。
-Reply:
-    五年期。
-Reply:
-    票面利率7%。
-Reply:
-    發行價格 = 200,000.8
-Reply:
-    計算過程見旁邊的圖。</t>
+    參考，會計學課本CH18-3-6 page 510上的實例的分錄。</t>
       </text>
     </comment>
   </commentList>
@@ -472,67 +445,6 @@
     對題目A4-3，我的答案。
 Reply:
     從A30到G39。</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={A70A48F5-C10C-4011-9EB6-416D8C967936}</author>
-    <author>tc={812B22EB-9658-412D-9656-CC156169A555}</author>
-    <author>tc={8535B5DB-4A19-48A0-B997-053C627EED93}</author>
-    <author>tc={69C635D0-9183-4A8D-A4D4-2D7321005CDF}</author>
-  </authors>
-  <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{A70A48F5-C10C-4011-9EB6-416D8C967936}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    一元年金現值
-Reply:
-    為紅色底線上數字</t>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{812B22EB-9658-412D-9656-CC156169A555}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    根據題目給的票面利率、市場利率計算出發行價格。
-Reply:
-    10年期。
-Reply:
-    票面利率7% / 2。
-Reply:
-    發行價格 = 28,952.303973697484849388786480081
-Reply:
-    計算過程見旁邊的圖。
-Reply:
-    一元年金現值如圖一和其註解。
-Reply:
-    一元現值如圖二和其註解。
-Reply:
-    發行價格如圖三和其註解。</t>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="2" shapeId="0" xr:uid="{8535B5DB-4A19-48A0-B997-053C627EED93}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    一元值值</t>
-      </text>
-    </comment>
-    <comment ref="J23" authorId="3" shapeId="0" xr:uid="{69C635D0-9183-4A8D-A4D4-2D7321005CDF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    發行價格</t>
       </text>
     </comment>
   </commentList>
@@ -950,7 +862,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5668" uniqueCount="496">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2431,19 +2343,13 @@
     <t>加權股數</t>
   </si>
   <si>
+    <t>公司債折價</t>
+  </si>
+  <si>
     <t>應付公司債</t>
   </si>
   <si>
     <t>公司債溢價</t>
-  </si>
-  <si>
-    <t>圖一</t>
-  </si>
-  <si>
-    <t>圖二</t>
-  </si>
-  <si>
-    <t>圖三</t>
   </si>
 </sst>
 </file>
@@ -2950,13 +2856,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3307,300 +3213,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FA66D8-C183-6464-30DC-44ABA34701BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6381750" y="285750"/>
-          <a:ext cx="3971925" cy="1695450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFA12D4-4138-1340-55BD-6A1C1AA1729B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6838950" y="657225"/>
-          <a:ext cx="3457575" cy="2733675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77820371-62BB-3C21-48A8-01B92BC6DF1C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0DFA12D4-4138-1340-55BD-6A1C1AA1729B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6810375" y="3886200"/>
-          <a:ext cx="4572000" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B120E41-AB02-0CC6-70AD-3D881B3FCB45}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{77820371-62BB-3C21-48A8-01B92BC6DF1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6810375" y="4867275"/>
-          <a:ext cx="4562475" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABC310F-BCCE-44B1-8FB6-41E4E162DAF8}"/>
-                </a:ext>
-                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B120E41-AB02-0CC6-70AD-3D881B3FCB45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7000875" y="1600200"/>
-            <a:ext cx="2857500" cy="323850"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABC310F-BCCE-44B1-8FB6-41E4E162DAF8}"/>
-                </a:ext>
-                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0B120E41-AB02-0CC6-70AD-3D881B3FCB45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6982872" y="1582390"/>
-              <a:ext cx="2893147" cy="359833"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">18076 4440 16383 0 0,'4'3'0'0'0,"4"6"0"0"0,5 0 0 0 0,4 3 0 0 0,2 3 0 0 0,6-2 0 0 0,-2 2 0 0 0,2-3 0 0 0,1 1 0 0 0,-1-3 0 0 0,3-2 0 0 0,1 1 0 0 0,-2-1 0 0 0,-2-2 0 0 0,-1-2 0 0 0,6-2 0 0 0,1-1 0 0 0,3 0 0 0 0,3-2 0 0 0,6 1 0 0 0,6 0 0 0 0,2-1 0 0 0,4 1 0 0 0,-2 0 0 0 0,6 0 0 0 0,0-4 0 0 0,4-1 0 0 0,-2 1 0 0 0,-3 0 0 0 0,-5 2 0 0 0,-4 0 0 0 0,-4-2 0 0 0,-1-2 0 0 0,-2 2 0 0 0,-4 0 0 0 0,-1-2 0 0 0,0-4 0 0 0,-3 0 0 0 0,-3 2 0 0 0,-3 2 0 0 0,-4 2 0 0 0,-1 1 0 0 0,-1 2 0 0 0,-2 1 0 0 0,1 0 0 0 0,3 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,7 0 0 0 0,8 0 0 0 0,2 0 0 0 0,4 0 0 0 0,2 0 0 0 0,-3 0 0 0 0,1 0 0 0 0,8 0 0 0 0,-2 0 0 0 0,-3 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,8 0 0 0 0,0 4 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-2 2 0 0 0,-2 0 0 0 0,3 3 0 0 0,7 0 0 0 0,-3-2 0 0 0,-2 2 0 0 0,0-1 0 0 0,-5-1 0 0 0,1 1 0 0 0,4-1 0 0 0,-2-1 0 0 0,1-2 0 0 0,1-1 0 0 0,-5 2 0 0 0,-1 4 0 0 0,-6 0 0 0 0,-4-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-3-2 0 0 0,-5 1 0 0 0,-4 0 0 0 0,4-2 0 0 0,1 2 0 0 0,-3-1 0 0 0,2-1 0 0 0,-2-2 0 0 0,-2-1 0 0 0,2-2 0 0 0,-2 3 0 0 0,-1 1 0 0 0,2 3 0 0 0,0 0 0 0 0,-2 2 0 0 0,-2 0 0 0 0,2-2 0 0 0,4-3 0 0 0,0-1 0 0 0,-2-2 0 0 0,2 2 0 0 0,-1 1 0 0 0,5-1 0 0 0,11-1 0 0 0,-2 3 0 0 0,2 0 0 0 0,-3 3 0 0 0,-2-1 0 0 0,-4 0 0 0 0,-1-3 0 0 0,0-2 0 0 0,2-1 0 0 0,1-1 0 0 0,1 2 0 0 0,-2 5 0 0 0,3 1 0 0 0,1 3 0 0 0,2-1 0 0 0,-4-3 0 0 0,-1-2 0 0 0,-4-2 0 0 0,-4-2 0 0 0,0 2 0 0 0,-2 1 0 0 0,5 3 0 0 0,4 0 0 0 0,-1 2 0 0 0,4 0 0 0 0,-1-2 0 0 0,-1-3 0 0 0,1 2 0 0 0,-3 0 0 0 0,-1-2 0 0 0,1 2 0 0 0,-2 0 0 0 0,3-1 0 0 0,0 2 0 0 0,-4-1 0 0 0,-4-1 0 0 0,-3-2 0 0 0,0-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,-2 2 0 0 0,-1 2 0 0 0,0 3 0 0 0,2 0 0 0 0,0-1 0 0 0,5-2 0 0 0,3 2 0 0 0,-1 0 0 0 0,3-2 0 0 0,-2-1 0 0 0,-3-2 0 0 0,-3 0 0 0 0,-2-2 0 0 0,-2 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 0 0 0 0,5 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-3 3 0 0 0,1 2 0 0 0,1 0 0 0 0,3-1 0 0 0,4-2 0 0 0,3 0 0 0 0,4 2 0 0 0,-2 1 0 0 0,-3 0 0 0 0,-4-2 0 0 0,0 3 0 0 0,2 1 0 0 0,0-2 0 0 0,-3 2 0 0 0,2 1 0 0 0,5-2 0 0 0,1-2 0 0 0,2 2 0 0 0,0 1 0 0 0,-2 2 0 0 0,-4-1 0 0 0,3-1 0 0 0,-4 2 0 0 0,-4-1 0 0 0,0-2 0 0 0,-1-2 0 0 0,2-1 0 0 0,0 2 0 0 0,2 0 0 0 0,0 3 0 0 0,-3 0 0 0 0,-2-1 0 0 0,-1 2 0 0 0,-2-1 0 0 0,2-2 0 0 0,5-1 0 0 0,0-3 0 0 0,-1 0 0 0 0,-2 2 0 0 0,-2 1 0 0 0,2-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-2-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 0 0 0 0</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3993,89 +3605,19 @@
 
 <file path=xl/threadedComments/threadedComment16.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G6" dT="2024-02-14T06:17:22.61" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
-    <text>根據題目給的購入公司債價格。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:43:24.86" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F5AF050E-D63E-4A05-A3BF-E7FB2BFF080A}" parentId="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
-    <text>五年期。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:43:30.46" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B28EA0EB-EF50-442B-AAFC-29C961F70666}" parentId="{DE0146A6-D370-4EB3-A584-9CC5150EF5BA}">
-    <text>票面利率7%。</text>
+  <threadedComment ref="C3" dT="2024-02-14T08:50:26.64" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{855A39EA-A303-4335-B20D-E095E56EEAA9}">
+    <text>詳見 accounting (studying).docx。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment17.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G6" dT="2024-02-14T06:17:45.22" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
-    <text>根據題目給的購入公司債價格。</text>
+  <threadedComment ref="C3" dT="2024-02-14T10:50:45.05" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2D142CAC-1446-4819-891D-143CF79A88EC}">
+    <text>詳見 accounting (studying).docx。</text>
   </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:43:02.61" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{69CDAA13-7008-4801-BEC1-EFE58697BEA8}" parentId="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
-    <text>五年期。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:43:06.16" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E0B8ECED-C5AD-42BD-9A13-E9FFF7FC0C92}" parentId="{4A99945B-2909-4CC5-8171-687DCF2900B9}">
-    <text>票面利率7%。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment18.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G6" dT="2024-02-14T06:19:18.21" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
-    <text>根據題目給的票面利率、市場利率和會計學課本的附表一和附表二所計算出的發行價格。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:19:47.47" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D6617201-1153-473E-898D-EE066C99BB9D}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
-    <text>五年期。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:20:04.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8152571B-0AC4-4774-842D-8A6B6118F23A}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
-    <text>票面利率7%。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:20:23.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AC8F232A-D30B-4955-B28E-793127BD02F9}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
-    <text>發行價格 = 200,000.8</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:23:16.59" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E0909267-7E37-4024-A46B-AADDF82566CC}" parentId="{AD066488-ACF2-42F4-9FEC-70333CC9E9DD}">
-    <text>計算過程見旁邊的圖。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment19.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J3" dT="2024-02-14T06:38:38.65" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A70A48F5-C10C-4011-9EB6-416D8C967936}">
-    <text>一元年金現值</text>
-  </threadedComment>
-  <threadedComment ref="J3" dT="2024-02-14T06:39:07.75" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E055A2C2-AF7C-4C8C-8251-5590592127D8}" parentId="{A70A48F5-C10C-4011-9EB6-416D8C967936}">
-    <text>為紅色底線上數字</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:19:18.21" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>根據題目給的票面利率、市場利率計算出發行價格。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:19:47.47" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0EED7166-A7C7-4123-B7BC-6986099A969D}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>10年期。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:20:04.38" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{290AFC4E-3E44-41F5-A3C3-DEFAA8C291F7}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>票面利率7% / 2。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:20:23.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{09DF28A3-F7F1-43ED-846A-13CD9691D158}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>發行價格 = 28,952.303973697484849388786480081</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:23:16.59" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B5E76F9E-B168-426F-8404-F6D68F02B884}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>計算過程見旁邊的圖。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:40:54.34" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6FD54516-60AE-42E5-B9B3-3F542A51FC94}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>一元年金現值如圖一和其註解。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:41:05.16" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EB0F2DA4-D1D8-48C0-B182-4DA593B903B1}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>一元現值如圖二和其註解。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T06:41:20.13" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5AD4BD83-0C7C-4ECA-B89E-4CCF5540D952}" parentId="{812B22EB-9658-412D-9656-CC156169A555}">
-    <text>發行價格如圖三和其註解。</text>
-  </threadedComment>
-  <threadedComment ref="J18" dT="2024-02-14T06:38:11.79" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8535B5DB-4A19-48A0-B997-053C627EED93}">
-    <text>一元值值</text>
-  </threadedComment>
-  <threadedComment ref="J23" dT="2024-02-14T06:37:35.52" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{69C635D0-9183-4A8D-A4D4-2D7321005CDF}">
-    <text>發行價格</text>
+  <threadedComment ref="D3" dT="2024-02-14T10:55:20.10" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{11A3C39D-DE84-46CE-AD62-C17250D31BC8}">
+    <text>參考，會計學課本CH18-3-6 page 510上的實例的分錄。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5298,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
-  <dimension ref="C3:H14"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5340,24 +4882,25 @@
     </row>
     <row r="6" spans="3:8">
       <c r="D6" s="8">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="51">
-        <v>208424</v>
+        <v>100750</v>
       </c>
       <c r="H6" s="51"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="F7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" t="s">
         <v>493</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
-        <v>200000</v>
-      </c>
+      <c r="G7" s="51">
+        <v>250</v>
+      </c>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="3:8">
       <c r="F8" t="s">
@@ -5365,46 +4908,17 @@
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="51">
-        <f>$G$6-$H$7</f>
-        <v>8424</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="D9" s="8">
-        <v>44012</v>
-      </c>
-      <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="51">
-        <f>$H$7*0.06</f>
-        <v>12000</v>
-      </c>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="E10" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="51">
-        <f>$H$11-$G$9</f>
-        <v>2000.0000000000018</v>
-      </c>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51">
-        <f>$H$7*0.07</f>
-        <v>14000.000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="F9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51">
+        <v>100000</v>
+      </c>
     </row>
     <row r="13" spans="3:8">
       <c r="G13" s="51"/>
@@ -5413,6 +4927,10 @@
     <row r="14" spans="3:8">
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5421,453 +4939,132 @@
 </file>
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F603FC1-F1F2-4B5D-A98D-B5351E3EB2D7}">
-  <dimension ref="C3:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA9940-0974-43FB-BB93-AC38ACDDC523}">
+  <dimension ref="C3:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="3:8">
       <c r="D4" t="s">
-        <v>94</v>
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="D5" t="s">
-        <v>22</v>
+      <c r="D5" s="8">
+        <v>42370</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="G5" s="51">
+        <v>120000</v>
+      </c>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="3:8">
-      <c r="D6" s="8">
-        <v>43647</v>
-      </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="G6" s="51">
-        <v>208424</v>
+        <v>120000</v>
       </c>
       <c r="H6" s="51"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="F7" t="s">
-        <v>493</v>
-      </c>
       <c r="G7" s="51"/>
-      <c r="H7" s="51">
-        <v>200000</v>
-      </c>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="F8" t="s">
-        <v>494</v>
-      </c>
       <c r="G8" s="51"/>
-      <c r="H8" s="51">
-        <f>$G$6-$H$7</f>
-        <v>8424</v>
-      </c>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="D9" s="8">
-        <v>43830</v>
-      </c>
-      <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="51">
-        <f>$H$7*0.06/2</f>
-        <v>6000</v>
-      </c>
+      <c r="G9" s="51"/>
       <c r="H9" s="51"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="E10" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="51">
-        <f>$H$11-$G$9</f>
-        <v>1000.0000000000009</v>
-      </c>
+      <c r="G10" s="51"/>
       <c r="H10" s="51"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="51"/>
-      <c r="H11" s="51">
-        <f>$H$7*0.07/2</f>
-        <v>7000.0000000000009</v>
-      </c>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="D12" s="8">
-        <v>43983</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="51">
-        <f>$H$7*0.06/2</f>
-        <v>6000</v>
-      </c>
+      <c r="G12" s="51"/>
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="E13" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="51">
-        <f>$H$11-$G$9</f>
-        <v>1000.0000000000009</v>
-      </c>
+      <c r="G13" s="51"/>
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="3:8">
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="51"/>
-      <c r="H14" s="51">
-        <f>$H$7*0.07/2</f>
-        <v>7000.0000000000009</v>
-      </c>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="7:8">
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC662B7-8751-4BCF-865A-DC1358C7B49E}">
-  <dimension ref="C3:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="D6" s="8">
-        <v>43647</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="43">
-        <v>200000.8</v>
-      </c>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="F7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="F8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="117">
-        <f>$G$6-$H$7</f>
-        <v>0.79999999998835847</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="D9" s="8">
-        <v>43830</v>
-      </c>
-      <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="51">
-        <f>$H$7*0.06/2</f>
-        <v>6000</v>
-      </c>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="E10" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="51">
-        <f>$H$11-$G$9</f>
-        <v>1000.0000000000009</v>
-      </c>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51">
-        <f>$H$7*0.07/2</f>
-        <v>7000.0000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="D12" s="8">
-        <v>43983</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="51">
-        <f>$H$7*0.06/2</f>
-        <v>6000</v>
-      </c>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="E13" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="51">
-        <f>$H$11-$G$9</f>
-        <v>1000.0000000000009</v>
-      </c>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51">
-        <f>$H$7*0.07/2</f>
-        <v>7000.0000000000009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D644D7-040E-4BD0-AB14-AD1AD01CCAAD}">
-  <dimension ref="C3:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:10">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="D6" s="8">
-        <v>43647</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="43">
-        <v>28952.303973697399</v>
-      </c>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="F7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="F8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="117">
-        <f>$G$6-$H$7</f>
-        <v>-171047.69602630261</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="D9" s="8">
-        <v>43830</v>
-      </c>
-      <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="51">
-        <f>$H$7*0.06/2</f>
-        <v>6000</v>
-      </c>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="E10" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="51">
-        <f>$H$11-$G$9</f>
-        <v>1000.0000000000009</v>
-      </c>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51">
-        <f>$H$7*0.07/2</f>
-        <v>7000.0000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="D12" s="8">
-        <v>43983</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="51">
-        <f>$H$7*0.06/2</f>
-        <v>6000</v>
-      </c>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="E13" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="51">
-        <f>$H$11-$G$9</f>
-        <v>1000.0000000000009</v>
-      </c>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51">
-        <f>$H$7*0.07/2</f>
-        <v>7000.0000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10">
-      <c r="J23" t="s">
-        <v>497</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -48350,11 +47547,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -48362,6 +47554,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -55519,6 +54716,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -55526,11 +54728,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58435,12 +57632,12 @@
         <v>423</v>
       </c>
       <c r="AH6" s="129"/>
-      <c r="AR6" s="133" t="s">
+      <c r="AR6" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133"/>
-      <c r="AU6" s="133"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
@@ -58842,7 +58039,7 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="134" t="s">
+      <c r="J20" s="133" t="s">
         <v>96</v>
       </c>
       <c r="K20" s="132" t="s">
@@ -58885,7 +58082,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="135"/>
+      <c r="J21" s="134"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -59299,12 +58496,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AR5:AU5"/>
     <mergeCell ref="AR6:AU6"/>
     <mergeCell ref="AG26:AH26"/>
@@ -59312,6 +58503,12 @@
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG21:AH21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -59374,16 +58571,16 @@
       </c>
     </row>
     <row r="6" spans="3:40">
-      <c r="C6" s="133">
+      <c r="C6" s="135">
         <v>44043</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
       <c r="AG6" s="129" t="s">
         <v>423</v>
       </c>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14219" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF6B76D-8C15-4B95-B741-383BD8C31EB8}"/>
+  <xr:revisionPtr revIDLastSave="14418" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27DAC552-DCB3-40A6-9AD1-139EFF4A7847}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="101" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="102" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -110,8 +110,9 @@
     <sheet name="Q17-27" sheetId="118" r:id="rId100"/>
     <sheet name="Q18-9" sheetId="119" r:id="rId101"/>
     <sheet name="Q18-10" sheetId="120" r:id="rId102"/>
+    <sheet name="Q18-12" sheetId="121" r:id="rId103"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,6 +396,118 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     參考，會計學課本CH18-3-6 page 510上的實例的分錄。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B63C3E5C-EA71-455A-B8E0-F91F1DB64772}</author>
+    <author>tc={DE84F715-F9A1-48F8-9BB3-CF2F8950C2AF}</author>
+    <author>tc={48178402-FF92-4E93-BB78-BA942B4BCE24}</author>
+    <author>tc={F450FA18-9665-430E-9EF0-DEF9AA556B14}</author>
+    <author>tc={21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}</author>
+    <author>tc={1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}</author>
+    <author>tc={06A0DE42-7C21-4A0D-9063-43ADC6FAD502}</author>
+    <author>tc={757A0263-CD18-41EB-BF4B-607FA95BA75C}</author>
+    <author>tc={5C7914FD-E6CE-4744-8C58-26F964940E16}</author>
+    <author>tc={ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B63C3E5C-EA71-455A-B8E0-F91F1DB64772}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{DE84F715-F9A1-48F8-9BB3-CF2F8950C2AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (1) 實際付現 = 票面利率 * 面額</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="2" shapeId="0" xr:uid="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (2) 利息費用 = 上期的帳面金額 * 市場利率
+Reply:
+    P.S.
+發行時的帳面金額 = 發行價格
+Reply:
+    計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{F450FA18-9665-430E-9EF0-DEF9AA556B14}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (3) 溢價攤銷 = 實際付現 - 利息費用</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (4) 溢價餘額 = 上期的溢價餘額 - 本期的溢價攤銷 
+Reply:
+    P.S.
+本期的溢價攤銷為上個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="5" shapeId="0" xr:uid="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (5) 公司債帳面金額 = 上期的公司債帳面金額 - 本期的溢價攤銷
+Reply:
+    P.S.
+本期的溢價攤銷為第三個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="6" shapeId="0" xr:uid="{06A0DE42-7C21-4A0D-9063-43ADC6FAD502}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題所給的有效利率。</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="7" shapeId="0" xr:uid="{757A0263-CD18-41EB-BF4B-607FA95BA75C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第二部分。</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="8" shapeId="0" xr:uid="{5C7914FD-E6CE-4744-8C58-26F964940E16}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第三部分。</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="9" shapeId="0" xr:uid="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    因為題目只要求出2020年度的利息費用，所以之後的數值沒要算。
+Reply:
+    但不代表此表格應該長這樣，有些數值不被算而省略不寫。</t>
       </text>
     </comment>
   </commentList>
@@ -862,7 +975,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5668" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="508">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2351,6 +2464,42 @@
   <si>
     <t>公司債溢價</t>
   </si>
+  <si>
+    <t>面額</t>
+  </si>
+  <si>
+    <t>溢價攤銷表</t>
+  </si>
+  <si>
+    <t>發行價格</t>
+  </si>
+  <si>
+    <t>步驟</t>
+  </si>
+  <si>
+    <t>票面利率</t>
+  </si>
+  <si>
+    <t>期別</t>
+  </si>
+  <si>
+    <t>實際付現</t>
+  </si>
+  <si>
+    <t>溢價攤銷</t>
+  </si>
+  <si>
+    <t>溢價餘額</t>
+  </si>
+  <si>
+    <t>公司債帳面金額</t>
+  </si>
+  <si>
+    <t>市場利率</t>
+  </si>
+  <si>
+    <t>發行時</t>
+  </si>
 </sst>
 </file>
 
@@ -2856,13 +3005,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3622,6 +3771,59 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment18.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B63C3E5C-EA71-455A-B8E0-F91F1DB64772}">
+    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{DE84F715-F9A1-48F8-9BB3-CF2F8950C2AF}">
+    <text>(1) 實際付現 = 票面利率 * 面額</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A4EC7D17-A996-40E1-A487-FA1FBC43DEB7}" parentId="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+    <text>P.S.
+發行時的帳面金額 = 發行價格</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C8598BC5-FBA8-4539-85B7-24378E693483}" parentId="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F450FA18-9665-430E-9EF0-DEF9AA556B14}">
+    <text>(3) 溢價攤銷 = 實際付現 - 利息費用</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
+    <text xml:space="preserve">(4) 溢價餘額 = 上期的溢價餘額 - 本期的溢價攤銷 </text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{06971AE7-9FA4-4AF2-9B87-DFA1358A51D7}" parentId="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
+    <text>P.S.
+本期的溢價攤銷為上個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
+    <text>(5) 公司債帳面金額 = 上期的公司債帳面金額 - 本期的溢價攤銷</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{947F6CB5-D556-4E66-9F9B-D2D1CDF25C9C}" parentId="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
+    <text>P.S.
+本期的溢價攤銷為第三個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="B7" dT="2024-02-14T12:21:24.02" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{06A0DE42-7C21-4A0D-9063-43ADC6FAD502}">
+    <text>參考，Accounting (studying).docx的CH18的第12題所給的有效利率。</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{757A0263-CD18-41EB-BF4B-607FA95BA75C}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
+  </threadedComment>
+  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5C7914FD-E6CE-4744-8C58-26F964940E16}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
+    <text>因為題目只要求出2020年度的利息費用，所以之後的數值沒要算。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0829FEC0-2695-42CF-A871-4EC1864F5F6A}" parentId="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
+    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{34C353A3-4A3D-4BF6-A7BE-B482F619C311}">
@@ -4842,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
   <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4942,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA9940-0974-43FB-BB93-AC38ACDDC523}">
   <dimension ref="C3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5063,6 +5265,372 @@
       <c r="H22" s="51"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB9D82-BF2F-4526-9192-3E03E5628FAA}">
+  <dimension ref="A3:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="51">
+        <v>400000</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="51">
+        <v>435000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>503</v>
+      </c>
+      <c r="H6" t="s">
+        <v>504</v>
+      </c>
+      <c r="I6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7">
+        <v>0.08</v>
+      </c>
+      <c r="D7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>35000</v>
+      </c>
+      <c r="I7" s="51">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="51">
+        <f>$B$4*$B$6</f>
+        <v>40000</v>
+      </c>
+      <c r="F8" s="51">
+        <f>$I7*$B$7</f>
+        <v>34800</v>
+      </c>
+      <c r="G8" s="51">
+        <f>$E8-$F8</f>
+        <v>5200</v>
+      </c>
+      <c r="H8" s="51">
+        <f>MAX($H7-$G8,0)</f>
+        <v>29800</v>
+      </c>
+      <c r="I8" s="51">
+        <f>$I7-$G8</f>
+        <v>429800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" ref="E9:E17" si="0">$B$4*$B$6</f>
+        <v>40000</v>
+      </c>
+      <c r="F9" s="51">
+        <f>$I8*$B$7</f>
+        <v>34384</v>
+      </c>
+      <c r="G9" s="51">
+        <f>$E9-$F9</f>
+        <v>5616</v>
+      </c>
+      <c r="H9" s="51">
+        <f>MAX($H8-$G9,0)</f>
+        <v>24184</v>
+      </c>
+      <c r="I9" s="51">
+        <f>$I8-$G9</f>
+        <v>424184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F10" s="51">
+        <f>$I9*$B$7</f>
+        <v>33934.720000000001</v>
+      </c>
+      <c r="G10" s="51">
+        <f>$E10-$F10</f>
+        <v>6065.2799999999988</v>
+      </c>
+      <c r="H10" s="51">
+        <f>MAX($H9-$G10,0)</f>
+        <v>18118.72</v>
+      </c>
+      <c r="I10" s="51">
+        <f>$I9-$G10</f>
+        <v>418118.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F11" s="51">
+        <f>$I10*$B$7</f>
+        <v>33449.497599999995</v>
+      </c>
+      <c r="G11" s="51">
+        <f>$E11-$F11</f>
+        <v>6550.5024000000049</v>
+      </c>
+      <c r="H11" s="51">
+        <f>MAX($H10-$G11,0)</f>
+        <v>11568.217599999996</v>
+      </c>
+      <c r="I11" s="51">
+        <f>$I10-$G11</f>
+        <v>411568.21759999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F12" s="51">
+        <f>$I11*$B$7</f>
+        <v>32925.457408000002</v>
+      </c>
+      <c r="G12" s="51">
+        <f>$E12-$F12</f>
+        <v>7074.542591999998</v>
+      </c>
+      <c r="H12" s="51">
+        <f>MAX($H11-$G12,0)</f>
+        <v>4493.6750079999983</v>
+      </c>
+      <c r="I12" s="51">
+        <f>$I11-$G12</f>
+        <v>404493.67500799999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F13" s="51">
+        <f>$I12*$B$7</f>
+        <v>32359.494000639999</v>
+      </c>
+      <c r="G13" s="51">
+        <f>$E13-$F13</f>
+        <v>7640.5059993600007</v>
+      </c>
+      <c r="H13" s="51">
+        <f>MAX($H12-$G13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="51">
+        <f>$I12-$G13</f>
+        <v>396853.16900863999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F14" s="51">
+        <f>$I13*$B$7</f>
+        <v>31748.2535206912</v>
+      </c>
+      <c r="G14" s="51">
+        <f>$E14-$F14</f>
+        <v>8251.7464793088002</v>
+      </c>
+      <c r="H14" s="51">
+        <f>MAX($H13-$G14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="51">
+        <f>$I13-$G14</f>
+        <v>388601.42252933118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F15" s="51">
+        <f>$I14*$B$7</f>
+        <v>31088.113802346496</v>
+      </c>
+      <c r="G15" s="51">
+        <f>$E15-$F15</f>
+        <v>8911.8861976535045</v>
+      </c>
+      <c r="H15" s="51">
+        <f>MAX($H14-$G15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <f>$I14-$G15</f>
+        <v>379689.53633167769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F16" s="51">
+        <f>$I15*$B$7</f>
+        <v>30375.162906534217</v>
+      </c>
+      <c r="G16" s="51">
+        <f>$E16-$F16</f>
+        <v>9624.8370934657833</v>
+      </c>
+      <c r="H16" s="51">
+        <f>MAX($H15-$G16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="51">
+        <f t="shared" ref="I9:I17" si="1">$I15-$G16</f>
+        <v>370064.69923821191</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F17" s="51">
+        <f t="shared" ref="F9:F17" si="2">$I16*$B$7</f>
+        <v>29605.175939056953</v>
+      </c>
+      <c r="G17" s="51">
+        <f t="shared" ref="G9:G17" si="3">$E17-$F17</f>
+        <v>10394.824060943047</v>
+      </c>
+      <c r="H17" s="51">
+        <f>MAX($H16-$G17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="51">
+        <f t="shared" si="1"/>
+        <v>359669.87517726887</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -47547,6 +48115,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -47554,11 +48127,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -54716,11 +55284,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -54728,6 +55291,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -57632,12 +58200,12 @@
         <v>423</v>
       </c>
       <c r="AH6" s="129"/>
-      <c r="AR6" s="135" t="s">
+      <c r="AR6" s="133" t="s">
         <v>424</v>
       </c>
-      <c r="AS6" s="135"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133"/>
+      <c r="AU6" s="133"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
@@ -58039,7 +58607,7 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="133" t="s">
+      <c r="J20" s="134" t="s">
         <v>96</v>
       </c>
       <c r="K20" s="132" t="s">
@@ -58082,7 +58650,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="134"/>
+      <c r="J21" s="135"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -58496,6 +59064,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AR5:AU5"/>
     <mergeCell ref="AR6:AU6"/>
     <mergeCell ref="AG26:AH26"/>
@@ -58503,12 +59077,6 @@
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG21:AH21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58571,16 +59139,16 @@
       </c>
     </row>
     <row r="6" spans="3:40">
-      <c r="C6" s="135">
+      <c r="C6" s="133">
         <v>44043</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
       <c r="AG6" s="129" t="s">
         <v>423</v>
       </c>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14418" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27DAC552-DCB3-40A6-9AD1-139EFF4A7847}"/>
+  <xr:revisionPtr revIDLastSave="14633" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DF29AC-AF47-4F11-8BA9-4835056EAD38}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="102" activeTab="100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -111,8 +111,10 @@
     <sheet name="Q18-9" sheetId="119" r:id="rId101"/>
     <sheet name="Q18-10" sheetId="120" r:id="rId102"/>
     <sheet name="Q18-12" sheetId="121" r:id="rId103"/>
+    <sheet name="Q18-13" sheetId="122" r:id="rId104"/>
+    <sheet name="Q18-14" sheetId="123" r:id="rId105"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,6 +417,7 @@
     <author>tc={757A0263-CD18-41EB-BF4B-607FA95BA75C}</author>
     <author>tc={5C7914FD-E6CE-4744-8C58-26F964940E16}</author>
     <author>tc={ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}</author>
+    <author>tc={55C8A40F-B2CC-4E7D-BB64-38E9209A3D93}</author>
   </authors>
   <commentList>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B63C3E5C-EA71-455A-B8E0-F91F1DB64772}">
@@ -505,9 +508,17 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    因為題目只要求出2020年度的利息費用，所以之後的數值沒要算。
+    因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。
 Reply:
     但不代表此表格應該長這樣，有些數值不被算而省略不寫。</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="10" shapeId="0" xr:uid="{55C8A40F-B2CC-4E7D-BB64-38E9209A3D93}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    題目所要求的。</t>
       </text>
     </comment>
   </commentList>
@@ -558,6 +569,313 @@
     對題目A4-3，我的答案。
 Reply:
     從A30到G39。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={205ADBC6-149B-47F2-9E42-D4107C5AD4BE}</author>
+    <author>tc={A4E9992E-E176-4A5F-A4FC-B12611BA9D39}</author>
+    <author>tc={93A5F738-7627-4AA6-9B05-CB45C17703F9}</author>
+    <author>tc={91C0A089-4F4E-4A7F-BA95-041AD4A622AC}</author>
+    <author>tc={E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}</author>
+    <author>tc={15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}</author>
+    <author>tc={875B675F-AFDA-4676-B8D4-E286CB788531}</author>
+    <author>tc={C5ED0C28-59CC-44E7-8174-24B2D40A28CB}</author>
+    <author>tc={5C1531C7-626F-4EE4-B157-84DCE5387045}</author>
+    <author>tc={F6681416-1519-4166-9FEA-123EDEFA049D}</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{205ADBC6-149B-47F2-9E42-D4107C5AD4BE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{A4E9992E-E176-4A5F-A4FC-B12611BA9D39}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (1) 實際付現 = 票面利率 * 面額</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="2" shapeId="0" xr:uid="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (2) 利息費用 = 上期的帳面金額 * 市場利率
+Reply:
+    P.S.
+發行時的帳面金額 = 發行價格
+Reply:
+    計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{91C0A089-4F4E-4A7F-BA95-041AD4A622AC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (3) 折價攤銷 =  利息費用 - 實際付現</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="4" shapeId="0" xr:uid="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 
+Reply:
+    P.S.
+本期的折價攤銷為上個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="5" shapeId="0" xr:uid="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷
+Reply:
+    P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="6" shapeId="0" xr:uid="{875B675F-AFDA-4676-B8D4-E286CB788531}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第二部分。</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="7" shapeId="0" xr:uid="{C5ED0C28-59CC-44E7-8174-24B2D40A28CB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第三部分。</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。
+Reply:
+    但不代表此表格應該長這樣，有些數值不被算而省略不寫。</t>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="9" shapeId="0" xr:uid="{F6681416-1519-4166-9FEA-123EDEFA049D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    題目所要求的。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C2843E9D-75D1-4187-86BF-4AAAA304AC19}</author>
+    <author>tc={190CA860-667E-4BCA-9AB1-9BC0EC079BF3}</author>
+    <author>tc={9D05DDDA-A991-4689-B759-01609B76686C}</author>
+    <author>tc={8BC877FC-F19D-48A4-B5F8-A035E2972AC4}</author>
+    <author>tc={229A1435-EAEC-45D0-B2C0-5260F791B7F1}</author>
+    <author>tc={A31BA210-1BE7-4A31-8C1F-634EF333ADDE}</author>
+    <author>tc={D0FF3BBD-83C4-4C8E-9F9C-853A862A54B8}</author>
+    <author>tc={B283AF4E-98D2-4600-959B-DC8082916FD3}</author>
+    <author>tc={26AE523D-214E-457B-9017-239FED07D475}</author>
+    <author>tc={AF50AF8B-80B9-4EAD-8951-2A39ACBB30FD}</author>
+    <author>tc={C4E001F2-B720-49CA-A247-5699902AA161}</author>
+    <author>tc={4E9FF8C0-54FB-44CC-9A2B-E80A09945483}</author>
+    <author>tc={938EF8A0-F04C-4B12-861C-3B83166E45E4}</author>
+    <author>tc={C17F294B-A231-41AD-A751-2D9B342DD0EB}</author>
+    <author>tc={F43B8A13-CFA2-42CD-ABBA-D66215B1F7DC}</author>
+    <author>tc={BE31FAE8-55B8-41FD-88FB-9479A6CB3C77}</author>
+    <author>tc={986C04FA-C81F-44C7-95B2-F5B460D9C242}</author>
+    <author>tc={71B418E6-E99B-4486-BC2C-F90A7ED8FC3E}</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C2843E9D-75D1-4187-86BF-4AAAA304AC19}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    因應題目要求。</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{190CA860-667E-4BCA-9AB1-9BC0EC079BF3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</t>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="2" shapeId="0" xr:uid="{9D05DDDA-A991-4689-B759-01609B76686C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="3" shapeId="0" xr:uid="{8BC877FC-F19D-48A4-B5F8-A035E2972AC4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (1) 實際付現 = 票面利率 * 面額</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="4" shapeId="0" xr:uid="{229A1435-EAEC-45D0-B2C0-5260F791B7F1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (2) 利息費用 = 上期的帳面金額 * 市場利率
+Reply:
+    P.S.
+發行時的帳面金額 = 發行價格
+Reply:
+    計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="5" shapeId="0" xr:uid="{A31BA210-1BE7-4A31-8C1F-634EF333ADDE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (3) 折價攤銷 =  利息費用 - 實際付現</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="6" shapeId="0" xr:uid="{D0FF3BBD-83C4-4C8E-9F9C-853A862A54B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 
+Reply:
+    P.S.
+本期的折價攤銷為上個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="7" shapeId="0" xr:uid="{B283AF4E-98D2-4600-959B-DC8082916FD3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷
+Reply:
+    P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="8" shapeId="0" xr:uid="{26AE523D-214E-457B-9017-239FED07D475}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (1) 實際付現 = 票面利率 * 面額</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="9" shapeId="0" xr:uid="{AF50AF8B-80B9-4EAD-8951-2A39ACBB30FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (2) 利息費用 = 上期的帳面金額 * 市場利率
+Reply:
+    P.S.
+發行時的帳面金額 = 發行價格
+Reply:
+    計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</t>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="10" shapeId="0" xr:uid="{C4E001F2-B720-49CA-A247-5699902AA161}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (3) 折價攤銷 =  利息費用 - 實際付現</t>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="11" shapeId="0" xr:uid="{4E9FF8C0-54FB-44CC-9A2B-E80A09945483}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 
+Reply:
+    P.S.
+本期的折價攤銷為上個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="12" shapeId="0" xr:uid="{938EF8A0-F04C-4B12-861C-3B83166E45E4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    (5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷
+Reply:
+    P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="13" shapeId="0" xr:uid="{C17F294B-A231-41AD-A751-2D9B342DD0EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第二部分。</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="14" shapeId="0" xr:uid="{F43B8A13-CFA2-42CD-ABBA-D66215B1F7DC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第三部分。</t>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="15" shapeId="0" xr:uid="{BE31FAE8-55B8-41FD-88FB-9479A6CB3C77}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第二部分。</t>
+      </text>
+    </comment>
+    <comment ref="Q7" authorId="16" shapeId="0" xr:uid="{986C04FA-C81F-44C7-95B2-F5B460D9C242}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考，Accounting (studying).docx的CH18的第12題的第三部分。</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="17" shapeId="0" xr:uid="{71B418E6-E99B-4486-BC2C-F90A7ED8FC3E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。
+Reply:
+    但不代表此表格應該長這樣，有些數值不被算而省略不寫。</t>
       </text>
     </comment>
   </commentList>
@@ -975,7 +1293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="513">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2500,6 +2818,21 @@
   <si>
     <t>發行時</t>
   </si>
+  <si>
+    <t>折價攤銷表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 折價攤銷</t>
+  </si>
+  <si>
+    <t>折價餘額</t>
+  </si>
+  <si>
+    <t>公司債帳面價值</t>
+  </si>
+  <si>
+    <t>按日期更正後</t>
+  </si>
 </sst>
 </file>
 
@@ -3005,13 +3338,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3816,10 +4149,66 @@
     <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
   </threadedComment>
   <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
-    <text>因為題目只要求出2020年度的利息費用，所以之後的數值沒要算。</text>
+    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
   </threadedComment>
   <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0829FEC0-2695-42CF-A871-4EC1864F5F6A}" parentId="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
     <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
+  </threadedComment>
+  <threadedComment ref="F9" dT="2024-02-14T12:40:06.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{55C8A40F-B2CC-4E7D-BB64-38E9209A3D93}">
+    <text>題目所要求的。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment19.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{205ADBC6-149B-47F2-9E42-D4107C5AD4BE}">
+    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A4E9992E-E176-4A5F-A4FC-B12611BA9D39}">
+    <text>(1) 實際付現 = 票面利率 * 面額</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AA5DED05-8BD6-4990-BE00-4F6AA43A10A7}" parentId="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+    <text>P.S.
+發行時的帳面金額 = 發行價格</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B52CDE62-7C23-47B2-B27A-030287DCDECB}" parentId="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{91C0A089-4F4E-4A7F-BA95-041AD4A622AC}">
+    <text>(3) 折價攤銷 =  利息費用 - 實際付現</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
+    <text xml:space="preserve">(4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 </text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{920B4E78-E137-4030-B23D-812509B8C0B3}" parentId="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
+    <text>P.S.
+本期的折價攤銷為上個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
+    <text>(5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E5E5B060-0DAB-4E83-91CF-9A57EF695635}" parentId="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
+    <text>P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{875B675F-AFDA-4676-B8D4-E286CB788531}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
+  </threadedComment>
+  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C5ED0C28-59CC-44E7-8174-24B2D40A28CB}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
+    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{70EE0E7A-C20C-4DBA-8D8E-AEB3B180825D}" parentId="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
+    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2024-02-14T12:55:35.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F6681416-1519-4166-9FEA-123EDEFA049D}">
+    <text>題目所要求的。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3881,6 +4270,98 @@
   </threadedComment>
   <threadedComment ref="H118" dT="2024-02-03T18:46:28.96" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D1A72220-FFE8-4066-8E45-FCC9411847AC}" parentId="{3262E0BF-B96D-4AF5-A9AD-CC02E3EDCE96}">
     <text>打算訂這樣但因為字元太長。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment20.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L3" dT="2024-02-14T13:42:22.43" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C2843E9D-75D1-4187-86BF-4AAAA304AC19}">
+    <text>因應題目要求。</text>
+  </threadedComment>
+  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{190CA860-667E-4BCA-9AB1-9BC0EC079BF3}">
+    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
+  </threadedComment>
+  <threadedComment ref="L4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{9D05DDDA-A991-4689-B759-01609B76686C}">
+    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8BC877FC-F19D-48A4-B5F8-A035E2972AC4}">
+    <text>(1) 實際付現 = 票面利率 * 面額</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{229A1435-EAEC-45D0-B2C0-5260F791B7F1}">
+    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B8B26E6C-C9EB-4157-A23F-B2A4DFE2360B}" parentId="{229A1435-EAEC-45D0-B2C0-5260F791B7F1}">
+    <text>P.S.
+發行時的帳面金額 = 發行價格</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D3B2AC9C-C4F1-4BE0-981D-F383FCEA21FA}" parentId="{229A1435-EAEC-45D0-B2C0-5260F791B7F1}">
+    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A31BA210-1BE7-4A31-8C1F-634EF333ADDE}">
+    <text>(3) 折價攤銷 =  利息費用 - 實際付現</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{D0FF3BBD-83C4-4C8E-9F9C-853A862A54B8}">
+    <text xml:space="preserve">(4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 </text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8CC898B4-85EA-426C-8332-C5C07D41269F}" parentId="{D0FF3BBD-83C4-4C8E-9F9C-853A862A54B8}">
+    <text>P.S.
+本期的折價攤銷為上個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B283AF4E-98D2-4600-959B-DC8082916FD3}">
+    <text>(5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{6F32D8CE-5CC8-462F-9F30-70C365F6FC13}" parentId="{B283AF4E-98D2-4600-959B-DC8082916FD3}">
+    <text>P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="M6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{26AE523D-214E-457B-9017-239FED07D475}">
+    <text>(1) 實際付現 = 票面利率 * 面額</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AF50AF8B-80B9-4EAD-8951-2A39ACBB30FD}">
+    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1C7232A5-E87F-4F68-92E9-D09E5D78E100}" parentId="{AF50AF8B-80B9-4EAD-8951-2A39ACBB30FD}">
+    <text>P.S.
+發行時的帳面金額 = 發行價格</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C29C5B18-BA5D-46DB-BA39-40BF1F148005}" parentId="{AF50AF8B-80B9-4EAD-8951-2A39ACBB30FD}">
+    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
+  </threadedComment>
+  <threadedComment ref="O6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C4E001F2-B720-49CA-A247-5699902AA161}">
+    <text>(3) 折價攤銷 =  利息費用 - 實際付現</text>
+  </threadedComment>
+  <threadedComment ref="P6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{4E9FF8C0-54FB-44CC-9A2B-E80A09945483}">
+    <text xml:space="preserve">(4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 </text>
+  </threadedComment>
+  <threadedComment ref="P6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{414C48BA-9A49-4E4E-811A-88367463531C}" parentId="{4E9FF8C0-54FB-44CC-9A2B-E80A09945483}">
+    <text>P.S.
+本期的折價攤銷為上個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="Q6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{938EF8A0-F04C-4B12-861C-3B83166E45E4}">
+    <text>(5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷</text>
+  </threadedComment>
+  <threadedComment ref="Q6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C5A87870-B57A-46FE-BEC1-8B05D6513703}" parentId="{938EF8A0-F04C-4B12-861C-3B83166E45E4}">
+    <text>P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C17F294B-A231-41AD-A751-2D9B342DD0EB}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
+  </threadedComment>
+  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F43B8A13-CFA2-42CD-ABBA-D66215B1F7DC}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
+  </threadedComment>
+  <threadedComment ref="P7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{BE31FAE8-55B8-41FD-88FB-9479A6CB3C77}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
+  </threadedComment>
+  <threadedComment ref="Q7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{986C04FA-C81F-44C7-95B2-F5B460D9C242}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{71B418E6-E99B-4486-BC2C-F90A7ED8FC3E}">
+    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{85E423D1-E75F-4269-AFE4-0F16188FCEA6}" parentId="{71B418E6-E99B-4486-BC2C-F90A7ED8FC3E}">
+    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5044,8 +5525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
   <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5275,7 +5756,7 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5382,23 +5863,23 @@
         <v>1</v>
       </c>
       <c r="E8" s="51">
-        <f>$B$4*$B$6</f>
+        <f ca="1">$B$4*$B$6</f>
         <v>40000</v>
       </c>
       <c r="F8" s="51">
-        <f>$I7*$B$7</f>
+        <f ca="1">$I7*$B$7</f>
         <v>34800</v>
       </c>
       <c r="G8" s="51">
-        <f>$E8-$F8</f>
+        <f ca="1">$E8-$F8</f>
         <v>5200</v>
       </c>
       <c r="H8" s="51">
-        <f>MAX($H7-$G8,0)</f>
+        <f ca="1">MAX($H7-$G8,0)</f>
         <v>29800</v>
       </c>
       <c r="I8" s="51">
-        <f>$I7-$G8</f>
+        <f ca="1">$I7-$G8</f>
         <v>429800</v>
       </c>
     </row>
@@ -5411,19 +5892,19 @@
         <v>40000</v>
       </c>
       <c r="F9" s="51">
-        <f>$I8*$B$7</f>
+        <f ca="1">$I8*$B$7</f>
         <v>34384</v>
       </c>
       <c r="G9" s="51">
-        <f>$E9-$F9</f>
+        <f ca="1">$E9-$F9</f>
         <v>5616</v>
       </c>
       <c r="H9" s="51">
-        <f>MAX($H8-$G9,0)</f>
+        <f ca="1">MAX($H8-$G9,0)</f>
         <v>24184</v>
       </c>
       <c r="I9" s="51">
-        <f>$I8-$G9</f>
+        <f ca="1">$I8-$G9</f>
         <v>424184</v>
       </c>
     </row>
@@ -5436,19 +5917,19 @@
         <v>40000</v>
       </c>
       <c r="F10" s="51">
-        <f>$I9*$B$7</f>
+        <f ca="1">$I9*$B$7</f>
         <v>33934.720000000001</v>
       </c>
       <c r="G10" s="51">
-        <f>$E10-$F10</f>
+        <f ca="1">$E10-$F10</f>
         <v>6065.2799999999988</v>
       </c>
       <c r="H10" s="51">
-        <f>MAX($H9-$G10,0)</f>
+        <f ca="1">MAX($H9-$G10,0)</f>
         <v>18118.72</v>
       </c>
       <c r="I10" s="51">
-        <f>$I9-$G10</f>
+        <f ca="1">$I9-$G10</f>
         <v>418118.72</v>
       </c>
     </row>
@@ -5461,19 +5942,19 @@
         <v>40000</v>
       </c>
       <c r="F11" s="51">
-        <f>$I10*$B$7</f>
+        <f ca="1">$I10*$B$7</f>
         <v>33449.497599999995</v>
       </c>
       <c r="G11" s="51">
-        <f>$E11-$F11</f>
+        <f ca="1">$E11-$F11</f>
         <v>6550.5024000000049</v>
       </c>
       <c r="H11" s="51">
-        <f>MAX($H10-$G11,0)</f>
+        <f ca="1">MAX($H10-$G11,0)</f>
         <v>11568.217599999996</v>
       </c>
       <c r="I11" s="51">
-        <f>$I10-$G11</f>
+        <f ca="1">$I10-$G11</f>
         <v>411568.21759999997</v>
       </c>
     </row>
@@ -5486,19 +5967,19 @@
         <v>40000</v>
       </c>
       <c r="F12" s="51">
-        <f>$I11*$B$7</f>
+        <f ca="1">$I11*$B$7</f>
         <v>32925.457408000002</v>
       </c>
       <c r="G12" s="51">
-        <f>$E12-$F12</f>
+        <f ca="1">$E12-$F12</f>
         <v>7074.542591999998</v>
       </c>
       <c r="H12" s="51">
-        <f>MAX($H11-$G12,0)</f>
+        <f ca="1">MAX($H11-$G12,0)</f>
         <v>4493.6750079999983</v>
       </c>
       <c r="I12" s="51">
-        <f>$I11-$G12</f>
+        <f ca="1">$I11-$G12</f>
         <v>404493.67500799999</v>
       </c>
     </row>
@@ -5511,19 +5992,19 @@
         <v>40000</v>
       </c>
       <c r="F13" s="51">
-        <f>$I12*$B$7</f>
+        <f ca="1">$I12*$B$7</f>
         <v>32359.494000639999</v>
       </c>
       <c r="G13" s="51">
-        <f>$E13-$F13</f>
+        <f ca="1">$E13-$F13</f>
         <v>7640.5059993600007</v>
       </c>
       <c r="H13" s="51">
-        <f>MAX($H12-$G13,0)</f>
+        <f ca="1">MAX($H12-$G13,0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="51">
-        <f>$I12-$G13</f>
+        <f ca="1">$I12-$G13</f>
         <v>396853.16900863999</v>
       </c>
     </row>
@@ -5536,19 +6017,19 @@
         <v>40000</v>
       </c>
       <c r="F14" s="51">
-        <f>$I13*$B$7</f>
+        <f ca="1">$I13*$B$7</f>
         <v>31748.2535206912</v>
       </c>
       <c r="G14" s="51">
-        <f>$E14-$F14</f>
+        <f ca="1">$E14-$F14</f>
         <v>8251.7464793088002</v>
       </c>
       <c r="H14" s="51">
-        <f>MAX($H13-$G14,0)</f>
+        <f ca="1">MAX($H13-$G14,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="51">
-        <f>$I13-$G14</f>
+        <f ca="1">$I13-$G14</f>
         <v>388601.42252933118</v>
       </c>
     </row>
@@ -5561,19 +6042,19 @@
         <v>40000</v>
       </c>
       <c r="F15" s="51">
-        <f>$I14*$B$7</f>
+        <f ca="1">$I14*$B$7</f>
         <v>31088.113802346496</v>
       </c>
       <c r="G15" s="51">
-        <f>$E15-$F15</f>
+        <f ca="1">$E15-$F15</f>
         <v>8911.8861976535045</v>
       </c>
       <c r="H15" s="51">
-        <f>MAX($H14-$G15,0)</f>
+        <f ca="1">MAX($H14-$G15,0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="51">
-        <f>$I14-$G15</f>
+        <f ca="1">$I14-$G15</f>
         <v>379689.53633167769</v>
       </c>
     </row>
@@ -5586,19 +6067,19 @@
         <v>40000</v>
       </c>
       <c r="F16" s="51">
-        <f>$I15*$B$7</f>
+        <f ca="1">$I15*$B$7</f>
         <v>30375.162906534217</v>
       </c>
       <c r="G16" s="51">
-        <f>$E16-$F16</f>
+        <f ca="1">$E16-$F16</f>
         <v>9624.8370934657833</v>
       </c>
       <c r="H16" s="51">
-        <f>MAX($H15-$G16,0)</f>
+        <f ca="1">MAX($H15-$G16,0)</f>
         <v>0</v>
       </c>
       <c r="I16" s="51">
-        <f t="shared" ref="I9:I17" si="1">$I15-$G16</f>
+        <f ca="1">$I15-$G16</f>
         <v>370064.69923821191</v>
       </c>
     </row>
@@ -5611,25 +6092,560 @@
         <v>40000</v>
       </c>
       <c r="F17" s="51">
-        <f t="shared" ref="F9:F17" si="2">$I16*$B$7</f>
+        <f ca="1">$I16*$B$7</f>
         <v>29605.175939056953</v>
       </c>
       <c r="G17" s="51">
-        <f t="shared" ref="G9:G17" si="3">$E17-$F17</f>
+        <f ca="1">$E17-$F17</f>
         <v>10394.824060943047</v>
       </c>
       <c r="H17" s="51">
-        <f>MAX($H16-$G17,0)</f>
+        <f ca="1">MAX($H16-$G17,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="51">
-        <f t="shared" si="1"/>
+        <f ca="1">$I16-$G17</f>
         <v>359669.87517726887</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2999621F-D56C-4BF8-8D43-A93BA59ED7CF}">
+  <dimension ref="A3:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="51">
+        <v>940000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" t="s">
+        <v>510</v>
+      </c>
+      <c r="I6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7">
+        <v>0.12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <f ca="1">$B$4-$I$7</f>
+        <v>60000</v>
+      </c>
+      <c r="I7" s="51">
+        <f ca="1">$B$5</f>
+        <v>940000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>100000</v>
+      </c>
+      <c r="F8" s="51">
+        <f ca="1">$I7*$B$7</f>
+        <v>112800</v>
+      </c>
+      <c r="G8" s="51">
+        <f ca="1">$F8-$E8</f>
+        <v>12800</v>
+      </c>
+      <c r="H8" s="51">
+        <f ca="1">MAX($H7-$G8,0)</f>
+        <v>47200</v>
+      </c>
+      <c r="I8" s="51">
+        <f ca="1">$I7+$G8</f>
+        <v>952800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>100000</v>
+      </c>
+      <c r="F9" s="51">
+        <f ca="1">$I8*$B$7</f>
+        <v>114336</v>
+      </c>
+      <c r="G9" s="51">
+        <f ca="1">$F9-$E9</f>
+        <v>14336</v>
+      </c>
+      <c r="H9" s="51">
+        <f ca="1">MAX($H8-$G9,0)</f>
+        <v>32864</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">$I8+$G9</f>
+        <v>967136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>100000</v>
+      </c>
+      <c r="F10" s="51">
+        <f ca="1">$I9*$B$7</f>
+        <v>116056.31999999999</v>
+      </c>
+      <c r="G10" s="51">
+        <f ca="1">$F10-$E10</f>
+        <v>16056.319999999992</v>
+      </c>
+      <c r="H10" s="51">
+        <f ca="1">MAX($H9-$G10,0)</f>
+        <v>16807.680000000008</v>
+      </c>
+      <c r="I10" s="51">
+        <f ca="1">$I9+$G10</f>
+        <v>983192.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>100000</v>
+      </c>
+      <c r="F11" s="51">
+        <f ca="1">$I10*$B$7</f>
+        <v>117983.07839999998</v>
+      </c>
+      <c r="G11" s="51">
+        <f ca="1">$F11-$E11</f>
+        <v>17983.078399999984</v>
+      </c>
+      <c r="H11" s="51">
+        <f ca="1">MAX($H10-$G11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <f ca="1">$I10+$G11</f>
+        <v>1001175.3983999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C96A83B-1AFF-4893-AA72-E06AE5FB188A}">
+  <dimension ref="A3:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="129" t="s">
+        <v>512</v>
+      </c>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="51">
+        <v>2000000</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="L4" s="129" t="s">
+        <v>508</v>
+      </c>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1898485</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>499</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>0.08</v>
+      </c>
+      <c r="D6" t="s">
+        <v>501</v>
+      </c>
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" t="s">
+        <v>510</v>
+      </c>
+      <c r="I6" t="s">
+        <v>511</v>
+      </c>
+      <c r="L6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O6" t="s">
+        <v>509</v>
+      </c>
+      <c r="P6" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <f ca="1">$B$4-$I$7</f>
+        <v>101515</v>
+      </c>
+      <c r="I7" s="51">
+        <f ca="1">$B$5</f>
+        <v>1898485</v>
+      </c>
+      <c r="L7" t="s">
+        <v>507</v>
+      </c>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51">
+        <f ca="1">$B$4-$Q$7</f>
+        <v>101515</v>
+      </c>
+      <c r="Q7" s="51">
+        <f ca="1">$B$5</f>
+        <v>1898485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>160000</v>
+      </c>
+      <c r="F8" s="51">
+        <f ca="1">$I7*$B$7</f>
+        <v>189848.5</v>
+      </c>
+      <c r="G8" s="51">
+        <f ca="1">$F8-$E8</f>
+        <v>29848.5</v>
+      </c>
+      <c r="H8" s="51">
+        <f ca="1">MAX($H7-$G8,0)</f>
+        <v>71666.5</v>
+      </c>
+      <c r="I8" s="51">
+        <f ca="1">$I7+$G8</f>
+        <v>1928333.5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>44074</v>
+      </c>
+      <c r="M8" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>160000</v>
+      </c>
+      <c r="N8" s="51">
+        <f ca="1">$Q7*$B$7</f>
+        <v>189848.5</v>
+      </c>
+      <c r="O8" s="51">
+        <f ca="1">$N8-$M8</f>
+        <v>29848.5</v>
+      </c>
+      <c r="P8" s="51">
+        <f ca="1">MAX($P7-$O8,0)</f>
+        <v>71666.5</v>
+      </c>
+      <c r="Q8" s="51">
+        <f ca="1">$Q7+$P8</f>
+        <v>1970151.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>160000</v>
+      </c>
+      <c r="F9" s="51">
+        <f ca="1">$I8*$B$7</f>
+        <v>192833.35</v>
+      </c>
+      <c r="G9" s="51">
+        <f ca="1">$F9-$E9</f>
+        <v>32833.350000000006</v>
+      </c>
+      <c r="H9" s="51">
+        <f ca="1">MAX($H8-$G9,0)</f>
+        <v>38833.149999999994</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">$I8+$G9</f>
+        <v>1961166.85</v>
+      </c>
+      <c r="L9" s="8">
+        <v>44196</v>
+      </c>
+      <c r="M9" s="51">
+        <f ca="1">$B$4*$B$6*DATEDIF($L8,$L9,"M")/6</f>
+        <v>106666.66666666667</v>
+      </c>
+      <c r="N9" s="51">
+        <f ca="1">$Q8*$B$7*DATEDIF($L8,$L9,"M")/6</f>
+        <v>131343.43333333335</v>
+      </c>
+      <c r="O9" s="51">
+        <f ca="1">$N9-$M9</f>
+        <v>24676.766666666677</v>
+      </c>
+      <c r="P9" s="51">
+        <f ca="1">MAX($P8-$O9,0)</f>
+        <v>46989.733333333323</v>
+      </c>
+      <c r="Q9" s="51">
+        <f ca="1">$Q8+$P9</f>
+        <v>2017141.2333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51">
+        <f ca="1">$B$4*$B$6</f>
+        <v>160000</v>
+      </c>
+      <c r="F10" s="51">
+        <f ca="1">$I9*$B$7</f>
+        <v>196116.68500000003</v>
+      </c>
+      <c r="G10" s="51">
+        <f ca="1">$F10-$E10</f>
+        <v>36116.685000000027</v>
+      </c>
+      <c r="H10" s="51">
+        <f ca="1">MAX($H9-$G10,0)</f>
+        <v>2716.4649999999674</v>
+      </c>
+      <c r="I10" s="51">
+        <f ca="1">$I9+$G10</f>
+        <v>1997283.5350000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="L3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -48115,11 +49131,6 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="T118:U118"/>
     <mergeCell ref="AO7:AP7"/>
     <mergeCell ref="AM7:AN7"/>
@@ -48127,6 +49138,11 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -55284,6 +56300,11 @@
     <protectedRange sqref="AU13:AU14 AU22 AU26" name="範圍1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="Q118:R118"/>
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="T118:U118"/>
@@ -55291,11 +56312,6 @@
     <mergeCell ref="AI7:AL7"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="Q118:R118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -58200,12 +59216,12 @@
         <v>423</v>
       </c>
       <c r="AH6" s="129"/>
-      <c r="AR6" s="133" t="s">
+      <c r="AR6" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133"/>
-      <c r="AU6" s="133"/>
+      <c r="AS6" s="135"/>
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
@@ -58607,7 +59623,7 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="134" t="s">
+      <c r="J20" s="133" t="s">
         <v>96</v>
       </c>
       <c r="K20" s="132" t="s">
@@ -58650,7 +59666,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="135"/>
+      <c r="J21" s="134"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -59064,12 +60080,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AR5:AU5"/>
     <mergeCell ref="AR6:AU6"/>
     <mergeCell ref="AG26:AH26"/>
@@ -59077,6 +60087,12 @@
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG21:AH21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -59139,16 +60155,16 @@
       </c>
     </row>
     <row r="6" spans="3:40">
-      <c r="C6" s="133">
+      <c r="C6" s="135">
         <v>44043</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
       <c r="AG6" s="129" t="s">
         <v>423</v>
       </c>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14633" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DF29AC-AF47-4F11-8BA9-4835056EAD38}"/>
+  <xr:revisionPtr revIDLastSave="14634" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB6CC70-72FB-4ED2-8A39-EF2CE2CA6B54}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,6 +708,7 @@
     <author>tc={BE31FAE8-55B8-41FD-88FB-9479A6CB3C77}</author>
     <author>tc={986C04FA-C81F-44C7-95B2-F5B460D9C242}</author>
     <author>tc={71B418E6-E99B-4486-BC2C-F90A7ED8FC3E}</author>
+    <author>tc={EC3DDB65-F536-4681-BD3D-E8E45ED88ED9}</author>
   </authors>
   <commentList>
     <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C2843E9D-75D1-4187-86BF-4AAAA304AC19}">
@@ -876,6 +877,14 @@
     因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。
 Reply:
     但不代表此表格應該長這樣，有些數值不被算而省略不寫。</t>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="18" shapeId="0" xr:uid="{EC3DDB65-F536-4681-BD3D-E8E45ED88ED9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    題目所要求的。</t>
       </text>
     </comment>
   </commentList>
@@ -4363,6 +4372,9 @@
   <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{85E423D1-E75F-4269-AFE4-0F16188FCEA6}" parentId="{71B418E6-E99B-4486-BC2C-F90A7ED8FC3E}">
     <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
   </threadedComment>
+  <threadedComment ref="N9" dT="2024-02-14T13:44:09.06" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EC3DDB65-F536-4681-BD3D-E8E45ED88ED9}">
+    <text>題目所要求的。</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -6342,7 +6354,7 @@
   <dimension ref="A3:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14634" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB6CC70-72FB-4ED2-8A39-EF2CE2CA6B54}"/>
+  <xr:revisionPtr revIDLastSave="14904" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DB211E-D45D-492F-B511-C815052C5F6E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="100" activeTab="104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="106" activeTab="107" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -113,6 +113,9 @@
     <sheet name="Q18-12" sheetId="121" r:id="rId103"/>
     <sheet name="Q18-13" sheetId="122" r:id="rId104"/>
     <sheet name="Q18-14" sheetId="123" r:id="rId105"/>
+    <sheet name="Q19-1" sheetId="124" r:id="rId106"/>
+    <sheet name="Q19-4" sheetId="125" r:id="rId107"/>
+    <sheet name="Q19-10" sheetId="126" r:id="rId108"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -891,6 +894,51 @@
 </comments>
 </file>
 
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EAD38383-EB5C-447D-B311-7529EB8BA026}</author>
+    <author>tc={5940ED42-0269-426C-A9E7-CA8A3D195FB6}</author>
+    <author>tc={791DB369-5B2E-41CE-A770-F07A381F1CC3}</author>
+    <author>tc={E6E250D6-D4F7-4693-B8C0-7995F6DD6662}</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{EAD38383-EB5C-447D-B311-7529EB8BA026}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    當初甲公司買公司債的成本。</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{5940ED42-0269-426C-A9E7-CA8A3D195FB6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    乙公司發放給甲公司的現金股利。</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="2" shapeId="0" xr:uid="{791DB369-5B2E-41CE-A770-F07A381F1CC3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    當年度乙公司的淨利，按照甲公司持股比例計算。</t>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="3" shapeId="0" xr:uid="{E6E250D6-D4F7-4693-B8C0-7995F6DD6662}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    當年度乙公司的綜合損益表，按照甲公司持股比例計算。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -1302,7 +1350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="534">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2842,6 +2890,69 @@
   <si>
     <t>按日期更正後</t>
   </si>
+  <si>
+    <t>甲公司持有股權</t>
+  </si>
+  <si>
+    <t>淨利</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>採用權益法之投資</t>
+  </si>
+  <si>
+    <t>購入價格</t>
+  </si>
+  <si>
+    <t>股數</t>
+  </si>
+  <si>
+    <t>股數佔公司比</t>
+  </si>
+  <si>
+    <t>FVTPL</t>
+  </si>
+  <si>
+    <t>現金股利 (股)</t>
+  </si>
+  <si>
+    <t>淨利 (股)</t>
+  </si>
+  <si>
+    <t>股價(股)</t>
+  </si>
+  <si>
+    <t>股利收入</t>
+  </si>
+  <si>
+    <t>FVTPL損失</t>
+  </si>
+  <si>
+    <t>購入成本</t>
+  </si>
+  <si>
+    <t>持股比例</t>
+  </si>
+  <si>
+    <t>綜合損益</t>
+  </si>
+  <si>
+    <t>現金股利</t>
+  </si>
+  <si>
+    <t>權益法認列之損益份額</t>
+  </si>
+  <si>
+    <t>權益法</t>
+  </si>
+  <si>
+    <t>T字型</t>
+  </si>
+  <si>
+    <t>20年度</t>
+  </si>
 </sst>
 </file>
 
@@ -3199,7 +3310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3356,6 +3467,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4378,6 +4490,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment21.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F5" dT="2024-02-15T02:21:17.98" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EAD38383-EB5C-447D-B311-7529EB8BA026}">
+    <text>當初甲公司買公司債的成本。</text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2024-02-15T02:21:57.42" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5940ED42-0269-426C-A9E7-CA8A3D195FB6}">
+    <text>乙公司發放給甲公司的現金股利。</text>
+  </threadedComment>
+  <threadedComment ref="F9" dT="2024-02-15T02:22:54.33" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{791DB369-5B2E-41CE-A770-F07A381F1CC3}">
+    <text>當年度乙公司的淨利，按照甲公司持股比例計算。</text>
+  </threadedComment>
+  <threadedComment ref="F11" dT="2024-02-15T02:23:14.77" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E6E250D6-D4F7-4693-B8C0-7995F6DD6662}">
+    <text>當年度乙公司的綜合損益表，按照甲公司持股比例計算。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A2" dT="2024-02-03T09:25:10.67" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B21C1172-9B1F-4066-A4A3-B5ABC655902D}">
@@ -6353,8 +6482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C96A83B-1AFF-4893-AA72-E06AE5FB188A}">
   <dimension ref="A3:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6658,6 +6787,685 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="L3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6F7DF1-0D25-4F9E-B400-425EFE4C805B}">
+  <dimension ref="A2:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3">
+        <v>0.35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="G5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="F6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H6" s="17">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="17">
+        <f ca="1">$I$8</f>
+        <v>23800</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="G8" t="s">
+        <v>516</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17">
+        <f ca="1">($I$5-$H$6)*$C$3</f>
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BFFC2A-26A4-490E-BD16-DFA46BB6D820}">
+  <dimension ref="B2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="51">
+        <v>200000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="51">
+        <v>4000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43922</v>
+      </c>
+      <c r="G5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I5" s="51">
+        <f ca="1">$D$3</f>
+        <v>200000</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="51">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <f ca="1">$I$5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="51">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44044</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="51">
+        <f ca="1">$J$8</f>
+        <v>4000</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51">
+        <f ca="1">$D$4*$D$6</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="F9" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G9" t="s">
+        <v>525</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">$I$5-$J$8*$D$8</f>
+        <v>8000</v>
+      </c>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="H10" t="s">
+        <v>520</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <f ca="1">$I$9</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="F11" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="51">
+        <f ca="1">$D$8*$D$4</f>
+        <v>192000</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" t="s">
+        <v>520</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51">
+        <f ca="1">$I$11</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5F5017-BE20-45BA-A5CC-7927CE023071}">
+  <dimension ref="B3:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="G33" sqref="G32:G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="51">
+        <v>500000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="117">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="G5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="51">
+        <f ca="1">$D$4</f>
+        <v>500000</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="51">
+        <v>100000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <f ca="1">$I$5</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" s="51">
+        <v>-20000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="51">
+        <f ca="1">$D$8*$D$5</f>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D8" s="51">
+        <v>10000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51">
+        <f ca="1">$I$7</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">$D$6*$D$5</f>
+        <v>30000</v>
+      </c>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="H10" t="s">
+        <v>530</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <f ca="1">$I$9</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I11" s="51">
+        <f ca="1">ABS($D$7)*$D$5</f>
+        <v>6000</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" t="s">
+        <v>516</v>
+      </c>
+      <c r="J12" s="51">
+        <f ca="1">$I$11</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="F14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="F15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="F16" s="8">
+        <f ca="1">$F$7</f>
+        <v>44196</v>
+      </c>
+      <c r="G16" s="124">
+        <f ca="1">$I$7</f>
+        <v>3000</v>
+      </c>
+      <c r="H16" s="8">
+        <f ca="1">$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="I16" s="51">
+        <f ca="1">$J$6</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="G17" s="136"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="8">
+        <f ca="1">$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="G19" s="124">
+        <f ca="1">$I$5</f>
+        <v>500000</v>
+      </c>
+      <c r="H19" s="8">
+        <f ca="1">$F$7</f>
+        <v>44196</v>
+      </c>
+      <c r="I19" s="51">
+        <f ca="1">$J$8</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="8">
+        <f ca="1">$F$7</f>
+        <v>44196</v>
+      </c>
+      <c r="G20" s="124">
+        <f ca="1">$I$9</f>
+        <v>30000</v>
+      </c>
+      <c r="H20" s="8">
+        <f ca="1">$F$7</f>
+        <v>44196</v>
+      </c>
+      <c r="I20" s="51">
+        <f ca="1">$J$12</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="8">
+        <f>$F$7</f>
+        <v>44196</v>
+      </c>
+      <c r="G23" s="124">
+        <f ca="1">$I$11</f>
+        <v>6000</v>
+      </c>
+      <c r="H23" s="8">
+        <f ca="1">$F$7</f>
+        <v>44196</v>
+      </c>
+      <c r="I23" s="51">
+        <f ca="1">$J$10</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" t="s">
+        <v>533</v>
+      </c>
+      <c r="G28" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="129"/>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="51" t="str">
+        <f ca="1">IF((SUM($G$16)-SUM($I$16))&gt;0,(SUM($G$16)-SUM($I$16)),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="51">
+        <f ca="1">IF(-(SUM($G$16)-SUM($I$16))&gt;0,-(SUM($G$16)-SUM($I$16)),"")</f>
+        <v>497000</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" t="s">
+        <v>516</v>
+      </c>
+      <c r="G31" s="51">
+        <f ca="1">IF((SUM($G$19:$G$20)-SUM($I$19:$I$20))&gt;0,(SUM($G$19:$G$20)-SUM($I$19:$I$20)),"")</f>
+        <v>521000</v>
+      </c>
+      <c r="H31" s="51" t="str">
+        <f ca="1">IF(-(SUM($G$19:$G$20)-SUM($I$19:$I$20))&gt;0,-(SUM($G$19:$G$20)-SUM($I$19:$I$20)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" t="s">
+        <v>530</v>
+      </c>
+      <c r="G32" s="51" t="str">
+        <f ca="1">IF((SUM($G$23)-SUM($I$23))&gt;0,(SUM($G$23)-SUM($I$23)),"")</f>
+        <v/>
+      </c>
+      <c r="H32" s="51">
+        <f ca="1">IF(-(SUM($G$23)-SUM($I$23))&gt;0,-(SUM($G$23)-SUM($I$23)),"")</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="51">
+        <f ca="1">SUM(G30,G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14904" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DB211E-D45D-492F-B511-C815052C5F6E}"/>
+  <xr:revisionPtr revIDLastSave="15120" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F5B302-8790-4220-B307-B10F856F86FF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="106" activeTab="107" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="106" activeTab="110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -116,6 +116,9 @@
     <sheet name="Q19-1" sheetId="124" r:id="rId106"/>
     <sheet name="Q19-4" sheetId="125" r:id="rId107"/>
     <sheet name="Q19-10" sheetId="126" r:id="rId108"/>
+    <sheet name="Q20-1" sheetId="127" r:id="rId109"/>
+    <sheet name="Q20-3" sheetId="129" r:id="rId110"/>
+    <sheet name="Q20-13" sheetId="130" r:id="rId111"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -1350,7 +1353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="550">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2953,6 +2956,54 @@
   <si>
     <t>20年度</t>
   </si>
+  <si>
+    <t>資產利益</t>
+  </si>
+  <si>
+    <t>某年度</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>應收帳款的期初餘額</t>
+  </si>
+  <si>
+    <t>預收貸款的期初餘額</t>
+  </si>
+  <si>
+    <t>應收帳款的期末餘額</t>
+  </si>
+  <si>
+    <t>預收貸款的期末餘額</t>
+  </si>
+  <si>
+    <t>可求</t>
+  </si>
+  <si>
+    <t>應收帳款的餘額</t>
+  </si>
+  <si>
+    <t>預收貸款的餘額</t>
+  </si>
+  <si>
+    <t>預收貸款</t>
+  </si>
+  <si>
+    <t>售地利益</t>
+  </si>
+  <si>
+    <t>長期票據</t>
+  </si>
+  <si>
+    <t>設備費</t>
+  </si>
 </sst>
 </file>
 
@@ -3310,7 +3361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3468,6 +3519,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7102,8 +7159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5F5017-BE20-45BA-A5CC-7927CE023071}">
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="G33" sqref="G32:G33"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7388,34 +7445,38 @@
       <c r="F26" t="s">
         <v>420</v>
       </c>
+      <c r="G26" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="138"/>
     </row>
     <row r="27" spans="6:9">
       <c r="F27" t="s">
         <v>108</v>
       </c>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
     </row>
     <row r="28" spans="6:9">
-      <c r="F28" t="s">
+      <c r="F28" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="G28" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="129"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
     </row>
     <row r="29" spans="6:9">
-      <c r="F29" t="s">
+      <c r="F29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="6:9">
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="51" t="str">
@@ -7428,7 +7489,7 @@
       </c>
     </row>
     <row r="31" spans="6:9">
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>516</v>
       </c>
       <c r="G31" s="51">
@@ -7441,7 +7502,7 @@
       </c>
     </row>
     <row r="32" spans="6:9">
-      <c r="F32" t="s">
+      <c r="F32" s="48" t="s">
         <v>530</v>
       </c>
       <c r="G32" s="51" t="str">
@@ -7454,21 +7515,215 @@
       </c>
     </row>
     <row r="33" spans="6:8">
-      <c r="F33" t="s">
+      <c r="F33" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="51">
-        <f ca="1">SUM(G30,G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="51"/>
+      <c r="G33" s="64">
+        <f ca="1">SUMIF(G$30:G$32,"&lt;&gt;""")</f>
+        <v>521000</v>
+      </c>
+      <c r="H33" s="64">
+        <f>SUMIF(H$30:H$32,"&lt;&gt;""")</f>
+        <v>521000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G26:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E2F412-D6A3-4E7F-90C4-190E1D8BABC3}">
+  <dimension ref="B3:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="51">
+        <v>15000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="J5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D6" s="51">
+        <v>3000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="F7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="J7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="F9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H9" s="51">
+        <f ca="1">$D$4</f>
+        <v>15000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>514</v>
+      </c>
+      <c r="L9" s="51">
+        <f>$D$4</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="F10" t="s">
+        <v>534</v>
+      </c>
+      <c r="G10" s="51">
+        <f ca="1">$D$6</f>
+        <v>3000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>534</v>
+      </c>
+      <c r="K10" s="51">
+        <f>$D$6</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="51">
+        <f ca="1">$D$5</f>
+        <v>1000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" s="51">
+        <f>$D$5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>536</v>
+      </c>
+      <c r="L12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="K5:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7763,6 +8018,512 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56833EEB-6AE2-4F59-B189-256EE9DA3646}">
+  <dimension ref="B3:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="51">
+        <v>800000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" s="51">
+        <v>200000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="J5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D6" s="51">
+        <v>50000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="51">
+        <v>250000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="J7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D8" s="51">
+        <v>80000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="F9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="51">
+        <f ca="1">$D$4</f>
+        <v>800000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>372</v>
+      </c>
+      <c r="L9" s="51">
+        <f ca="1">$D$4</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="51">
+        <f ca="1">$D$7-$D$5</f>
+        <v>50000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="51">
+        <f ca="1">$D$10</f>
+        <v>50000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="51">
+        <f ca="1">$D$10</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="51">
+        <f ca="1">$D$8-$D$6</f>
+        <v>30000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>546</v>
+      </c>
+      <c r="H11" s="51">
+        <f ca="1">ABS($D$11)</f>
+        <v>30000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>546</v>
+      </c>
+      <c r="L11" s="51">
+        <f ca="1">ABS($D$11)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>536</v>
+      </c>
+      <c r="L12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="K5:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF27A44B-FF3D-4E0A-A889-5E2982DA926A}">
+  <dimension ref="B3:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="51">
+        <v>70000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="51">
+        <v>110000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="J5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="129"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D6" s="51">
+        <v>80000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="51">
+        <v>-8000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="J7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="51">
+        <v>42000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D9" s="51">
+        <v>18000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>529</v>
+      </c>
+      <c r="H9" s="51">
+        <f ca="1">$D$9</f>
+        <v>18000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L9" s="51">
+        <f>$D$9</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" s="51">
+        <v>60000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G10" s="51">
+        <f ca="1">$D$8</f>
+        <v>42000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K10" s="51">
+        <f>$D$8</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="D11" s="51"/>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <f ca="1">ABS($D$7)</f>
+        <v>8000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51">
+        <f>ABS($D$7)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="51">
+        <f ca="1">$D$4</f>
+        <v>70000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" s="51">
+        <f>$D$4</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="F13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H13" s="51">
+        <f ca="1">$D$5</f>
+        <v>110000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>514</v>
+      </c>
+      <c r="L13" s="51">
+        <f>$D$5</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="F14" t="s">
+        <v>547</v>
+      </c>
+      <c r="H14" s="51">
+        <f ca="1">$D$6</f>
+        <v>80000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>547</v>
+      </c>
+      <c r="L14" s="51">
+        <f>$D$6</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="F15" t="s">
+        <v>549</v>
+      </c>
+      <c r="G15" s="51">
+        <f ca="1">$D$10</f>
+        <v>60000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>549</v>
+      </c>
+      <c r="K15" s="51">
+        <f>$D$10</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>536</v>
+      </c>
+      <c r="L16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="K5:L7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/studying/accounting/exercise/accounting exercise.xlsx
+++ b/studying/accounting/exercise/accounting exercise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27413"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="15120" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F5B302-8790-4220-B307-B10F856F86FF}"/>
+  <xr:revisionPtr revIDLastSave="16062" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27498A87-FDD8-491C-9A58-6C674175E025}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="106" activeTab="110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="93" activeTab="95" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1-1" sheetId="15" r:id="rId1"/>
@@ -95,30 +95,41 @@
     <sheet name="Q9-19" sheetId="110" r:id="rId85"/>
     <sheet name="Q9-20" sheetId="112" r:id="rId86"/>
     <sheet name="A9-1" sheetId="111" r:id="rId87"/>
-    <sheet name="Q11-17" sheetId="107" r:id="rId88"/>
-    <sheet name="Q11-18" sheetId="106" r:id="rId89"/>
-    <sheet name="Q11-35" sheetId="103" r:id="rId90"/>
-    <sheet name="Q12-2" sheetId="105" r:id="rId91"/>
-    <sheet name="Q12-8" sheetId="104" r:id="rId92"/>
-    <sheet name="Q12-15" sheetId="109" r:id="rId93"/>
-    <sheet name="Q12-36" sheetId="113" r:id="rId94"/>
-    <sheet name="Q12-38" sheetId="114" r:id="rId95"/>
-    <sheet name="Q12-40" sheetId="108" r:id="rId96"/>
-    <sheet name="Q14-15" sheetId="115" r:id="rId97"/>
-    <sheet name="Q16-20" sheetId="116" r:id="rId98"/>
-    <sheet name="Q17-23" sheetId="117" r:id="rId99"/>
-    <sheet name="Q17-27" sheetId="118" r:id="rId100"/>
-    <sheet name="Q18-9" sheetId="119" r:id="rId101"/>
-    <sheet name="Q18-10" sheetId="120" r:id="rId102"/>
-    <sheet name="Q18-12" sheetId="121" r:id="rId103"/>
-    <sheet name="Q18-13" sheetId="122" r:id="rId104"/>
-    <sheet name="Q18-14" sheetId="123" r:id="rId105"/>
-    <sheet name="Q19-1" sheetId="124" r:id="rId106"/>
-    <sheet name="Q19-4" sheetId="125" r:id="rId107"/>
-    <sheet name="Q19-10" sheetId="126" r:id="rId108"/>
-    <sheet name="Q20-1" sheetId="127" r:id="rId109"/>
-    <sheet name="Q20-3" sheetId="129" r:id="rId110"/>
-    <sheet name="Q20-13" sheetId="130" r:id="rId111"/>
+    <sheet name="Q10-3" sheetId="133" r:id="rId88"/>
+    <sheet name="Q10-4" sheetId="134" r:id="rId89"/>
+    <sheet name="A10-3" sheetId="135" r:id="rId90"/>
+    <sheet name="A10-4" sheetId="136" r:id="rId91"/>
+    <sheet name="A10-5" sheetId="137" r:id="rId92"/>
+    <sheet name="A10-6" sheetId="138" r:id="rId93"/>
+    <sheet name="A10-7" sheetId="139" r:id="rId94"/>
+    <sheet name="A10-8" sheetId="140" r:id="rId95"/>
+    <sheet name="B10-1" sheetId="141" r:id="rId96"/>
+    <sheet name="Q11-17" sheetId="107" r:id="rId97"/>
+    <sheet name="Q11-18" sheetId="106" r:id="rId98"/>
+    <sheet name="Q11-35" sheetId="103" r:id="rId99"/>
+    <sheet name="Q12-2" sheetId="105" r:id="rId100"/>
+    <sheet name="Q12-8" sheetId="104" r:id="rId101"/>
+    <sheet name="Q12-15" sheetId="109" r:id="rId102"/>
+    <sheet name="Q12-36" sheetId="113" r:id="rId103"/>
+    <sheet name="Q12-38" sheetId="114" r:id="rId104"/>
+    <sheet name="Q12-40" sheetId="108" r:id="rId105"/>
+    <sheet name="Q14-15" sheetId="115" r:id="rId106"/>
+    <sheet name="Q16-20" sheetId="116" r:id="rId107"/>
+    <sheet name="Q17-23" sheetId="117" r:id="rId108"/>
+    <sheet name="Q17-27" sheetId="118" r:id="rId109"/>
+    <sheet name="Q18-9" sheetId="119" r:id="rId110"/>
+    <sheet name="Q18-10" sheetId="120" r:id="rId111"/>
+    <sheet name="Q18-12" sheetId="121" r:id="rId112"/>
+    <sheet name="Q18-13" sheetId="122" r:id="rId113"/>
+    <sheet name="Q18-14" sheetId="123" r:id="rId114"/>
+    <sheet name="Q19-1" sheetId="124" r:id="rId115"/>
+    <sheet name="Q19-4" sheetId="125" r:id="rId116"/>
+    <sheet name="Q19-10" sheetId="126" r:id="rId117"/>
+    <sheet name="Q20-1" sheetId="127" r:id="rId118"/>
+    <sheet name="Q20-3" sheetId="129" r:id="rId119"/>
+    <sheet name="Q20-13" sheetId="130" r:id="rId120"/>
+    <sheet name="Q20-14" sheetId="131" r:id="rId121"/>
+    <sheet name="Q20-18" sheetId="132" r:id="rId122"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -240,6 +251,60 @@
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={A29F42BB-B8FD-420C-ABD2-4DD1CAA3755F}</author>
+    <author>tc={8E0F6FEC-4365-43FD-ADB2-7BBF55A12EEB}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A29F42BB-B8FD-420C-ABD2-4DD1CAA3755F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考accounting (studying).docx檔裡的CH10第三題的題目敘述。</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{8E0F6FEC-4365-43FD-ADB2-7BBF55A12EEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    其他已知，見敘述的註解。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BA56A531-6141-48CD-9693-F3F2C9330E2E}</author>
+    <author>tc={097995A3-F393-4466-89FA-51DEE5DFA0EA}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{BA56A531-6141-48CD-9693-F3F2C9330E2E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    參考accounting (studying).docx檔裡的CH10第四題的題目敘述。</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{097995A3-F393-4466-89FA-51DEE5DFA0EA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    其他已知，見敘述的註解。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={292C61DE-D93C-4D77-A133-651752AB9984}</author>
   </authors>
   <commentList>
@@ -255,7 +320,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B78456FF-FA2F-4143-8AFB-178C68BFD2EC}</author>
@@ -300,7 +365,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C4F56186-D303-4132-A760-03B5963D4C53}</author>
@@ -328,7 +393,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A2168248-DE8B-4497-B27C-93AB61B1DC48}</author>
@@ -346,7 +411,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={71C7FF9F-E798-4FC5-BC85-087B97950848}</author>
@@ -365,7 +430,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={855A39EA-A303-4335-B20D-E095E56EEAA9}</author>
@@ -383,7 +448,57 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}</author>
+    <author>tc={4C91B4A1-C478-45F9-BA0D-A06DD97813F1}</author>
+    <author>tc={00B3F093-5A89-4759-95DD-05276D17B09F}</author>
+    <author>tc={CC071A20-76E3-4F24-B055-9CD93F290D67}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
+Reply:
+    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{4C91B4A1-C478-45F9-BA0D-A06DD97813F1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{00B3F093-5A89-4759-95DD-05276D17B09F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A4-3題目和解答，詳見
+A4-3題目和解答的工作表。</t>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    對題目A4-3，我的答案。
+Reply:
+    從A30到G39。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2D142CAC-1446-4819-891D-143CF79A88EC}</author>
@@ -410,7 +525,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B63C3E5C-EA71-455A-B8E0-F91F1DB64772}</author>
@@ -531,57 +646,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}</author>
-    <author>tc={4C91B4A1-C478-45F9-BA0D-A06DD97813F1}</author>
-    <author>tc={00B3F093-5A89-4759-95DD-05276D17B09F}</author>
-    <author>tc={CC071A20-76E3-4F24-B055-9CD93F290D67}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CC7D14B4-A154-4C7F-92CD-1CD71B53CED2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    跟A5-3的工作表內容不一樣，在這裡，我將物料視為收入的一種。
-Reply:
-    我剛剛忘了說，解答本所列的分錄跟我列的不一樣，不知是否可行？</t>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{4C91B4A1-C478-45F9-BA0D-A06DD97813F1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A3-3題目和解答，詳見"A3-3題目和解答"工作表。</t>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="2" shapeId="0" xr:uid="{00B3F093-5A89-4759-95DD-05276D17B09F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A4-3題目和解答，詳見
-A4-3題目和解答的工作表。</t>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="3" shapeId="0" xr:uid="{CC071A20-76E3-4F24-B055-9CD93F290D67}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    對題目A4-3，我的答案。
-Reply:
-    從A30到G39。</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={205ADBC6-149B-47F2-9E42-D4107C5AD4BE}</author>
@@ -693,7 +758,7 @@
 </comments>
 </file>
 
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C2843E9D-75D1-4187-86BF-4AAAA304AC19}</author>
@@ -897,7 +962,7 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={EAD38383-EB5C-447D-B311-7529EB8BA026}</author>
@@ -936,6 +1001,62 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     當年度乙公司的綜合損益表，按照甲公司持股比例計算。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C1C3BE78-0038-4DBD-BC0B-1D0E4BEF765E}</author>
+    <author>tc={36B69CFE-CE7F-4775-A1D9-A81803ED112B}</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C1C3BE78-0038-4DBD-BC0B-1D0E4BEF765E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    費損類</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{36B69CFE-CE7F-4775-A1D9-A81803ED112B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    資產類。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1F6E65B9-771E-4533-8E69-BFC871A7B6AD}</author>
+    <author>tc={EDE3D9E5-CCDF-43BA-BA73-1B559951D558}</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{1F6E65B9-771E-4533-8E69-BFC871A7B6AD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    假設：
+所有處分和購置均發生於年底並以現金交割。</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{EDE3D9E5-CCDF-43BA-BA73-1B559951D558}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    想求：
+該年處分設備之現金流入？</t>
       </text>
     </comment>
   </commentList>
@@ -1353,7 +1474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6230" uniqueCount="583">
   <si>
     <t>見docx檔</t>
   </si>
@@ -2675,6 +2796,78 @@
     <t>(4)帳上誤記</t>
   </si>
   <si>
+    <t>敘述</t>
+  </si>
+  <si>
+    <t>大中公司</t>
+  </si>
+  <si>
+    <t>呆帳率</t>
+  </si>
+  <si>
+    <t>某年度</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>備抵呆帳</t>
+  </si>
+  <si>
+    <t>沖銷呆帳</t>
+  </si>
+  <si>
+    <t>收回沖銷呆帳</t>
+  </si>
+  <si>
+    <t>應收帳款而產生的呆帳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020/12/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 合計</t>
+  </si>
+  <si>
+    <t>調整前分錄</t>
+  </si>
+  <si>
+    <t>調整後分錄</t>
+  </si>
+  <si>
+    <t>應收票據付現</t>
+  </si>
+  <si>
+    <t>應收利息</t>
+  </si>
+  <si>
+    <t>應收票據貼現</t>
+  </si>
+  <si>
+    <t>T字型</t>
+  </si>
+  <si>
+    <t>近鐵公司</t>
+  </si>
+  <si>
+    <t>年初</t>
+  </si>
+  <si>
+    <t>年中</t>
+  </si>
+  <si>
+    <t>20年度</t>
+  </si>
+  <si>
+    <t>年底</t>
+  </si>
+  <si>
+    <t>賒帳折扣</t>
+  </si>
+  <si>
+    <t>呆帳收回</t>
+  </si>
+  <si>
     <t>進銷貨資料</t>
   </si>
   <si>
@@ -2951,16 +3144,7 @@
     <t>權益法</t>
   </si>
   <si>
-    <t>T字型</t>
-  </si>
-  <si>
-    <t>20年度</t>
-  </si>
-  <si>
     <t>資產利益</t>
-  </si>
-  <si>
-    <t>某年度</t>
   </si>
   <si>
     <t>x</t>
@@ -3003,6 +3187,42 @@
   </si>
   <si>
     <t>設備費</t>
+  </si>
+  <si>
+    <t>現金增資</t>
+  </si>
+  <si>
+    <t>長期銀行貸款</t>
+  </si>
+  <si>
+    <t>庫藏股購入</t>
+  </si>
+  <si>
+    <t>業主增資</t>
+  </si>
+  <si>
+    <t>2020年</t>
+  </si>
+  <si>
+    <t>其他現金</t>
+  </si>
+  <si>
+    <t>20年初</t>
+  </si>
+  <si>
+    <t>設備總額</t>
+  </si>
+  <si>
+    <t>20年底</t>
+  </si>
+  <si>
+    <t>設備折舊</t>
+  </si>
+  <si>
+    <t>設備處分損失</t>
+  </si>
+  <si>
+    <t>新購設備</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3497,6 +3717,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3518,11 +3739,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4211,13 +4428,35 @@
 
 <file path=xl/threadedComments/threadedComment11.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2024-02-15T11:28:45.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A29F42BB-B8FD-420C-ABD2-4DD1CAA3755F}">
+    <text>參考accounting (studying).docx檔裡的CH10第三題的題目敘述。</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2024-02-15T11:35:31.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{8E0F6FEC-4365-43FD-ADB2-7BBF55A12EEB}">
+    <text>其他已知，見敘述的註解。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment12.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2024-02-15T11:28:45.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{BA56A531-6141-48CD-9693-F3F2C9330E2E}">
+    <text>參考accounting (studying).docx檔裡的CH10第四題的題目敘述。</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2024-02-15T11:35:31.14" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{097995A3-F393-4466-89FA-51DEE5DFA0EA}">
+    <text>其他已知，見敘述的註解。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment13.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="K9" dT="2024-02-12T00:20:14.63" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{292C61DE-D93C-4D77-A133-651752AB9984}">
     <text>期末存貨</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment14.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="H3" dT="2024-02-06T07:18:52.11" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B78456FF-FA2F-4143-8AFB-178C68BFD2EC}">
     <text>參考，CH11-3-4 page 266。</text>
@@ -4234,7 +4473,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment15.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C3" dT="2024-02-12T12:45:56.36" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C4F56186-D303-4132-A760-03B5963D4C53}">
     <text>詳見，CH12 part 1 Q36。</text>
@@ -4246,7 +4485,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment16.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D6" dT="2024-02-12T01:32:06.60" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A2168248-DE8B-4497-B27C-93AB61B1DC48}">
     <text>此科目的數額為題目所問的成本</text>
@@ -4254,7 +4493,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment17.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C3" dT="2024-02-13T08:42:52.15" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{71C7FF9F-E798-4FC5-BC85-087B97950848}">
     <text>詳見，accounting (studying).docx
@@ -4263,7 +4502,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment18.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C3" dT="2024-02-14T08:50:26.64" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{855A39EA-A303-4335-B20D-E095E56EEAA9}">
     <text>詳見 accounting (studying).docx。</text>
@@ -4271,122 +4510,13 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment19.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C3" dT="2024-02-14T10:50:45.05" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{2D142CAC-1446-4819-891D-143CF79A88EC}">
     <text>詳見 accounting (studying).docx。</text>
   </threadedComment>
   <threadedComment ref="D3" dT="2024-02-14T10:55:20.10" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{11A3C39D-DE84-46CE-AD62-C17250D31BC8}">
     <text>參考，會計學課本CH18-3-6 page 510上的實例的分錄。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment18.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B63C3E5C-EA71-455A-B8E0-F91F1DB64772}">
-    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
-  </threadedComment>
-  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{DE84F715-F9A1-48F8-9BB3-CF2F8950C2AF}">
-    <text>(1) 實際付現 = 票面利率 * 面額</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
-    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A4EC7D17-A996-40E1-A487-FA1FBC43DEB7}" parentId="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
-    <text>P.S.
-發行時的帳面金額 = 發行價格</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C8598BC5-FBA8-4539-85B7-24378E693483}" parentId="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
-    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F450FA18-9665-430E-9EF0-DEF9AA556B14}">
-    <text>(3) 溢價攤銷 = 實際付現 - 利息費用</text>
-  </threadedComment>
-  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
-    <text xml:space="preserve">(4) 溢價餘額 = 上期的溢價餘額 - 本期的溢價攤銷 </text>
-  </threadedComment>
-  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{06971AE7-9FA4-4AF2-9B87-DFA1358A51D7}" parentId="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
-    <text>P.S.
-本期的溢價攤銷為上個步驟所算出的結果。</text>
-  </threadedComment>
-  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
-    <text>(5) 公司債帳面金額 = 上期的公司債帳面金額 - 本期的溢價攤銷</text>
-  </threadedComment>
-  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{947F6CB5-D556-4E66-9F9B-D2D1CDF25C9C}" parentId="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
-    <text>P.S.
-本期的溢價攤銷為第三個步驟所算出的結果。</text>
-  </threadedComment>
-  <threadedComment ref="B7" dT="2024-02-14T12:21:24.02" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{06A0DE42-7C21-4A0D-9063-43ADC6FAD502}">
-    <text>參考，Accounting (studying).docx的CH18的第12題所給的有效利率。</text>
-  </threadedComment>
-  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{757A0263-CD18-41EB-BF4B-607FA95BA75C}">
-    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
-  </threadedComment>
-  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5C7914FD-E6CE-4744-8C58-26F964940E16}">
-    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
-  </threadedComment>
-  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
-    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
-  </threadedComment>
-  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0829FEC0-2695-42CF-A871-4EC1864F5F6A}" parentId="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
-    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
-  </threadedComment>
-  <threadedComment ref="F9" dT="2024-02-14T12:40:06.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{55C8A40F-B2CC-4E7D-BB64-38E9209A3D93}">
-    <text>題目所要求的。</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment19.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{205ADBC6-149B-47F2-9E42-D4107C5AD4BE}">
-    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
-  </threadedComment>
-  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A4E9992E-E176-4A5F-A4FC-B12611BA9D39}">
-    <text>(1) 實際付現 = 票面利率 * 面額</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
-    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AA5DED05-8BD6-4990-BE00-4F6AA43A10A7}" parentId="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
-    <text>P.S.
-發行時的帳面金額 = 發行價格</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B52CDE62-7C23-47B2-B27A-030287DCDECB}" parentId="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
-    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
-  </threadedComment>
-  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{91C0A089-4F4E-4A7F-BA95-041AD4A622AC}">
-    <text>(3) 折價攤銷 =  利息費用 - 實際付現</text>
-  </threadedComment>
-  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
-    <text xml:space="preserve">(4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 </text>
-  </threadedComment>
-  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{920B4E78-E137-4030-B23D-812509B8C0B3}" parentId="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
-    <text>P.S.
-本期的折價攤銷為上個步驟所算出的結果。</text>
-  </threadedComment>
-  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
-    <text>(5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷</text>
-  </threadedComment>
-  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E5E5B060-0DAB-4E83-91CF-9A57EF695635}" parentId="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
-    <text>P.S.
-本期的折價攤銷為第三個步驟所算出的結果。</text>
-  </threadedComment>
-  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{875B675F-AFDA-4676-B8D4-E286CB788531}">
-    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
-  </threadedComment>
-  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C5ED0C28-59CC-44E7-8174-24B2D40A28CB}">
-    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
-  </threadedComment>
-  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
-    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
-  </threadedComment>
-  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{70EE0E7A-C20C-4DBA-8D8E-AEB3B180825D}" parentId="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
-    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
-  </threadedComment>
-  <threadedComment ref="G8" dT="2024-02-14T12:55:35.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F6681416-1519-4166-9FEA-123EDEFA049D}">
-    <text>題目所要求的。</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -4453,6 +4583,115 @@
 </file>
 
 <file path=xl/threadedComments/threadedComment20.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B63C3E5C-EA71-455A-B8E0-F91F1DB64772}">
+    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{DE84F715-F9A1-48F8-9BB3-CF2F8950C2AF}">
+    <text>(1) 實際付現 = 票面利率 * 面額</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A4EC7D17-A996-40E1-A487-FA1FBC43DEB7}" parentId="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+    <text>P.S.
+發行時的帳面金額 = 發行價格</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C8598BC5-FBA8-4539-85B7-24378E693483}" parentId="{48178402-FF92-4E93-BB78-BA942B4BCE24}">
+    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F450FA18-9665-430E-9EF0-DEF9AA556B14}">
+    <text>(3) 溢價攤銷 = 實際付現 - 利息費用</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
+    <text xml:space="preserve">(4) 溢價餘額 = 上期的溢價餘額 - 本期的溢價攤銷 </text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{06971AE7-9FA4-4AF2-9B87-DFA1358A51D7}" parentId="{21F8ADCC-C263-414C-BA0A-E7ADE97ECDEE}">
+    <text>P.S.
+本期的溢價攤銷為上個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
+    <text>(5) 公司債帳面金額 = 上期的公司債帳面金額 - 本期的溢價攤銷</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{947F6CB5-D556-4E66-9F9B-D2D1CDF25C9C}" parentId="{1A39ABB6-0B31-4E61-94D9-F992F6A4DEF1}">
+    <text>P.S.
+本期的溢價攤銷為第三個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="B7" dT="2024-02-14T12:21:24.02" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{06A0DE42-7C21-4A0D-9063-43ADC6FAD502}">
+    <text>參考，Accounting (studying).docx的CH18的第12題所給的有效利率。</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{757A0263-CD18-41EB-BF4B-607FA95BA75C}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
+  </threadedComment>
+  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5C7914FD-E6CE-4744-8C58-26F964940E16}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
+    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{0829FEC0-2695-42CF-A871-4EC1864F5F6A}" parentId="{ABD555AD-C3AB-4F26-AC1F-3F899D53EE92}">
+    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
+  </threadedComment>
+  <threadedComment ref="F9" dT="2024-02-14T12:40:06.23" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{55C8A40F-B2CC-4E7D-BB64-38E9209A3D93}">
+    <text>題目所要求的。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment21.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-02-14T11:30:41.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{205ADBC6-149B-47F2-9E42-D4107C5AD4BE}">
+    <text>溢價攤銷表的格式和計算方法，請參考會計學課本CH18-3-2 page 503上的溢價攤銷表。</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2024-02-14T11:33:27.03" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{A4E9992E-E176-4A5F-A4FC-B12611BA9D39}">
+    <text>(1) 實際付現 = 票面利率 * 面額</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:34:46.69" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+    <text>(2) 利息費用 = 上期的帳面金額 * 市場利率</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:35:11.44" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{AA5DED05-8BD6-4990-BE00-4F6AA43A10A7}" parentId="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+    <text>P.S.
+發行時的帳面金額 = 發行價格</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-02-14T11:36:32.35" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{B52CDE62-7C23-47B2-B27A-030287DCDECB}" parentId="{93A5F738-7627-4AA6-9B05-CB45C17703F9}">
+    <text>計算發行價格：參考會計學課本的CH18-3-2 page 502和課本附表的表格及公式。</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2024-02-14T11:37:32.24" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{91C0A089-4F4E-4A7F-BA95-041AD4A622AC}">
+    <text>(3) 折價攤銷 =  利息費用 - 實際付現</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:38:41.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
+    <text xml:space="preserve">(4) 折價餘額 = 上期的折價餘額 - 本期的折價攤銷 </text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2024-02-14T11:39:02.82" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{920B4E78-E137-4030-B23D-812509B8C0B3}" parentId="{E2C11DD0-58BF-42D0-AB17-6E3B916B52FF}">
+    <text>P.S.
+本期的折價攤銷為上個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:39:56.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
+    <text>(5) 公司債帳面價值 = 上期的公司債帳面價值 + 本期的折價攤銷</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2024-02-14T11:40:30.97" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E5E5B060-0DAB-4E83-91CF-9A57EF695635}" parentId="{15A9E86C-1DB7-4FCE-B2AE-A2108DCAD8F3}">
+    <text>P.S.
+本期的折價攤銷為第三個步驟所算出的結果。</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2024-02-14T12:03:01.17" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{875B675F-AFDA-4676-B8D4-E286CB788531}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第二部分。</text>
+  </threadedComment>
+  <threadedComment ref="I7" dT="2024-02-14T12:07:41.50" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C5ED0C28-59CC-44E7-8174-24B2D40A28CB}">
+    <text>參考，Accounting (studying).docx的CH18的第12題的第三部分。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:10.51" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
+    <text>因為題目只要求出2020年度的利息費用，所以之後的數值有可能部會計算。</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-02-14T12:23:58.87" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{70EE0E7A-C20C-4DBA-8D8E-AEB3B180825D}" parentId="{5C1531C7-626F-4EE4-B157-84DCE5387045}">
+    <text>但不代表此表格應該長這樣，有些數值不被算而省略不寫。</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2024-02-14T12:55:35.83" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{F6681416-1519-4166-9FEA-123EDEFA049D}">
+    <text>題目所要求的。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment22.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="L3" dT="2024-02-14T13:42:22.43" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C2843E9D-75D1-4187-86BF-4AAAA304AC19}">
     <text>因應題目要求。</text>
@@ -4547,7 +4786,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment23.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="F5" dT="2024-02-15T02:21:17.98" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EAD38383-EB5C-447D-B311-7529EB8BA026}">
     <text>當初甲公司買公司債的成本。</text>
@@ -4560,6 +4799,30 @@
   </threadedComment>
   <threadedComment ref="F11" dT="2024-02-15T02:23:14.77" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{E6E250D6-D4F7-4693-B8C0-7995F6DD6662}">
     <text>當年度乙公司的綜合損益表，按照甲公司持股比例計算。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment24.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C4" dT="2024-02-15T05:12:17.13" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{C1C3BE78-0038-4DBD-BC0B-1D0E4BEF765E}">
+    <text>費損類</text>
+  </threadedComment>
+  <threadedComment ref="C5" dT="2024-02-15T05:12:50.66" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{36B69CFE-CE7F-4775-A1D9-A81803ED112B}">
+    <text>資產類。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment25.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B12" dT="2024-02-15T06:17:54.93" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{1F6E65B9-771E-4533-8E69-BFC871A7B6AD}">
+    <text>假設：
+所有處分和購置均發生於年底並以現金交割。</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2024-02-15T06:18:40.12" personId="{F702E3D2-4E7B-40B8-9A75-837AA64B8094}" id="{EDE3D9E5-CCDF-43BA-BA73-1B559951D558}">
+    <text>想求：
+該年處分設備之現金流入？</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5581,6 +5844,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECB7870-F12E-46B0-A86A-FE474AD50FD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0CD4C2-537D-4F66-A4CC-00FF3AC7FB13}">
+  <dimension ref="C2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="51">
+        <v>80000</v>
+      </c>
+      <c r="E3" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="51">
+        <f>$D3*$E3</f>
+        <v>16000</v>
+      </c>
+      <c r="G3" s="51">
+        <f>$D3-$F3</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="51">
+        <f>$G3</f>
+        <v>64000</v>
+      </c>
+      <c r="E4" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="51">
+        <f t="shared" ref="F4:F6" si="0">$D4*$E4</f>
+        <v>12800</v>
+      </c>
+      <c r="G4" s="51">
+        <f t="shared" ref="G4:G6" si="1">$D4-$F4</f>
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="51">
+        <f t="shared" ref="D5:D6" si="2">$G4</f>
+        <v>51200</v>
+      </c>
+      <c r="E5" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="51">
+        <f t="shared" si="0"/>
+        <v>10240</v>
+      </c>
+      <c r="G5" s="51">
+        <f t="shared" si="1"/>
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" s="51">
+        <f t="shared" si="2"/>
+        <v>40960</v>
+      </c>
+      <c r="E6" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="51">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="G6" s="51">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C619EF6F-D0CD-4E16-9778-2B7D76592133}">
+  <dimension ref="C2:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E3" s="51">
+        <v>8385000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="D4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" s="51">
+        <v>6000000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="51">
+        <v>4000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>487</v>
+      </c>
+      <c r="J5" s="51">
+        <f>$K$7*$E4/($E$4+$E$5)</f>
+        <v>5031000</v>
+      </c>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="51">
+        <f>$K$7*$E5/($E$4+$E$5)</f>
+        <v>3354000</v>
+      </c>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="I7" t="s">
+        <v>486</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51">
+        <v>8385000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4FCE5C-60C3-484E-86F5-A0E539942817}">
+  <dimension ref="C3:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="E6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="51">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" s="51">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F10" s="51">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="E11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" s="51">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="E13" t="s">
+        <v>492</v>
+      </c>
+      <c r="F13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="E14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F14" s="51">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96897107-C1C1-4CE3-9CB7-A5D41A379EAD}">
+  <dimension ref="D3:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10">
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H4" t="s">
+        <v>493</v>
+      </c>
+      <c r="I4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10">
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1600000</v>
+      </c>
+      <c r="F5" s="51">
+        <v>1000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>496</v>
+      </c>
+      <c r="I5" s="51">
+        <v>1600000</v>
+      </c>
+      <c r="J5" s="51">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="51">
+        <v>800000</v>
+      </c>
+      <c r="F6" s="51">
+        <v>500000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="51">
+        <v>800000</v>
+      </c>
+      <c r="J6" s="51">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="51">
+        <v>230000</v>
+      </c>
+      <c r="F7" s="51">
+        <v>-230000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I7" s="51">
+        <v>230000</v>
+      </c>
+      <c r="J7" s="51">
+        <v>-230000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10">
+      <c r="D8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="51">
+        <v>880000</v>
+      </c>
+      <c r="F8" s="51">
+        <v>650000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>491</v>
+      </c>
+      <c r="I8" s="51">
+        <v>880000</v>
+      </c>
+      <c r="J8" s="51">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="I10" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="H11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" s="51">
+        <f>I5+I7</f>
+        <v>1830000</v>
+      </c>
+      <c r="J11" s="51">
+        <f>J5+J7</f>
+        <v>770000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E93931C-6301-485F-8816-6647BD6733E2}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="6" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="51">
+        <v>300000</v>
+      </c>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A223095-3DCD-4338-BA65-0B977353EC09}">
+  <dimension ref="C2:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="J3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="J5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127">
+        <v>100000</v>
+      </c>
+      <c r="O5" s="127">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="J6" s="8">
+        <v>44012</v>
+      </c>
+      <c r="K6" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" t="s">
+        <v>500</v>
+      </c>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127">
+        <v>5000</v>
+      </c>
+      <c r="O6" s="127">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="J7" s="8">
+        <v>44012</v>
+      </c>
+      <c r="K7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N7" s="127"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="L8" t="s">
+        <v>502</v>
+      </c>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127">
+        <v>85928</v>
+      </c>
+      <c r="O8" s="127"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="J9" s="8">
+        <v>44196</v>
+      </c>
+      <c r="K9" t="s">
+        <v>388</v>
+      </c>
+      <c r="L9" t="s">
+        <v>500</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127">
+        <v>4296.3999999999996</v>
+      </c>
+      <c r="O9" s="127">
+        <v>4296.3999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="J10" s="8">
+        <v>44196</v>
+      </c>
+      <c r="K10" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" t="s">
+        <v>501</v>
+      </c>
+      <c r="M10" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N10" s="127"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="L11" t="s">
+        <v>502</v>
+      </c>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127">
+        <v>70522.399999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="J12" s="8">
+        <v>44377</v>
+      </c>
+      <c r="K12" t="s">
+        <v>388</v>
+      </c>
+      <c r="L12" t="s">
+        <v>500</v>
+      </c>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127">
+        <v>3526.12</v>
+      </c>
+      <c r="O12" s="127">
+        <v>3526.12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="J13" s="8">
+        <v>44377</v>
+      </c>
+      <c r="K13" t="s">
+        <v>385</v>
+      </c>
+      <c r="L13" t="s">
+        <v>501</v>
+      </c>
+      <c r="M13" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N13" s="127"/>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="L14" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127">
+        <v>54346.52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="J15" s="8">
+        <v>44561</v>
+      </c>
+      <c r="K15" t="s">
+        <v>388</v>
+      </c>
+      <c r="L15" t="s">
+        <v>500</v>
+      </c>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127">
+        <v>2717.326</v>
+      </c>
+      <c r="O15" s="127">
+        <v>2717.326</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="J16" s="8">
+        <v>44561</v>
+      </c>
+      <c r="K16" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" t="s">
+        <v>501</v>
+      </c>
+      <c r="M16" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N16" s="127"/>
+    </row>
+    <row r="17" spans="10:15">
+      <c r="L17" t="s">
+        <v>502</v>
+      </c>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127">
+        <v>37361.845999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15">
+      <c r="J18" s="8">
+        <v>44742</v>
+      </c>
+      <c r="K18" t="s">
+        <v>388</v>
+      </c>
+      <c r="L18" t="s">
+        <v>500</v>
+      </c>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127">
+        <v>1868.0923</v>
+      </c>
+      <c r="O18" s="127">
+        <v>1868.0923</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15">
+      <c r="J19" s="8">
+        <v>44742</v>
+      </c>
+      <c r="K19" t="s">
+        <v>385</v>
+      </c>
+      <c r="L19" t="s">
+        <v>501</v>
+      </c>
+      <c r="M19" s="127">
+        <v>19702</v>
+      </c>
+      <c r="N19" s="127"/>
+    </row>
+    <row r="20" spans="10:15">
+      <c r="L20" t="s">
+        <v>502</v>
+      </c>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127">
+        <v>19527.938300000002</v>
+      </c>
+      <c r="O20" s="127">
+        <v>19527.938300000002</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15">
+      <c r="J21" s="8">
+        <v>44926</v>
+      </c>
+      <c r="K21" t="s">
+        <v>388</v>
+      </c>
+      <c r="L21" t="s">
+        <v>500</v>
+      </c>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127">
+        <v>976.39691500000004</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15">
+      <c r="J22" s="8">
+        <v>44926</v>
+      </c>
+      <c r="K22" t="s">
+        <v>385</v>
+      </c>
+      <c r="L22" t="s">
+        <v>501</v>
+      </c>
+      <c r="M22" s="128">
+        <v>20504.334914999999</v>
+      </c>
+      <c r="N22" s="127"/>
+    </row>
+    <row r="23" spans="10:15">
+      <c r="L23" t="s">
+        <v>502</v>
+      </c>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15">
+      <c r="L24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="127">
+        <f>SUM($O$6:$O$23)</f>
+        <v>36935.876600000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C85544-2F30-4227-94F0-D399CE92CE1F}">
+  <dimension ref="C3:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="6" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="D6" s="8">
+        <v>44105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G6" s="51">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="D8" s="8">
+        <v>44150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="51">
+        <v>8500</v>
+      </c>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="F9" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="D10" s="8">
+        <v>44181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="51">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="F11" t="s">
+        <v>503</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="D14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="E15" s="124"/>
+      <c r="F15" s="8">
+        <v>44105</v>
+      </c>
+      <c r="G15" s="51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="D16" s="8">
+        <v>44150</v>
+      </c>
+      <c r="E16" s="124">
+        <v>8500</v>
+      </c>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="8">
+        <v>44181</v>
+      </c>
+      <c r="E17" s="124">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="8">
+        <v>44105</v>
+      </c>
+      <c r="E20" s="124">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="8"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="8">
+        <v>44150</v>
+      </c>
+      <c r="G21" s="51">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="8"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="8">
+        <v>44181</v>
+      </c>
+      <c r="G22" s="51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" t="s">
+        <v>505</v>
+      </c>
+      <c r="F25" s="51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" t="s">
+        <v>503</v>
+      </c>
+      <c r="F26" s="51">
+        <v>-8500</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" s="120">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="F28" s="62">
+        <f>SUM($F$25:$F$27)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="51"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="51"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="51"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="51"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="51"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="51"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E50274D-F622-4016-A2EA-C41A5DC0F129}">
+  <dimension ref="C2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="D5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F5" s="51">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="D6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="D7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="51">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="D8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="62">
+        <f>SUM($F$5:$F$7)-$F$8</f>
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="F14" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7413EB4A-0299-49B1-97BE-457A25CD665F}">
   <dimension ref="C3:I9"/>
   <sheetViews>
@@ -5604,22 +7177,22 @@
     </row>
     <row r="4" spans="3:9">
       <c r="D4" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="G4" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="H4" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="I4" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="3:9">
@@ -5697,10 +7270,10 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="129"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="51">
         <v>3300</v>
       </c>
@@ -5719,7 +7292,302 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1E3A07-CD87-4EF8-B107-8CE59A6E4981}">
+  <dimension ref="B1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="17">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>500000</v>
+      </c>
+      <c r="H3" s="17">
+        <v>210000</v>
+      </c>
+      <c r="J3">
+        <v>17</v>
+      </c>
+      <c r="K3" s="17">
+        <v>230000</v>
+      </c>
+      <c r="L3" s="17">
+        <v>250000</v>
+      </c>
+      <c r="M3" s="17">
+        <v>30000</v>
+      </c>
+      <c r="N3" s="17">
+        <v>100000</v>
+      </c>
+      <c r="O3" s="17">
+        <v>500000</v>
+      </c>
+      <c r="P3" s="17">
+        <v>210000</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>290000</v>
+      </c>
+      <c r="R3" s="17">
+        <v>240000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17">
+        <v>400000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>80000</v>
+      </c>
+      <c r="F4" s="17">
+        <v>120000</v>
+      </c>
+      <c r="G4" s="17">
+        <v>700000</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4" s="17">
+        <v>400000</v>
+      </c>
+      <c r="L4" s="17">
+        <v>300000</v>
+      </c>
+      <c r="M4" s="17">
+        <v>80000</v>
+      </c>
+      <c r="N4" s="17">
+        <v>120000</v>
+      </c>
+      <c r="O4" s="17">
+        <v>700000</v>
+      </c>
+      <c r="P4" s="17">
+        <v>270000</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>430000</v>
+      </c>
+      <c r="R4" s="17">
+        <v>290000</v>
+      </c>
+      <c r="S4" s="24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" s="17">
+        <v>500000</v>
+      </c>
+      <c r="D5" s="17">
+        <v>370000</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
+        <v>120000</v>
+      </c>
+      <c r="G5" s="17">
+        <v>800000</v>
+      </c>
+      <c r="H5" s="17">
+        <v>200000</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5" s="17">
+        <v>500000</v>
+      </c>
+      <c r="L5" s="17">
+        <v>370000</v>
+      </c>
+      <c r="M5" s="17">
+        <v>80000</v>
+      </c>
+      <c r="N5" s="17">
+        <v>120000</v>
+      </c>
+      <c r="O5" s="17">
+        <v>800000</v>
+      </c>
+      <c r="P5" s="17">
+        <v>200000</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>600000</v>
+      </c>
+      <c r="R5" s="17">
+        <v>430000</v>
+      </c>
+      <c r="S5" s="24">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17">
+        <v>600000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>650000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="17">
+        <v>180000</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
+        <v>250000</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" s="17">
+        <v>600000</v>
+      </c>
+      <c r="L6" s="17">
+        <v>650000</v>
+      </c>
+      <c r="M6" s="17">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="17">
+        <v>180000</v>
+      </c>
+      <c r="O6" s="17">
+        <v>330000</v>
+      </c>
+      <c r="P6" s="17">
+        <v>250000</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>80000</v>
+      </c>
+      <c r="R6" s="17">
+        <v>600000</v>
+      </c>
+      <c r="S6" s="24">
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>240000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E91DC-B85A-45A7-94FA-A64A193747BD}">
   <dimension ref="C3:H15"/>
   <sheetViews>
@@ -5776,7 +7644,7 @@
     <row r="7" spans="3:8">
       <c r="D7" s="8"/>
       <c r="E7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="G7" s="51">
         <v>250</v>
@@ -5785,7 +7653,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="F8" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="51">
@@ -5794,7 +7662,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="F9" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="G9" s="51"/>
       <c r="H9" s="51">
@@ -5819,7 +7687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA9940-0974-43FB-BB93-AC38ACDDC523}">
   <dimension ref="C3:H22"/>
   <sheetViews>
@@ -5863,7 +7731,7 @@
         <v>42370</v>
       </c>
       <c r="E5" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="G5" s="51">
         <v>120000</v>
@@ -5872,7 +7740,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="E6" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="G6" s="51">
         <v>120000</v>
@@ -5949,7 +7817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB9D82-BF2F-4526-9192-3E03E5628FAA}">
   <dimension ref="A3:J17"/>
   <sheetViews>
@@ -5970,30 +7838,30 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B4" s="51">
         <v>400000</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
+      <c r="D4" s="130" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B5" s="51">
         <v>435000</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6013,39 +7881,39 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
         <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="H6" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="I6" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B7">
         <v>0.08</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -6315,7 +8183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2999621F-D56C-4BF8-8D43-A93BA59ED7CF}">
   <dimension ref="A3:J11"/>
   <sheetViews>
@@ -6338,30 +8206,30 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B4" s="51">
         <v>1000000</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>508</v>
-      </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
+      <c r="D4" s="130" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B5" s="51">
         <v>940000</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6381,39 +8249,39 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
         <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="H6" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="I6" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -6535,7 +8403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C96A83B-1AFF-4893-AA72-E06AE5FB188A}">
   <dimension ref="A3:R10"/>
   <sheetViews>
@@ -6560,51 +8428,51 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="129" t="s">
-        <v>512</v>
-      </c>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
+      <c r="L3" s="130" t="s">
+        <v>536</v>
+      </c>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B4" s="51">
         <v>2000000</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>508</v>
-      </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="L4" s="129" t="s">
-        <v>508</v>
-      </c>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
+      <c r="D4" s="130" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="L4" s="130" t="s">
+        <v>532</v>
+      </c>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B5" s="51">
         <v>1898485</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6622,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -6642,57 +8510,57 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B6">
         <v>0.08</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
         <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="H6" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="I6" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="L6" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="M6" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="N6" t="s">
         <v>239</v>
       </c>
       <c r="O6" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="P6" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="Q6" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
@@ -6705,7 +8573,7 @@
         <v>1898485</v>
       </c>
       <c r="L7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
@@ -6850,7 +8718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6F7DF1-0D25-4F9E-B400-425EFE4C805B}">
   <dimension ref="A2:I15"/>
   <sheetViews>
@@ -6876,7 +8744,7 @@
         <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="C3">
         <v>0.35</v>
@@ -6904,7 +8772,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="G5" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17">
@@ -6913,7 +8781,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="F6" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="H6" s="17">
         <v>60000</v>
@@ -6932,7 +8800,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="G8" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17">
@@ -6961,7 +8829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BFFC2A-26A4-490E-BD16-DFA46BB6D820}">
   <dimension ref="B2:J15"/>
   <sheetViews>
@@ -6990,7 +8858,7 @@
         <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="D3" s="51">
         <v>200000</v>
@@ -7001,7 +8869,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="C4" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="D4" s="51">
         <v>4000</v>
@@ -7024,7 +8892,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="D5">
         <v>0.01</v>
@@ -7033,7 +8901,7 @@
         <v>43922</v>
       </c>
       <c r="G5" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="I5" s="51">
         <f ca="1">$D$3</f>
@@ -7043,7 +8911,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="D6" s="51">
         <v>1</v>
@@ -7059,7 +8927,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="C7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="D7" s="51">
         <v>2</v>
@@ -7078,13 +8946,13 @@
     </row>
     <row r="8" spans="2:10">
       <c r="C8" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D8">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="51">
@@ -7097,7 +8965,7 @@
         <v>44196</v>
       </c>
       <c r="G9" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="I9" s="51">
         <f ca="1">$I$5-$J$8*$D$8</f>
@@ -7107,7 +8975,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="H10" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="51">
@@ -7130,7 +8998,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="H12" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51">
@@ -7155,7 +9023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5F5017-BE20-45BA-A5CC-7927CE023071}">
   <dimension ref="B3:J33"/>
   <sheetViews>
@@ -7182,7 +9050,7 @@
         <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="D4" s="51">
         <v>500000</v>
@@ -7205,7 +9073,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="D5" s="117">
         <v>0.3</v>
@@ -7214,7 +9082,7 @@
         <v>43831</v>
       </c>
       <c r="G5" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="I5" s="51">
         <f ca="1">$D$4</f>
@@ -7240,7 +9108,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="C7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D7" s="51">
         <v>-20000</v>
@@ -7259,13 +9127,13 @@
     </row>
     <row r="8" spans="2:10">
       <c r="C8" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D8" s="51">
         <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="51">
@@ -7278,7 +9146,7 @@
         <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="I9" s="51">
         <f ca="1">$D$6*$D$5</f>
@@ -7288,7 +9156,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="H10" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="51">
@@ -7301,7 +9169,7 @@
         <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="I11" s="51">
         <f ca="1">ABS($D$7)*$D$5</f>
@@ -7311,7 +9179,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="H12" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="J12" s="51">
         <f ca="1">$I$11</f>
@@ -7323,12 +9191,12 @@
         <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="F14" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -7359,15 +9227,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="17" spans="6:9">
-      <c r="G17" s="136"/>
-    </row>
     <row r="18" spans="6:9">
       <c r="F18" s="11" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -7413,7 +9278,7 @@
         <v>96</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7445,21 +9310,21 @@
       <c r="F26" t="s">
         <v>420</v>
       </c>
-      <c r="G26" s="138" t="s">
+      <c r="G26" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="138"/>
+      <c r="H26" s="130"/>
     </row>
     <row r="27" spans="6:9">
       <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
     </row>
     <row r="28" spans="6:9">
       <c r="F28" s="11" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="G28" s="137"/>
       <c r="H28" s="137"/>
@@ -7490,7 +9355,7 @@
     </row>
     <row r="31" spans="6:9">
       <c r="F31" s="5" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="G31" s="51">
         <f ca="1">IF((SUM($G$19:$G$20)-SUM($I$19:$I$20))&gt;0,(SUM($G$19:$G$20)-SUM($I$19:$I$20)),"")</f>
@@ -7503,7 +9368,7 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="48" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="G32" s="51" t="str">
         <f ca="1">IF((SUM($G$23)-SUM($I$23))&gt;0,(SUM($G$23)-SUM($I$23)),"")</f>
@@ -7536,7 +9401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E2F412-D6A3-4E7F-90C4-190E1D8BABC3}">
   <dimension ref="B3:L13"/>
   <sheetViews>
@@ -7559,7 +9424,7 @@
         <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D4" s="51">
         <v>15000</v>
@@ -7578,21 +9443,21 @@
       <c r="F5" t="s">
         <v>420</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="129"/>
+      <c r="H5" s="130"/>
       <c r="J5" t="s">
         <v>420</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="129"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="2:12">
       <c r="C6" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="D6" s="51">
         <v>3000</v>
@@ -7600,25 +9465,25 @@
       <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
       <c r="J6" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="2:12">
       <c r="F7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+        <v>443</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
       <c r="J7" t="s">
-        <v>535</v>
-      </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+        <v>443</v>
+      </c>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
     </row>
     <row r="8" spans="2:12">
       <c r="F8" t="s">
@@ -7642,14 +9507,14 @@
     </row>
     <row r="9" spans="2:12">
       <c r="F9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="H9" s="51">
         <f ca="1">$D$4</f>
         <v>15000</v>
       </c>
       <c r="J9" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="L9" s="51">
         <f>$D$4</f>
@@ -7658,14 +9523,14 @@
     </row>
     <row r="10" spans="2:12">
       <c r="F10" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="G10" s="51">
         <f ca="1">$D$6</f>
         <v>3000</v>
       </c>
       <c r="J10" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="K10" s="51">
         <f>$D$6</f>
@@ -7696,10 +9561,10 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="L12" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -7712,10 +9577,10 @@
         <v>107</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="L13" s="65" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -7727,302 +9592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1E3A07-CD87-4EF8-B107-8CE59A6E4981}">
-  <dimension ref="B1:S7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17">
-        <v>250000</v>
-      </c>
-      <c r="E3" s="17">
-        <v>30000</v>
-      </c>
-      <c r="F3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="17">
-        <v>500000</v>
-      </c>
-      <c r="H3" s="17">
-        <v>210000</v>
-      </c>
-      <c r="J3">
-        <v>17</v>
-      </c>
-      <c r="K3" s="17">
-        <v>230000</v>
-      </c>
-      <c r="L3" s="17">
-        <v>250000</v>
-      </c>
-      <c r="M3" s="17">
-        <v>30000</v>
-      </c>
-      <c r="N3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="O3" s="17">
-        <v>500000</v>
-      </c>
-      <c r="P3" s="17">
-        <v>210000</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>290000</v>
-      </c>
-      <c r="R3" s="17">
-        <v>240000</v>
-      </c>
-      <c r="S3" s="24">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4" s="17">
-        <v>400000</v>
-      </c>
-      <c r="D4" s="17">
-        <v>300000</v>
-      </c>
-      <c r="E4" s="17">
-        <v>80000</v>
-      </c>
-      <c r="F4" s="17">
-        <v>120000</v>
-      </c>
-      <c r="G4" s="17">
-        <v>700000</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4" s="17">
-        <v>400000</v>
-      </c>
-      <c r="L4" s="17">
-        <v>300000</v>
-      </c>
-      <c r="M4" s="17">
-        <v>80000</v>
-      </c>
-      <c r="N4" s="17">
-        <v>120000</v>
-      </c>
-      <c r="O4" s="17">
-        <v>700000</v>
-      </c>
-      <c r="P4" s="17">
-        <v>270000</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>430000</v>
-      </c>
-      <c r="R4" s="17">
-        <v>290000</v>
-      </c>
-      <c r="S4" s="24">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5" s="17">
-        <v>500000</v>
-      </c>
-      <c r="D5" s="17">
-        <v>370000</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17">
-        <v>120000</v>
-      </c>
-      <c r="G5" s="17">
-        <v>800000</v>
-      </c>
-      <c r="H5" s="17">
-        <v>200000</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
-      <c r="K5" s="17">
-        <v>500000</v>
-      </c>
-      <c r="L5" s="17">
-        <v>370000</v>
-      </c>
-      <c r="M5" s="17">
-        <v>80000</v>
-      </c>
-      <c r="N5" s="17">
-        <v>120000</v>
-      </c>
-      <c r="O5" s="17">
-        <v>800000</v>
-      </c>
-      <c r="P5" s="17">
-        <v>200000</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>600000</v>
-      </c>
-      <c r="R5" s="17">
-        <v>430000</v>
-      </c>
-      <c r="S5" s="24">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" s="17">
-        <v>600000</v>
-      </c>
-      <c r="D6" s="17">
-        <v>650000</v>
-      </c>
-      <c r="E6" s="17">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="17">
-        <v>180000</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17">
-        <v>250000</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6" s="17">
-        <v>600000</v>
-      </c>
-      <c r="L6" s="17">
-        <v>650000</v>
-      </c>
-      <c r="M6" s="17">
-        <v>50000</v>
-      </c>
-      <c r="N6" s="17">
-        <v>180000</v>
-      </c>
-      <c r="O6" s="17">
-        <v>330000</v>
-      </c>
-      <c r="P6" s="17">
-        <v>250000</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>80000</v>
-      </c>
-      <c r="R6" s="17">
-        <v>600000</v>
-      </c>
-      <c r="S6" s="24">
-        <v>-50000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17">
-        <v>240000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56833EEB-6AE2-4F59-B189-256EE9DA3646}">
   <dimension ref="B3:L13"/>
   <sheetViews>
@@ -8058,7 +9628,7 @@
     </row>
     <row r="5" spans="2:12">
       <c r="C5" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="D5" s="51">
         <v>200000</v>
@@ -8066,21 +9636,21 @@
       <c r="F5" t="s">
         <v>420</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="129"/>
+      <c r="H5" s="130"/>
       <c r="J5" t="s">
         <v>420</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="129"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="2:12">
       <c r="C6" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="D6" s="51">
         <v>50000</v>
@@ -8088,35 +9658,35 @@
       <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
       <c r="J6" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="2:12">
       <c r="C7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="D7" s="51">
         <v>250000</v>
       </c>
       <c r="F7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+        <v>443</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
       <c r="J7" t="s">
-        <v>535</v>
-      </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+        <v>443</v>
+      </c>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
     </row>
     <row r="8" spans="2:12">
       <c r="C8" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="D8" s="51">
         <v>80000</v>
@@ -8158,10 +9728,10 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="C10" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D10" s="51">
         <f ca="1">$D$7-$D$5</f>
@@ -8184,21 +9754,21 @@
     </row>
     <row r="11" spans="2:12">
       <c r="C11" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="D11" s="51">
         <f ca="1">$D$8-$D$6</f>
         <v>30000</v>
       </c>
       <c r="F11" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H11" s="51">
         <f ca="1">ABS($D$11)</f>
         <v>30000</v>
       </c>
       <c r="J11" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="L11" s="51">
         <f ca="1">ABS($D$11)</f>
@@ -8213,10 +9783,10 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="L12" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -8229,294 +9799,10 @@
         <v>107</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="L13" s="65" t="s">
-        <v>538</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="K5:L7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF27A44B-FF3D-4E0A-A889-5E2982DA926A}">
-  <dimension ref="B3:L17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="51">
-        <v>70000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="C5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D5" s="51">
-        <v>110000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>420</v>
-      </c>
-      <c r="G5" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="J5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K5" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="129"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="C6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" s="51">
-        <v>80000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="J6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="51">
-        <v>-8000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="J7" t="s">
-        <v>535</v>
-      </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="C8" t="s">
-        <v>548</v>
-      </c>
-      <c r="D8" s="51">
-        <v>42000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="C9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D9" s="51">
-        <v>18000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>529</v>
-      </c>
-      <c r="H9" s="51">
-        <f ca="1">$D$9</f>
-        <v>18000</v>
-      </c>
-      <c r="J9" t="s">
-        <v>529</v>
-      </c>
-      <c r="L9" s="51">
-        <f>$D$9</f>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="C10" t="s">
-        <v>549</v>
-      </c>
-      <c r="D10" s="51">
-        <v>60000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>548</v>
-      </c>
-      <c r="G10" s="51">
-        <f ca="1">$D$8</f>
-        <v>42000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>548</v>
-      </c>
-      <c r="K10" s="51">
-        <f>$D$8</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="D11" s="51"/>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51">
-        <f ca="1">ABS($D$7)</f>
-        <v>8000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51">
-        <f>ABS($D$7)</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="F12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="51">
-        <f ca="1">$D$4</f>
-        <v>70000</v>
-      </c>
-      <c r="J12" t="s">
-        <v>236</v>
-      </c>
-      <c r="L12" s="51">
-        <f>$D$4</f>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="F13" t="s">
-        <v>514</v>
-      </c>
-      <c r="H13" s="51">
-        <f ca="1">$D$5</f>
-        <v>110000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>514</v>
-      </c>
-      <c r="L13" s="51">
-        <f>$D$5</f>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="F14" t="s">
-        <v>547</v>
-      </c>
-      <c r="H14" s="51">
-        <f ca="1">$D$6</f>
-        <v>80000</v>
-      </c>
-      <c r="J14" t="s">
-        <v>547</v>
-      </c>
-      <c r="L14" s="51">
-        <f>$D$6</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="F15" t="s">
-        <v>549</v>
-      </c>
-      <c r="G15" s="51">
-        <f ca="1">$D$10</f>
-        <v>60000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>549</v>
-      </c>
-      <c r="K15" s="51">
-        <f>$D$10</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" t="s">
-        <v>536</v>
-      </c>
-      <c r="L16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12">
-      <c r="F17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="J17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="65" t="s">
-        <v>538</v>
-      </c>
-      <c r="L17" s="65" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -8810,6 +10096,716 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF27A44B-FF3D-4E0A-A889-5E2982DA926A}">
+  <dimension ref="B3:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="51">
+        <v>70000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="51">
+        <v>110000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="130"/>
+      <c r="J5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="130"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" s="51">
+        <v>80000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="51">
+        <v>-8000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="J7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" s="51">
+        <v>42000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="51">
+        <v>18000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>553</v>
+      </c>
+      <c r="H9" s="51">
+        <f ca="1">$D$9</f>
+        <v>18000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>553</v>
+      </c>
+      <c r="L9" s="51">
+        <f>$D$9</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" t="s">
+        <v>570</v>
+      </c>
+      <c r="D10" s="51">
+        <v>60000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="51">
+        <f ca="1">$D$8</f>
+        <v>42000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>569</v>
+      </c>
+      <c r="K10" s="51">
+        <f>$D$8</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="D11" s="51"/>
+      <c r="F11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="51">
+        <f ca="1">$D$5</f>
+        <v>110000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>538</v>
+      </c>
+      <c r="K11" s="51">
+        <f>$D$5</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51">
+        <f ca="1">ABS($D$7)</f>
+        <v>8000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51">
+        <f>ABS($D$7)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="F13" t="s">
+        <v>568</v>
+      </c>
+      <c r="H13" s="51">
+        <f ca="1">$D$6</f>
+        <v>80000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>568</v>
+      </c>
+      <c r="L13" s="51">
+        <f>$D$6</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="F14" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="51">
+        <f ca="1">$D$10</f>
+        <v>60000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>570</v>
+      </c>
+      <c r="K14" s="51">
+        <f>$D$10</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="F15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="51">
+        <f ca="1">$D$4</f>
+        <v>70000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="51">
+        <f>$D$4</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>557</v>
+      </c>
+      <c r="L16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="65" t="s">
+        <v>559</v>
+      </c>
+      <c r="L17" s="65" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="K5:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE564453-0E87-413E-AAC6-90A268AABB9D}">
+  <dimension ref="B3:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4" s="51">
+        <v>600000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="51">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43831</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="51">
+        <f ca="1">$J$6</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D6" s="51">
+        <v>2000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>574</v>
+      </c>
+      <c r="J6" s="51">
+        <f ca="1">$D$4</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="51">
+        <f ca="1">$J$8</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="51">
+        <f ca="1">$D$5</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>573</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">$J$10</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="51">
+        <f ca="1">$D$6</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="F12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="F13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="F14" s="8">
+        <f ca="1">$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="G14" s="124">
+        <f ca="1">$I$5</f>
+        <v>600000</v>
+      </c>
+      <c r="H14" s="8">
+        <f ca="1">$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="I14" s="51">
+        <f ca="1">$J$10</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="F15" s="8">
+        <f ca="1">$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="G15" s="124">
+        <f ca="1">$I$7</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" s="8"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="8">
+        <f>$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="I18" s="51">
+        <f ca="1">$J$6</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" s="8"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="8">
+        <f ca="1">$F$5</f>
+        <v>43831</v>
+      </c>
+      <c r="G21" s="124">
+        <f ca="1">$I$9</f>
+        <v>2000</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="130"/>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="51">
+        <f ca="1">IF((SUM($G$14:$G$15)-SUM($I$14:$I$15))&gt;0,(SUM($G$14:$G$15)-SUM($I$14:$I$15)),"")</f>
+        <v>604000</v>
+      </c>
+      <c r="H28" s="51" t="str">
+        <f ca="1">IF(-(SUM($G$14:$G$15)-SUM($I$14:$I$15))&gt;0,-(SUM($G$14:$G$15)-SUM($I$14:$I$15)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G29" s="51">
+        <f ca="1">IF((SUM($G$21)-SUM($I$21))&gt;0,(SUM($G$21)-SUM($I$21)),"")</f>
+        <v>2000</v>
+      </c>
+      <c r="H29" s="51" t="str">
+        <f ca="1">IF(-(SUM($G$21)-SUM($I$21))&gt;0,-(SUM($G$21)-SUM($I$21)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G30" s="51" t="str">
+        <f ca="1">IF((SUM($G$18)-SUM($I$18))&gt;0,(SUM($G$18)-SUM($I$18)),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="51">
+        <f ca="1">IF(-(SUM($G$18)-SUM($I$18))&gt;0,-(SUM($G$18)-SUM($I$18)),"")</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="G31" t="s">
+        <v>557</v>
+      </c>
+      <c r="H31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>559</v>
+      </c>
+      <c r="H32" s="65" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G24:H26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D26538-6A70-4FD3-B5FE-30168C4C3BD9}">
+  <dimension ref="B3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="51">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="51">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="51">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="51">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="D9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E9" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="D10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="51">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43798,28 +45794,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="130" t="s">
+      <c r="AG7" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="130" t="s">
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="130" t="s">
+      <c r="AJ7" s="133"/>
+      <c r="AK7" s="133"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="131" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="130" t="s">
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="131"/>
-      <c r="AQ7" s="130" t="s">
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="131"/>
+      <c r="AR7" s="132"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -43920,10 +45916,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="130" t="s">
+      <c r="AE8" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="131"/>
+      <c r="AF8" s="132"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -47323,10 +49319,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="129" t="s">
+      <c r="J47" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="129"/>
+      <c r="K47" s="130"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -49488,14 +51484,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="129" t="s">
+      <c r="A114" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="129"/>
-      <c r="K114" s="129" t="s">
+      <c r="B114" s="130"/>
+      <c r="K114" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="129"/>
+      <c r="L114" s="130"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -49523,21 +51519,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="129" t="s">
+      <c r="H118" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="129"/>
+      <c r="I118" s="130"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="129" t="s">
+      <c r="Q118" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="129"/>
-      <c r="T118" s="129" t="s">
+      <c r="R118" s="130"/>
+      <c r="T118" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="129"/>
+      <c r="U118" s="130"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -50967,28 +52963,28 @@
       </c>
       <c r="AE7" s="15"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="130" t="s">
+      <c r="AG7" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="130" t="s">
+      <c r="AH7" s="132"/>
+      <c r="AI7" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="130" t="s">
+      <c r="AJ7" s="133"/>
+      <c r="AK7" s="133"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="131" t="s">
         <v>314</v>
       </c>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="130" t="s">
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="AP7" s="131"/>
-      <c r="AQ7" s="130" t="s">
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="AR7" s="131"/>
+      <c r="AR7" s="132"/>
       <c r="AT7" t="s">
         <v>314</v>
       </c>
@@ -51089,10 +53085,10 @@
       <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AE8" s="130" t="s">
+      <c r="AE8" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="AF8" s="131"/>
+      <c r="AF8" s="132"/>
       <c r="AG8" s="4" t="s">
         <v>17</v>
       </c>
@@ -54492,10 +56488,10 @@
       <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" s="129" t="s">
+      <c r="J47" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="K47" s="129"/>
+      <c r="K47" s="130"/>
     </row>
     <row r="48" spans="1:58">
       <c r="A48">
@@ -56657,14 +58653,14 @@
       <c r="H109" s="3"/>
     </row>
     <row r="114" spans="1:24">
-      <c r="A114" s="129" t="s">
+      <c r="A114" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="B114" s="129"/>
-      <c r="K114" s="129" t="s">
+      <c r="B114" s="130"/>
+      <c r="K114" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="L114" s="129"/>
+      <c r="L114" s="130"/>
     </row>
     <row r="116" spans="1:24">
       <c r="C116" t="s">
@@ -56692,21 +58688,21 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="129" t="s">
+      <c r="H118" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="129"/>
+      <c r="I118" s="130"/>
       <c r="M118" t="s">
         <v>158</v>
       </c>
-      <c r="Q118" s="129" t="s">
+      <c r="Q118" s="130" t="s">
         <v>325</v>
       </c>
-      <c r="R118" s="129"/>
-      <c r="T118" s="129" t="s">
+      <c r="R118" s="130"/>
+      <c r="T118" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="U118" s="129"/>
+      <c r="U118" s="130"/>
       <c r="W118" t="s">
         <v>329</v>
       </c>
@@ -58690,10 +60686,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="129"/>
+      <c r="I4" s="130"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -58816,10 +60812,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="129"/>
+      <c r="G4" s="130"/>
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -59438,10 +61434,10 @@
       <c r="R21" s="51"/>
     </row>
     <row r="22" spans="7:18">
-      <c r="G22" s="129" t="s">
+      <c r="G22" s="130" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="129"/>
+      <c r="H22" s="130"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -59645,10 +61641,10 @@
       <c r="R32" s="51"/>
     </row>
     <row r="33" spans="7:18">
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="130" t="s">
         <v>390</v>
       </c>
-      <c r="H33" s="129"/>
+      <c r="H33" s="130"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
@@ -60760,12 +62756,12 @@
       <c r="AN5" t="s">
         <v>421</v>
       </c>
-      <c r="AR5" s="129" t="s">
+      <c r="AR5" s="130" t="s">
         <v>420</v>
       </c>
-      <c r="AS5" s="129"/>
-      <c r="AT5" s="129"/>
-      <c r="AU5" s="129"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
     </row>
     <row r="6" spans="3:51">
       <c r="D6">
@@ -60793,16 +62789,16 @@
       <c r="V6" s="51">
         <v>30000</v>
       </c>
-      <c r="AG6" s="129" t="s">
+      <c r="AG6" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH6" s="129"/>
-      <c r="AR6" s="135" t="s">
+      <c r="AH6" s="130"/>
+      <c r="AR6" s="136" t="s">
         <v>424</v>
       </c>
-      <c r="AS6" s="135"/>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
+      <c r="AS6" s="136"/>
+      <c r="AT6" s="136"/>
+      <c r="AU6" s="136"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
@@ -61004,10 +63000,10 @@
       <c r="M11" s="51">
         <v>8000</v>
       </c>
-      <c r="AG11" s="129" t="s">
+      <c r="AG11" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH11" s="129"/>
+      <c r="AH11" s="130"/>
       <c r="AT11" s="17"/>
       <c r="AU11" s="28"/>
     </row>
@@ -61126,10 +63122,10 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="AG16" s="129" t="s">
+      <c r="AG16" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH16" s="129"/>
+      <c r="AH16" s="130"/>
     </row>
     <row r="17" spans="4:40">
       <c r="D17" t="s">
@@ -61204,29 +63200,29 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="133" t="s">
+      <c r="J20" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="132" t="s">
+      <c r="K20" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132" t="s">
+      <c r="L20" s="132"/>
+      <c r="M20" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="N20" s="131"/>
-      <c r="O20" s="132" t="s">
+      <c r="N20" s="132"/>
+      <c r="O20" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="132" t="s">
+      <c r="P20" s="132"/>
+      <c r="Q20" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="R20" s="131"/>
-      <c r="S20" s="132" t="s">
+      <c r="R20" s="132"/>
+      <c r="S20" s="133" t="s">
         <v>417</v>
       </c>
-      <c r="T20" s="131"/>
+      <c r="T20" s="132"/>
       <c r="AG20" t="s">
         <v>427</v>
       </c>
@@ -61247,7 +63243,7 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="134"/>
+      <c r="J21" s="135"/>
       <c r="K21" s="48" t="s">
         <v>17</v>
       </c>
@@ -61278,10 +63274,10 @@
       <c r="T21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AG21" s="129" t="s">
+      <c r="AG21" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH21" s="129"/>
+      <c r="AH21" s="130"/>
     </row>
     <row r="22" spans="4:40">
       <c r="F22">
@@ -61453,10 +63449,10 @@
       <c r="R26" s="48"/>
       <c r="S26" s="11"/>
       <c r="T26" s="48"/>
-      <c r="AG26" s="129" t="s">
+      <c r="AG26" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH26" s="129"/>
+      <c r="AH26" s="130"/>
     </row>
     <row r="27" spans="4:40">
       <c r="D27">
@@ -61718,16 +63714,16 @@
       </c>
     </row>
     <row r="5" spans="3:40">
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="130" t="s">
         <v>420</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
       <c r="AG5" t="s">
         <v>29</v>
       </c>
@@ -61736,20 +63732,20 @@
       </c>
     </row>
     <row r="6" spans="3:40">
-      <c r="C6" s="135">
+      <c r="C6" s="136">
         <v>44043</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="AG6" s="129" t="s">
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="AG6" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH6" s="129"/>
+      <c r="AH6" s="130"/>
     </row>
     <row r="7" spans="3:40">
       <c r="C7" t="s">
@@ -61885,10 +63881,10 @@
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
-      <c r="AG13" s="129" t="s">
+      <c r="AG13" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH13" s="129"/>
+      <c r="AH13" s="130"/>
     </row>
     <row r="14" spans="3:40">
       <c r="C14" t="s">
@@ -61952,10 +63948,10 @@
       </c>
     </row>
     <row r="18" spans="33:40">
-      <c r="AG18" s="129" t="s">
+      <c r="AG18" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH18" s="129"/>
+      <c r="AH18" s="130"/>
     </row>
     <row r="19" spans="33:40">
       <c r="AG19" t="s">
@@ -62003,10 +63999,10 @@
       </c>
     </row>
     <row r="23" spans="33:40">
-      <c r="AG23" s="129" t="s">
+      <c r="AG23" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH23" s="129"/>
+      <c r="AH23" s="130"/>
     </row>
     <row r="24" spans="33:40">
       <c r="AG24" t="s">
@@ -62054,10 +64050,10 @@
       </c>
     </row>
     <row r="28" spans="33:40">
-      <c r="AG28" s="129" t="s">
+      <c r="AG28" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="AH28" s="129"/>
+      <c r="AH28" s="130"/>
     </row>
     <row r="29" spans="33:40">
       <c r="AG29" t="s">
@@ -62132,6 +64128,2125 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AF2A35-C5E7-48C9-9DFB-FCAC786719C0}">
+  <dimension ref="B3:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="17">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="G6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="17">
+        <v>14000</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30">
+        <f ca="1">$D$5*$D$6</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="17">
+        <f ca="1">SUM(H8:H11)</f>
+        <v>16000</v>
+      </c>
+      <c r="I12" s="17">
+        <f ca="1">SUM(I8:I11)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="H13" s="17" t="str">
+        <f ca="1">IF(($H$12-$I$12)&gt;0,($H$12-$I$12),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="129">
+        <f ca="1">IF(-($H$12-$I$12)&gt;0,-($H$12-$I$12),"")</f>
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H4:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8499A94-46D3-4741-80C8-4033C7CFC37D}">
+  <dimension ref="B3:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="130"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="17">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="G6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="17">
+        <v>14000</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30">
+        <f ca="1">$D$5*$D$6</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="17">
+        <f ca="1">SUM(H8:H11)</f>
+        <v>16000</v>
+      </c>
+      <c r="I12" s="17">
+        <f ca="1">SUM(I8:I11)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="H13" s="17" t="str">
+        <f ca="1">IF(($H$12-$I$12)&gt;0,($H$12-$I$12),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="129">
+        <f ca="1">IF(-($H$12-$I$12)&gt;0,-($H$12-$I$12),"")</f>
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H4:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E03B8D-8ED8-4791-8F71-0136E8F4672A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AD9DD2-D7EB-4B11-8C7B-9CCF394BA3FA}">
+  <dimension ref="B2:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="F4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="51">
+        <v>385000</v>
+      </c>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="H5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="F10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" s="30">
+        <v>390000</v>
+      </c>
+      <c r="I10" s="30">
+        <v>9610000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5417D0-3799-4DE4-B329-80B37D79691B}">
+  <dimension ref="B3:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="51">
+        <v>120000</v>
+      </c>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="F6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="F7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="51">
+        <v>800000</v>
+      </c>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120">
+        <f ca="1">$H$5*$D$4</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="F9" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="51">
+        <f ca="1">SUM(H$5:H$8)</f>
+        <v>920000</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">SUM(I$5:I$8)</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="G10" s="5"/>
+      <c r="H10" s="51" t="str">
+        <f ca="1">IF(-($H$9-$I$9)&gt;0, -($H$9-$I$9),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="51">
+        <f ca="1">IF(($H$9-$I$9)&gt;0, ($H$9-$I$9),"")</f>
+        <v>909000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="51" t="str">
+        <f ca="1">IF(H$10&lt;&gt;"",SUM(H$9:H$10),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="64">
+        <f ca="1">IF(I$10&lt;&gt;"",SUM(I$9:I$10),"")</f>
+        <v>920000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E97BBF-5288-465C-91F7-47739742C420}">
+  <dimension ref="B3:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>451</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="F5" s="8">
+        <v>43830</v>
+      </c>
+      <c r="G5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="51">
+        <v>26500</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="M5" s="8">
+        <v>43830</v>
+      </c>
+      <c r="N5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P5" s="51">
+        <v>26500</v>
+      </c>
+      <c r="Q5" s="51"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="H6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <v>26500</v>
+      </c>
+      <c r="O6" t="s">
+        <v>445</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="F7" s="8">
+        <v>44044</v>
+      </c>
+      <c r="G7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I7" s="51">
+        <v>27800</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="M7" s="8">
+        <v>44044</v>
+      </c>
+      <c r="N7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P7" s="51">
+        <v>27800</v>
+      </c>
+      <c r="Q7" s="51"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51">
+        <v>27800</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="F9" s="8">
+        <v>44107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="51">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="M9" s="8">
+        <v>44107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="51">
+        <v>2000</v>
+      </c>
+      <c r="Q9" s="51"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="H10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <v>2000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>445</v>
+      </c>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="F11" s="8">
+        <v>44196</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="51">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="M11" s="8">
+        <v>44196</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="51">
+        <v>2000</v>
+      </c>
+      <c r="Q11" s="51"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51">
+        <v>2000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="M13" s="8">
+        <v>44196</v>
+      </c>
+      <c r="N13" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="51">
+        <v>29800</v>
+      </c>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="O14" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q14" s="51">
+        <v>29800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D14B71-56AD-428D-B077-283687C4C6BC}">
+  <dimension ref="B3:J12"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="F5" s="8">
+        <v>43952</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="51">
+        <v>40000</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" s="8">
+        <v>44044</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="51">
+        <v>41200</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="F10" s="8">
+        <v>44075</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="51">
+        <v>8000</v>
+      </c>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="G11" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" s="51">
+        <v>33200</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>41200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC0340F-4732-49D4-9957-AD294CF70274}">
+  <dimension ref="B3:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="F5" s="8">
+        <v>43961</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="51">
+        <v>84000</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" s="8">
+        <v>43992</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="51">
+        <v>83609</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="51">
+        <v>741</v>
+      </c>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="H9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="F10" s="8"/>
+      <c r="H10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="F11" s="8">
+        <v>44053</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="51">
+        <v>85050</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51">
+        <v>85050</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="G13" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13" s="51">
+        <v>84000</v>
+      </c>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AC1EDD-A329-4F6D-AA60-BE231ED9C053}">
+  <dimension ref="B3:J46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="F5" s="8">
+        <v>43904</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="51">
+        <v>9000</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="H6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" s="8">
+        <v>43917</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="51">
+        <v>9000</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="F9" s="8">
+        <v>43922</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="51">
+        <v>5400</v>
+      </c>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="H10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="F11" s="8">
+        <v>43926</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="51">
+        <f ca="1">$J$13-$I$12</f>
+        <v>5292</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="G12" t="s">
+        <v>338</v>
+      </c>
+      <c r="I12" s="51">
+        <f ca="1">$J$13*0.02</f>
+        <v>108</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="F14" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="51">
+        <v>600</v>
+      </c>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="H15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="F16" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G16" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="51">
+        <f ca="1">$J$15*1/3</f>
+        <v>200</v>
+      </c>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="6:10">
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51">
+        <f ca="1">$I$16</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
+      <c r="F18" s="8">
+        <v>43946</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="51">
+        <f ca="1">$J$20-$I$19</f>
+        <v>388</v>
+      </c>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="6:10">
+      <c r="G19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I19" s="51">
+        <f ca="1">$J$20*0.03</f>
+        <v>12</v>
+      </c>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="6:10">
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51">
+        <f ca="1">$J$15-$J$17</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
+      <c r="F21" s="8">
+        <v>43954</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="51">
+        <v>330</v>
+      </c>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="6:10">
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10">
+      <c r="F23" s="8">
+        <v>43958</v>
+      </c>
+      <c r="G23" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" s="51">
+        <v>4200</v>
+      </c>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="6:10">
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51">
+        <f ca="1">$I$23*1/2</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51">
+        <f ca="1">$I$23-$J$24</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10">
+      <c r="F26" s="8">
+        <v>43960</v>
+      </c>
+      <c r="G26" t="s">
+        <v>445</v>
+      </c>
+      <c r="I26" s="51">
+        <v>300</v>
+      </c>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="6:10">
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10">
+      <c r="F28" s="8">
+        <v>43964</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="51">
+        <v>300</v>
+      </c>
+      <c r="J28" s="51"/>
+    </row>
+    <row r="29" spans="6:10">
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10">
+      <c r="F30" s="8">
+        <v>43977</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="51">
+        <f ca="1">$J$31+$J$32</f>
+        <v>9120</v>
+      </c>
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="6:10">
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="51">
+        <f ca="1">$J$6</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10">
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51">
+        <f ca="1">$J$31*0.08*2/12</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10">
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="9:10">
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+    </row>
+    <row r="39" spans="9:10">
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+    </row>
+    <row r="41" spans="9:10">
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="9:10">
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+    </row>
+    <row r="43" spans="9:10">
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+    </row>
+    <row r="44" spans="9:10">
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+    </row>
+    <row r="45" spans="9:10">
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+    </row>
+    <row r="46" spans="9:10">
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104BC4B3-78E1-45E2-8C47-5012C65BF7BE}">
+  <dimension ref="B3:S42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="Q4" t="s">
+        <v>457</v>
+      </c>
+      <c r="R4" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="130"/>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="F5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="51">
+        <v>360000</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="L5" t="s">
+        <v>459</v>
+      </c>
+      <c r="M5" s="124">
+        <f ca="1">$J$10-$I$8</f>
+        <v>260000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>458</v>
+      </c>
+      <c r="O5" s="51">
+        <f>$I$5-$J$6</f>
+        <v>349200</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="H6" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51">
+        <v>10800</v>
+      </c>
+      <c r="L6" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="124">
+        <f>588000/2</f>
+        <v>294000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>460</v>
+      </c>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51">
+        <f ca="1">$I$5-$J$6</f>
+        <v>349200</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="F8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="51">
+        <v>640000</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="L8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="51">
+        <f ca="1">IF((SUM($M$5:$M$6)-SUM($O$5:$O$6))&gt;0,(SUM($M$5:$M$6)-SUM($O$5:$O$6)),"")</f>
+        <v>204800</v>
+      </c>
+      <c r="S8" s="51" t="str">
+        <f ca="1">IF(-(SUM($M$5:$M$6)-SUM($O$5:$O$6))&gt;0,-(SUM($M$5:$M$6)-SUM($O$5:$O$6)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="51">
+        <f ca="1">$J$10-$I$8</f>
+        <v>260000</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="L9" t="s">
+        <v>458</v>
+      </c>
+      <c r="M9" s="124">
+        <v>360000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>459</v>
+      </c>
+      <c r="O9" s="51">
+        <f>$I$11*1/(1-0.02)</f>
+        <v>300000</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="51">
+        <f ca="1">IF((SUM($M$9:$M$11)-SUM($O$9:$O$11))&gt;0,(SUM($M$9:$M$11)-SUM($O$9:$O$11)),"")</f>
+        <v>390400</v>
+      </c>
+      <c r="S9" s="51" t="str">
+        <f ca="1">IF(-(SUM($M$9:$M$11)-SUM($O$9:$O$11))&gt;0,-(SUM($M$9:$M$11)-SUM($O$9:$O$11)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="H10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51">
+        <v>900000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>459</v>
+      </c>
+      <c r="M10" s="124">
+        <f>640000</f>
+        <v>640000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>459</v>
+      </c>
+      <c r="O10" s="51">
+        <f>588000/2</f>
+        <v>294000</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>289</v>
+      </c>
+      <c r="R10" s="51">
+        <f ca="1">IF((SUM($M$14:$M$15)-SUM($O$14:$O$15))&gt;0,(SUM($M$14:$M$15)-SUM($O$14:$O$15)),"")</f>
+        <v>31600</v>
+      </c>
+      <c r="S10" s="51" t="str">
+        <f ca="1">IF(-(SUM($M$14:$M$15)-SUM($O$14:$O$15))&gt;0,-(SUM($M$14:$M$15)-SUM($O$14:$O$15)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="F11" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="51">
+        <f ca="1">588000/2</f>
+        <v>294000</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="M11" s="5"/>
+      <c r="N11" t="s">
+        <v>461</v>
+      </c>
+      <c r="O11" s="51">
+        <v>15600</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>445</v>
+      </c>
+      <c r="R11" s="51" t="str">
+        <f ca="1">IF((SUM($M$18:$M$19)-SUM($O$18:$O$19))&gt;0,(SUM($M$18:$M$19)-SUM($O$18:$O$19)),"")</f>
+        <v/>
+      </c>
+      <c r="S11" s="51">
+        <f ca="1">IF(-(SUM($M$18:$M$19)-SUM($O$18:$O$19))&gt;0,-(SUM($M$18:$M$19)-SUM($O$18:$O$19)),"")</f>
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="G12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I12" s="51">
+        <f ca="1">$J$13-$I$11</f>
+        <v>6000</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="Q12" t="s">
+        <v>463</v>
+      </c>
+      <c r="R12" s="51" t="str">
+        <f ca="1">IF((SUM($M$22)-SUM($O$22))&gt;0,(SUM($M$22)-SUM($O$22)),"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="51">
+        <f ca="1">IF(-(SUM($M$22)-SUM($O$22))&gt;0,-(SUM($M$22)-SUM($O$22)),"")</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51">
+        <f ca="1">$I$11*1/(1-0.02)</f>
+        <v>300000</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="120" t="s">
+        <v>289</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="Q13" t="s">
+        <v>462</v>
+      </c>
+      <c r="R13" s="51">
+        <f ca="1">IF((SUM($M$25)-SUM($O$25))&gt;0,(SUM($M$25)-SUM($O$25)),"")</f>
+        <v>6000</v>
+      </c>
+      <c r="S13" s="51" t="str">
+        <f ca="1">IF(-(SUM($M$25)-SUM($O$25))&gt;0,-(SUM($M$25)-SUM($O$25)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="F14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="51">
+        <f>588000/2</f>
+        <v>294000</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="L14" t="s">
+        <v>459</v>
+      </c>
+      <c r="M14" s="124">
+        <v>16000</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="121">
+        <f ca="1">SUM(R$8:R$13)</f>
+        <v>632800</v>
+      </c>
+      <c r="S14" s="121">
+        <f ca="1">SUM(S$8:S$13)</f>
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51">
+        <f>588000/2</f>
+        <v>294000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>461</v>
+      </c>
+      <c r="M15" s="124">
+        <v>15600</v>
+      </c>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="F16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51">
+        <v>16000</v>
+      </c>
+      <c r="J16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="6:19">
+      <c r="G17" s="51"/>
+      <c r="H17" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51">
+        <v>16000</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="6:19">
+      <c r="F18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="51"/>
+      <c r="L18" t="s">
+        <v>459</v>
+      </c>
+      <c r="M18" s="124">
+        <v>2000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>458</v>
+      </c>
+      <c r="O18" s="51">
+        <v>10800</v>
+      </c>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+    </row>
+    <row r="19" spans="6:19">
+      <c r="H19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51">
+        <v>2000</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" t="s">
+        <v>459</v>
+      </c>
+      <c r="O19" s="51">
+        <v>16000</v>
+      </c>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="6:19">
+      <c r="F20" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" s="51">
+        <v>15600</v>
+      </c>
+      <c r="J20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="6:19">
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51">
+        <v>15600</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+    </row>
+    <row r="22" spans="6:19">
+      <c r="M22" s="5"/>
+      <c r="N22" t="s">
+        <v>459</v>
+      </c>
+      <c r="O22" s="51">
+        <v>2000</v>
+      </c>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="6:19">
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="6:19">
+      <c r="L24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="6:19">
+      <c r="L25" t="s">
+        <v>459</v>
+      </c>
+      <c r="M25" s="51">
+        <f>$J$13-$I$11</f>
+        <v>6000</v>
+      </c>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+    </row>
+    <row r="26" spans="6:19">
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="6:19">
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+    </row>
+    <row r="28" spans="6:19">
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+    </row>
+    <row r="29" spans="6:19">
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+    </row>
+    <row r="30" spans="6:19">
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+    </row>
+    <row r="31" spans="6:19">
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+    </row>
+    <row r="32" spans="6:19">
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+    </row>
+    <row r="33" spans="18:19">
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+    </row>
+    <row r="34" spans="18:19">
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+    </row>
+    <row r="35" spans="18:19">
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+    </row>
+    <row r="36" spans="18:19">
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+    </row>
+    <row r="37" spans="18:19">
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+    </row>
+    <row r="38" spans="18:19">
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+    </row>
+    <row r="39" spans="18:19">
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+    </row>
+    <row r="40" spans="18:19">
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+    </row>
+    <row r="41" spans="18:19">
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+    </row>
+    <row r="42" spans="18:19">
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R4:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9428B042-E599-4AD3-8150-2E3F592FD5F3}">
   <dimension ref="C2:N13"/>
   <sheetViews>
@@ -62158,22 +66273,22 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="F4" t="s">
         <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="J4" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="M4" t="s">
         <v>299</v>
       </c>
       <c r="N4" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="3:14">
@@ -62181,7 +66296,7 @@
         <v>45444</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="F5" s="51">
         <v>24000</v>
@@ -62193,7 +66308,7 @@
         <v>45444</v>
       </c>
       <c r="L5" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="M5" s="51">
         <v>24000</v>
@@ -62204,7 +66319,7 @@
     </row>
     <row r="6" spans="3:14">
       <c r="D6" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="E6" t="s">
         <v>348</v>
@@ -62216,7 +66331,7 @@
         <v>365720</v>
       </c>
       <c r="K6" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="L6" t="s">
         <v>348</v>
@@ -62278,7 +66393,7 @@
     </row>
     <row r="10" spans="3:14">
       <c r="L10" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="M10" s="64">
         <f>SUM(M5:M9)</f>
@@ -62291,7 +66406,7 @@
     </row>
     <row r="11" spans="3:14">
       <c r="L11" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="M11">
         <f>M10/N10</f>
@@ -62300,7 +66415,7 @@
     </row>
     <row r="12" spans="3:14">
       <c r="L12" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="N12" s="64">
         <f>N10-(N8+N9)</f>
@@ -62309,7 +66424,7 @@
     </row>
     <row r="13" spans="3:14">
       <c r="L13" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="M13" s="122">
         <f>$N12*$M11</f>
@@ -62321,7 +66436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BD5300-C713-43D5-9E3C-ADAE2D1014F0}">
   <dimension ref